--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R483"/>
+  <dimension ref="A1:R485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>470</v>
+        <v>340</v>
       </c>
       <c r="K291" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L291" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M291" t="n">
-        <v>7787</v>
+        <v>5721</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="Q291" t="n">
         <v>36</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="K292" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L292" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M292" t="n">
-        <v>15464</v>
+        <v>12619</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>5155</v>
+        <v>4206</v>
       </c>
       <c r="Q292" t="n">
         <v>3</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="K293" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L293" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M293" t="n">
-        <v>4283</v>
+        <v>7787</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>119</v>
+        <v>216</v>
       </c>
       <c r="Q293" t="n">
         <v>36</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="K294" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="L294" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M294" t="n">
-        <v>7721</v>
+        <v>15464</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>2574</v>
+        <v>5155</v>
       </c>
       <c r="Q294" t="n">
         <v>3</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>430</v>
+        <v>530</v>
       </c>
       <c r="K295" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L295" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M295" t="n">
-        <v>6000</v>
+        <v>4283</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="Q295" t="n">
         <v>36</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="K296" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L296" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M296" t="n">
-        <v>11500</v>
+        <v>7721</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>3833</v>
+        <v>2574</v>
       </c>
       <c r="Q296" t="n">
         <v>3</v>
@@ -21737,20 +21737,20 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K297" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L297" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M297" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q297" t="n">
         <v>36</v>
@@ -21809,20 +21809,20 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K298" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L298" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M298" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>3000</v>
+        <v>3833</v>
       </c>
       <c r="Q298" t="n">
         <v>3</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21881,20 +21881,20 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="K299" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L299" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M299" t="n">
-        <v>7644</v>
+        <v>5000</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>212</v>
+        <v>139</v>
       </c>
       <c r="Q299" t="n">
         <v>36</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21953,20 +21953,20 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>630</v>
+        <v>250</v>
       </c>
       <c r="K300" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L300" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M300" t="n">
-        <v>13270</v>
+        <v>9000</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>4423</v>
+        <v>3000</v>
       </c>
       <c r="Q300" t="n">
         <v>3</v>
@@ -22025,20 +22025,20 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K301" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L301" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M301" t="n">
-        <v>6000</v>
+        <v>7644</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="Q301" t="n">
         <v>36</v>
@@ -22097,20 +22097,20 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>150</v>
+        <v>630</v>
       </c>
       <c r="K302" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L302" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M302" t="n">
-        <v>12000</v>
+        <v>13270</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>4000</v>
+        <v>4423</v>
       </c>
       <c r="Q302" t="n">
         <v>3</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22169,20 +22169,20 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="K303" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L303" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M303" t="n">
-        <v>4716</v>
+        <v>6000</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="Q303" t="n">
         <v>36</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22241,20 +22241,20 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>370</v>
+        <v>150</v>
       </c>
       <c r="K304" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L304" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M304" t="n">
-        <v>7405</v>
+        <v>12000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>2468</v>
+        <v>4000</v>
       </c>
       <c r="Q304" t="n">
         <v>3</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,7 +22317,7 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>780</v>
+        <v>580</v>
       </c>
       <c r="K305" t="n">
         <v>4500</v>
@@ -22326,7 +22326,7 @@
         <v>5000</v>
       </c>
       <c r="M305" t="n">
-        <v>4712</v>
+        <v>4716</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>520</v>
+        <v>370</v>
       </c>
       <c r="K306" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L306" t="n">
         <v>8000</v>
       </c>
       <c r="M306" t="n">
-        <v>7712</v>
+        <v>7405</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>2571</v>
+        <v>2468</v>
       </c>
       <c r="Q306" t="n">
         <v>3</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>440</v>
+        <v>780</v>
       </c>
       <c r="K307" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L307" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M307" t="n">
-        <v>7216</v>
+        <v>4712</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="Q307" t="n">
         <v>36</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K308" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="L308" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M308" t="n">
-        <v>14441</v>
+        <v>7712</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>4814</v>
+        <v>2571</v>
       </c>
       <c r="Q308" t="n">
         <v>3</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>490</v>
+        <v>440</v>
       </c>
       <c r="K309" t="n">
         <v>7000</v>
       </c>
       <c r="L309" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M309" t="n">
-        <v>7673</v>
+        <v>7216</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="Q309" t="n">
         <v>36</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>590</v>
+        <v>340</v>
       </c>
       <c r="K310" t="n">
         <v>14000</v>
@@ -22686,7 +22686,7 @@
         <v>15000</v>
       </c>
       <c r="M310" t="n">
-        <v>14712</v>
+        <v>14441</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>4904</v>
+        <v>4814</v>
       </c>
       <c r="Q310" t="n">
         <v>3</v>
@@ -22745,20 +22745,20 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>180</v>
+        <v>490</v>
       </c>
       <c r="K311" t="n">
         <v>7000</v>
       </c>
       <c r="L311" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M311" t="n">
-        <v>7000</v>
+        <v>7673</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="Q311" t="n">
         <v>36</v>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>130</v>
+        <v>590</v>
       </c>
       <c r="K312" t="n">
         <v>14000</v>
       </c>
       <c r="L312" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M312" t="n">
-        <v>14000</v>
+        <v>14712</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>4667</v>
+        <v>4904</v>
       </c>
       <c r="Q312" t="n">
         <v>3</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22889,20 +22889,20 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>590</v>
+        <v>180</v>
       </c>
       <c r="K313" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L313" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M313" t="n">
-        <v>4186</v>
+        <v>7000</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="Q313" t="n">
         <v>36</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22961,20 +22961,20 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>450</v>
+        <v>130</v>
       </c>
       <c r="K314" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L314" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="M314" t="n">
-        <v>7289</v>
+        <v>14000</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>2430</v>
+        <v>4667</v>
       </c>
       <c r="Q314" t="n">
         <v>3</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,7 +23037,7 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>670</v>
+        <v>590</v>
       </c>
       <c r="K315" t="n">
         <v>4000</v>
@@ -23046,7 +23046,7 @@
         <v>4500</v>
       </c>
       <c r="M315" t="n">
-        <v>4209</v>
+        <v>4186</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q315" t="n">
         <v>36</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23115,14 +23115,14 @@
         <v>7000</v>
       </c>
       <c r="L316" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M316" t="n">
-        <v>7356</v>
+        <v>7289</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/docena de paquetes</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23131,10 +23131,10 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>613</v>
+        <v>2430</v>
       </c>
       <c r="Q316" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23181,32 +23181,32 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>130</v>
+        <v>670</v>
       </c>
       <c r="K317" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L317" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="M317" t="n">
-        <v>12385</v>
+        <v>4209</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/docena de paquetes</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>1032</v>
+        <v>117</v>
       </c>
       <c r="Q317" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23253,20 +23253,20 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="K318" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L318" t="n">
         <v>8000</v>
       </c>
       <c r="M318" t="n">
-        <v>8000</v>
+        <v>7356</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de paquetes</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>222</v>
+        <v>613</v>
       </c>
       <c r="Q318" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,32 +23325,32 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>320</v>
+        <v>130</v>
       </c>
       <c r="K319" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L319" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M319" t="n">
-        <v>14000</v>
+        <v>12385</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/docena de paquetes</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>4667</v>
+        <v>1032</v>
       </c>
       <c r="Q319" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23393,20 +23393,20 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="K320" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L320" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M320" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q320" t="n">
         <v>36</v>
@@ -23465,20 +23465,20 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="K321" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L321" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M321" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>4000</v>
+        <v>4667</v>
       </c>
       <c r="Q321" t="n">
         <v>3</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23537,20 +23537,20 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>620</v>
+        <v>200</v>
       </c>
       <c r="K322" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L322" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M322" t="n">
-        <v>4218</v>
+        <v>7000</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="Q322" t="n">
         <v>36</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23609,20 +23609,20 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="K323" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L323" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M323" t="n">
-        <v>7531</v>
+        <v>12000</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>2510</v>
+        <v>4000</v>
       </c>
       <c r="Q323" t="n">
         <v>3</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>480</v>
+        <v>620</v>
       </c>
       <c r="K324" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L324" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M324" t="n">
-        <v>6208</v>
+        <v>4218</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="Q324" t="n">
         <v>36</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="K325" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L325" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M325" t="n">
-        <v>12000</v>
+        <v>7531</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>4000</v>
+        <v>2510</v>
       </c>
       <c r="Q325" t="n">
         <v>3</v>
@@ -23825,24 +23825,24 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>60</v>
+        <v>480</v>
       </c>
       <c r="K326" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L326" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M326" t="n">
-        <v>10000</v>
+        <v>6208</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -23851,10 +23851,10 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>3333</v>
+        <v>172</v>
       </c>
       <c r="Q326" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23901,32 +23901,32 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>570</v>
+        <v>220</v>
       </c>
       <c r="K327" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L327" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M327" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P327" t="n">
         <v>4000</v>
       </c>
-      <c r="L327" t="n">
-        <v>4500</v>
-      </c>
-      <c r="M327" t="n">
-        <v>4193</v>
-      </c>
-      <c r="N327" t="inlineStr">
-        <is>
-          <t>$/caja 36 atados</t>
-        </is>
-      </c>
-      <c r="O327" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P327" t="n">
-        <v>116</v>
-      </c>
       <c r="Q327" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23969,20 +23969,20 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>470</v>
+        <v>60</v>
       </c>
       <c r="K328" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L328" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M328" t="n">
-        <v>7702</v>
+        <v>10000</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>2567</v>
+        <v>3333</v>
       </c>
       <c r="Q328" t="n">
         <v>3</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>440</v>
+        <v>570</v>
       </c>
       <c r="K329" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L329" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M329" t="n">
-        <v>7795</v>
+        <v>4193</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="Q329" t="n">
         <v>36</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="K330" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="L330" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M330" t="n">
-        <v>17422</v>
+        <v>7702</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>5807</v>
+        <v>2567</v>
       </c>
       <c r="Q330" t="n">
         <v>3</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>230</v>
+        <v>440</v>
       </c>
       <c r="K331" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L331" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M331" t="n">
-        <v>10000</v>
+        <v>7795</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24207,11 +24207,11 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P331" t="n">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="Q331" t="n">
         <v>36</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="K332" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L332" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M332" t="n">
-        <v>23122</v>
+        <v>17422</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>7707</v>
+        <v>5807</v>
       </c>
       <c r="Q332" t="n">
         <v>3</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>440</v>
+        <v>230</v>
       </c>
       <c r="K333" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L333" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M333" t="n">
-        <v>7591</v>
+        <v>10000</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24351,11 +24351,11 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P333" t="n">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="Q333" t="n">
         <v>36</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="K334" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="L334" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M334" t="n">
-        <v>14611</v>
+        <v>23122</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>4870</v>
+        <v>7707</v>
       </c>
       <c r="Q334" t="n">
         <v>3</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24477,7 +24477,7 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K335" t="n">
         <v>7000</v>
@@ -24486,7 +24486,7 @@
         <v>8000</v>
       </c>
       <c r="M335" t="n">
-        <v>7433</v>
+        <v>7591</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q335" t="n">
         <v>36</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="K336" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L336" t="n">
         <v>15000</v>
       </c>
-      <c r="L336" t="n">
-        <v>16000</v>
-      </c>
       <c r="M336" t="n">
-        <v>15571</v>
+        <v>14611</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>5190</v>
+        <v>4870</v>
       </c>
       <c r="Q336" t="n">
         <v>3</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K337" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L337" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M337" t="n">
-        <v>5760</v>
+        <v>7433</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="Q337" t="n">
         <v>36</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="K338" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L338" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M338" t="n">
-        <v>11125</v>
+        <v>15571</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>3708</v>
+        <v>5190</v>
       </c>
       <c r="Q338" t="n">
         <v>3</v>
@@ -24765,32 +24765,32 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>90</v>
+        <v>520</v>
       </c>
       <c r="K339" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="L339" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M339" t="n">
-        <v>17333</v>
+        <v>5760</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P339" t="n">
-        <v>5778</v>
+        <v>160</v>
       </c>
       <c r="Q339" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24840,17 +24840,17 @@
         <v>320</v>
       </c>
       <c r="K340" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L340" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M340" t="n">
-        <v>4797</v>
+        <v>11125</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -24859,10 +24859,10 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>133</v>
+        <v>3708</v>
       </c>
       <c r="Q340" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="K341" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L341" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M341" t="n">
-        <v>10000</v>
+        <v>17333</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24927,11 +24927,11 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P341" t="n">
-        <v>3333</v>
+        <v>5778</v>
       </c>
       <c r="Q341" t="n">
         <v>3</v>
@@ -24977,24 +24977,24 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="K342" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L342" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M342" t="n">
-        <v>8000</v>
+        <v>4797</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -25003,10 +25003,10 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>2667</v>
+        <v>133</v>
       </c>
       <c r="Q342" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R342" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25053,20 +25053,20 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>550</v>
+        <v>170</v>
       </c>
       <c r="K343" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L343" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M343" t="n">
-        <v>5764</v>
+        <v>10000</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -25075,10 +25075,10 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>160</v>
+        <v>3333</v>
       </c>
       <c r="Q343" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25121,20 +25121,20 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>390</v>
+        <v>60</v>
       </c>
       <c r="K344" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L344" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M344" t="n">
-        <v>9436</v>
+        <v>8000</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>3145</v>
+        <v>2667</v>
       </c>
       <c r="Q344" t="n">
         <v>3</v>
@@ -25197,32 +25197,32 @@
         </is>
       </c>
       <c r="J345" t="n">
+        <v>550</v>
+      </c>
+      <c r="K345" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L345" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M345" t="n">
+        <v>5764</v>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P345" t="n">
         <v>160</v>
       </c>
-      <c r="K345" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L345" t="n">
-        <v>16000</v>
-      </c>
-      <c r="M345" t="n">
-        <v>15438</v>
-      </c>
-      <c r="N345" t="inlineStr">
-        <is>
-          <t>$/docena de atados</t>
-        </is>
-      </c>
-      <c r="O345" t="inlineStr">
-        <is>
-          <t>Región de Valparaíso</t>
-        </is>
-      </c>
-      <c r="P345" t="n">
-        <v>5146</v>
-      </c>
       <c r="Q345" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25269,20 +25269,20 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>320</v>
+        <v>390</v>
       </c>
       <c r="K346" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L346" t="n">
         <v>10000</v>
       </c>
-      <c r="L346" t="n">
-        <v>11000</v>
-      </c>
       <c r="M346" t="n">
-        <v>10406</v>
+        <v>9436</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
@@ -25291,10 +25291,10 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>289</v>
+        <v>3145</v>
       </c>
       <c r="Q346" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R346" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K347" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L347" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M347" t="n">
-        <v>19419</v>
+        <v>15438</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25359,11 +25359,11 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P347" t="n">
-        <v>6473</v>
+        <v>5146</v>
       </c>
       <c r="Q347" t="n">
         <v>3</v>
@@ -25409,20 +25409,20 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J348" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="K348" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L348" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M348" t="n">
-        <v>8000</v>
+        <v>10406</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="Q348" t="n">
         <v>36</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25485,20 +25485,20 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="K349" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="L349" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M349" t="n">
-        <v>9413</v>
+        <v>19419</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -25507,10 +25507,10 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>261</v>
+        <v>6473</v>
       </c>
       <c r="Q349" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R349" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25553,24 +25553,24 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J350" t="n">
-        <v>390</v>
+        <v>150</v>
       </c>
       <c r="K350" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L350" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="M350" t="n">
-        <v>21231</v>
+        <v>8000</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
@@ -25579,10 +25579,10 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>7077</v>
+        <v>222</v>
       </c>
       <c r="Q350" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R350" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>630</v>
+        <v>460</v>
       </c>
       <c r="K351" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L351" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M351" t="n">
-        <v>7714</v>
+        <v>9413</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="Q351" t="n">
         <v>36</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>450</v>
+        <v>390</v>
       </c>
       <c r="K352" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L352" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M352" t="n">
-        <v>15422</v>
+        <v>21231</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>5141</v>
+        <v>7077</v>
       </c>
       <c r="Q352" t="n">
         <v>3</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44245</v>
+        <v>44420</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>250</v>
+        <v>630</v>
       </c>
       <c r="K353" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L353" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M353" t="n">
-        <v>7000</v>
+        <v>7714</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25791,11 +25791,11 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P353" t="n">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="Q353" t="n">
         <v>36</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44245</v>
+        <v>44420</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25845,20 +25845,20 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="K354" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L354" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M354" t="n">
-        <v>6707</v>
+        <v>15422</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
@@ -25867,10 +25867,10 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>186</v>
+        <v>5141</v>
       </c>
       <c r="Q354" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R354" t="inlineStr">
         <is>
@@ -25917,20 +25917,20 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K355" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L355" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M355" t="n">
-        <v>12464</v>
+        <v>7000</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
@@ -25939,10 +25939,10 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>4155</v>
+        <v>194</v>
       </c>
       <c r="Q355" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R355" t="inlineStr">
         <is>
@@ -25989,20 +25989,20 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>320</v>
+        <v>410</v>
       </c>
       <c r="K356" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L356" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M356" t="n">
-        <v>12562</v>
+        <v>6707</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
@@ -26011,10 +26011,10 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>4187</v>
+        <v>186</v>
       </c>
       <c r="Q356" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R356" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26061,32 +26061,32 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>530</v>
+        <v>280</v>
       </c>
       <c r="K357" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L357" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M357" t="n">
-        <v>6000</v>
+        <v>12464</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P357" t="n">
-        <v>167</v>
+        <v>4155</v>
       </c>
       <c r="Q357" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R357" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>710</v>
+        <v>320</v>
       </c>
       <c r="K358" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L358" t="n">
         <v>13000</v>
       </c>
       <c r="M358" t="n">
-        <v>11514</v>
+        <v>12562</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>3838</v>
+        <v>4187</v>
       </c>
       <c r="Q358" t="n">
         <v>3</v>
@@ -26201,20 +26201,20 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J359" t="n">
-        <v>120</v>
+        <v>530</v>
       </c>
       <c r="K359" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L359" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M359" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q359" t="n">
         <v>36</v>
@@ -26273,20 +26273,20 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>150</v>
+        <v>710</v>
       </c>
       <c r="K360" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L360" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M360" t="n">
-        <v>9000</v>
+        <v>11514</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>3000</v>
+        <v>3838</v>
       </c>
       <c r="Q360" t="n">
         <v>3</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26345,20 +26345,20 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J361" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K361" t="n">
         <v>5000</v>
       </c>
       <c r="L361" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M361" t="n">
-        <v>5700</v>
+        <v>5000</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="Q361" t="n">
         <v>36</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26417,20 +26417,20 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J362" t="n">
-        <v>470</v>
+        <v>150</v>
       </c>
       <c r="K362" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L362" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M362" t="n">
-        <v>10532</v>
+        <v>9000</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>3511</v>
+        <v>3000</v>
       </c>
       <c r="Q362" t="n">
         <v>3</v>
@@ -26489,20 +26489,20 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="K363" t="n">
         <v>5000</v>
       </c>
       <c r="L363" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M363" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="Q363" t="n">
         <v>36</v>
@@ -26561,20 +26561,20 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J364" t="n">
-        <v>140</v>
+        <v>470</v>
       </c>
       <c r="K364" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L364" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M364" t="n">
-        <v>8000</v>
+        <v>10532</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>2667</v>
+        <v>3511</v>
       </c>
       <c r="Q364" t="n">
         <v>3</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26633,20 +26633,20 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>720</v>
+        <v>140</v>
       </c>
       <c r="K365" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L365" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M365" t="n">
-        <v>3729</v>
+        <v>5000</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="Q365" t="n">
         <v>36</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26705,20 +26705,20 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J366" t="n">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="K366" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L366" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M366" t="n">
-        <v>7197</v>
+        <v>8000</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>2399</v>
+        <v>2667</v>
       </c>
       <c r="Q366" t="n">
         <v>3</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>530</v>
+        <v>720</v>
       </c>
       <c r="K367" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L367" t="n">
         <v>4000</v>
       </c>
-      <c r="L367" t="n">
-        <v>4500</v>
-      </c>
       <c r="M367" t="n">
-        <v>4226</v>
+        <v>3729</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="Q367" t="n">
         <v>36</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="K368" t="n">
         <v>7000</v>
       </c>
       <c r="L368" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M368" t="n">
-        <v>7405</v>
+        <v>7197</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>2468</v>
+        <v>2399</v>
       </c>
       <c r="Q368" t="n">
         <v>3</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>370</v>
+        <v>530</v>
       </c>
       <c r="K369" t="n">
         <v>4000</v>
       </c>
       <c r="L369" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M369" t="n">
-        <v>4297</v>
+        <v>4226</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q369" t="n">
         <v>36</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>520</v>
+        <v>370</v>
       </c>
       <c r="K370" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L370" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M370" t="n">
-        <v>9240</v>
+        <v>7405</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>3080</v>
+        <v>2468</v>
       </c>
       <c r="Q370" t="n">
         <v>3</v>
@@ -27065,20 +27065,20 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>150</v>
+        <v>370</v>
       </c>
       <c r="K371" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L371" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M371" t="n">
-        <v>3500</v>
+        <v>4297</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="Q371" t="n">
         <v>36</v>
@@ -27137,20 +27137,20 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J372" t="n">
-        <v>120</v>
+        <v>520</v>
       </c>
       <c r="K372" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L372" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M372" t="n">
-        <v>8000</v>
+        <v>9240</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>2667</v>
+        <v>3080</v>
       </c>
       <c r="Q372" t="n">
         <v>3</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27209,20 +27209,20 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="K373" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L373" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M373" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>222</v>
+        <v>97</v>
       </c>
       <c r="Q373" t="n">
         <v>36</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27281,20 +27281,20 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="K374" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L374" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M374" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>5000</v>
+        <v>2667</v>
       </c>
       <c r="Q374" t="n">
         <v>3</v>
@@ -27353,20 +27353,20 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J375" t="n">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="K375" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L375" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M375" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q375" t="n">
         <v>36</v>
@@ -27425,20 +27425,20 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="K376" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L376" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M376" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>4333</v>
+        <v>5000</v>
       </c>
       <c r="Q376" t="n">
         <v>3</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27497,20 +27497,20 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>530</v>
+        <v>210</v>
       </c>
       <c r="K377" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L377" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M377" t="n">
-        <v>7811</v>
+        <v>7000</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="Q377" t="n">
         <v>36</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27569,20 +27569,20 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="K378" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L378" t="n">
         <v>13000</v>
       </c>
       <c r="M378" t="n">
-        <v>12455</v>
+        <v>13000</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>4152</v>
+        <v>4333</v>
       </c>
       <c r="Q378" t="n">
         <v>3</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>380</v>
+        <v>530</v>
       </c>
       <c r="K379" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L379" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M379" t="n">
-        <v>5000</v>
+        <v>7811</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="Q379" t="n">
         <v>36</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>490</v>
+        <v>330</v>
       </c>
       <c r="K380" t="n">
         <v>12000</v>
       </c>
       <c r="L380" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M380" t="n">
-        <v>12643</v>
+        <v>12455</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>4214</v>
+        <v>4152</v>
       </c>
       <c r="Q380" t="n">
         <v>3</v>
@@ -27785,20 +27785,20 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>140</v>
+        <v>380</v>
       </c>
       <c r="K381" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L381" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M381" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q381" t="n">
         <v>36</v>
@@ -27857,20 +27857,20 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>120</v>
+        <v>490</v>
       </c>
       <c r="K382" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L382" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M382" t="n">
-        <v>10000</v>
+        <v>12643</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>3333</v>
+        <v>4214</v>
       </c>
       <c r="Q382" t="n">
         <v>3</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27929,20 +27929,20 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="K383" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L383" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M383" t="n">
-        <v>4711</v>
+        <v>4000</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="Q383" t="n">
         <v>36</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -28001,20 +28001,20 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="K384" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L384" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M384" t="n">
-        <v>8406</v>
+        <v>10000</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>2802</v>
+        <v>3333</v>
       </c>
       <c r="Q384" t="n">
         <v>3</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="K385" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L385" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M385" t="n">
-        <v>6000</v>
+        <v>4711</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="Q385" t="n">
         <v>36</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>590</v>
+        <v>320</v>
       </c>
       <c r="K386" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L386" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M386" t="n">
-        <v>12288</v>
+        <v>8406</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>4096</v>
+        <v>2802</v>
       </c>
       <c r="Q386" t="n">
         <v>3</v>
@@ -28217,20 +28217,20 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>220</v>
+        <v>510</v>
       </c>
       <c r="K387" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L387" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M387" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q387" t="n">
         <v>36</v>
@@ -28289,20 +28289,20 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J388" t="n">
-        <v>120</v>
+        <v>590</v>
       </c>
       <c r="K388" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L388" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M388" t="n">
-        <v>10000</v>
+        <v>12288</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>3333</v>
+        <v>4096</v>
       </c>
       <c r="Q388" t="n">
         <v>3</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28361,20 +28361,20 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="K389" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L389" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M389" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q389" t="n">
         <v>36</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28433,20 +28433,20 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J390" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K390" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L390" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M390" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>4000</v>
+        <v>3333</v>
       </c>
       <c r="Q390" t="n">
         <v>3</v>
@@ -28505,20 +28505,20 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="K391" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L391" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M391" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q391" t="n">
         <v>36</v>
@@ -28577,20 +28577,20 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J392" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K392" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L392" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M392" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>3333</v>
+        <v>4000</v>
       </c>
       <c r="Q392" t="n">
         <v>3</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44433</v>
+        <v>44277</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28649,20 +28649,20 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J393" t="n">
-        <v>510</v>
+        <v>120</v>
       </c>
       <c r="K393" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L393" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M393" t="n">
-        <v>7716</v>
+        <v>5000</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="Q393" t="n">
         <v>36</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44433</v>
+        <v>44277</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28721,20 +28721,20 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J394" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="K394" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L394" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M394" t="n">
-        <v>14455</v>
+        <v>10000</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>4818</v>
+        <v>3333</v>
       </c>
       <c r="Q394" t="n">
         <v>3</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="K395" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L395" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M395" t="n">
-        <v>4218</v>
+        <v>7716</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>117</v>
+        <v>214</v>
       </c>
       <c r="Q395" t="n">
         <v>36</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K396" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L396" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M396" t="n">
-        <v>7441</v>
+        <v>14455</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>2480</v>
+        <v>4818</v>
       </c>
       <c r="Q396" t="n">
         <v>3</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>540</v>
+        <v>620</v>
       </c>
       <c r="K397" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L397" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M397" t="n">
-        <v>7704</v>
+        <v>4218</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="Q397" t="n">
         <v>36</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>760</v>
+        <v>340</v>
       </c>
       <c r="K398" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L398" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M398" t="n">
-        <v>15717</v>
+        <v>7441</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>5239</v>
+        <v>2480</v>
       </c>
       <c r="Q398" t="n">
         <v>3</v>
@@ -29081,20 +29081,20 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>250</v>
+        <v>540</v>
       </c>
       <c r="K399" t="n">
         <v>7000</v>
       </c>
       <c r="L399" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M399" t="n">
-        <v>7000</v>
+        <v>7704</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="Q399" t="n">
         <v>36</v>
@@ -29153,20 +29153,20 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>150</v>
+        <v>760</v>
       </c>
       <c r="K400" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L400" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M400" t="n">
-        <v>14000</v>
+        <v>15717</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>4667</v>
+        <v>5239</v>
       </c>
       <c r="Q400" t="n">
         <v>3</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29225,20 +29225,20 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="K401" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L401" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M401" t="n">
-        <v>4223</v>
+        <v>7000</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="Q401" t="n">
         <v>36</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29297,20 +29297,20 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>430</v>
+        <v>150</v>
       </c>
       <c r="K402" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L402" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M402" t="n">
-        <v>7698</v>
+        <v>14000</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>2566</v>
+        <v>4667</v>
       </c>
       <c r="Q402" t="n">
         <v>3</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29373,16 +29373,16 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>570</v>
+        <v>650</v>
       </c>
       <c r="K403" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L403" t="n">
         <v>4500</v>
       </c>
-      <c r="L403" t="n">
-        <v>5000</v>
-      </c>
       <c r="M403" t="n">
-        <v>4719</v>
+        <v>4223</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Q403" t="n">
         <v>36</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>260</v>
+        <v>430</v>
       </c>
       <c r="K404" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L404" t="n">
         <v>8000</v>
       </c>
       <c r="M404" t="n">
-        <v>7462</v>
+        <v>7698</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>2487</v>
+        <v>2566</v>
       </c>
       <c r="Q404" t="n">
         <v>3</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29517,7 +29517,7 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>620</v>
+        <v>570</v>
       </c>
       <c r="K405" t="n">
         <v>4500</v>
@@ -29526,7 +29526,7 @@
         <v>5000</v>
       </c>
       <c r="M405" t="n">
-        <v>4718</v>
+        <v>4719</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29589,7 +29589,7 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="K406" t="n">
         <v>7000</v>
@@ -29598,7 +29598,7 @@
         <v>8000</v>
       </c>
       <c r="M406" t="n">
-        <v>7405</v>
+        <v>7462</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>2468</v>
+        <v>2487</v>
       </c>
       <c r="Q406" t="n">
         <v>3</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>510</v>
+        <v>620</v>
       </c>
       <c r="K407" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L407" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M407" t="n">
-        <v>9569</v>
+        <v>4718</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="Q407" t="n">
         <v>36</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="K408" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="L408" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M408" t="n">
-        <v>16436</v>
+        <v>7405</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>5479</v>
+        <v>2468</v>
       </c>
       <c r="Q408" t="n">
         <v>3</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="K409" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L409" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M409" t="n">
-        <v>5811</v>
+        <v>9569</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>161</v>
+        <v>266</v>
       </c>
       <c r="Q409" t="n">
         <v>36</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>270</v>
+        <v>390</v>
       </c>
       <c r="K410" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L410" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M410" t="n">
-        <v>8556</v>
+        <v>16436</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>2852</v>
+        <v>5479</v>
       </c>
       <c r="Q410" t="n">
         <v>3</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29949,16 +29949,16 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="K411" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L411" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M411" t="n">
-        <v>4357</v>
+        <v>5811</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="Q411" t="n">
         <v>36</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>510</v>
+        <v>270</v>
       </c>
       <c r="K412" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L412" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M412" t="n">
-        <v>11225</v>
+        <v>8556</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>3742</v>
+        <v>2852</v>
       </c>
       <c r="Q412" t="n">
         <v>3</v>
@@ -30089,20 +30089,20 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="K413" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L413" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M413" t="n">
-        <v>3500</v>
+        <v>4357</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="Q413" t="n">
         <v>36</v>
@@ -30161,20 +30161,20 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>130</v>
+        <v>510</v>
       </c>
       <c r="K414" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L414" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M414" t="n">
-        <v>8000</v>
+        <v>11225</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>2667</v>
+        <v>3742</v>
       </c>
       <c r="Q414" t="n">
         <v>3</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30233,20 +30233,20 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K415" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L415" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M415" t="n">
-        <v>5657</v>
+        <v>3500</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="Q415" t="n">
         <v>36</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30305,20 +30305,20 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>560</v>
+        <v>130</v>
       </c>
       <c r="K416" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L416" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M416" t="n">
-        <v>11696</v>
+        <v>8000</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>3899</v>
+        <v>2667</v>
       </c>
       <c r="Q416" t="n">
         <v>3</v>
@@ -30377,20 +30377,20 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="K417" t="n">
         <v>5000</v>
       </c>
       <c r="L417" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M417" t="n">
-        <v>5000</v>
+        <v>5657</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q417" t="n">
         <v>36</v>
@@ -30449,20 +30449,20 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>100</v>
+        <v>560</v>
       </c>
       <c r="K418" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L418" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M418" t="n">
-        <v>10000</v>
+        <v>11696</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>3333</v>
+        <v>3899</v>
       </c>
       <c r="Q418" t="n">
         <v>3</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30521,36 +30521,36 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>470</v>
+        <v>110</v>
       </c>
       <c r="K419" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L419" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M419" t="n">
-        <v>8489</v>
+        <v>5000</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P419" t="n">
-        <v>2830</v>
+        <v>139</v>
       </c>
       <c r="Q419" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44301</v>
+        <v>44186</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30593,24 +30593,24 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>510</v>
+        <v>100</v>
       </c>
       <c r="K420" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L420" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M420" t="n">
-        <v>4725</v>
+        <v>10000</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -30619,10 +30619,10 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>131</v>
+        <v>3333</v>
       </c>
       <c r="Q420" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30669,7 +30669,7 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>320</v>
+        <v>470</v>
       </c>
       <c r="K421" t="n">
         <v>8000</v>
@@ -30678,7 +30678,7 @@
         <v>9000</v>
       </c>
       <c r="M421" t="n">
-        <v>8406</v>
+        <v>8489</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30687,11 +30687,11 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P421" t="n">
-        <v>2802</v>
+        <v>2830</v>
       </c>
       <c r="Q421" t="n">
         <v>3</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="K422" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L422" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M422" t="n">
-        <v>6587</v>
+        <v>4725</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="Q422" t="n">
         <v>36</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="K423" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L423" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M423" t="n">
-        <v>12559</v>
+        <v>8406</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>4186</v>
+        <v>2802</v>
       </c>
       <c r="Q423" t="n">
         <v>3</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="K424" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L424" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M424" t="n">
-        <v>4212</v>
+        <v>6587</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="Q424" t="n">
         <v>36</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="K425" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L425" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M425" t="n">
-        <v>7197</v>
+        <v>12559</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>2399</v>
+        <v>4186</v>
       </c>
       <c r="Q425" t="n">
         <v>3</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>430</v>
+        <v>520</v>
       </c>
       <c r="K426" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L426" t="n">
         <v>4500</v>
       </c>
-      <c r="L426" t="n">
-        <v>5000</v>
-      </c>
       <c r="M426" t="n">
-        <v>4721</v>
+        <v>4212</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Q426" t="n">
         <v>36</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="K427" t="n">
         <v>7000</v>
       </c>
       <c r="L427" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M427" t="n">
-        <v>7556</v>
+        <v>7197</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>2519</v>
+        <v>2399</v>
       </c>
       <c r="Q427" t="n">
         <v>3</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31176,13 +31176,13 @@
         <v>430</v>
       </c>
       <c r="K428" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L428" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M428" t="n">
-        <v>7000</v>
+        <v>4721</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="Q428" t="n">
         <v>36</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>510</v>
+        <v>270</v>
       </c>
       <c r="K429" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L429" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M429" t="n">
-        <v>14667</v>
+        <v>7556</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>4889</v>
+        <v>2519</v>
       </c>
       <c r="Q429" t="n">
         <v>3</v>
@@ -31313,20 +31313,20 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>150</v>
+        <v>430</v>
       </c>
       <c r="K430" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L430" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M430" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q430" t="n">
         <v>36</v>
@@ -31385,20 +31385,20 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>60</v>
+        <v>510</v>
       </c>
       <c r="K431" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L431" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M431" t="n">
-        <v>13000</v>
+        <v>14667</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>4333</v>
+        <v>4889</v>
       </c>
       <c r="Q431" t="n">
         <v>3</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31457,20 +31457,20 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="K432" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L432" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M432" t="n">
-        <v>6771</v>
+        <v>6000</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="Q432" t="n">
         <v>36</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31529,20 +31529,20 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>370</v>
+        <v>60</v>
       </c>
       <c r="K433" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L433" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M433" t="n">
-        <v>14405</v>
+        <v>13000</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>4802</v>
+        <v>4333</v>
       </c>
       <c r="Q433" t="n">
         <v>3</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31605,16 +31605,16 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="K434" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L434" t="n">
         <v>7000</v>
       </c>
       <c r="M434" t="n">
-        <v>7000</v>
+        <v>6771</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q434" t="n">
         <v>36</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>620</v>
+        <v>370</v>
       </c>
       <c r="K435" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L435" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M435" t="n">
-        <v>13274</v>
+        <v>14405</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>4425</v>
+        <v>4802</v>
       </c>
       <c r="Q435" t="n">
         <v>3</v>
@@ -31745,20 +31745,20 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="K436" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L436" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M436" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q436" t="n">
         <v>36</v>
@@ -31817,20 +31817,20 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>130</v>
+        <v>620</v>
       </c>
       <c r="K437" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L437" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M437" t="n">
-        <v>12000</v>
+        <v>13274</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>4000</v>
+        <v>4425</v>
       </c>
       <c r="Q437" t="n">
         <v>3</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31889,36 +31889,36 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="K438" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L438" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M438" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P438" t="n">
-        <v>5000</v>
+        <v>167</v>
       </c>
       <c r="Q438" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R438" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44270</v>
+        <v>44232</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31961,24 +31961,24 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>410</v>
+        <v>130</v>
       </c>
       <c r="K439" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L439" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M439" t="n">
-        <v>7793</v>
+        <v>12000</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
@@ -31987,10 +31987,10 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>216</v>
+        <v>4000</v>
       </c>
       <c r="Q439" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="K440" t="n">
-        <v>1600</v>
+        <v>15000</v>
       </c>
       <c r="L440" t="n">
         <v>15000</v>
       </c>
       <c r="M440" t="n">
-        <v>7082</v>
+        <v>15000</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32055,11 +32055,11 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="P440" t="n">
-        <v>2361</v>
+        <v>5000</v>
       </c>
       <c r="Q440" t="n">
         <v>3</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>690</v>
+        <v>410</v>
       </c>
       <c r="K441" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L441" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M441" t="n">
-        <v>4268</v>
+        <v>7793</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>119</v>
+        <v>216</v>
       </c>
       <c r="Q441" t="n">
         <v>36</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="K442" t="n">
-        <v>7000</v>
+        <v>1600</v>
       </c>
       <c r="L442" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M442" t="n">
-        <v>7422</v>
+        <v>7082</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>2474</v>
+        <v>2361</v>
       </c>
       <c r="Q442" t="n">
         <v>3</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32253,16 +32253,16 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>480</v>
+        <v>690</v>
       </c>
       <c r="K443" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L443" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M443" t="n">
-        <v>5781</v>
+        <v>4268</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="Q443" t="n">
         <v>36</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="K444" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L444" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M444" t="n">
-        <v>9824</v>
+        <v>7422</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>3275</v>
+        <v>2474</v>
       </c>
       <c r="Q444" t="n">
         <v>3</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32397,16 +32397,16 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="K445" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L445" t="n">
         <v>6000</v>
       </c>
       <c r="M445" t="n">
-        <v>6000</v>
+        <v>5781</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32415,11 +32415,11 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P445" t="n">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q445" t="n">
         <v>36</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32469,20 +32469,20 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="K446" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L446" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M446" t="n">
-        <v>6000</v>
+        <v>9824</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
@@ -32491,10 +32491,10 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>167</v>
+        <v>3275</v>
       </c>
       <c r="Q446" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R446" t="inlineStr">
         <is>
@@ -32541,20 +32541,20 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K447" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L447" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M447" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
@@ -32563,10 +32563,10 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q447" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R447" t="inlineStr">
         <is>
@@ -32613,20 +32613,20 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="K448" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L448" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M448" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
@@ -32635,10 +32635,10 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q448" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R448" t="inlineStr">
         <is>
@@ -32681,24 +32681,24 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K449" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L449" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M449" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
@@ -32707,10 +32707,10 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>139</v>
+        <v>4000</v>
       </c>
       <c r="Q449" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R449" t="inlineStr">
         <is>
@@ -32753,24 +32753,24 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="K450" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L450" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M450" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
@@ -32779,10 +32779,10 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>139</v>
+        <v>4000</v>
       </c>
       <c r="Q450" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R450" t="inlineStr">
         <is>
@@ -32829,20 +32829,20 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K451" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L451" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M451" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
@@ -32851,10 +32851,10 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>3333</v>
+        <v>139</v>
       </c>
       <c r="Q451" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R451" t="inlineStr">
         <is>
@@ -32901,20 +32901,20 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K452" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L452" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M452" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
@@ -32923,10 +32923,10 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>3333</v>
+        <v>139</v>
       </c>
       <c r="Q452" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R452" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32969,36 +32969,36 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="K453" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L453" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M453" t="n">
-        <v>5821</v>
+        <v>10000</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P453" t="n">
-        <v>162</v>
+        <v>3333</v>
       </c>
       <c r="Q453" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R453" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33041,20 +33041,20 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="K454" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L454" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M454" t="n">
-        <v>12710</v>
+        <v>10000</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>4237</v>
+        <v>3333</v>
       </c>
       <c r="Q454" t="n">
         <v>3</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>640</v>
+        <v>420</v>
       </c>
       <c r="K455" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L455" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M455" t="n">
-        <v>4203</v>
+        <v>5821</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="Q455" t="n">
         <v>36</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="K456" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L456" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M456" t="n">
-        <v>7289</v>
+        <v>12710</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>2430</v>
+        <v>4237</v>
       </c>
       <c r="Q456" t="n">
         <v>3</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>290</v>
+        <v>640</v>
       </c>
       <c r="K457" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L457" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M457" t="n">
-        <v>6000</v>
+        <v>4203</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q457" t="n">
         <v>36</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="K458" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L458" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M458" t="n">
-        <v>10000</v>
+        <v>7289</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33351,11 +33351,11 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P458" t="n">
-        <v>3333</v>
+        <v>2430</v>
       </c>
       <c r="Q458" t="n">
         <v>3</v>
@@ -33405,20 +33405,20 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="K459" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L459" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M459" t="n">
-        <v>9595</v>
+        <v>6000</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
@@ -33427,10 +33427,10 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>3198</v>
+        <v>167</v>
       </c>
       <c r="Q459" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R459" t="inlineStr">
         <is>
@@ -33473,36 +33473,36 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K460" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L460" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M460" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P460" t="n">
-        <v>139</v>
+        <v>3333</v>
       </c>
       <c r="Q460" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R460" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33549,20 +33549,20 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>570</v>
+        <v>370</v>
       </c>
       <c r="K461" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L461" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M461" t="n">
-        <v>7193</v>
+        <v>9595</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
@@ -33571,10 +33571,10 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>200</v>
+        <v>3198</v>
       </c>
       <c r="Q461" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R461" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33617,24 +33617,24 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>410</v>
+        <v>150</v>
       </c>
       <c r="K462" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L462" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M462" t="n">
-        <v>14415</v>
+        <v>5000</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O462" t="inlineStr">
@@ -33643,10 +33643,10 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>4805</v>
+        <v>139</v>
       </c>
       <c r="Q462" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R462" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>450</v>
+        <v>570</v>
       </c>
       <c r="K463" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L463" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M463" t="n">
-        <v>6000</v>
+        <v>7193</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="Q463" t="n">
         <v>36</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>760</v>
+        <v>410</v>
       </c>
       <c r="K464" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L464" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M464" t="n">
-        <v>10849</v>
+        <v>14415</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>3616</v>
+        <v>4805</v>
       </c>
       <c r="Q464" t="n">
         <v>3</v>
@@ -33833,20 +33833,20 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="K465" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L465" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M465" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q465" t="n">
         <v>36</v>
@@ -33905,20 +33905,20 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>120</v>
+        <v>760</v>
       </c>
       <c r="K466" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L466" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M466" t="n">
-        <v>9000</v>
+        <v>10849</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>3000</v>
+        <v>3616</v>
       </c>
       <c r="Q466" t="n">
         <v>3</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33977,11 +33977,11 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="K467" t="n">
         <v>5000</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34049,20 +34049,20 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="K468" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L468" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M468" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>3333</v>
+        <v>3000</v>
       </c>
       <c r="Q468" t="n">
         <v>3</v>
@@ -34121,20 +34121,20 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="K469" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L469" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M469" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="Q469" t="n">
         <v>36</v>
@@ -34193,20 +34193,20 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="K470" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L470" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M470" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>2667</v>
+        <v>3333</v>
       </c>
       <c r="Q470" t="n">
         <v>3</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34265,20 +34265,20 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>370</v>
+        <v>150</v>
       </c>
       <c r="K471" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L471" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M471" t="n">
-        <v>7797</v>
+        <v>4500</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="Q471" t="n">
         <v>36</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34337,20 +34337,20 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="K472" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L472" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M472" t="n">
-        <v>15429</v>
+        <v>8000</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>5143</v>
+        <v>2667</v>
       </c>
       <c r="Q472" t="n">
         <v>3</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>670</v>
+        <v>370</v>
       </c>
       <c r="K473" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L473" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M473" t="n">
-        <v>4716</v>
+        <v>7797</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="Q473" t="n">
         <v>36</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>370</v>
+        <v>210</v>
       </c>
       <c r="K474" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L474" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M474" t="n">
-        <v>7405</v>
+        <v>15429</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>2468</v>
+        <v>5143</v>
       </c>
       <c r="Q474" t="n">
         <v>3</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>450</v>
+        <v>670</v>
       </c>
       <c r="K475" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L475" t="n">
         <v>5000</v>
       </c>
-      <c r="L475" t="n">
-        <v>6000</v>
-      </c>
       <c r="M475" t="n">
-        <v>5622</v>
+        <v>4716</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="Q475" t="n">
         <v>36</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34629,16 +34629,16 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>620</v>
+        <v>370</v>
       </c>
       <c r="K476" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L476" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M476" t="n">
-        <v>9282</v>
+        <v>7405</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>3094</v>
+        <v>2468</v>
       </c>
       <c r="Q476" t="n">
         <v>3</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="K477" t="n">
         <v>5000</v>
       </c>
       <c r="L477" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M477" t="n">
-        <v>5000</v>
+        <v>5622</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="Q477" t="n">
         <v>36</v>
@@ -34769,20 +34769,20 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>150</v>
+        <v>620</v>
       </c>
       <c r="K478" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L478" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M478" t="n">
-        <v>8000</v>
+        <v>9282</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>2667</v>
+        <v>3094</v>
       </c>
       <c r="Q478" t="n">
         <v>3</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34841,20 +34841,20 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>530</v>
+        <v>140</v>
       </c>
       <c r="K479" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L479" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M479" t="n">
-        <v>9415</v>
+        <v>5000</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>262</v>
+        <v>139</v>
       </c>
       <c r="Q479" t="n">
         <v>36</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>420</v>
+        <v>150</v>
       </c>
       <c r="K480" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L480" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M480" t="n">
-        <v>19405</v>
+        <v>8000</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>6468</v>
+        <v>2667</v>
       </c>
       <c r="Q480" t="n">
         <v>3</v>
@@ -34985,20 +34985,20 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>150</v>
+        <v>530</v>
       </c>
       <c r="K481" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L481" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M481" t="n">
-        <v>8000</v>
+        <v>9415</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="Q481" t="n">
         <v>36</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35061,20 +35061,20 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>590</v>
+        <v>420</v>
       </c>
       <c r="K482" t="n">
-        <v>7500</v>
+        <v>19000</v>
       </c>
       <c r="L482" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M482" t="n">
-        <v>7686</v>
+        <v>19405</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
@@ -35083,10 +35083,10 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>214</v>
+        <v>6468</v>
       </c>
       <c r="Q482" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R482" t="inlineStr">
         <is>
@@ -35109,58 +35109,202 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E483" t="n">
+        <v>13</v>
+      </c>
+      <c r="F483" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J483" t="n">
+        <v>150</v>
+      </c>
+      <c r="K483" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L483" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M483" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N483" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O483" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P483" t="n">
+        <v>222</v>
+      </c>
+      <c r="Q483" t="n">
+        <v>36</v>
+      </c>
+      <c r="R483" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>6</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D484" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E483" t="n">
-        <v>13</v>
-      </c>
-      <c r="F483" t="n">
-        <v>100112040</v>
-      </c>
-      <c r="G483" t="inlineStr">
-        <is>
-          <t>Cilantro</t>
-        </is>
-      </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I483" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J483" t="n">
+      <c r="E484" t="n">
+        <v>13</v>
+      </c>
+      <c r="F484" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J484" t="n">
+        <v>590</v>
+      </c>
+      <c r="K484" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L484" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M484" t="n">
+        <v>7686</v>
+      </c>
+      <c r="N484" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O484" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P484" t="n">
+        <v>214</v>
+      </c>
+      <c r="Q484" t="n">
+        <v>36</v>
+      </c>
+      <c r="R484" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>6</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D485" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E485" t="n">
+        <v>13</v>
+      </c>
+      <c r="F485" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J485" t="n">
         <v>420</v>
       </c>
-      <c r="K483" t="n">
+      <c r="K485" t="n">
         <v>15000</v>
       </c>
-      <c r="L483" t="n">
+      <c r="L485" t="n">
         <v>16000</v>
       </c>
-      <c r="M483" t="n">
+      <c r="M485" t="n">
         <v>15357</v>
       </c>
-      <c r="N483" t="inlineStr">
+      <c r="N485" t="inlineStr">
         <is>
           <t>$/docena de atados</t>
         </is>
       </c>
-      <c r="O483" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P483" t="n">
+      <c r="O485" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P485" t="n">
         <v>5119</v>
       </c>
-      <c r="Q483" t="n">
+      <c r="Q485" t="n">
         <v>3</v>
       </c>
-      <c r="R483" t="inlineStr">
+      <c r="R485" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R496"/>
+  <dimension ref="A1:R498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="K292" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L292" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M292" t="n">
-        <v>7579</v>
+        <v>4717</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="Q292" t="n">
         <v>36</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="K293" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L293" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M293" t="n">
-        <v>14452</v>
+        <v>9692</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>4817</v>
+        <v>3231</v>
       </c>
       <c r="Q293" t="n">
         <v>3</v>
@@ -21525,32 +21525,32 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>110</v>
+        <v>570</v>
       </c>
       <c r="K294" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="L294" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M294" t="n">
-        <v>19091</v>
+        <v>7579</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>6364</v>
+        <v>211</v>
       </c>
       <c r="Q294" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21593,20 +21593,20 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="K295" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L295" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M295" t="n">
-        <v>12000</v>
+        <v>14452</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>4000</v>
+        <v>4817</v>
       </c>
       <c r="Q295" t="n">
         <v>3</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21669,32 +21669,32 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>520</v>
+        <v>110</v>
       </c>
       <c r="K296" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="L296" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="M296" t="n">
-        <v>5760</v>
+        <v>19091</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P296" t="n">
-        <v>160</v>
+        <v>6364</v>
       </c>
       <c r="Q296" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21737,20 +21737,20 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="K297" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L297" t="n">
         <v>12000</v>
       </c>
       <c r="M297" t="n">
-        <v>11125</v>
+        <v>12000</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>3708</v>
+        <v>4000</v>
       </c>
       <c r="Q297" t="n">
         <v>3</v>
@@ -21813,32 +21813,32 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>90</v>
+        <v>520</v>
       </c>
       <c r="K298" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="L298" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M298" t="n">
-        <v>17333</v>
+        <v>5760</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>5778</v>
+        <v>160</v>
       </c>
       <c r="Q298" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44259</v>
+        <v>44292</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,20 +21885,20 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="K299" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L299" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M299" t="n">
-        <v>8000</v>
+        <v>11125</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -21907,10 +21907,10 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>222</v>
+        <v>3708</v>
       </c>
       <c r="Q299" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44259</v>
+        <v>44292</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>310</v>
+        <v>90</v>
       </c>
       <c r="K300" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L300" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M300" t="n">
-        <v>14613</v>
+        <v>17333</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21975,11 +21975,11 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>4871</v>
+        <v>5778</v>
       </c>
       <c r="Q300" t="n">
         <v>3</v>
@@ -22025,20 +22025,20 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="K301" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L301" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M301" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="Q301" t="n">
         <v>36</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,20 +22101,20 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>530</v>
+        <v>310</v>
       </c>
       <c r="K302" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L302" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M302" t="n">
-        <v>5453</v>
+        <v>14613</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>151</v>
+        <v>4871</v>
       </c>
       <c r="Q302" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22169,24 +22169,24 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="K303" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L303" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M303" t="n">
-        <v>8571</v>
+        <v>7500</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -22195,10 +22195,10 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>2857</v>
+        <v>208</v>
       </c>
       <c r="Q303" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>330</v>
+        <v>530</v>
       </c>
       <c r="K304" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L304" t="n">
         <v>6000</v>
       </c>
       <c r="M304" t="n">
-        <v>6000</v>
+        <v>5453</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="Q304" t="n">
         <v>36</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="K305" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L305" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M305" t="n">
-        <v>12000</v>
+        <v>8571</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>4000</v>
+        <v>2857</v>
       </c>
       <c r="Q305" t="n">
         <v>3</v>
@@ -22385,20 +22385,20 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="K306" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L306" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M306" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q306" t="n">
         <v>36</v>
@@ -22457,20 +22457,20 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K307" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L307" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M307" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>3333</v>
+        <v>4000</v>
       </c>
       <c r="Q307" t="n">
         <v>3</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22529,20 +22529,20 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>470</v>
+        <v>120</v>
       </c>
       <c r="K308" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L308" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M308" t="n">
-        <v>7202</v>
+        <v>5000</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="Q308" t="n">
         <v>36</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22601,20 +22601,20 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="K309" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L309" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M309" t="n">
-        <v>14417</v>
+        <v>10000</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>4806</v>
+        <v>3333</v>
       </c>
       <c r="Q309" t="n">
         <v>3</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>320</v>
+        <v>470</v>
       </c>
       <c r="K310" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L310" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M310" t="n">
-        <v>6000</v>
+        <v>7202</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="Q310" t="n">
         <v>36</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="K311" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L311" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M311" t="n">
-        <v>12000</v>
+        <v>14417</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>4000</v>
+        <v>4806</v>
       </c>
       <c r="Q311" t="n">
         <v>3</v>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="K312" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L312" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M312" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q312" t="n">
         <v>36</v>
@@ -22889,20 +22889,20 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K313" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L313" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M313" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>3333</v>
+        <v>4000</v>
       </c>
       <c r="Q313" t="n">
         <v>3</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22961,20 +22961,20 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="K314" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L314" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M314" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22983,11 +22983,11 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q314" t="n">
         <v>36</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23033,24 +23033,24 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="K315" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L315" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M315" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>167</v>
+        <v>3333</v>
       </c>
       <c r="Q315" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23109,20 +23109,20 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K316" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L316" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M316" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23131,10 +23131,10 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q316" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23181,20 +23181,20 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="K317" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L317" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M317" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q317" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23249,24 +23249,24 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K318" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L318" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M318" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>139</v>
+        <v>4000</v>
       </c>
       <c r="Q318" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23321,24 +23321,24 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="K319" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L319" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M319" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -23347,10 +23347,10 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>139</v>
+        <v>4000</v>
       </c>
       <c r="Q319" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23397,20 +23397,20 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K320" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L320" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M320" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -23419,10 +23419,10 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>3333</v>
+        <v>139</v>
       </c>
       <c r="Q320" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23469,20 +23469,20 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K321" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L321" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M321" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23491,10 +23491,10 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>3333</v>
+        <v>139</v>
       </c>
       <c r="Q321" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44295</v>
+        <v>44217</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23537,36 +23537,36 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="K322" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L322" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M322" t="n">
-        <v>4733</v>
+        <v>10000</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>131</v>
+        <v>3333</v>
       </c>
       <c r="Q322" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44295</v>
+        <v>44217</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23609,20 +23609,20 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="K323" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L323" t="n">
         <v>10000</v>
       </c>
       <c r="M323" t="n">
-        <v>9591</v>
+        <v>10000</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>3197</v>
+        <v>3333</v>
       </c>
       <c r="Q323" t="n">
         <v>3</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44179</v>
+        <v>44295</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="K324" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L324" t="n">
         <v>5000</v>
       </c>
       <c r="M324" t="n">
-        <v>5000</v>
+        <v>4733</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Q324" t="n">
         <v>36</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44179</v>
+        <v>44295</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="K325" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L325" t="n">
         <v>10000</v>
       </c>
       <c r="M325" t="n">
-        <v>10000</v>
+        <v>9591</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>3333</v>
+        <v>3197</v>
       </c>
       <c r="Q325" t="n">
         <v>3</v>
@@ -23825,20 +23825,20 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="K326" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L326" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M326" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="Q326" t="n">
         <v>36</v>
@@ -23897,20 +23897,20 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="K327" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L327" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M327" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>2667</v>
+        <v>3333</v>
       </c>
       <c r="Q327" t="n">
         <v>3</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44362</v>
+        <v>44179</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23969,20 +23969,20 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>650</v>
+        <v>150</v>
       </c>
       <c r="K328" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L328" t="n">
         <v>4500</v>
       </c>
       <c r="M328" t="n">
-        <v>4208</v>
+        <v>4500</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Q328" t="n">
         <v>36</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44362</v>
+        <v>44179</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24041,20 +24041,20 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K329" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L329" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M329" t="n">
-        <v>7186</v>
+        <v>8000</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>2395</v>
+        <v>2667</v>
       </c>
       <c r="Q329" t="n">
         <v>3</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,32 +24117,32 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="K330" t="n">
-        <v>19000</v>
+        <v>4000</v>
       </c>
       <c r="L330" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="M330" t="n">
-        <v>19720</v>
+        <v>4208</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P330" t="n">
-        <v>6573</v>
+        <v>117</v>
       </c>
       <c r="Q330" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44309</v>
+        <v>44362</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,20 +24189,20 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>620</v>
+        <v>350</v>
       </c>
       <c r="K331" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L331" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M331" t="n">
-        <v>4218</v>
+        <v>7186</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>117</v>
+        <v>2395</v>
       </c>
       <c r="Q331" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K332" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L332" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M332" t="n">
-        <v>7441</v>
+        <v>19720</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24279,11 +24279,11 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P332" t="n">
-        <v>2480</v>
+        <v>6573</v>
       </c>
       <c r="Q332" t="n">
         <v>3</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>520</v>
+        <v>620</v>
       </c>
       <c r="K333" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L333" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M333" t="n">
-        <v>6740</v>
+        <v>4218</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c r="Q333" t="n">
         <v>36</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="K334" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="L334" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M334" t="n">
-        <v>13769</v>
+        <v>7441</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>4590</v>
+        <v>2480</v>
       </c>
       <c r="Q334" t="n">
         <v>3</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="K335" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L335" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M335" t="n">
-        <v>5622</v>
+        <v>6740</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="Q335" t="n">
         <v>36</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>620</v>
+        <v>390</v>
       </c>
       <c r="K336" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="L336" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M336" t="n">
-        <v>9282</v>
+        <v>13769</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>3094</v>
+        <v>4590</v>
       </c>
       <c r="Q336" t="n">
         <v>3</v>
@@ -24617,20 +24617,20 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="K337" t="n">
         <v>5000</v>
       </c>
       <c r="L337" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M337" t="n">
-        <v>5000</v>
+        <v>5622</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="Q337" t="n">
         <v>36</v>
@@ -24689,20 +24689,20 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>150</v>
+        <v>620</v>
       </c>
       <c r="K338" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L338" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M338" t="n">
-        <v>8000</v>
+        <v>9282</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>2667</v>
+        <v>3094</v>
       </c>
       <c r="Q338" t="n">
         <v>3</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24761,20 +24761,20 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>530</v>
+        <v>140</v>
       </c>
       <c r="K339" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L339" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M339" t="n">
-        <v>4217</v>
+        <v>5000</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="Q339" t="n">
         <v>36</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24833,20 +24833,20 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="K340" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L340" t="n">
         <v>8000</v>
       </c>
       <c r="M340" t="n">
-        <v>7429</v>
+        <v>8000</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>2476</v>
+        <v>2667</v>
       </c>
       <c r="Q340" t="n">
         <v>3</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>460</v>
+        <v>530</v>
       </c>
       <c r="K341" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L341" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M341" t="n">
-        <v>6587</v>
+        <v>4217</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="Q341" t="n">
         <v>36</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="K342" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L342" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M342" t="n">
-        <v>12559</v>
+        <v>7429</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>4186</v>
+        <v>2476</v>
       </c>
       <c r="Q342" t="n">
         <v>3</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="K343" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L343" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M343" t="n">
-        <v>8000</v>
+        <v>6587</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="Q343" t="n">
         <v>36</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="K344" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L344" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M344" t="n">
-        <v>14000</v>
+        <v>12559</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>4667</v>
+        <v>4186</v>
       </c>
       <c r="Q344" t="n">
         <v>3</v>
@@ -25193,20 +25193,20 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="K345" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L345" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M345" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q345" t="n">
         <v>36</v>
@@ -25265,20 +25265,20 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="K346" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L346" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M346" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>4000</v>
+        <v>4667</v>
       </c>
       <c r="Q346" t="n">
         <v>3</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25337,20 +25337,20 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>660</v>
+        <v>200</v>
       </c>
       <c r="K347" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L347" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M347" t="n">
-        <v>4220</v>
+        <v>7000</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="Q347" t="n">
         <v>36</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25409,20 +25409,20 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J348" t="n">
-        <v>370</v>
+        <v>150</v>
       </c>
       <c r="K348" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L348" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M348" t="n">
-        <v>7703</v>
+        <v>12000</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>2568</v>
+        <v>4000</v>
       </c>
       <c r="Q348" t="n">
         <v>3</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>530</v>
+        <v>660</v>
       </c>
       <c r="K349" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L349" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M349" t="n">
-        <v>6887</v>
+        <v>4220</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="Q349" t="n">
         <v>36</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>720</v>
+        <v>370</v>
       </c>
       <c r="K350" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L350" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M350" t="n">
-        <v>14069</v>
+        <v>7703</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>4690</v>
+        <v>2568</v>
       </c>
       <c r="Q350" t="n">
         <v>3</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="K351" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L351" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M351" t="n">
-        <v>4193</v>
+        <v>6887</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="Q351" t="n">
         <v>36</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>470</v>
+        <v>720</v>
       </c>
       <c r="K352" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="L352" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M352" t="n">
-        <v>7702</v>
+        <v>14069</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>2567</v>
+        <v>4690</v>
       </c>
       <c r="Q352" t="n">
         <v>3</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>280</v>
+        <v>570</v>
       </c>
       <c r="K353" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L353" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M353" t="n">
-        <v>6000</v>
+        <v>4193</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="Q353" t="n">
         <v>36</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>180</v>
+        <v>470</v>
       </c>
       <c r="K354" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L354" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M354" t="n">
-        <v>12000</v>
+        <v>7702</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>4000</v>
+        <v>2567</v>
       </c>
       <c r="Q354" t="n">
         <v>3</v>
@@ -25913,20 +25913,20 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J355" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K355" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L355" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M355" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q355" t="n">
         <v>36</v>
@@ -25985,20 +25985,20 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K356" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L356" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M356" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>3333</v>
+        <v>4000</v>
       </c>
       <c r="Q356" t="n">
         <v>3</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26057,20 +26057,20 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>510</v>
+        <v>200</v>
       </c>
       <c r="K357" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L357" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M357" t="n">
-        <v>7716</v>
+        <v>5000</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="Q357" t="n">
         <v>36</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26129,20 +26129,20 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="K358" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L358" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M358" t="n">
-        <v>14455</v>
+        <v>10000</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>4818</v>
+        <v>3333</v>
       </c>
       <c r="Q358" t="n">
         <v>3</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>220</v>
+        <v>510</v>
       </c>
       <c r="K359" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L359" t="n">
         <v>8000</v>
       </c>
-      <c r="L359" t="n">
-        <v>9000</v>
-      </c>
       <c r="M359" t="n">
-        <v>8318</v>
+        <v>7716</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="Q359" t="n">
         <v>36</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26277,7 +26277,7 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>430</v>
+        <v>330</v>
       </c>
       <c r="K360" t="n">
         <v>14000</v>
@@ -26286,7 +26286,7 @@
         <v>15000</v>
       </c>
       <c r="M360" t="n">
-        <v>14628</v>
+        <v>14455</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>4876</v>
+        <v>4818</v>
       </c>
       <c r="Q360" t="n">
         <v>3</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>530</v>
+        <v>220</v>
       </c>
       <c r="K361" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L361" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M361" t="n">
-        <v>6736</v>
+        <v>8318</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="Q361" t="n">
         <v>36</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>190</v>
+        <v>430</v>
       </c>
       <c r="K362" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L362" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M362" t="n">
-        <v>12000</v>
+        <v>14628</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>4000</v>
+        <v>4876</v>
       </c>
       <c r="Q362" t="n">
         <v>3</v>
@@ -26489,24 +26489,24 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>120</v>
+        <v>530</v>
       </c>
       <c r="K363" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L363" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M363" t="n">
-        <v>10000</v>
+        <v>6736</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
@@ -26515,10 +26515,10 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>3333</v>
+        <v>187</v>
       </c>
       <c r="Q363" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R363" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26565,32 +26565,32 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>590</v>
+        <v>190</v>
       </c>
       <c r="K364" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="L364" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M364" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N364" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P364" t="n">
         <v>4000</v>
       </c>
-      <c r="M364" t="n">
-        <v>3695</v>
-      </c>
-      <c r="N364" t="inlineStr">
-        <is>
-          <t>$/caja 36 atados</t>
-        </is>
-      </c>
-      <c r="O364" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P364" t="n">
-        <v>103</v>
-      </c>
       <c r="Q364" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R364" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26633,20 +26633,20 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="K365" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L365" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M365" t="n">
-        <v>7448</v>
+        <v>10000</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>2483</v>
+        <v>3333</v>
       </c>
       <c r="Q365" t="n">
         <v>3</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>440</v>
+        <v>590</v>
       </c>
       <c r="K366" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="L366" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M366" t="n">
-        <v>7795</v>
+        <v>3695</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>217</v>
+        <v>103</v>
       </c>
       <c r="Q366" t="n">
         <v>36</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="K367" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L367" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M367" t="n">
-        <v>14419</v>
+        <v>7448</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>4806</v>
+        <v>2483</v>
       </c>
       <c r="Q367" t="n">
         <v>3</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>630</v>
+        <v>440</v>
       </c>
       <c r="K368" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L368" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M368" t="n">
-        <v>4714</v>
+        <v>7795</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="Q368" t="n">
         <v>36</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="K369" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L369" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M369" t="n">
-        <v>7721</v>
+        <v>14419</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>2574</v>
+        <v>4806</v>
       </c>
       <c r="Q369" t="n">
         <v>3</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>530</v>
+        <v>630</v>
       </c>
       <c r="K370" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L370" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M370" t="n">
-        <v>7708</v>
+        <v>4714</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="Q370" t="n">
         <v>36</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="K371" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="L371" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M371" t="n">
-        <v>15415</v>
+        <v>7721</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>5138</v>
+        <v>2574</v>
       </c>
       <c r="Q371" t="n">
         <v>3</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>580</v>
+        <v>530</v>
       </c>
       <c r="K372" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L372" t="n">
         <v>8000</v>
       </c>
-      <c r="L372" t="n">
-        <v>9000</v>
-      </c>
       <c r="M372" t="n">
-        <v>8431</v>
+        <v>7708</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="Q372" t="n">
         <v>36</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27213,7 +27213,7 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="K373" t="n">
         <v>15000</v>
@@ -27222,7 +27222,7 @@
         <v>16000</v>
       </c>
       <c r="M373" t="n">
-        <v>15455</v>
+        <v>15415</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>5152</v>
+        <v>5138</v>
       </c>
       <c r="Q373" t="n">
         <v>3</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="K374" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L374" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M374" t="n">
-        <v>7676</v>
+        <v>8431</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="Q374" t="n">
         <v>36</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="K375" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L375" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M375" t="n">
-        <v>14436</v>
+        <v>15455</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>4812</v>
+        <v>5152</v>
       </c>
       <c r="Q375" t="n">
         <v>3</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="K376" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L376" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M376" t="n">
-        <v>5673</v>
+        <v>7676</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c r="Q376" t="n">
         <v>36</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>720</v>
+        <v>390</v>
       </c>
       <c r="K377" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L377" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M377" t="n">
-        <v>10236</v>
+        <v>14436</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>3412</v>
+        <v>4812</v>
       </c>
       <c r="Q377" t="n">
         <v>3</v>
@@ -27569,20 +27569,20 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="K378" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L378" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M378" t="n">
-        <v>4000</v>
+        <v>5673</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="Q378" t="n">
         <v>36</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27645,20 +27645,20 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>420</v>
+        <v>720</v>
       </c>
       <c r="K379" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L379" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M379" t="n">
-        <v>9000</v>
+        <v>10236</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -27667,10 +27667,10 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>250</v>
+        <v>3412</v>
       </c>
       <c r="Q379" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27713,24 +27713,24 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K380" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L380" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="M380" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -27739,10 +27739,10 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>5000</v>
+        <v>111</v>
       </c>
       <c r="Q380" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R380" t="inlineStr">
         <is>
@@ -27785,33 +27785,33 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J381" t="n">
+        <v>420</v>
+      </c>
+      <c r="K381" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L381" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M381" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P381" t="n">
         <v>250</v>
-      </c>
-      <c r="K381" t="n">
-        <v>8000</v>
-      </c>
-      <c r="L381" t="n">
-        <v>8000</v>
-      </c>
-      <c r="M381" t="n">
-        <v>8000</v>
-      </c>
-      <c r="N381" t="inlineStr">
-        <is>
-          <t>$/caja 36 atados</t>
-        </is>
-      </c>
-      <c r="O381" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P381" t="n">
-        <v>222</v>
       </c>
       <c r="Q381" t="n">
         <v>36</v>
@@ -27857,20 +27857,20 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="K382" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L382" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M382" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>4333</v>
+        <v>5000</v>
       </c>
       <c r="Q382" t="n">
         <v>3</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27929,20 +27929,20 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="K383" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L383" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M383" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="Q383" t="n">
         <v>36</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -28001,20 +28001,20 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K384" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L384" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M384" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>3333</v>
+        <v>4333</v>
       </c>
       <c r="Q384" t="n">
         <v>3</v>
@@ -28073,20 +28073,20 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="K385" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L385" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M385" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q385" t="n">
         <v>36</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="K386" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L386" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M386" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28167,11 +28167,11 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P386" t="n">
-        <v>5000</v>
+        <v>3333</v>
       </c>
       <c r="Q386" t="n">
         <v>3</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44420</v>
+        <v>44222</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28217,20 +28217,20 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>630</v>
+        <v>150</v>
       </c>
       <c r="K387" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L387" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M387" t="n">
-        <v>7714</v>
+        <v>5000</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="Q387" t="n">
         <v>36</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>450</v>
+        <v>290</v>
       </c>
       <c r="K388" t="n">
         <v>15000</v>
       </c>
       <c r="L388" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M388" t="n">
-        <v>15422</v>
+        <v>15000</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28311,11 +28311,11 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="P388" t="n">
-        <v>5141</v>
+        <v>5000</v>
       </c>
       <c r="Q388" t="n">
         <v>3</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>570</v>
+        <v>630</v>
       </c>
       <c r="K389" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L389" t="n">
         <v>8000</v>
       </c>
       <c r="M389" t="n">
-        <v>7579</v>
+        <v>7714</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q389" t="n">
         <v>36</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="K390" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L390" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M390" t="n">
-        <v>14562</v>
+        <v>15422</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>4854</v>
+        <v>5141</v>
       </c>
       <c r="Q390" t="n">
         <v>3</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>670</v>
+        <v>570</v>
       </c>
       <c r="K391" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L391" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M391" t="n">
-        <v>3716</v>
+        <v>7579</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="Q391" t="n">
         <v>36</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="K392" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L392" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M392" t="n">
-        <v>7205</v>
+        <v>14562</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>2402</v>
+        <v>4854</v>
       </c>
       <c r="Q392" t="n">
         <v>3</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>410</v>
+        <v>670</v>
       </c>
       <c r="K393" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="L393" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M393" t="n">
-        <v>7817</v>
+        <v>3716</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>217</v>
+        <v>103</v>
       </c>
       <c r="Q393" t="n">
         <v>36</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>260</v>
+        <v>440</v>
       </c>
       <c r="K394" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L394" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="M394" t="n">
-        <v>15654</v>
+        <v>7205</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>5218</v>
+        <v>2402</v>
       </c>
       <c r="Q394" t="n">
         <v>3</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>620</v>
+        <v>410</v>
       </c>
       <c r="K395" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L395" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M395" t="n">
-        <v>4718</v>
+        <v>7817</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="Q395" t="n">
         <v>36</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="K396" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L396" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M396" t="n">
-        <v>7405</v>
+        <v>15654</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>2468</v>
+        <v>5218</v>
       </c>
       <c r="Q396" t="n">
         <v>3</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>340</v>
+        <v>620</v>
       </c>
       <c r="K397" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L397" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M397" t="n">
-        <v>6000</v>
+        <v>4718</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="Q397" t="n">
         <v>36</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>700</v>
+        <v>370</v>
       </c>
       <c r="K398" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L398" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M398" t="n">
-        <v>11500</v>
+        <v>7405</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>3833</v>
+        <v>2468</v>
       </c>
       <c r="Q398" t="n">
         <v>3</v>
@@ -29081,20 +29081,20 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K399" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L399" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M399" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="Q399" t="n">
         <v>36</v>
@@ -29153,20 +29153,20 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K400" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L400" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M400" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>3000</v>
+        <v>3833</v>
       </c>
       <c r="Q400" t="n">
         <v>3</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29225,20 +29225,20 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>510</v>
+        <v>160</v>
       </c>
       <c r="K401" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L401" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M401" t="n">
-        <v>9569</v>
+        <v>4000</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>266</v>
+        <v>111</v>
       </c>
       <c r="Q401" t="n">
         <v>36</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29297,20 +29297,20 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="K402" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L402" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M402" t="n">
-        <v>16436</v>
+        <v>9000</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>5479</v>
+        <v>3000</v>
       </c>
       <c r="Q402" t="n">
         <v>3</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29373,16 +29373,16 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="K403" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L403" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M403" t="n">
-        <v>7693</v>
+        <v>9569</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="Q403" t="n">
         <v>36</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="K404" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L404" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M404" t="n">
-        <v>15413</v>
+        <v>16436</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>5138</v>
+        <v>5479</v>
       </c>
       <c r="Q404" t="n">
         <v>3</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29517,16 +29517,16 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>660</v>
+        <v>570</v>
       </c>
       <c r="K405" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L405" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M405" t="n">
-        <v>4205</v>
+        <v>7693</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>117</v>
+        <v>214</v>
       </c>
       <c r="Q405" t="n">
         <v>36</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="K406" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L406" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="M406" t="n">
-        <v>7214</v>
+        <v>15413</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>2405</v>
+        <v>5138</v>
       </c>
       <c r="Q406" t="n">
         <v>3</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>560</v>
+        <v>660</v>
       </c>
       <c r="K407" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L407" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M407" t="n">
-        <v>11482</v>
+        <v>4205</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>319</v>
+        <v>117</v>
       </c>
       <c r="Q407" t="n">
         <v>36</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44301</v>
+        <v>44341</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29733,20 +29733,20 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="K408" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L408" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M408" t="n">
-        <v>4725</v>
+        <v>7214</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -29755,10 +29755,10 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>131</v>
+        <v>2405</v>
       </c>
       <c r="Q408" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R408" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29805,20 +29805,20 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>320</v>
+        <v>560</v>
       </c>
       <c r="K409" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L409" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M409" t="n">
-        <v>8406</v>
+        <v>11482</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
@@ -29827,10 +29827,10 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>2802</v>
+        <v>319</v>
       </c>
       <c r="Q409" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="K410" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L410" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M410" t="n">
-        <v>5821</v>
+        <v>4725</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="Q410" t="n">
         <v>36</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29949,16 +29949,16 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="K411" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L411" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M411" t="n">
-        <v>12710</v>
+        <v>8406</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>4237</v>
+        <v>2802</v>
       </c>
       <c r="Q411" t="n">
         <v>3</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="K412" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L412" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M412" t="n">
-        <v>5000</v>
+        <v>5821</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="Q412" t="n">
         <v>36</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="K413" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L413" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M413" t="n">
-        <v>9000</v>
+        <v>12710</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>3000</v>
+        <v>4237</v>
       </c>
       <c r="Q413" t="n">
         <v>3</v>
@@ -30161,20 +30161,20 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="K414" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L414" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M414" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q414" t="n">
         <v>36</v>
@@ -30233,20 +30233,20 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>140</v>
+        <v>320</v>
       </c>
       <c r="K415" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L415" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M415" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>2333</v>
+        <v>3000</v>
       </c>
       <c r="Q415" t="n">
         <v>3</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30305,20 +30305,20 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="K416" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L416" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M416" t="n">
-        <v>10406</v>
+        <v>4000</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>289</v>
+        <v>111</v>
       </c>
       <c r="Q416" t="n">
         <v>36</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30377,20 +30377,20 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>310</v>
+        <v>140</v>
       </c>
       <c r="K417" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="L417" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M417" t="n">
-        <v>19419</v>
+        <v>7000</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>6473</v>
+        <v>2333</v>
       </c>
       <c r="Q417" t="n">
         <v>3</v>
@@ -30449,20 +30449,20 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="K418" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L418" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M418" t="n">
-        <v>8000</v>
+        <v>10406</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="Q418" t="n">
         <v>36</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30525,20 +30525,20 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>430</v>
+        <v>310</v>
       </c>
       <c r="K419" t="n">
-        <v>5500</v>
+        <v>19000</v>
       </c>
       <c r="L419" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="M419" t="n">
-        <v>5721</v>
+        <v>19419</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -30547,10 +30547,10 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>159</v>
+        <v>6473</v>
       </c>
       <c r="Q419" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30593,24 +30593,24 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="K420" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L420" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M420" t="n">
-        <v>10406</v>
+        <v>8000</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -30619,10 +30619,10 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>3469</v>
+        <v>222</v>
       </c>
       <c r="Q420" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30669,16 +30669,16 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="K421" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L421" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M421" t="n">
-        <v>6821</v>
+        <v>5721</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="Q421" t="n">
         <v>36</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="K422" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L422" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M422" t="n">
-        <v>13629</v>
+        <v>10406</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>4543</v>
+        <v>3469</v>
       </c>
       <c r="Q422" t="n">
         <v>3</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>590</v>
+        <v>420</v>
       </c>
       <c r="K423" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L423" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M423" t="n">
-        <v>7686</v>
+        <v>6821</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="Q423" t="n">
         <v>36</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="K424" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L424" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M424" t="n">
-        <v>15357</v>
+        <v>13629</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>5119</v>
+        <v>4543</v>
       </c>
       <c r="Q424" t="n">
         <v>3</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30960,13 +30960,13 @@
         <v>590</v>
       </c>
       <c r="K425" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L425" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M425" t="n">
-        <v>4186</v>
+        <v>7686</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>116</v>
+        <v>214</v>
       </c>
       <c r="Q425" t="n">
         <v>36</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="K426" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L426" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="M426" t="n">
-        <v>7289</v>
+        <v>15357</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>2430</v>
+        <v>5119</v>
       </c>
       <c r="Q426" t="n">
         <v>3</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>720</v>
+        <v>590</v>
       </c>
       <c r="K427" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L427" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M427" t="n">
-        <v>3729</v>
+        <v>4186</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="Q427" t="n">
         <v>36</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31173,7 +31173,7 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="K428" t="n">
         <v>7000</v>
@@ -31182,7 +31182,7 @@
         <v>7500</v>
       </c>
       <c r="M428" t="n">
-        <v>7197</v>
+        <v>7289</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>2399</v>
+        <v>2430</v>
       </c>
       <c r="Q428" t="n">
         <v>3</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>620</v>
+        <v>720</v>
       </c>
       <c r="K429" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="L429" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M429" t="n">
-        <v>7718</v>
+        <v>3729</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>214</v>
+        <v>104</v>
       </c>
       <c r="Q429" t="n">
         <v>36</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="K430" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L430" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="M430" t="n">
-        <v>15452</v>
+        <v>7197</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>5151</v>
+        <v>2399</v>
       </c>
       <c r="Q430" t="n">
         <v>3</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>420</v>
+        <v>620</v>
       </c>
       <c r="K431" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L431" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M431" t="n">
-        <v>6786</v>
+        <v>7718</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="Q431" t="n">
         <v>36</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="K432" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L432" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M432" t="n">
-        <v>12586</v>
+        <v>15452</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>4195</v>
+        <v>5151</v>
       </c>
       <c r="Q432" t="n">
         <v>3</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>620</v>
+        <v>420</v>
       </c>
       <c r="K433" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L433" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M433" t="n">
-        <v>4234</v>
+        <v>6786</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="Q433" t="n">
         <v>36</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31605,16 +31605,16 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="K434" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L434" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M434" t="n">
-        <v>7205</v>
+        <v>12586</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>2402</v>
+        <v>4195</v>
       </c>
       <c r="Q434" t="n">
         <v>3</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="K435" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L435" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M435" t="n">
-        <v>5764</v>
+        <v>4234</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="Q435" t="n">
         <v>36</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31752,13 +31752,13 @@
         <v>390</v>
       </c>
       <c r="K436" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L436" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M436" t="n">
-        <v>9436</v>
+        <v>7205</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>3145</v>
+        <v>2402</v>
       </c>
       <c r="Q436" t="n">
         <v>3</v>
@@ -31821,32 +31821,32 @@
         </is>
       </c>
       <c r="J437" t="n">
+        <v>550</v>
+      </c>
+      <c r="K437" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L437" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M437" t="n">
+        <v>5764</v>
+      </c>
+      <c r="N437" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O437" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P437" t="n">
         <v>160</v>
       </c>
-      <c r="K437" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L437" t="n">
-        <v>16000</v>
-      </c>
-      <c r="M437" t="n">
-        <v>15438</v>
-      </c>
-      <c r="N437" t="inlineStr">
-        <is>
-          <t>$/docena de atados</t>
-        </is>
-      </c>
-      <c r="O437" t="inlineStr">
-        <is>
-          <t>Región de Valparaíso</t>
-        </is>
-      </c>
-      <c r="P437" t="n">
-        <v>5146</v>
-      </c>
       <c r="Q437" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R437" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31893,20 +31893,20 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="K438" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L438" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M438" t="n">
-        <v>6716</v>
+        <v>9436</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
@@ -31915,10 +31915,10 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>187</v>
+        <v>3145</v>
       </c>
       <c r="Q438" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R438" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31965,7 +31965,7 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K439" t="n">
         <v>15000</v>
@@ -31974,7 +31974,7 @@
         <v>16000</v>
       </c>
       <c r="M439" t="n">
-        <v>15419</v>
+        <v>15438</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31983,11 +31983,11 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P439" t="n">
-        <v>5140</v>
+        <v>5146</v>
       </c>
       <c r="Q439" t="n">
         <v>3</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="K440" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L440" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M440" t="n">
-        <v>4693</v>
+        <v>6716</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="Q440" t="n">
         <v>36</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32112,13 +32112,13 @@
         <v>310</v>
       </c>
       <c r="K441" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L441" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M441" t="n">
-        <v>8581</v>
+        <v>15419</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>2860</v>
+        <v>5140</v>
       </c>
       <c r="Q441" t="n">
         <v>3</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>620</v>
+        <v>570</v>
       </c>
       <c r="K442" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L442" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M442" t="n">
-        <v>4218</v>
+        <v>4693</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="Q442" t="n">
         <v>36</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32253,16 +32253,16 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="K443" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L443" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M443" t="n">
-        <v>7531</v>
+        <v>8581</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>2510</v>
+        <v>2860</v>
       </c>
       <c r="Q443" t="n">
         <v>3</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>440</v>
+        <v>620</v>
       </c>
       <c r="K444" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L444" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M444" t="n">
-        <v>7216</v>
+        <v>4218</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="Q444" t="n">
         <v>36</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32397,16 +32397,16 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="K445" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L445" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M445" t="n">
-        <v>14441</v>
+        <v>7531</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>4814</v>
+        <v>2510</v>
       </c>
       <c r="Q445" t="n">
         <v>3</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32469,16 +32469,16 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>610</v>
+        <v>440</v>
       </c>
       <c r="K446" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L446" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M446" t="n">
-        <v>4770</v>
+        <v>7216</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="Q446" t="n">
         <v>36</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32541,16 +32541,16 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="K447" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L447" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M447" t="n">
-        <v>9703</v>
+        <v>14441</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>3234</v>
+        <v>4814</v>
       </c>
       <c r="Q447" t="n">
         <v>3</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>510</v>
+        <v>610</v>
       </c>
       <c r="K448" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L448" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M448" t="n">
-        <v>9451</v>
+        <v>4770</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>263</v>
+        <v>132</v>
       </c>
       <c r="Q448" t="n">
         <v>36</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="K449" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="L449" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M449" t="n">
-        <v>19455</v>
+        <v>9703</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>6485</v>
+        <v>3234</v>
       </c>
       <c r="Q449" t="n">
         <v>3</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="K450" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L450" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M450" t="n">
-        <v>4716</v>
+        <v>9451</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>131</v>
+        <v>263</v>
       </c>
       <c r="Q450" t="n">
         <v>36</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="K451" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L451" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M451" t="n">
-        <v>7405</v>
+        <v>19455</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>2468</v>
+        <v>6485</v>
       </c>
       <c r="Q451" t="n">
         <v>3</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32904,13 +32904,13 @@
         <v>580</v>
       </c>
       <c r="K452" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L452" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M452" t="n">
-        <v>4216</v>
+        <v>4716</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="Q452" t="n">
         <v>36</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>370</v>
+        <v>580</v>
       </c>
       <c r="K454" t="n">
         <v>4000</v>
       </c>
       <c r="L454" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M454" t="n">
-        <v>4297</v>
+        <v>4216</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q454" t="n">
         <v>36</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>520</v>
+        <v>370</v>
       </c>
       <c r="K455" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L455" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M455" t="n">
-        <v>9240</v>
+        <v>7405</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>3080</v>
+        <v>2468</v>
       </c>
       <c r="Q455" t="n">
         <v>3</v>
@@ -33185,20 +33185,20 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>150</v>
+        <v>370</v>
       </c>
       <c r="K456" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L456" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M456" t="n">
-        <v>3500</v>
+        <v>4297</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="Q456" t="n">
         <v>36</v>
@@ -33257,20 +33257,20 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>120</v>
+        <v>520</v>
       </c>
       <c r="K457" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L457" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M457" t="n">
-        <v>8000</v>
+        <v>9240</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>2667</v>
+        <v>3080</v>
       </c>
       <c r="Q457" t="n">
         <v>3</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33329,20 +33329,20 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="K458" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L458" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M458" t="n">
-        <v>5721</v>
+        <v>3500</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="Q458" t="n">
         <v>36</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="K459" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L459" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M459" t="n">
-        <v>12619</v>
+        <v>8000</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>4206</v>
+        <v>2667</v>
       </c>
       <c r="Q459" t="n">
         <v>3</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="K460" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L460" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M460" t="n">
-        <v>7591</v>
+        <v>5721</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="Q460" t="n">
         <v>36</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="K461" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L461" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M461" t="n">
-        <v>14611</v>
+        <v>12619</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>4870</v>
+        <v>4206</v>
       </c>
       <c r="Q461" t="n">
         <v>3</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>570</v>
+        <v>440</v>
       </c>
       <c r="K462" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L462" t="n">
         <v>8000</v>
       </c>
       <c r="M462" t="n">
-        <v>7711</v>
+        <v>7591</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q462" t="n">
         <v>36</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="K463" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L463" t="n">
         <v>15000</v>
       </c>
-      <c r="L463" t="n">
-        <v>16000</v>
-      </c>
       <c r="M463" t="n">
-        <v>15366</v>
+        <v>14611</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>5122</v>
+        <v>4870</v>
       </c>
       <c r="Q463" t="n">
         <v>3</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>620</v>
+        <v>570</v>
       </c>
       <c r="K464" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L464" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M464" t="n">
-        <v>5718</v>
+        <v>7711</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="Q464" t="n">
         <v>36</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="K465" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L465" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M465" t="n">
-        <v>12000</v>
+        <v>15366</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>4000</v>
+        <v>5122</v>
       </c>
       <c r="Q465" t="n">
         <v>3</v>
@@ -33905,24 +33905,24 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>130</v>
+        <v>620</v>
       </c>
       <c r="K466" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L466" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M466" t="n">
-        <v>10000</v>
+        <v>5718</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
@@ -33931,10 +33931,10 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>3333</v>
+        <v>159</v>
       </c>
       <c r="Q466" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R466" t="inlineStr">
         <is>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33981,20 +33981,20 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>2650</v>
+        <v>220</v>
       </c>
       <c r="K467" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L467" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M467" t="n">
-        <v>7700</v>
+        <v>12000</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
@@ -34003,10 +34003,10 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>214</v>
+        <v>4000</v>
       </c>
       <c r="Q467" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R467" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34049,20 +34049,20 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>1930</v>
+        <v>130</v>
       </c>
       <c r="K468" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L468" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M468" t="n">
-        <v>14855</v>
+        <v>10000</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>4952</v>
+        <v>3333</v>
       </c>
       <c r="Q468" t="n">
         <v>3</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>570</v>
+        <v>2650</v>
       </c>
       <c r="K469" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L469" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M469" t="n">
-        <v>4719</v>
+        <v>7700</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="Q469" t="n">
         <v>36</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>260</v>
+        <v>1930</v>
       </c>
       <c r="K470" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L470" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M470" t="n">
-        <v>7462</v>
+        <v>14855</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>2487</v>
+        <v>4952</v>
       </c>
       <c r="Q470" t="n">
         <v>3</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34269,16 +34269,16 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>350</v>
+        <v>570</v>
       </c>
       <c r="K471" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L471" t="n">
         <v>5000</v>
       </c>
       <c r="M471" t="n">
-        <v>5000</v>
+        <v>4719</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Q471" t="n">
         <v>36</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="K472" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L472" t="n">
         <v>8000</v>
       </c>
       <c r="M472" t="n">
-        <v>8000</v>
+        <v>7462</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>2667</v>
+        <v>2487</v>
       </c>
       <c r="Q472" t="n">
         <v>3</v>
@@ -34409,20 +34409,20 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="K473" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L473" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M473" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q473" t="n">
         <v>36</v>
@@ -34481,20 +34481,20 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>220</v>
+        <v>370</v>
       </c>
       <c r="K474" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L474" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M474" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>2333</v>
+        <v>2667</v>
       </c>
       <c r="Q474" t="n">
         <v>3</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34553,20 +34553,20 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>570</v>
+        <v>220</v>
       </c>
       <c r="K475" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L475" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M475" t="n">
-        <v>7193</v>
+        <v>4000</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="Q475" t="n">
         <v>36</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34625,20 +34625,20 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>410</v>
+        <v>220</v>
       </c>
       <c r="K476" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L476" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M476" t="n">
-        <v>14415</v>
+        <v>7000</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>4805</v>
+        <v>2333</v>
       </c>
       <c r="Q476" t="n">
         <v>3</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>390</v>
+        <v>570</v>
       </c>
       <c r="K477" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L477" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M477" t="n">
-        <v>5692</v>
+        <v>7193</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="Q477" t="n">
         <v>36</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>260</v>
+        <v>410</v>
       </c>
       <c r="K478" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L478" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M478" t="n">
-        <v>9577</v>
+        <v>14415</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>3192</v>
+        <v>4805</v>
       </c>
       <c r="Q478" t="n">
         <v>3</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34845,16 +34845,16 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="K479" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L479" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M479" t="n">
-        <v>9431</v>
+        <v>5692</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>262</v>
+        <v>158</v>
       </c>
       <c r="Q479" t="n">
         <v>36</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="K480" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="L480" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M480" t="n">
-        <v>19417</v>
+        <v>9577</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>6472</v>
+        <v>3192</v>
       </c>
       <c r="Q480" t="n">
         <v>3</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>290</v>
+        <v>510</v>
       </c>
       <c r="K481" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L481" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M481" t="n">
-        <v>6000</v>
+        <v>9431</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="Q481" t="n">
         <v>36</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="K482" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="L482" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M482" t="n">
-        <v>10000</v>
+        <v>19417</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35079,11 +35079,11 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P482" t="n">
-        <v>3333</v>
+        <v>6472</v>
       </c>
       <c r="Q482" t="n">
         <v>3</v>
@@ -35133,20 +35133,20 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="K483" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L483" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M483" t="n">
-        <v>9595</v>
+        <v>6000</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
@@ -35155,10 +35155,10 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>3198</v>
+        <v>167</v>
       </c>
       <c r="Q483" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R483" t="inlineStr">
         <is>
@@ -35201,36 +35201,36 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K484" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L484" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M484" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P484" t="n">
-        <v>139</v>
+        <v>3333</v>
       </c>
       <c r="Q484" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R484" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35277,20 +35277,20 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>530</v>
+        <v>370</v>
       </c>
       <c r="K485" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L485" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M485" t="n">
-        <v>4226</v>
+        <v>9595</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
@@ -35299,10 +35299,10 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>117</v>
+        <v>3198</v>
       </c>
       <c r="Q485" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R485" t="inlineStr">
         <is>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35345,24 +35345,24 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="K486" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L486" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M486" t="n">
-        <v>7414</v>
+        <v>5000</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
@@ -35371,10 +35371,10 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>2471</v>
+        <v>139</v>
       </c>
       <c r="Q486" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R486" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35421,16 +35421,16 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>350</v>
+        <v>530</v>
       </c>
       <c r="K487" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L487" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M487" t="n">
-        <v>5000</v>
+        <v>4226</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="Q487" t="n">
         <v>36</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>600</v>
+        <v>290</v>
       </c>
       <c r="K488" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L488" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M488" t="n">
-        <v>9875</v>
+        <v>7414</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>3292</v>
+        <v>2471</v>
       </c>
       <c r="Q488" t="n">
         <v>3</v>
@@ -35561,20 +35561,20 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K489" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L489" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M489" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q489" t="n">
         <v>36</v>
@@ -35633,20 +35633,20 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>130</v>
+        <v>600</v>
       </c>
       <c r="K490" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L490" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M490" t="n">
-        <v>8000</v>
+        <v>9875</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>2667</v>
+        <v>3292</v>
       </c>
       <c r="Q490" t="n">
         <v>3</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35705,20 +35705,20 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="K491" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L491" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M491" t="n">
-        <v>5840</v>
+        <v>4000</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="Q491" t="n">
         <v>36</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35777,20 +35777,20 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="K492" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L492" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M492" t="n">
-        <v>11611</v>
+        <v>8000</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>3870</v>
+        <v>2667</v>
       </c>
       <c r="Q492" t="n">
         <v>3</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>230</v>
+        <v>470</v>
       </c>
       <c r="K493" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L493" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M493" t="n">
-        <v>10000</v>
+        <v>5840</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35871,11 +35871,11 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P493" t="n">
-        <v>278</v>
+        <v>162</v>
       </c>
       <c r="Q493" t="n">
         <v>36</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="K494" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="L494" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M494" t="n">
-        <v>23122</v>
+        <v>11611</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>7707</v>
+        <v>3870</v>
       </c>
       <c r="Q494" t="n">
         <v>3</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35997,7 +35997,7 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="K495" t="n">
         <v>10000</v>
@@ -36015,7 +36015,7 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P495" t="n">
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>320</v>
+        <v>410</v>
       </c>
       <c r="K496" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L496" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M496" t="n">
-        <v>21062</v>
+        <v>23122</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,12 +36091,156 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>7021</v>
+        <v>7707</v>
       </c>
       <c r="Q496" t="n">
         <v>3</v>
       </c>
       <c r="R496" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>6</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D497" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E497" t="n">
+        <v>13</v>
+      </c>
+      <c r="F497" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J497" t="n">
+        <v>330</v>
+      </c>
+      <c r="K497" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L497" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M497" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N497" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P497" t="n">
+        <v>278</v>
+      </c>
+      <c r="Q497" t="n">
+        <v>36</v>
+      </c>
+      <c r="R497" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>6</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D498" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E498" t="n">
+        <v>13</v>
+      </c>
+      <c r="F498" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J498" t="n">
+        <v>320</v>
+      </c>
+      <c r="K498" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L498" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M498" t="n">
+        <v>21062</v>
+      </c>
+      <c r="N498" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P498" t="n">
+        <v>7021</v>
+      </c>
+      <c r="Q498" t="n">
+        <v>3</v>
+      </c>
+      <c r="R498" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R498"/>
+  <dimension ref="A1:R500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="K489" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L489" t="n">
         <v>5000</v>
       </c>
       <c r="M489" t="n">
-        <v>5000</v>
+        <v>4723</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Q489" t="n">
         <v>36</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="K490" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L490" t="n">
         <v>9000</v>
       </c>
-      <c r="L490" t="n">
-        <v>11000</v>
-      </c>
       <c r="M490" t="n">
-        <v>9875</v>
+        <v>8431</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>3292</v>
+        <v>2810</v>
       </c>
       <c r="Q490" t="n">
         <v>3</v>
@@ -35705,20 +35705,20 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K491" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L491" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M491" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q491" t="n">
         <v>36</v>
@@ -35777,20 +35777,20 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>130</v>
+        <v>600</v>
       </c>
       <c r="K492" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L492" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M492" t="n">
-        <v>8000</v>
+        <v>9875</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>2667</v>
+        <v>3292</v>
       </c>
       <c r="Q492" t="n">
         <v>3</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35849,20 +35849,20 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="K493" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L493" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M493" t="n">
-        <v>5840</v>
+        <v>4000</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="Q493" t="n">
         <v>36</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35921,20 +35921,20 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="K494" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L494" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M494" t="n">
-        <v>11611</v>
+        <v>8000</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>3870</v>
+        <v>2667</v>
       </c>
       <c r="Q494" t="n">
         <v>3</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35997,16 +35997,16 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>230</v>
+        <v>470</v>
       </c>
       <c r="K495" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L495" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M495" t="n">
-        <v>10000</v>
+        <v>5840</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36015,11 +36015,11 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P495" t="n">
-        <v>278</v>
+        <v>162</v>
       </c>
       <c r="Q495" t="n">
         <v>36</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="K496" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="L496" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M496" t="n">
-        <v>23122</v>
+        <v>11611</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>7707</v>
+        <v>3870</v>
       </c>
       <c r="Q496" t="n">
         <v>3</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36141,7 +36141,7 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="K497" t="n">
         <v>10000</v>
@@ -36159,7 +36159,7 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P497" t="n">
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>320</v>
+        <v>410</v>
       </c>
       <c r="K498" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L498" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M498" t="n">
-        <v>21062</v>
+        <v>23122</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,12 +36235,156 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>7021</v>
+        <v>7707</v>
       </c>
       <c r="Q498" t="n">
         <v>3</v>
       </c>
       <c r="R498" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>6</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D499" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E499" t="n">
+        <v>13</v>
+      </c>
+      <c r="F499" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J499" t="n">
+        <v>330</v>
+      </c>
+      <c r="K499" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L499" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M499" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N499" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O499" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P499" t="n">
+        <v>278</v>
+      </c>
+      <c r="Q499" t="n">
+        <v>36</v>
+      </c>
+      <c r="R499" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>6</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D500" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E500" t="n">
+        <v>13</v>
+      </c>
+      <c r="F500" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J500" t="n">
+        <v>320</v>
+      </c>
+      <c r="K500" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L500" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M500" t="n">
+        <v>21062</v>
+      </c>
+      <c r="N500" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O500" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P500" t="n">
+        <v>7021</v>
+      </c>
+      <c r="Q500" t="n">
+        <v>3</v>
+      </c>
+      <c r="R500" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R500"/>
+  <dimension ref="A1:R502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>370</v>
+        <v>640</v>
       </c>
       <c r="K456" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L456" t="n">
         <v>5000</v>
       </c>
       <c r="M456" t="n">
-        <v>4297</v>
+        <v>4703</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="Q456" t="n">
         <v>36</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="K457" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L457" t="n">
         <v>9000</v>
       </c>
-      <c r="L457" t="n">
-        <v>10000</v>
-      </c>
       <c r="M457" t="n">
-        <v>9240</v>
+        <v>8413</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>3080</v>
+        <v>2804</v>
       </c>
       <c r="Q457" t="n">
         <v>3</v>
@@ -33329,20 +33329,20 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>150</v>
+        <v>370</v>
       </c>
       <c r="K458" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L458" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M458" t="n">
-        <v>3500</v>
+        <v>4297</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="Q458" t="n">
         <v>36</v>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>120</v>
+        <v>520</v>
       </c>
       <c r="K459" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L459" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M459" t="n">
-        <v>8000</v>
+        <v>9240</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>2667</v>
+        <v>3080</v>
       </c>
       <c r="Q459" t="n">
         <v>3</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33473,20 +33473,20 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="K460" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L460" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M460" t="n">
-        <v>5721</v>
+        <v>3500</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="Q460" t="n">
         <v>36</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33545,20 +33545,20 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="K461" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L461" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M461" t="n">
-        <v>12619</v>
+        <v>8000</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>4206</v>
+        <v>2667</v>
       </c>
       <c r="Q461" t="n">
         <v>3</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="K462" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L462" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M462" t="n">
-        <v>7591</v>
+        <v>5721</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="Q462" t="n">
         <v>36</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="K463" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L463" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M463" t="n">
-        <v>14611</v>
+        <v>12619</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>4870</v>
+        <v>4206</v>
       </c>
       <c r="Q463" t="n">
         <v>3</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>570</v>
+        <v>440</v>
       </c>
       <c r="K464" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L464" t="n">
         <v>8000</v>
       </c>
       <c r="M464" t="n">
-        <v>7711</v>
+        <v>7591</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q464" t="n">
         <v>36</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="K465" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L465" t="n">
         <v>15000</v>
       </c>
-      <c r="L465" t="n">
-        <v>16000</v>
-      </c>
       <c r="M465" t="n">
-        <v>15366</v>
+        <v>14611</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>5122</v>
+        <v>4870</v>
       </c>
       <c r="Q465" t="n">
         <v>3</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>620</v>
+        <v>570</v>
       </c>
       <c r="K466" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L466" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M466" t="n">
-        <v>5718</v>
+        <v>7711</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="Q466" t="n">
         <v>36</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="K467" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L467" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M467" t="n">
-        <v>12000</v>
+        <v>15366</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>4000</v>
+        <v>5122</v>
       </c>
       <c r="Q467" t="n">
         <v>3</v>
@@ -34049,24 +34049,24 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>130</v>
+        <v>620</v>
       </c>
       <c r="K468" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L468" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M468" t="n">
-        <v>10000</v>
+        <v>5718</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
@@ -34075,10 +34075,10 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>3333</v>
+        <v>159</v>
       </c>
       <c r="Q468" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R468" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34125,20 +34125,20 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>2650</v>
+        <v>220</v>
       </c>
       <c r="K469" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L469" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M469" t="n">
-        <v>7700</v>
+        <v>12000</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
@@ -34147,10 +34147,10 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>214</v>
+        <v>4000</v>
       </c>
       <c r="Q469" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R469" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34193,20 +34193,20 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>1930</v>
+        <v>130</v>
       </c>
       <c r="K470" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L470" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M470" t="n">
-        <v>14855</v>
+        <v>10000</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>4952</v>
+        <v>3333</v>
       </c>
       <c r="Q470" t="n">
         <v>3</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34269,16 +34269,16 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>570</v>
+        <v>2650</v>
       </c>
       <c r="K471" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L471" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M471" t="n">
-        <v>4719</v>
+        <v>7700</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="Q471" t="n">
         <v>36</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>260</v>
+        <v>1930</v>
       </c>
       <c r="K472" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L472" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M472" t="n">
-        <v>7462</v>
+        <v>14855</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>2487</v>
+        <v>4952</v>
       </c>
       <c r="Q472" t="n">
         <v>3</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>350</v>
+        <v>570</v>
       </c>
       <c r="K473" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L473" t="n">
         <v>5000</v>
       </c>
       <c r="M473" t="n">
-        <v>5000</v>
+        <v>4719</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Q473" t="n">
         <v>36</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="K474" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L474" t="n">
         <v>8000</v>
       </c>
       <c r="M474" t="n">
-        <v>8000</v>
+        <v>7462</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>2667</v>
+        <v>2487</v>
       </c>
       <c r="Q474" t="n">
         <v>3</v>
@@ -34553,20 +34553,20 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="K475" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L475" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M475" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q475" t="n">
         <v>36</v>
@@ -34625,20 +34625,20 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>220</v>
+        <v>370</v>
       </c>
       <c r="K476" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L476" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M476" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>2333</v>
+        <v>2667</v>
       </c>
       <c r="Q476" t="n">
         <v>3</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>570</v>
+        <v>220</v>
       </c>
       <c r="K477" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L477" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M477" t="n">
-        <v>7193</v>
+        <v>4000</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="Q477" t="n">
         <v>36</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34769,20 +34769,20 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>410</v>
+        <v>220</v>
       </c>
       <c r="K478" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L478" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M478" t="n">
-        <v>14415</v>
+        <v>7000</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>4805</v>
+        <v>2333</v>
       </c>
       <c r="Q478" t="n">
         <v>3</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34845,16 +34845,16 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>390</v>
+        <v>570</v>
       </c>
       <c r="K479" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L479" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M479" t="n">
-        <v>5692</v>
+        <v>7193</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="Q479" t="n">
         <v>36</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>260</v>
+        <v>410</v>
       </c>
       <c r="K480" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L480" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M480" t="n">
-        <v>9577</v>
+        <v>14415</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>3192</v>
+        <v>4805</v>
       </c>
       <c r="Q480" t="n">
         <v>3</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="K481" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L481" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M481" t="n">
-        <v>9431</v>
+        <v>5692</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>262</v>
+        <v>158</v>
       </c>
       <c r="Q481" t="n">
         <v>36</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="K482" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="L482" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M482" t="n">
-        <v>19417</v>
+        <v>9577</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>6472</v>
+        <v>3192</v>
       </c>
       <c r="Q482" t="n">
         <v>3</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>290</v>
+        <v>510</v>
       </c>
       <c r="K483" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L483" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M483" t="n">
-        <v>6000</v>
+        <v>9431</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="Q483" t="n">
         <v>36</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="K484" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="L484" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M484" t="n">
-        <v>10000</v>
+        <v>19417</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35223,11 +35223,11 @@
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P484" t="n">
-        <v>3333</v>
+        <v>6472</v>
       </c>
       <c r="Q484" t="n">
         <v>3</v>
@@ -35277,20 +35277,20 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="K485" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L485" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M485" t="n">
-        <v>9595</v>
+        <v>6000</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
@@ -35299,10 +35299,10 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>3198</v>
+        <v>167</v>
       </c>
       <c r="Q485" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R485" t="inlineStr">
         <is>
@@ -35345,36 +35345,36 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K486" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L486" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M486" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P486" t="n">
-        <v>139</v>
+        <v>3333</v>
       </c>
       <c r="Q486" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R486" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35421,20 +35421,20 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>530</v>
+        <v>370</v>
       </c>
       <c r="K487" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L487" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M487" t="n">
-        <v>4226</v>
+        <v>9595</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
@@ -35443,10 +35443,10 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>117</v>
+        <v>3198</v>
       </c>
       <c r="Q487" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R487" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35489,24 +35489,24 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="K488" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L488" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M488" t="n">
-        <v>7414</v>
+        <v>5000</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
@@ -35515,10 +35515,10 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>2471</v>
+        <v>139</v>
       </c>
       <c r="Q488" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R488" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>650</v>
+        <v>530</v>
       </c>
       <c r="K489" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L489" t="n">
         <v>4500</v>
       </c>
-      <c r="L489" t="n">
-        <v>5000</v>
-      </c>
       <c r="M489" t="n">
-        <v>4723</v>
+        <v>4226</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Q489" t="n">
         <v>36</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>510</v>
+        <v>290</v>
       </c>
       <c r="K490" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L490" t="n">
         <v>8000</v>
       </c>
-      <c r="L490" t="n">
-        <v>9000</v>
-      </c>
       <c r="M490" t="n">
-        <v>8431</v>
+        <v>7414</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>2810</v>
+        <v>2471</v>
       </c>
       <c r="Q490" t="n">
         <v>3</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="K491" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L491" t="n">
         <v>5000</v>
       </c>
       <c r="M491" t="n">
-        <v>5000</v>
+        <v>4723</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Q491" t="n">
         <v>36</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="K492" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L492" t="n">
         <v>9000</v>
       </c>
-      <c r="L492" t="n">
-        <v>11000</v>
-      </c>
       <c r="M492" t="n">
-        <v>9875</v>
+        <v>8431</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>3292</v>
+        <v>2810</v>
       </c>
       <c r="Q492" t="n">
         <v>3</v>
@@ -35849,20 +35849,20 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K493" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L493" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M493" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q493" t="n">
         <v>36</v>
@@ -35921,20 +35921,20 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>130</v>
+        <v>600</v>
       </c>
       <c r="K494" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L494" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M494" t="n">
-        <v>8000</v>
+        <v>9875</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>2667</v>
+        <v>3292</v>
       </c>
       <c r="Q494" t="n">
         <v>3</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="K495" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L495" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M495" t="n">
-        <v>5840</v>
+        <v>4000</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="Q495" t="n">
         <v>36</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36065,20 +36065,20 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="K496" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L496" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M496" t="n">
-        <v>11611</v>
+        <v>8000</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>3870</v>
+        <v>2667</v>
       </c>
       <c r="Q496" t="n">
         <v>3</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>230</v>
+        <v>470</v>
       </c>
       <c r="K497" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L497" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M497" t="n">
-        <v>10000</v>
+        <v>5840</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36159,11 +36159,11 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P497" t="n">
-        <v>278</v>
+        <v>162</v>
       </c>
       <c r="Q497" t="n">
         <v>36</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="K498" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="L498" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M498" t="n">
-        <v>23122</v>
+        <v>11611</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>7707</v>
+        <v>3870</v>
       </c>
       <c r="Q498" t="n">
         <v>3</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36285,7 +36285,7 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="K499" t="n">
         <v>10000</v>
@@ -36303,7 +36303,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P499" t="n">
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>320</v>
+        <v>410</v>
       </c>
       <c r="K500" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L500" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M500" t="n">
-        <v>21062</v>
+        <v>23122</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,12 +36379,156 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>7021</v>
+        <v>7707</v>
       </c>
       <c r="Q500" t="n">
         <v>3</v>
       </c>
       <c r="R500" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>6</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D501" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E501" t="n">
+        <v>13</v>
+      </c>
+      <c r="F501" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J501" t="n">
+        <v>330</v>
+      </c>
+      <c r="K501" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L501" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M501" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N501" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O501" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P501" t="n">
+        <v>278</v>
+      </c>
+      <c r="Q501" t="n">
+        <v>36</v>
+      </c>
+      <c r="R501" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>6</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D502" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E502" t="n">
+        <v>13</v>
+      </c>
+      <c r="F502" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J502" t="n">
+        <v>320</v>
+      </c>
+      <c r="K502" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L502" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M502" t="n">
+        <v>21062</v>
+      </c>
+      <c r="N502" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O502" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P502" t="n">
+        <v>7021</v>
+      </c>
+      <c r="Q502" t="n">
+        <v>3</v>
+      </c>
+      <c r="R502" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R502"/>
+  <dimension ref="A1:R504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25773,7 +25773,7 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="K353" t="n">
         <v>4000</v>
@@ -25782,7 +25782,7 @@
         <v>4500</v>
       </c>
       <c r="M353" t="n">
-        <v>4193</v>
+        <v>4226</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q353" t="n">
         <v>36</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25845,7 +25845,7 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>470</v>
+        <v>290</v>
       </c>
       <c r="K354" t="n">
         <v>7500</v>
@@ -25854,7 +25854,7 @@
         <v>8000</v>
       </c>
       <c r="M354" t="n">
-        <v>7702</v>
+        <v>7707</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="Q354" t="n">
         <v>3</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>280</v>
+        <v>570</v>
       </c>
       <c r="K355" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L355" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M355" t="n">
-        <v>6000</v>
+        <v>4193</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="Q355" t="n">
         <v>36</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>180</v>
+        <v>470</v>
       </c>
       <c r="K356" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L356" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M356" t="n">
-        <v>12000</v>
+        <v>7702</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>4000</v>
+        <v>2567</v>
       </c>
       <c r="Q356" t="n">
         <v>3</v>
@@ -26057,20 +26057,20 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K357" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L357" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M357" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q357" t="n">
         <v>36</v>
@@ -26129,20 +26129,20 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K358" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L358" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M358" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>3333</v>
+        <v>4000</v>
       </c>
       <c r="Q358" t="n">
         <v>3</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26201,20 +26201,20 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J359" t="n">
-        <v>510</v>
+        <v>200</v>
       </c>
       <c r="K359" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L359" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M359" t="n">
-        <v>7716</v>
+        <v>5000</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="Q359" t="n">
         <v>36</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26273,20 +26273,20 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="K360" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L360" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M360" t="n">
-        <v>14455</v>
+        <v>10000</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>4818</v>
+        <v>3333</v>
       </c>
       <c r="Q360" t="n">
         <v>3</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>220</v>
+        <v>510</v>
       </c>
       <c r="K361" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L361" t="n">
         <v>8000</v>
       </c>
-      <c r="L361" t="n">
-        <v>9000</v>
-      </c>
       <c r="M361" t="n">
-        <v>8318</v>
+        <v>7716</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="Q361" t="n">
         <v>36</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>430</v>
+        <v>330</v>
       </c>
       <c r="K362" t="n">
         <v>14000</v>
@@ -26430,7 +26430,7 @@
         <v>15000</v>
       </c>
       <c r="M362" t="n">
-        <v>14628</v>
+        <v>14455</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>4876</v>
+        <v>4818</v>
       </c>
       <c r="Q362" t="n">
         <v>3</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>530</v>
+        <v>220</v>
       </c>
       <c r="K363" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L363" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M363" t="n">
-        <v>6736</v>
+        <v>8318</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="Q363" t="n">
         <v>36</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>190</v>
+        <v>430</v>
       </c>
       <c r="K364" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L364" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M364" t="n">
-        <v>12000</v>
+        <v>14628</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>4000</v>
+        <v>4876</v>
       </c>
       <c r="Q364" t="n">
         <v>3</v>
@@ -26633,24 +26633,24 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>120</v>
+        <v>530</v>
       </c>
       <c r="K365" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L365" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M365" t="n">
-        <v>10000</v>
+        <v>6736</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
@@ -26659,10 +26659,10 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>3333</v>
+        <v>187</v>
       </c>
       <c r="Q365" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R365" t="inlineStr">
         <is>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26709,32 +26709,32 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>590</v>
+        <v>190</v>
       </c>
       <c r="K366" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="L366" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M366" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N366" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P366" t="n">
         <v>4000</v>
       </c>
-      <c r="M366" t="n">
-        <v>3695</v>
-      </c>
-      <c r="N366" t="inlineStr">
-        <is>
-          <t>$/caja 36 atados</t>
-        </is>
-      </c>
-      <c r="O366" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P366" t="n">
-        <v>103</v>
-      </c>
       <c r="Q366" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R366" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26777,20 +26777,20 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="K367" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L367" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M367" t="n">
-        <v>7448</v>
+        <v>10000</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>2483</v>
+        <v>3333</v>
       </c>
       <c r="Q367" t="n">
         <v>3</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>440</v>
+        <v>590</v>
       </c>
       <c r="K368" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="L368" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M368" t="n">
-        <v>7795</v>
+        <v>3695</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>217</v>
+        <v>103</v>
       </c>
       <c r="Q368" t="n">
         <v>36</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="K369" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L369" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M369" t="n">
-        <v>14419</v>
+        <v>7448</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>4806</v>
+        <v>2483</v>
       </c>
       <c r="Q369" t="n">
         <v>3</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>630</v>
+        <v>440</v>
       </c>
       <c r="K370" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L370" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M370" t="n">
-        <v>4714</v>
+        <v>7795</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="Q370" t="n">
         <v>36</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="K371" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L371" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M371" t="n">
-        <v>7721</v>
+        <v>14419</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>2574</v>
+        <v>4806</v>
       </c>
       <c r="Q371" t="n">
         <v>3</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>530</v>
+        <v>630</v>
       </c>
       <c r="K372" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L372" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M372" t="n">
-        <v>7708</v>
+        <v>4714</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="Q372" t="n">
         <v>36</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="K373" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="L373" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M373" t="n">
-        <v>15415</v>
+        <v>7721</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>5138</v>
+        <v>2574</v>
       </c>
       <c r="Q373" t="n">
         <v>3</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>580</v>
+        <v>530</v>
       </c>
       <c r="K374" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L374" t="n">
         <v>8000</v>
       </c>
-      <c r="L374" t="n">
-        <v>9000</v>
-      </c>
       <c r="M374" t="n">
-        <v>8431</v>
+        <v>7708</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="Q374" t="n">
         <v>36</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27357,7 +27357,7 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="K375" t="n">
         <v>15000</v>
@@ -27366,7 +27366,7 @@
         <v>16000</v>
       </c>
       <c r="M375" t="n">
-        <v>15455</v>
+        <v>15415</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>5152</v>
+        <v>5138</v>
       </c>
       <c r="Q375" t="n">
         <v>3</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="K376" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L376" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M376" t="n">
-        <v>7676</v>
+        <v>8431</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="Q376" t="n">
         <v>36</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="K377" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L377" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M377" t="n">
-        <v>14436</v>
+        <v>15455</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>4812</v>
+        <v>5152</v>
       </c>
       <c r="Q377" t="n">
         <v>3</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="K378" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L378" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M378" t="n">
-        <v>5673</v>
+        <v>7676</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c r="Q378" t="n">
         <v>36</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>720</v>
+        <v>390</v>
       </c>
       <c r="K379" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L379" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M379" t="n">
-        <v>10236</v>
+        <v>14436</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>3412</v>
+        <v>4812</v>
       </c>
       <c r="Q379" t="n">
         <v>3</v>
@@ -27713,20 +27713,20 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="K380" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L380" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M380" t="n">
-        <v>4000</v>
+        <v>5673</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="Q380" t="n">
         <v>36</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27789,20 +27789,20 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>420</v>
+        <v>720</v>
       </c>
       <c r="K381" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L381" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M381" t="n">
-        <v>9000</v>
+        <v>10236</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -27811,10 +27811,10 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>250</v>
+        <v>3412</v>
       </c>
       <c r="Q381" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27857,24 +27857,24 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K382" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L382" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="M382" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
@@ -27883,10 +27883,10 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>5000</v>
+        <v>111</v>
       </c>
       <c r="Q382" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R382" t="inlineStr">
         <is>
@@ -27929,33 +27929,33 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J383" t="n">
+        <v>420</v>
+      </c>
+      <c r="K383" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L383" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M383" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N383" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O383" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P383" t="n">
         <v>250</v>
-      </c>
-      <c r="K383" t="n">
-        <v>8000</v>
-      </c>
-      <c r="L383" t="n">
-        <v>8000</v>
-      </c>
-      <c r="M383" t="n">
-        <v>8000</v>
-      </c>
-      <c r="N383" t="inlineStr">
-        <is>
-          <t>$/caja 36 atados</t>
-        </is>
-      </c>
-      <c r="O383" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P383" t="n">
-        <v>222</v>
       </c>
       <c r="Q383" t="n">
         <v>36</v>
@@ -28001,20 +28001,20 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="K384" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L384" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M384" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>4333</v>
+        <v>5000</v>
       </c>
       <c r="Q384" t="n">
         <v>3</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28073,20 +28073,20 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="K385" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L385" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M385" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="Q385" t="n">
         <v>36</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28145,20 +28145,20 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K386" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L386" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M386" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>3333</v>
+        <v>4333</v>
       </c>
       <c r="Q386" t="n">
         <v>3</v>
@@ -28217,20 +28217,20 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="K387" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L387" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M387" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q387" t="n">
         <v>36</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="K388" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L388" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M388" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28311,11 +28311,11 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P388" t="n">
-        <v>5000</v>
+        <v>3333</v>
       </c>
       <c r="Q388" t="n">
         <v>3</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44420</v>
+        <v>44222</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28361,20 +28361,20 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>630</v>
+        <v>150</v>
       </c>
       <c r="K389" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L389" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M389" t="n">
-        <v>7714</v>
+        <v>5000</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="Q389" t="n">
         <v>36</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>450</v>
+        <v>290</v>
       </c>
       <c r="K390" t="n">
         <v>15000</v>
       </c>
       <c r="L390" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M390" t="n">
-        <v>15422</v>
+        <v>15000</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28455,11 +28455,11 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="P390" t="n">
-        <v>5141</v>
+        <v>5000</v>
       </c>
       <c r="Q390" t="n">
         <v>3</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>570</v>
+        <v>630</v>
       </c>
       <c r="K391" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L391" t="n">
         <v>8000</v>
       </c>
       <c r="M391" t="n">
-        <v>7579</v>
+        <v>7714</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q391" t="n">
         <v>36</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="K392" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L392" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M392" t="n">
-        <v>14562</v>
+        <v>15422</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>4854</v>
+        <v>5141</v>
       </c>
       <c r="Q392" t="n">
         <v>3</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>670</v>
+        <v>570</v>
       </c>
       <c r="K393" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L393" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M393" t="n">
-        <v>3716</v>
+        <v>7579</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="Q393" t="n">
         <v>36</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="K394" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L394" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M394" t="n">
-        <v>7205</v>
+        <v>14562</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>2402</v>
+        <v>4854</v>
       </c>
       <c r="Q394" t="n">
         <v>3</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>410</v>
+        <v>670</v>
       </c>
       <c r="K395" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="L395" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M395" t="n">
-        <v>7817</v>
+        <v>3716</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>217</v>
+        <v>103</v>
       </c>
       <c r="Q395" t="n">
         <v>36</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>260</v>
+        <v>440</v>
       </c>
       <c r="K396" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L396" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="M396" t="n">
-        <v>15654</v>
+        <v>7205</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>5218</v>
+        <v>2402</v>
       </c>
       <c r="Q396" t="n">
         <v>3</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>620</v>
+        <v>410</v>
       </c>
       <c r="K397" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L397" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M397" t="n">
-        <v>4718</v>
+        <v>7817</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="Q397" t="n">
         <v>36</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="K398" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L398" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M398" t="n">
-        <v>7405</v>
+        <v>15654</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>2468</v>
+        <v>5218</v>
       </c>
       <c r="Q398" t="n">
         <v>3</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>340</v>
+        <v>620</v>
       </c>
       <c r="K399" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L399" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M399" t="n">
-        <v>6000</v>
+        <v>4718</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="Q399" t="n">
         <v>36</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>700</v>
+        <v>370</v>
       </c>
       <c r="K400" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L400" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M400" t="n">
-        <v>11500</v>
+        <v>7405</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>3833</v>
+        <v>2468</v>
       </c>
       <c r="Q400" t="n">
         <v>3</v>
@@ -29225,20 +29225,20 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K401" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L401" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M401" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="Q401" t="n">
         <v>36</v>
@@ -29297,20 +29297,20 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K402" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L402" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M402" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>3000</v>
+        <v>3833</v>
       </c>
       <c r="Q402" t="n">
         <v>3</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29369,20 +29369,20 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>510</v>
+        <v>160</v>
       </c>
       <c r="K403" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L403" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M403" t="n">
-        <v>9569</v>
+        <v>4000</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>266</v>
+        <v>111</v>
       </c>
       <c r="Q403" t="n">
         <v>36</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29441,20 +29441,20 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="K404" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L404" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M404" t="n">
-        <v>16436</v>
+        <v>9000</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>5479</v>
+        <v>3000</v>
       </c>
       <c r="Q404" t="n">
         <v>3</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29517,16 +29517,16 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="K405" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L405" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M405" t="n">
-        <v>7693</v>
+        <v>9569</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="Q405" t="n">
         <v>36</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="K406" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L406" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M406" t="n">
-        <v>15413</v>
+        <v>16436</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>5138</v>
+        <v>5479</v>
       </c>
       <c r="Q406" t="n">
         <v>3</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>660</v>
+        <v>570</v>
       </c>
       <c r="K407" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L407" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M407" t="n">
-        <v>4205</v>
+        <v>7693</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>117</v>
+        <v>214</v>
       </c>
       <c r="Q407" t="n">
         <v>36</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="K408" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L408" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="M408" t="n">
-        <v>7214</v>
+        <v>15413</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>2405</v>
+        <v>5138</v>
       </c>
       <c r="Q408" t="n">
         <v>3</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>560</v>
+        <v>660</v>
       </c>
       <c r="K409" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L409" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M409" t="n">
-        <v>11482</v>
+        <v>4205</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>319</v>
+        <v>117</v>
       </c>
       <c r="Q409" t="n">
         <v>36</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44301</v>
+        <v>44341</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29877,20 +29877,20 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="K410" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L410" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M410" t="n">
-        <v>4725</v>
+        <v>7214</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
@@ -29899,10 +29899,10 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>131</v>
+        <v>2405</v>
       </c>
       <c r="Q410" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29949,20 +29949,20 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>320</v>
+        <v>560</v>
       </c>
       <c r="K411" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L411" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M411" t="n">
-        <v>8406</v>
+        <v>11482</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -29971,10 +29971,10 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>2802</v>
+        <v>319</v>
       </c>
       <c r="Q411" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="K412" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L412" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M412" t="n">
-        <v>5821</v>
+        <v>4725</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="Q412" t="n">
         <v>36</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="K413" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L413" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M413" t="n">
-        <v>12710</v>
+        <v>8406</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>4237</v>
+        <v>2802</v>
       </c>
       <c r="Q413" t="n">
         <v>3</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="K414" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L414" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M414" t="n">
-        <v>5000</v>
+        <v>5821</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="Q414" t="n">
         <v>36</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30237,16 +30237,16 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="K415" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L415" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M415" t="n">
-        <v>9000</v>
+        <v>12710</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>3000</v>
+        <v>4237</v>
       </c>
       <c r="Q415" t="n">
         <v>3</v>
@@ -30305,20 +30305,20 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="K416" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L416" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M416" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q416" t="n">
         <v>36</v>
@@ -30377,20 +30377,20 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>140</v>
+        <v>320</v>
       </c>
       <c r="K417" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L417" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M417" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>2333</v>
+        <v>3000</v>
       </c>
       <c r="Q417" t="n">
         <v>3</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30449,20 +30449,20 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="K418" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L418" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M418" t="n">
-        <v>10406</v>
+        <v>4000</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>289</v>
+        <v>111</v>
       </c>
       <c r="Q418" t="n">
         <v>36</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30521,20 +30521,20 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>310</v>
+        <v>140</v>
       </c>
       <c r="K419" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="L419" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M419" t="n">
-        <v>19419</v>
+        <v>7000</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>6473</v>
+        <v>2333</v>
       </c>
       <c r="Q419" t="n">
         <v>3</v>
@@ -30593,20 +30593,20 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="K420" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L420" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M420" t="n">
-        <v>8000</v>
+        <v>10406</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="Q420" t="n">
         <v>36</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30669,20 +30669,20 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>430</v>
+        <v>310</v>
       </c>
       <c r="K421" t="n">
-        <v>5500</v>
+        <v>19000</v>
       </c>
       <c r="L421" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="M421" t="n">
-        <v>5721</v>
+        <v>19419</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -30691,10 +30691,10 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>159</v>
+        <v>6473</v>
       </c>
       <c r="Q421" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30737,24 +30737,24 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="K422" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L422" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M422" t="n">
-        <v>10406</v>
+        <v>8000</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -30763,10 +30763,10 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>3469</v>
+        <v>222</v>
       </c>
       <c r="Q422" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="K423" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L423" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M423" t="n">
-        <v>6821</v>
+        <v>5721</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="Q423" t="n">
         <v>36</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="K424" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L424" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M424" t="n">
-        <v>13629</v>
+        <v>10406</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>4543</v>
+        <v>3469</v>
       </c>
       <c r="Q424" t="n">
         <v>3</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>590</v>
+        <v>420</v>
       </c>
       <c r="K425" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L425" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M425" t="n">
-        <v>7686</v>
+        <v>6821</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="Q425" t="n">
         <v>36</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="K426" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L426" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M426" t="n">
-        <v>15357</v>
+        <v>13629</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>5119</v>
+        <v>4543</v>
       </c>
       <c r="Q426" t="n">
         <v>3</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31104,13 +31104,13 @@
         <v>590</v>
       </c>
       <c r="K427" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L427" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M427" t="n">
-        <v>4186</v>
+        <v>7686</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>116</v>
+        <v>214</v>
       </c>
       <c r="Q427" t="n">
         <v>36</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="K428" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L428" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="M428" t="n">
-        <v>7289</v>
+        <v>15357</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>2430</v>
+        <v>5119</v>
       </c>
       <c r="Q428" t="n">
         <v>3</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>720</v>
+        <v>590</v>
       </c>
       <c r="K429" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L429" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M429" t="n">
-        <v>3729</v>
+        <v>4186</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="Q429" t="n">
         <v>36</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31317,7 +31317,7 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="K430" t="n">
         <v>7000</v>
@@ -31326,7 +31326,7 @@
         <v>7500</v>
       </c>
       <c r="M430" t="n">
-        <v>7197</v>
+        <v>7289</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>2399</v>
+        <v>2430</v>
       </c>
       <c r="Q430" t="n">
         <v>3</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>620</v>
+        <v>720</v>
       </c>
       <c r="K431" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="L431" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M431" t="n">
-        <v>7718</v>
+        <v>3729</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>214</v>
+        <v>104</v>
       </c>
       <c r="Q431" t="n">
         <v>36</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="K432" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L432" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="M432" t="n">
-        <v>15452</v>
+        <v>7197</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>5151</v>
+        <v>2399</v>
       </c>
       <c r="Q432" t="n">
         <v>3</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>420</v>
+        <v>620</v>
       </c>
       <c r="K433" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L433" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M433" t="n">
-        <v>6786</v>
+        <v>7718</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="Q433" t="n">
         <v>36</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31605,16 +31605,16 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="K434" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L434" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M434" t="n">
-        <v>12586</v>
+        <v>15452</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>4195</v>
+        <v>5151</v>
       </c>
       <c r="Q434" t="n">
         <v>3</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>620</v>
+        <v>420</v>
       </c>
       <c r="K435" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L435" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M435" t="n">
-        <v>4234</v>
+        <v>6786</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="Q435" t="n">
         <v>36</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="K436" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L436" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M436" t="n">
-        <v>7205</v>
+        <v>12586</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>2402</v>
+        <v>4195</v>
       </c>
       <c r="Q436" t="n">
         <v>3</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="K437" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L437" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M437" t="n">
-        <v>5764</v>
+        <v>4234</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="Q437" t="n">
         <v>36</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31896,13 +31896,13 @@
         <v>390</v>
       </c>
       <c r="K438" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L438" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M438" t="n">
-        <v>9436</v>
+        <v>7205</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>3145</v>
+        <v>2402</v>
       </c>
       <c r="Q438" t="n">
         <v>3</v>
@@ -31965,32 +31965,32 @@
         </is>
       </c>
       <c r="J439" t="n">
+        <v>550</v>
+      </c>
+      <c r="K439" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L439" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M439" t="n">
+        <v>5764</v>
+      </c>
+      <c r="N439" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O439" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P439" t="n">
         <v>160</v>
       </c>
-      <c r="K439" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L439" t="n">
-        <v>16000</v>
-      </c>
-      <c r="M439" t="n">
-        <v>15438</v>
-      </c>
-      <c r="N439" t="inlineStr">
-        <is>
-          <t>$/docena de atados</t>
-        </is>
-      </c>
-      <c r="O439" t="inlineStr">
-        <is>
-          <t>Región de Valparaíso</t>
-        </is>
-      </c>
-      <c r="P439" t="n">
-        <v>5146</v>
-      </c>
       <c r="Q439" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32037,20 +32037,20 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="K440" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L440" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M440" t="n">
-        <v>6716</v>
+        <v>9436</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
@@ -32059,10 +32059,10 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>187</v>
+        <v>3145</v>
       </c>
       <c r="Q440" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R440" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32109,7 +32109,7 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K441" t="n">
         <v>15000</v>
@@ -32118,7 +32118,7 @@
         <v>16000</v>
       </c>
       <c r="M441" t="n">
-        <v>15419</v>
+        <v>15438</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32127,11 +32127,11 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P441" t="n">
-        <v>5140</v>
+        <v>5146</v>
       </c>
       <c r="Q441" t="n">
         <v>3</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="K442" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L442" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M442" t="n">
-        <v>4693</v>
+        <v>6716</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="Q442" t="n">
         <v>36</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32256,13 +32256,13 @@
         <v>310</v>
       </c>
       <c r="K443" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L443" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M443" t="n">
-        <v>8581</v>
+        <v>15419</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>2860</v>
+        <v>5140</v>
       </c>
       <c r="Q443" t="n">
         <v>3</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>620</v>
+        <v>570</v>
       </c>
       <c r="K444" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L444" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M444" t="n">
-        <v>4218</v>
+        <v>4693</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="Q444" t="n">
         <v>36</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32397,16 +32397,16 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="K445" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L445" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M445" t="n">
-        <v>7531</v>
+        <v>8581</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>2510</v>
+        <v>2860</v>
       </c>
       <c r="Q445" t="n">
         <v>3</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32469,16 +32469,16 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>440</v>
+        <v>620</v>
       </c>
       <c r="K446" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L446" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M446" t="n">
-        <v>7216</v>
+        <v>4218</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="Q446" t="n">
         <v>36</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32541,16 +32541,16 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="K447" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L447" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M447" t="n">
-        <v>14441</v>
+        <v>7531</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>4814</v>
+        <v>2510</v>
       </c>
       <c r="Q447" t="n">
         <v>3</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>610</v>
+        <v>440</v>
       </c>
       <c r="K448" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L448" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M448" t="n">
-        <v>4770</v>
+        <v>7216</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="Q448" t="n">
         <v>36</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="K449" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L449" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M449" t="n">
-        <v>9703</v>
+        <v>14441</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>3234</v>
+        <v>4814</v>
       </c>
       <c r="Q449" t="n">
         <v>3</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>510</v>
+        <v>610</v>
       </c>
       <c r="K450" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L450" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M450" t="n">
-        <v>9451</v>
+        <v>4770</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>263</v>
+        <v>132</v>
       </c>
       <c r="Q450" t="n">
         <v>36</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="K451" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="L451" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M451" t="n">
-        <v>19455</v>
+        <v>9703</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>6485</v>
+        <v>3234</v>
       </c>
       <c r="Q451" t="n">
         <v>3</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="K452" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L452" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M452" t="n">
-        <v>4716</v>
+        <v>9451</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>131</v>
+        <v>263</v>
       </c>
       <c r="Q452" t="n">
         <v>36</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="K453" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L453" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M453" t="n">
-        <v>7405</v>
+        <v>19455</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>2468</v>
+        <v>6485</v>
       </c>
       <c r="Q453" t="n">
         <v>3</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33048,13 +33048,13 @@
         <v>580</v>
       </c>
       <c r="K454" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L454" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M454" t="n">
-        <v>4216</v>
+        <v>4716</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="Q454" t="n">
         <v>36</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>640</v>
+        <v>580</v>
       </c>
       <c r="K456" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L456" t="n">
         <v>4500</v>
       </c>
-      <c r="L456" t="n">
-        <v>5000</v>
-      </c>
       <c r="M456" t="n">
-        <v>4703</v>
+        <v>4216</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Q456" t="n">
         <v>36</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>460</v>
+        <v>370</v>
       </c>
       <c r="K457" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L457" t="n">
         <v>8000</v>
       </c>
-      <c r="L457" t="n">
-        <v>9000</v>
-      </c>
       <c r="M457" t="n">
-        <v>8413</v>
+        <v>7405</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>2804</v>
+        <v>2468</v>
       </c>
       <c r="Q457" t="n">
         <v>3</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>370</v>
+        <v>640</v>
       </c>
       <c r="K458" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L458" t="n">
         <v>5000</v>
       </c>
       <c r="M458" t="n">
-        <v>4297</v>
+        <v>4703</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="Q458" t="n">
         <v>36</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="K459" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L459" t="n">
         <v>9000</v>
       </c>
-      <c r="L459" t="n">
-        <v>10000</v>
-      </c>
       <c r="M459" t="n">
-        <v>9240</v>
+        <v>8413</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>3080</v>
+        <v>2804</v>
       </c>
       <c r="Q459" t="n">
         <v>3</v>
@@ -33473,20 +33473,20 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>150</v>
+        <v>370</v>
       </c>
       <c r="K460" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L460" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M460" t="n">
-        <v>3500</v>
+        <v>4297</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="Q460" t="n">
         <v>36</v>
@@ -33545,20 +33545,20 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>120</v>
+        <v>520</v>
       </c>
       <c r="K461" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L461" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M461" t="n">
-        <v>8000</v>
+        <v>9240</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>2667</v>
+        <v>3080</v>
       </c>
       <c r="Q461" t="n">
         <v>3</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33617,20 +33617,20 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="K462" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L462" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M462" t="n">
-        <v>5721</v>
+        <v>3500</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="Q462" t="n">
         <v>36</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33689,20 +33689,20 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="K463" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L463" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M463" t="n">
-        <v>12619</v>
+        <v>8000</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>4206</v>
+        <v>2667</v>
       </c>
       <c r="Q463" t="n">
         <v>3</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="K464" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L464" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M464" t="n">
-        <v>7591</v>
+        <v>5721</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="Q464" t="n">
         <v>36</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="K465" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L465" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M465" t="n">
-        <v>14611</v>
+        <v>12619</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>4870</v>
+        <v>4206</v>
       </c>
       <c r="Q465" t="n">
         <v>3</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>570</v>
+        <v>440</v>
       </c>
       <c r="K466" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L466" t="n">
         <v>8000</v>
       </c>
       <c r="M466" t="n">
-        <v>7711</v>
+        <v>7591</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q466" t="n">
         <v>36</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="K467" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L467" t="n">
         <v>15000</v>
       </c>
-      <c r="L467" t="n">
-        <v>16000</v>
-      </c>
       <c r="M467" t="n">
-        <v>15366</v>
+        <v>14611</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>5122</v>
+        <v>4870</v>
       </c>
       <c r="Q467" t="n">
         <v>3</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>620</v>
+        <v>570</v>
       </c>
       <c r="K468" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L468" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M468" t="n">
-        <v>5718</v>
+        <v>7711</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="Q468" t="n">
         <v>36</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="K469" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L469" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M469" t="n">
-        <v>12000</v>
+        <v>15366</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>4000</v>
+        <v>5122</v>
       </c>
       <c r="Q469" t="n">
         <v>3</v>
@@ -34193,24 +34193,24 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>130</v>
+        <v>620</v>
       </c>
       <c r="K470" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L470" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M470" t="n">
-        <v>10000</v>
+        <v>5718</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
@@ -34219,10 +34219,10 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>3333</v>
+        <v>159</v>
       </c>
       <c r="Q470" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R470" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34269,20 +34269,20 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>2650</v>
+        <v>220</v>
       </c>
       <c r="K471" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L471" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M471" t="n">
-        <v>7700</v>
+        <v>12000</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
@@ -34291,10 +34291,10 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>214</v>
+        <v>4000</v>
       </c>
       <c r="Q471" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R471" t="inlineStr">
         <is>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34337,20 +34337,20 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>1930</v>
+        <v>130</v>
       </c>
       <c r="K472" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L472" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M472" t="n">
-        <v>14855</v>
+        <v>10000</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>4952</v>
+        <v>3333</v>
       </c>
       <c r="Q472" t="n">
         <v>3</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>570</v>
+        <v>2650</v>
       </c>
       <c r="K473" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L473" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M473" t="n">
-        <v>4719</v>
+        <v>7700</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="Q473" t="n">
         <v>36</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>260</v>
+        <v>1930</v>
       </c>
       <c r="K474" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L474" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M474" t="n">
-        <v>7462</v>
+        <v>14855</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>2487</v>
+        <v>4952</v>
       </c>
       <c r="Q474" t="n">
         <v>3</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>350</v>
+        <v>570</v>
       </c>
       <c r="K475" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L475" t="n">
         <v>5000</v>
       </c>
       <c r="M475" t="n">
-        <v>5000</v>
+        <v>4719</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Q475" t="n">
         <v>36</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34629,16 +34629,16 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="K476" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L476" t="n">
         <v>8000</v>
       </c>
       <c r="M476" t="n">
-        <v>8000</v>
+        <v>7462</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>2667</v>
+        <v>2487</v>
       </c>
       <c r="Q476" t="n">
         <v>3</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="K477" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L477" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M477" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q477" t="n">
         <v>36</v>
@@ -34769,20 +34769,20 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>220</v>
+        <v>370</v>
       </c>
       <c r="K478" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L478" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M478" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>2333</v>
+        <v>2667</v>
       </c>
       <c r="Q478" t="n">
         <v>3</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34841,20 +34841,20 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>570</v>
+        <v>220</v>
       </c>
       <c r="K479" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L479" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M479" t="n">
-        <v>7193</v>
+        <v>4000</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="Q479" t="n">
         <v>36</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>410</v>
+        <v>220</v>
       </c>
       <c r="K480" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L480" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M480" t="n">
-        <v>14415</v>
+        <v>7000</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>4805</v>
+        <v>2333</v>
       </c>
       <c r="Q480" t="n">
         <v>3</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>390</v>
+        <v>570</v>
       </c>
       <c r="K481" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L481" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M481" t="n">
-        <v>5692</v>
+        <v>7193</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="Q481" t="n">
         <v>36</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>260</v>
+        <v>410</v>
       </c>
       <c r="K482" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L482" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M482" t="n">
-        <v>9577</v>
+        <v>14415</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>3192</v>
+        <v>4805</v>
       </c>
       <c r="Q482" t="n">
         <v>3</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="K483" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L483" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M483" t="n">
-        <v>9431</v>
+        <v>5692</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>262</v>
+        <v>158</v>
       </c>
       <c r="Q483" t="n">
         <v>36</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="K484" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="L484" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M484" t="n">
-        <v>19417</v>
+        <v>9577</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>6472</v>
+        <v>3192</v>
       </c>
       <c r="Q484" t="n">
         <v>3</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35277,16 +35277,16 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>290</v>
+        <v>510</v>
       </c>
       <c r="K485" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L485" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M485" t="n">
-        <v>6000</v>
+        <v>9431</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="Q485" t="n">
         <v>36</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35349,16 +35349,16 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="K486" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="L486" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M486" t="n">
-        <v>10000</v>
+        <v>19417</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35367,11 +35367,11 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P486" t="n">
-        <v>3333</v>
+        <v>6472</v>
       </c>
       <c r="Q486" t="n">
         <v>3</v>
@@ -35421,20 +35421,20 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="K487" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L487" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M487" t="n">
-        <v>9595</v>
+        <v>6000</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
@@ -35443,10 +35443,10 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>3198</v>
+        <v>167</v>
       </c>
       <c r="Q487" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R487" t="inlineStr">
         <is>
@@ -35489,36 +35489,36 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K488" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L488" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M488" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P488" t="n">
-        <v>139</v>
+        <v>3333</v>
       </c>
       <c r="Q488" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R488" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35565,20 +35565,20 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>530</v>
+        <v>370</v>
       </c>
       <c r="K489" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L489" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M489" t="n">
-        <v>4226</v>
+        <v>9595</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O489" t="inlineStr">
@@ -35587,10 +35587,10 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>117</v>
+        <v>3198</v>
       </c>
       <c r="Q489" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R489" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35633,24 +35633,24 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="K490" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L490" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M490" t="n">
-        <v>7414</v>
+        <v>5000</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
@@ -35659,10 +35659,10 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>2471</v>
+        <v>139</v>
       </c>
       <c r="Q490" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R490" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>650</v>
+        <v>530</v>
       </c>
       <c r="K491" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L491" t="n">
         <v>4500</v>
       </c>
-      <c r="L491" t="n">
-        <v>5000</v>
-      </c>
       <c r="M491" t="n">
-        <v>4723</v>
+        <v>4226</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Q491" t="n">
         <v>36</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>510</v>
+        <v>290</v>
       </c>
       <c r="K492" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L492" t="n">
         <v>8000</v>
       </c>
-      <c r="L492" t="n">
-        <v>9000</v>
-      </c>
       <c r="M492" t="n">
-        <v>8431</v>
+        <v>7414</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>2810</v>
+        <v>2471</v>
       </c>
       <c r="Q492" t="n">
         <v>3</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="K493" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L493" t="n">
         <v>5000</v>
       </c>
       <c r="M493" t="n">
-        <v>5000</v>
+        <v>4723</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Q493" t="n">
         <v>36</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="K494" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L494" t="n">
         <v>9000</v>
       </c>
-      <c r="L494" t="n">
-        <v>11000</v>
-      </c>
       <c r="M494" t="n">
-        <v>9875</v>
+        <v>8431</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>3292</v>
+        <v>2810</v>
       </c>
       <c r="Q494" t="n">
         <v>3</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K495" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L495" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M495" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q495" t="n">
         <v>36</v>
@@ -36065,20 +36065,20 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>130</v>
+        <v>600</v>
       </c>
       <c r="K496" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L496" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M496" t="n">
-        <v>8000</v>
+        <v>9875</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>2667</v>
+        <v>3292</v>
       </c>
       <c r="Q496" t="n">
         <v>3</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36137,20 +36137,20 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="K497" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L497" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M497" t="n">
-        <v>5840</v>
+        <v>4000</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="Q497" t="n">
         <v>36</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36209,20 +36209,20 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="K498" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L498" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M498" t="n">
-        <v>11611</v>
+        <v>8000</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>3870</v>
+        <v>2667</v>
       </c>
       <c r="Q498" t="n">
         <v>3</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>230</v>
+        <v>470</v>
       </c>
       <c r="K499" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L499" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M499" t="n">
-        <v>10000</v>
+        <v>5840</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36303,11 +36303,11 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P499" t="n">
-        <v>278</v>
+        <v>162</v>
       </c>
       <c r="Q499" t="n">
         <v>36</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="K500" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="L500" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M500" t="n">
-        <v>23122</v>
+        <v>11611</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>7707</v>
+        <v>3870</v>
       </c>
       <c r="Q500" t="n">
         <v>3</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36429,7 +36429,7 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="K501" t="n">
         <v>10000</v>
@@ -36447,7 +36447,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P501" t="n">
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36501,16 +36501,16 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>320</v>
+        <v>410</v>
       </c>
       <c r="K502" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L502" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M502" t="n">
-        <v>21062</v>
+        <v>23122</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,12 +36523,156 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>7021</v>
+        <v>7707</v>
       </c>
       <c r="Q502" t="n">
         <v>3</v>
       </c>
       <c r="R502" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>6</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D503" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E503" t="n">
+        <v>13</v>
+      </c>
+      <c r="F503" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J503" t="n">
+        <v>330</v>
+      </c>
+      <c r="K503" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L503" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M503" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N503" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P503" t="n">
+        <v>278</v>
+      </c>
+      <c r="Q503" t="n">
+        <v>36</v>
+      </c>
+      <c r="R503" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>6</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D504" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E504" t="n">
+        <v>13</v>
+      </c>
+      <c r="F504" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J504" t="n">
+        <v>320</v>
+      </c>
+      <c r="K504" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L504" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M504" t="n">
+        <v>21062</v>
+      </c>
+      <c r="N504" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P504" t="n">
+        <v>7021</v>
+      </c>
+      <c r="Q504" t="n">
+        <v>3</v>
+      </c>
+      <c r="R504" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R508"/>
+  <dimension ref="A1:R510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="K340" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L340" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M340" t="n">
-        <v>9415</v>
+        <v>4195</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="Q340" t="n">
         <v>36</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="K341" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L341" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="M341" t="n">
-        <v>19405</v>
+        <v>8410</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>6468</v>
+        <v>2803</v>
       </c>
       <c r="Q341" t="n">
         <v>3</v>
@@ -24977,20 +24977,20 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>150</v>
+        <v>530</v>
       </c>
       <c r="K342" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L342" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M342" t="n">
-        <v>8000</v>
+        <v>9415</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="Q342" t="n">
         <v>36</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25053,20 +25053,20 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>560</v>
+        <v>420</v>
       </c>
       <c r="K343" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="L343" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M343" t="n">
-        <v>11482</v>
+        <v>19405</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -25075,10 +25075,10 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>319</v>
+        <v>6468</v>
       </c>
       <c r="Q343" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44165</v>
+        <v>44418</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25121,20 +25121,20 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K344" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L344" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M344" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="Q344" t="n">
         <v>36</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25197,20 +25197,20 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>330</v>
+        <v>560</v>
       </c>
       <c r="K345" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L345" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M345" t="n">
-        <v>10000</v>
+        <v>11482</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -25219,10 +25219,10 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>3333</v>
+        <v>319</v>
       </c>
       <c r="Q345" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25265,20 +25265,20 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K346" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L346" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M346" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q346" t="n">
         <v>36</v>
@@ -25337,20 +25337,20 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="K347" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L347" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M347" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>2667</v>
+        <v>3333</v>
       </c>
       <c r="Q347" t="n">
         <v>3</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25409,20 +25409,20 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J348" t="n">
-        <v>570</v>
+        <v>100</v>
       </c>
       <c r="K348" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L348" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M348" t="n">
-        <v>7693</v>
+        <v>4000</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="Q348" t="n">
         <v>36</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25481,20 +25481,20 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J349" t="n">
-        <v>460</v>
+        <v>180</v>
       </c>
       <c r="K349" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L349" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M349" t="n">
-        <v>15413</v>
+        <v>8000</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>5138</v>
+        <v>2667</v>
       </c>
       <c r="Q349" t="n">
         <v>3</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>230</v>
+        <v>570</v>
       </c>
       <c r="K350" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L350" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M350" t="n">
-        <v>5652</v>
+        <v>7693</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="Q350" t="n">
         <v>36</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>350</v>
+        <v>460</v>
       </c>
       <c r="K351" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L351" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M351" t="n">
-        <v>9657</v>
+        <v>15413</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>3219</v>
+        <v>5138</v>
       </c>
       <c r="Q351" t="n">
         <v>3</v>
@@ -25697,20 +25697,20 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="K352" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L352" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M352" t="n">
-        <v>4000</v>
+        <v>5652</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="Q352" t="n">
         <v>36</v>
@@ -25769,20 +25769,20 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="K353" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L353" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M353" t="n">
-        <v>7000</v>
+        <v>9657</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>2333</v>
+        <v>3219</v>
       </c>
       <c r="Q353" t="n">
         <v>3</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25841,20 +25841,20 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J354" t="n">
-        <v>440</v>
+        <v>80</v>
       </c>
       <c r="K354" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L354" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M354" t="n">
-        <v>7795</v>
+        <v>4000</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>217</v>
+        <v>111</v>
       </c>
       <c r="Q354" t="n">
         <v>36</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25913,20 +25913,20 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J355" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="K355" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L355" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M355" t="n">
-        <v>17422</v>
+        <v>7000</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>5807</v>
+        <v>2333</v>
       </c>
       <c r="Q355" t="n">
         <v>3</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25989,32 +25989,32 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>250</v>
+        <v>440</v>
       </c>
       <c r="K356" t="n">
-        <v>19000</v>
+        <v>7500</v>
       </c>
       <c r="L356" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M356" t="n">
-        <v>19720</v>
+        <v>7795</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P356" t="n">
-        <v>6573</v>
+        <v>217</v>
       </c>
       <c r="Q356" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R356" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26061,20 +26061,20 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>530</v>
+        <v>450</v>
       </c>
       <c r="K357" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="L357" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M357" t="n">
-        <v>7811</v>
+        <v>17422</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
@@ -26083,10 +26083,10 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>217</v>
+        <v>5807</v>
       </c>
       <c r="Q357" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R357" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="K358" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L358" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M358" t="n">
-        <v>12455</v>
+        <v>19720</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26151,11 +26151,11 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P358" t="n">
-        <v>4152</v>
+        <v>6573</v>
       </c>
       <c r="Q358" t="n">
         <v>3</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>640</v>
+        <v>530</v>
       </c>
       <c r="K359" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L359" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M359" t="n">
-        <v>4203</v>
+        <v>7811</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="Q359" t="n">
         <v>36</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="K360" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L360" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M360" t="n">
-        <v>7289</v>
+        <v>12455</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>2430</v>
+        <v>4152</v>
       </c>
       <c r="Q360" t="n">
         <v>3</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>510</v>
+        <v>640</v>
       </c>
       <c r="K361" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L361" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M361" t="n">
-        <v>6000</v>
+        <v>4203</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q361" t="n">
         <v>36</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>590</v>
+        <v>380</v>
       </c>
       <c r="K362" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L362" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="M362" t="n">
-        <v>12288</v>
+        <v>7289</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>4096</v>
+        <v>2430</v>
       </c>
       <c r="Q362" t="n">
         <v>3</v>
@@ -26489,20 +26489,20 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>220</v>
+        <v>510</v>
       </c>
       <c r="K363" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L363" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M363" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q363" t="n">
         <v>36</v>
@@ -26561,20 +26561,20 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J364" t="n">
-        <v>120</v>
+        <v>590</v>
       </c>
       <c r="K364" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L364" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M364" t="n">
-        <v>10000</v>
+        <v>12288</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>3333</v>
+        <v>4096</v>
       </c>
       <c r="Q364" t="n">
         <v>3</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26633,20 +26633,20 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="K365" t="n">
         <v>5000</v>
       </c>
       <c r="L365" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M365" t="n">
-        <v>5538</v>
+        <v>5000</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="Q365" t="n">
         <v>36</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26705,20 +26705,20 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J366" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K366" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L366" t="n">
         <v>10000</v>
       </c>
       <c r="M366" t="n">
-        <v>9607</v>
+        <v>10000</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>3202</v>
+        <v>3333</v>
       </c>
       <c r="Q366" t="n">
         <v>3</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="K367" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L367" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M367" t="n">
-        <v>4717</v>
+        <v>5538</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="Q367" t="n">
         <v>36</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>390</v>
+        <v>280</v>
       </c>
       <c r="K368" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L368" t="n">
         <v>10000</v>
       </c>
       <c r="M368" t="n">
-        <v>9692</v>
+        <v>9607</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>3231</v>
+        <v>3202</v>
       </c>
       <c r="Q368" t="n">
         <v>3</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>410</v>
+        <v>530</v>
       </c>
       <c r="K369" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L369" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M369" t="n">
-        <v>7793</v>
+        <v>4717</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="Q369" t="n">
         <v>36</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>220</v>
+        <v>390</v>
       </c>
       <c r="K370" t="n">
-        <v>1600</v>
+        <v>9500</v>
       </c>
       <c r="L370" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M370" t="n">
-        <v>7082</v>
+        <v>9692</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>2361</v>
+        <v>3231</v>
       </c>
       <c r="Q370" t="n">
         <v>3</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27069,7 +27069,7 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="K371" t="n">
         <v>7500</v>
@@ -27078,7 +27078,7 @@
         <v>8000</v>
       </c>
       <c r="M371" t="n">
-        <v>7787</v>
+        <v>7793</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="K372" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L372" t="n">
         <v>15000</v>
       </c>
-      <c r="L372" t="n">
-        <v>16000</v>
-      </c>
       <c r="M372" t="n">
-        <v>15464</v>
+        <v>7082</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>5155</v>
+        <v>2361</v>
       </c>
       <c r="Q372" t="n">
         <v>3</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>570</v>
+        <v>470</v>
       </c>
       <c r="K373" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L373" t="n">
         <v>8000</v>
       </c>
       <c r="M373" t="n">
-        <v>7579</v>
+        <v>7787</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q373" t="n">
         <v>36</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="K374" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L374" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M374" t="n">
-        <v>14452</v>
+        <v>15464</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>4817</v>
+        <v>5155</v>
       </c>
       <c r="Q374" t="n">
         <v>3</v>
@@ -27357,32 +27357,32 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>110</v>
+        <v>570</v>
       </c>
       <c r="K375" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="L375" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M375" t="n">
-        <v>19091</v>
+        <v>7579</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P375" t="n">
-        <v>6364</v>
+        <v>211</v>
       </c>
       <c r="Q375" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R375" t="inlineStr">
         <is>
@@ -27425,20 +27425,20 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="K376" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L376" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M376" t="n">
-        <v>12000</v>
+        <v>14452</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>4000</v>
+        <v>4817</v>
       </c>
       <c r="Q376" t="n">
         <v>3</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27501,32 +27501,32 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>450</v>
+        <v>110</v>
       </c>
       <c r="K377" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="L377" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M377" t="n">
-        <v>4789</v>
+        <v>19091</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>133</v>
+        <v>6364</v>
       </c>
       <c r="Q377" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27569,20 +27569,20 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="K378" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L378" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M378" t="n">
-        <v>7577</v>
+        <v>12000</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>2526</v>
+        <v>4000</v>
       </c>
       <c r="Q378" t="n">
         <v>3</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27648,13 +27648,13 @@
         <v>450</v>
       </c>
       <c r="K379" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L379" t="n">
         <v>5000</v>
       </c>
-      <c r="L379" t="n">
-        <v>6000</v>
-      </c>
       <c r="M379" t="n">
-        <v>5644</v>
+        <v>4789</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="Q379" t="n">
         <v>36</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>660</v>
+        <v>260</v>
       </c>
       <c r="K380" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L380" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M380" t="n">
-        <v>11742</v>
+        <v>7577</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>3914</v>
+        <v>2526</v>
       </c>
       <c r="Q380" t="n">
         <v>3</v>
@@ -27785,20 +27785,20 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="K381" t="n">
         <v>5000</v>
       </c>
       <c r="L381" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M381" t="n">
-        <v>5000</v>
+        <v>5644</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q381" t="n">
         <v>36</v>
@@ -27857,20 +27857,20 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>160</v>
+        <v>660</v>
       </c>
       <c r="K382" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L382" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M382" t="n">
-        <v>10000</v>
+        <v>11742</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>3333</v>
+        <v>3914</v>
       </c>
       <c r="Q382" t="n">
         <v>3</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27929,20 +27929,20 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>460</v>
+        <v>140</v>
       </c>
       <c r="K383" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L383" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M383" t="n">
-        <v>7707</v>
+        <v>5000</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="Q383" t="n">
         <v>36</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -28001,20 +28001,20 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K384" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L384" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M384" t="n">
-        <v>14441</v>
+        <v>10000</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>4814</v>
+        <v>3333</v>
       </c>
       <c r="Q384" t="n">
         <v>3</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>610</v>
+        <v>460</v>
       </c>
       <c r="K385" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L385" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M385" t="n">
-        <v>6197</v>
+        <v>7707</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="Q385" t="n">
         <v>36</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="K386" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L386" t="n">
         <v>15000</v>
       </c>
-      <c r="L386" t="n">
-        <v>16000</v>
-      </c>
       <c r="M386" t="n">
-        <v>15455</v>
+        <v>14441</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>5152</v>
+        <v>4814</v>
       </c>
       <c r="Q386" t="n">
         <v>3</v>
@@ -28217,24 +28217,24 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>100</v>
+        <v>610</v>
       </c>
       <c r="K387" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L387" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="M387" t="n">
-        <v>14000</v>
+        <v>6197</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -28243,10 +28243,10 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>4667</v>
+        <v>172</v>
       </c>
       <c r="Q387" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28293,20 +28293,20 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>420</v>
+        <v>330</v>
       </c>
       <c r="K388" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="L388" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M388" t="n">
-        <v>4786</v>
+        <v>15455</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
@@ -28315,10 +28315,10 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>133</v>
+        <v>5152</v>
       </c>
       <c r="Q388" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28361,20 +28361,20 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="K389" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L389" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M389" t="n">
-        <v>7630</v>
+        <v>14000</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>2543</v>
+        <v>4667</v>
       </c>
       <c r="Q389" t="n">
         <v>3</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>570</v>
+        <v>420</v>
       </c>
       <c r="K390" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L390" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M390" t="n">
-        <v>7579</v>
+        <v>4786</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="Q390" t="n">
         <v>36</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="K391" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L391" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M391" t="n">
-        <v>14562</v>
+        <v>7630</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>4854</v>
+        <v>2543</v>
       </c>
       <c r="Q391" t="n">
         <v>3</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>440</v>
+        <v>570</v>
       </c>
       <c r="K392" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L392" t="n">
         <v>8000</v>
       </c>
       <c r="M392" t="n">
-        <v>8000</v>
+        <v>7579</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="Q392" t="n">
         <v>36</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28659,10 +28659,10 @@
         <v>14000</v>
       </c>
       <c r="L393" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M393" t="n">
-        <v>14000</v>
+        <v>14562</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>4667</v>
+        <v>4854</v>
       </c>
       <c r="Q393" t="n">
         <v>3</v>
@@ -28721,20 +28721,20 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J394" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="K394" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L394" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M394" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q394" t="n">
         <v>36</v>
@@ -28793,20 +28793,20 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J395" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="K395" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L395" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M395" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>4000</v>
+        <v>4667</v>
       </c>
       <c r="Q395" t="n">
         <v>3</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28865,20 +28865,20 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>510</v>
+        <v>200</v>
       </c>
       <c r="K396" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L396" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M396" t="n">
-        <v>4725</v>
+        <v>7000</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="Q396" t="n">
         <v>36</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28937,20 +28937,20 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J397" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="K397" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L397" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M397" t="n">
-        <v>8406</v>
+        <v>12000</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>2802</v>
+        <v>4000</v>
       </c>
       <c r="Q397" t="n">
         <v>3</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>440</v>
+        <v>510</v>
       </c>
       <c r="K398" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L398" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M398" t="n">
-        <v>7591</v>
+        <v>4725</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="Q398" t="n">
         <v>36</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="K399" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L399" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M399" t="n">
-        <v>14611</v>
+        <v>8406</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>4870</v>
+        <v>2802</v>
       </c>
       <c r="Q399" t="n">
         <v>3</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>370</v>
+        <v>440</v>
       </c>
       <c r="K400" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L400" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M400" t="n">
-        <v>6676</v>
+        <v>7591</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29175,11 +29175,11 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P400" t="n">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="Q400" t="n">
         <v>36</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29229,20 +29229,20 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="K401" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L401" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M401" t="n">
-        <v>7000</v>
+        <v>14611</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29251,10 +29251,10 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>194</v>
+        <v>4870</v>
       </c>
       <c r="Q401" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29301,32 +29301,32 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="K402" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L402" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M402" t="n">
-        <v>14581</v>
+        <v>6676</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P402" t="n">
-        <v>4860</v>
+        <v>185</v>
       </c>
       <c r="Q402" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29369,20 +29369,20 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="K403" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L403" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M403" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q403" t="n">
         <v>36</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29445,20 +29445,20 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>540</v>
+        <v>430</v>
       </c>
       <c r="K404" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L404" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M404" t="n">
-        <v>7769</v>
+        <v>14581</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
@@ -29467,10 +29467,10 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>216</v>
+        <v>4860</v>
       </c>
       <c r="Q404" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29513,24 +29513,24 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>430</v>
+        <v>220</v>
       </c>
       <c r="K405" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L405" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M405" t="n">
-        <v>15581</v>
+        <v>6000</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -29539,10 +29539,10 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>5194</v>
+        <v>167</v>
       </c>
       <c r="Q405" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29589,32 +29589,32 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>140</v>
+        <v>540</v>
       </c>
       <c r="K406" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="L406" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="M406" t="n">
-        <v>21143</v>
+        <v>7769</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P406" t="n">
-        <v>7048</v>
+        <v>216</v>
       </c>
       <c r="Q406" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29661,20 +29661,20 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="K407" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L407" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M407" t="n">
-        <v>5644</v>
+        <v>15581</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
@@ -29683,10 +29683,10 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>157</v>
+        <v>5194</v>
       </c>
       <c r="Q407" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R407" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>670</v>
+        <v>140</v>
       </c>
       <c r="K408" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L408" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M408" t="n">
-        <v>10761</v>
+        <v>21143</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29751,11 +29751,11 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P408" t="n">
-        <v>3587</v>
+        <v>7048</v>
       </c>
       <c r="Q408" t="n">
         <v>3</v>
@@ -29801,20 +29801,20 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="K409" t="n">
         <v>5000</v>
       </c>
       <c r="L409" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M409" t="n">
-        <v>5000</v>
+        <v>5644</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q409" t="n">
         <v>36</v>
@@ -29873,20 +29873,20 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>140</v>
+        <v>670</v>
       </c>
       <c r="K410" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L410" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M410" t="n">
-        <v>8000</v>
+        <v>10761</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>2667</v>
+        <v>3587</v>
       </c>
       <c r="Q410" t="n">
         <v>3</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29945,20 +29945,20 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="K411" t="n">
         <v>5000</v>
       </c>
       <c r="L411" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M411" t="n">
-        <v>5622</v>
+        <v>5000</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="Q411" t="n">
         <v>36</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30017,20 +30017,20 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>620</v>
+        <v>140</v>
       </c>
       <c r="K412" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L412" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M412" t="n">
-        <v>9282</v>
+        <v>8000</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>3094</v>
+        <v>2667</v>
       </c>
       <c r="Q412" t="n">
         <v>3</v>
@@ -30089,20 +30089,20 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="K413" t="n">
         <v>5000</v>
       </c>
       <c r="L413" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M413" t="n">
-        <v>5000</v>
+        <v>5622</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="Q413" t="n">
         <v>36</v>
@@ -30161,20 +30161,20 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>150</v>
+        <v>620</v>
       </c>
       <c r="K414" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L414" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M414" t="n">
-        <v>8000</v>
+        <v>9282</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>2667</v>
+        <v>3094</v>
       </c>
       <c r="Q414" t="n">
         <v>3</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30233,20 +30233,20 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>720</v>
+        <v>140</v>
       </c>
       <c r="K415" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L415" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M415" t="n">
-        <v>3729</v>
+        <v>5000</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="Q415" t="n">
         <v>36</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30305,20 +30305,20 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="K416" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L416" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M416" t="n">
-        <v>7197</v>
+        <v>8000</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>2399</v>
+        <v>2667</v>
       </c>
       <c r="Q416" t="n">
         <v>3</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>510</v>
+        <v>720</v>
       </c>
       <c r="K417" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="L417" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M417" t="n">
-        <v>7716</v>
+        <v>3729</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>214</v>
+        <v>104</v>
       </c>
       <c r="Q417" t="n">
         <v>36</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30453,16 +30453,16 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="K418" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L418" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M418" t="n">
-        <v>14455</v>
+        <v>7197</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>4818</v>
+        <v>2399</v>
       </c>
       <c r="Q418" t="n">
         <v>3</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30525,16 +30525,16 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>250</v>
+        <v>510</v>
       </c>
       <c r="K419" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L419" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M419" t="n">
-        <v>6000</v>
+        <v>7716</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="Q419" t="n">
         <v>36</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30597,16 +30597,16 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="K420" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L420" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M420" t="n">
-        <v>12000</v>
+        <v>14455</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30615,11 +30615,11 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P420" t="n">
-        <v>4000</v>
+        <v>4818</v>
       </c>
       <c r="Q420" t="n">
         <v>3</v>
@@ -30672,17 +30672,17 @@
         <v>250</v>
       </c>
       <c r="K421" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L421" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M421" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -30691,10 +30691,10 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q421" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30737,36 +30737,36 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K422" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L422" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M422" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P422" t="n">
-        <v>139</v>
+        <v>4000</v>
       </c>
       <c r="Q422" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30813,32 +30813,32 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="K423" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L423" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M423" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N423" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O423" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P423" t="n">
         <v>4000</v>
       </c>
-      <c r="L423" t="n">
-        <v>4500</v>
-      </c>
-      <c r="M423" t="n">
-        <v>4208</v>
-      </c>
-      <c r="N423" t="inlineStr">
-        <is>
-          <t>$/caja 36 atados</t>
-        </is>
-      </c>
-      <c r="O423" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P423" t="n">
-        <v>117</v>
-      </c>
       <c r="Q423" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30881,24 +30881,24 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="K424" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L424" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M424" t="n">
-        <v>7183</v>
+        <v>5000</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -30907,10 +30907,10 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>2394</v>
+        <v>139</v>
       </c>
       <c r="Q424" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>620</v>
+        <v>530</v>
       </c>
       <c r="K425" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L425" t="n">
         <v>4500</v>
       </c>
-      <c r="L425" t="n">
-        <v>5000</v>
-      </c>
       <c r="M425" t="n">
-        <v>4718</v>
+        <v>4208</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Q425" t="n">
         <v>36</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="K426" t="n">
         <v>7000</v>
       </c>
       <c r="L426" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M426" t="n">
-        <v>7405</v>
+        <v>7183</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>2468</v>
+        <v>2394</v>
       </c>
       <c r="Q426" t="n">
         <v>3</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>390</v>
+        <v>620</v>
       </c>
       <c r="K427" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L427" t="n">
         <v>5000</v>
       </c>
-      <c r="L427" t="n">
-        <v>6000</v>
-      </c>
       <c r="M427" t="n">
-        <v>5692</v>
+        <v>4718</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="Q427" t="n">
         <v>36</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>260</v>
+        <v>370</v>
       </c>
       <c r="K428" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L428" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M428" t="n">
-        <v>9577</v>
+        <v>7405</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>3192</v>
+        <v>2468</v>
       </c>
       <c r="Q428" t="n">
         <v>3</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>220</v>
+        <v>390</v>
       </c>
       <c r="K429" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L429" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M429" t="n">
-        <v>8318</v>
+        <v>5692</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="Q429" t="n">
         <v>36</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>430</v>
+        <v>260</v>
       </c>
       <c r="K430" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L430" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M430" t="n">
-        <v>14628</v>
+        <v>9577</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>4876</v>
+        <v>3192</v>
       </c>
       <c r="Q430" t="n">
         <v>3</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>620</v>
+        <v>220</v>
       </c>
       <c r="K431" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L431" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M431" t="n">
-        <v>4218</v>
+        <v>8318</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="Q431" t="n">
         <v>36</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="K432" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L432" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M432" t="n">
-        <v>7211</v>
+        <v>14628</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>2404</v>
+        <v>4876</v>
       </c>
       <c r="Q432" t="n">
         <v>3</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>330</v>
+        <v>620</v>
       </c>
       <c r="K433" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L433" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M433" t="n">
-        <v>6000</v>
+        <v>4218</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q433" t="n">
         <v>36</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31605,16 +31605,16 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>140</v>
+        <v>380</v>
       </c>
       <c r="K434" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L434" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M434" t="n">
-        <v>12000</v>
+        <v>7211</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>4000</v>
+        <v>2404</v>
       </c>
       <c r="Q434" t="n">
         <v>3</v>
@@ -31673,20 +31673,20 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="K435" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L435" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M435" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q435" t="n">
         <v>36</v>
@@ -31745,20 +31745,20 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K436" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L436" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M436" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>3333</v>
+        <v>4000</v>
       </c>
       <c r="Q436" t="n">
         <v>3</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31817,20 +31817,20 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>440</v>
+        <v>120</v>
       </c>
       <c r="K437" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L437" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M437" t="n">
-        <v>7795</v>
+        <v>5000</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="Q437" t="n">
         <v>36</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31889,20 +31889,20 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="K438" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L438" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M438" t="n">
-        <v>14419</v>
+        <v>10000</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>4806</v>
+        <v>3333</v>
       </c>
       <c r="Q438" t="n">
         <v>3</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="K439" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L439" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M439" t="n">
-        <v>6786</v>
+        <v>7795</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="Q439" t="n">
         <v>36</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="K440" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L440" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M440" t="n">
-        <v>12586</v>
+        <v>14419</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>4195</v>
+        <v>4806</v>
       </c>
       <c r="Q440" t="n">
         <v>3</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="K441" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L441" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M441" t="n">
-        <v>5721</v>
+        <v>6786</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="Q441" t="n">
         <v>36</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32181,7 +32181,7 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="K442" t="n">
         <v>12000</v>
@@ -32190,7 +32190,7 @@
         <v>13000</v>
       </c>
       <c r="M442" t="n">
-        <v>12619</v>
+        <v>12586</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>4206</v>
+        <v>4195</v>
       </c>
       <c r="Q442" t="n">
         <v>3</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32253,16 +32253,16 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>640</v>
+        <v>340</v>
       </c>
       <c r="K443" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L443" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M443" t="n">
-        <v>4219</v>
+        <v>5721</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="Q443" t="n">
         <v>36</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>470</v>
+        <v>210</v>
       </c>
       <c r="K444" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L444" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M444" t="n">
-        <v>7702</v>
+        <v>12619</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>2567</v>
+        <v>4206</v>
       </c>
       <c r="Q444" t="n">
         <v>3</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32397,16 +32397,16 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="K445" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L445" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M445" t="n">
-        <v>5781</v>
+        <v>4219</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="Q445" t="n">
         <v>36</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32469,16 +32469,16 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="K446" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L446" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M446" t="n">
-        <v>9824</v>
+        <v>7702</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>3275</v>
+        <v>2567</v>
       </c>
       <c r="Q446" t="n">
         <v>3</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32541,16 +32541,16 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="K447" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L447" t="n">
         <v>6000</v>
       </c>
       <c r="M447" t="n">
-        <v>6000</v>
+        <v>5781</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q447" t="n">
         <v>36</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>700</v>
+        <v>170</v>
       </c>
       <c r="K448" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L448" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M448" t="n">
-        <v>11500</v>
+        <v>9824</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>3833</v>
+        <v>3275</v>
       </c>
       <c r="Q448" t="n">
         <v>3</v>
@@ -32681,20 +32681,20 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K449" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L449" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M449" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q449" t="n">
         <v>36</v>
@@ -32753,20 +32753,20 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K450" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L450" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M450" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>3000</v>
+        <v>3833</v>
       </c>
       <c r="Q450" t="n">
         <v>3</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32825,20 +32825,20 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>630</v>
+        <v>160</v>
       </c>
       <c r="K451" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L451" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M451" t="n">
-        <v>4214</v>
+        <v>5000</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="Q451" t="n">
         <v>36</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32897,20 +32897,20 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K452" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L452" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M452" t="n">
-        <v>7389</v>
+        <v>9000</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>2463</v>
+        <v>3000</v>
       </c>
       <c r="Q452" t="n">
         <v>3</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="K453" t="n">
         <v>4000</v>
       </c>
       <c r="L453" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M453" t="n">
-        <v>4357</v>
+        <v>4214</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q453" t="n">
         <v>36</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>510</v>
+        <v>360</v>
       </c>
       <c r="K454" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L454" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M454" t="n">
-        <v>11225</v>
+        <v>7389</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>3742</v>
+        <v>2463</v>
       </c>
       <c r="Q454" t="n">
         <v>3</v>
@@ -33113,20 +33113,20 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="K455" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L455" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M455" t="n">
-        <v>3500</v>
+        <v>4357</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="Q455" t="n">
         <v>36</v>
@@ -33185,20 +33185,20 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>130</v>
+        <v>510</v>
       </c>
       <c r="K456" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L456" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M456" t="n">
-        <v>8000</v>
+        <v>11225</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>2667</v>
+        <v>3742</v>
       </c>
       <c r="Q456" t="n">
         <v>3</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33257,20 +33257,20 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>590</v>
+        <v>100</v>
       </c>
       <c r="K457" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L457" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M457" t="n">
-        <v>4186</v>
+        <v>3500</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="Q457" t="n">
         <v>36</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33329,20 +33329,20 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>450</v>
+        <v>130</v>
       </c>
       <c r="K458" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L458" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M458" t="n">
-        <v>7289</v>
+        <v>8000</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>2430</v>
+        <v>2667</v>
       </c>
       <c r="Q458" t="n">
         <v>3</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33405,7 +33405,7 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>660</v>
+        <v>590</v>
       </c>
       <c r="K459" t="n">
         <v>4000</v>
@@ -33414,7 +33414,7 @@
         <v>4500</v>
       </c>
       <c r="M459" t="n">
-        <v>4220</v>
+        <v>4186</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q459" t="n">
         <v>36</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="K460" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L460" t="n">
         <v>7500</v>
       </c>
-      <c r="L460" t="n">
-        <v>8000</v>
-      </c>
       <c r="M460" t="n">
-        <v>7703</v>
+        <v>7289</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>2568</v>
+        <v>2430</v>
       </c>
       <c r="Q460" t="n">
         <v>3</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>550</v>
+        <v>660</v>
       </c>
       <c r="K461" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L461" t="n">
         <v>4500</v>
       </c>
-      <c r="L461" t="n">
-        <v>5000</v>
-      </c>
       <c r="M461" t="n">
-        <v>4700</v>
+        <v>4220</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Q461" t="n">
         <v>36</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33624,13 +33624,13 @@
         <v>370</v>
       </c>
       <c r="K462" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L462" t="n">
         <v>8000</v>
       </c>
-      <c r="L462" t="n">
-        <v>9000</v>
-      </c>
       <c r="M462" t="n">
-        <v>8405</v>
+        <v>7703</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>2802</v>
+        <v>2568</v>
       </c>
       <c r="Q462" t="n">
         <v>3</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="K463" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L463" t="n">
         <v>5000</v>
       </c>
-      <c r="L463" t="n">
-        <v>6000</v>
-      </c>
       <c r="M463" t="n">
-        <v>5673</v>
+        <v>4700</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="Q463" t="n">
         <v>36</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>720</v>
+        <v>370</v>
       </c>
       <c r="K464" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L464" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M464" t="n">
-        <v>10236</v>
+        <v>8405</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>3412</v>
+        <v>2802</v>
       </c>
       <c r="Q464" t="n">
         <v>3</v>
@@ -33833,20 +33833,20 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="K465" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L465" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M465" t="n">
-        <v>4000</v>
+        <v>5673</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="Q465" t="n">
         <v>36</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33909,20 +33909,20 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>350</v>
+        <v>720</v>
       </c>
       <c r="K466" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L466" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M466" t="n">
-        <v>5000</v>
+        <v>10236</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
@@ -33931,10 +33931,10 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>139</v>
+        <v>3412</v>
       </c>
       <c r="Q466" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R466" t="inlineStr">
         <is>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33977,24 +33977,24 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="K467" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L467" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M467" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
@@ -34003,10 +34003,10 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>2667</v>
+        <v>111</v>
       </c>
       <c r="Q467" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R467" t="inlineStr">
         <is>
@@ -34049,20 +34049,20 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="K468" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L468" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M468" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q468" t="n">
         <v>36</v>
@@ -34121,20 +34121,20 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>220</v>
+        <v>370</v>
       </c>
       <c r="K469" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L469" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M469" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>2333</v>
+        <v>2667</v>
       </c>
       <c r="Q469" t="n">
         <v>3</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34193,20 +34193,20 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>620</v>
+        <v>220</v>
       </c>
       <c r="K470" t="n">
         <v>4000</v>
       </c>
       <c r="L470" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M470" t="n">
-        <v>4266</v>
+        <v>4000</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="Q470" t="n">
         <v>36</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34265,20 +34265,20 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>430</v>
+        <v>220</v>
       </c>
       <c r="K471" t="n">
         <v>7000</v>
       </c>
       <c r="L471" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M471" t="n">
-        <v>7198</v>
+        <v>7000</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>2399</v>
+        <v>2333</v>
       </c>
       <c r="Q471" t="n">
         <v>3</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>490</v>
+        <v>620</v>
       </c>
       <c r="K472" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L472" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M472" t="n">
-        <v>5000</v>
+        <v>4266</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="Q472" t="n">
         <v>36</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>720</v>
+        <v>430</v>
       </c>
       <c r="K473" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L473" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M473" t="n">
-        <v>10896</v>
+        <v>7198</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>3632</v>
+        <v>2399</v>
       </c>
       <c r="Q473" t="n">
         <v>3</v>
@@ -34481,20 +34481,20 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="K474" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L474" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M474" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q474" t="n">
         <v>36</v>
@@ -34553,20 +34553,20 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>120</v>
+        <v>720</v>
       </c>
       <c r="K475" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L475" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M475" t="n">
-        <v>8000</v>
+        <v>10896</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>2667</v>
+        <v>3632</v>
       </c>
       <c r="Q475" t="n">
         <v>3</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34625,20 +34625,20 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K476" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L476" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M476" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="Q476" t="n">
         <v>36</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>670</v>
+        <v>120</v>
       </c>
       <c r="K477" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L477" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M477" t="n">
-        <v>10761</v>
+        <v>8000</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>3587</v>
+        <v>2667</v>
       </c>
       <c r="Q477" t="n">
         <v>3</v>
@@ -34769,20 +34769,20 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="K478" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L478" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M478" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q478" t="n">
         <v>36</v>
@@ -34841,20 +34841,20 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>160</v>
+        <v>670</v>
       </c>
       <c r="K479" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L479" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M479" t="n">
-        <v>8000</v>
+        <v>10761</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>2667</v>
+        <v>3587</v>
       </c>
       <c r="Q479" t="n">
         <v>3</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="K480" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L480" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M480" t="n">
-        <v>10605</v>
+        <v>4000</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="Q480" t="n">
         <v>36</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34985,20 +34985,20 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K481" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L481" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="M481" t="n">
-        <v>20839</v>
+        <v>8000</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>6946</v>
+        <v>2667</v>
       </c>
       <c r="Q481" t="n">
         <v>3</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>510</v>
+        <v>380</v>
       </c>
       <c r="K482" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L482" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M482" t="n">
-        <v>9451</v>
+        <v>10605</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="Q482" t="n">
         <v>36</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="K483" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L483" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M483" t="n">
-        <v>19455</v>
+        <v>20839</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>6485</v>
+        <v>6946</v>
       </c>
       <c r="Q483" t="n">
         <v>3</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="K484" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L484" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M484" t="n">
-        <v>7718</v>
+        <v>9451</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="Q484" t="n">
         <v>36</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35277,16 +35277,16 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>420</v>
+        <v>330</v>
       </c>
       <c r="K485" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L485" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M485" t="n">
-        <v>15452</v>
+        <v>19455</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>5151</v>
+        <v>6485</v>
       </c>
       <c r="Q485" t="n">
         <v>3</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35349,16 +35349,16 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>420</v>
+        <v>620</v>
       </c>
       <c r="K486" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L486" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M486" t="n">
-        <v>5821</v>
+        <v>7718</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="Q486" t="n">
         <v>36</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35421,16 +35421,16 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="K487" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L487" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M487" t="n">
-        <v>12710</v>
+        <v>15452</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>4237</v>
+        <v>5151</v>
       </c>
       <c r="Q487" t="n">
         <v>3</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="K488" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L488" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M488" t="n">
-        <v>5000</v>
+        <v>5821</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="Q488" t="n">
         <v>36</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="K489" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L489" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M489" t="n">
-        <v>9000</v>
+        <v>12710</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>3000</v>
+        <v>4237</v>
       </c>
       <c r="Q489" t="n">
         <v>3</v>
@@ -35633,20 +35633,20 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="K490" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L490" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M490" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q490" t="n">
         <v>36</v>
@@ -35705,20 +35705,20 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>140</v>
+        <v>320</v>
       </c>
       <c r="K491" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L491" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M491" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>2333</v>
+        <v>3000</v>
       </c>
       <c r="Q491" t="n">
         <v>3</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35777,20 +35777,20 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="K492" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L492" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M492" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35799,11 +35799,11 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P492" t="n">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="Q492" t="n">
         <v>36</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35849,24 +35849,24 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="K493" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L493" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M493" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O493" t="inlineStr">
@@ -35875,10 +35875,10 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>167</v>
+        <v>2333</v>
       </c>
       <c r="Q493" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R493" t="inlineStr">
         <is>
@@ -35925,20 +35925,20 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="K494" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L494" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M494" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O494" t="inlineStr">
@@ -35947,10 +35947,10 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q494" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R494" t="inlineStr">
         <is>
@@ -35997,20 +35997,20 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="K495" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L495" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M495" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O495" t="inlineStr">
@@ -36019,10 +36019,10 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q495" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R495" t="inlineStr">
         <is>
@@ -36065,36 +36065,36 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="K496" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L496" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M496" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P496" t="n">
-        <v>139</v>
+        <v>4000</v>
       </c>
       <c r="Q496" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R496" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36141,20 +36141,20 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>570</v>
+        <v>190</v>
       </c>
       <c r="K497" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L497" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M497" t="n">
-        <v>7193</v>
+        <v>12000</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O497" t="inlineStr">
@@ -36163,10 +36163,10 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="Q497" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R497" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36209,24 +36209,24 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="K498" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L498" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M498" t="n">
-        <v>14415</v>
+        <v>5000</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O498" t="inlineStr">
@@ -36235,10 +36235,10 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>4805</v>
+        <v>139</v>
       </c>
       <c r="Q498" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R498" t="inlineStr">
         <is>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>520</v>
+        <v>570</v>
       </c>
       <c r="K499" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L499" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M499" t="n">
-        <v>5760</v>
+        <v>7193</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="Q499" t="n">
         <v>36</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>320</v>
+        <v>410</v>
       </c>
       <c r="K500" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L500" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M500" t="n">
-        <v>11125</v>
+        <v>14415</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>3708</v>
+        <v>4805</v>
       </c>
       <c r="Q500" t="n">
         <v>3</v>
@@ -36429,32 +36429,32 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>90</v>
+        <v>520</v>
       </c>
       <c r="K501" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="L501" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M501" t="n">
-        <v>17333</v>
+        <v>5760</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P501" t="n">
-        <v>5778</v>
+        <v>160</v>
       </c>
       <c r="Q501" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R501" t="inlineStr">
         <is>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36501,20 +36501,20 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>570</v>
+        <v>320</v>
       </c>
       <c r="K502" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L502" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="M502" t="n">
-        <v>4193</v>
+        <v>11125</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O502" t="inlineStr">
@@ -36523,10 +36523,10 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>116</v>
+        <v>3708</v>
       </c>
       <c r="Q502" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R502" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36573,16 +36573,16 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>470</v>
+        <v>90</v>
       </c>
       <c r="K503" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="L503" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M503" t="n">
-        <v>7702</v>
+        <v>17333</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36591,11 +36591,11 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P503" t="n">
-        <v>2567</v>
+        <v>5778</v>
       </c>
       <c r="Q503" t="n">
         <v>3</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36645,32 +36645,32 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>470</v>
+        <v>570</v>
       </c>
       <c r="K504" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L504" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M504" t="n">
-        <v>8489</v>
+        <v>4193</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P504" t="n">
-        <v>2830</v>
+        <v>116</v>
       </c>
       <c r="Q504" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R504" t="inlineStr">
         <is>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36717,7 +36717,7 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>620</v>
+        <v>470</v>
       </c>
       <c r="K505" t="n">
         <v>7500</v>
@@ -36726,11 +36726,11 @@
         <v>8000</v>
       </c>
       <c r="M505" t="n">
-        <v>7718</v>
+        <v>7702</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O505" t="inlineStr">
@@ -36739,10 +36739,10 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>214</v>
+        <v>2567</v>
       </c>
       <c r="Q505" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R505" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36789,16 +36789,16 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="K506" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L506" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M506" t="n">
-        <v>15422</v>
+        <v>8489</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36807,11 +36807,11 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P506" t="n">
-        <v>5141</v>
+        <v>2830</v>
       </c>
       <c r="Q506" t="n">
         <v>3</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36861,16 +36861,16 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="K507" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L507" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M507" t="n">
-        <v>4713</v>
+        <v>7718</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="Q507" t="n">
         <v>36</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36933,16 +36933,16 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="K508" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L508" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M508" t="n">
-        <v>7421</v>
+        <v>15422</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,12 +36955,156 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>2474</v>
+        <v>5141</v>
       </c>
       <c r="Q508" t="n">
         <v>3</v>
       </c>
       <c r="R508" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>6</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D509" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E509" t="n">
+        <v>13</v>
+      </c>
+      <c r="F509" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J509" t="n">
+        <v>610</v>
+      </c>
+      <c r="K509" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L509" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M509" t="n">
+        <v>4713</v>
+      </c>
+      <c r="N509" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O509" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P509" t="n">
+        <v>131</v>
+      </c>
+      <c r="Q509" t="n">
+        <v>36</v>
+      </c>
+      <c r="R509" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>6</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D510" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E510" t="n">
+        <v>13</v>
+      </c>
+      <c r="F510" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J510" t="n">
+        <v>380</v>
+      </c>
+      <c r="K510" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L510" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M510" t="n">
+        <v>7421</v>
+      </c>
+      <c r="N510" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O510" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P510" t="n">
+        <v>2474</v>
+      </c>
+      <c r="Q510" t="n">
+        <v>3</v>
+      </c>
+      <c r="R510" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R512"/>
+  <dimension ref="A1:R514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="K347" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L347" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M347" t="n">
-        <v>11482</v>
+        <v>4211</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>319</v>
+        <v>117</v>
       </c>
       <c r="Q347" t="n">
         <v>36</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44165</v>
+        <v>44460</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25413,20 +25413,20 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="K348" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L348" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M348" t="n">
-        <v>5000</v>
+        <v>8349</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
@@ -25435,10 +25435,10 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>139</v>
+        <v>2783</v>
       </c>
       <c r="Q348" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R348" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25485,20 +25485,20 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>330</v>
+        <v>560</v>
       </c>
       <c r="K349" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L349" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M349" t="n">
-        <v>10000</v>
+        <v>11482</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -25507,10 +25507,10 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>3333</v>
+        <v>319</v>
       </c>
       <c r="Q349" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R349" t="inlineStr">
         <is>
@@ -25553,20 +25553,20 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J350" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K350" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L350" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M350" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q350" t="n">
         <v>36</v>
@@ -25625,20 +25625,20 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="K351" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L351" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M351" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>2667</v>
+        <v>3333</v>
       </c>
       <c r="Q351" t="n">
         <v>3</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -25697,20 +25697,20 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>570</v>
+        <v>100</v>
       </c>
       <c r="K352" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L352" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M352" t="n">
-        <v>7693</v>
+        <v>4000</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="Q352" t="n">
         <v>36</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25769,20 +25769,20 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>460</v>
+        <v>180</v>
       </c>
       <c r="K353" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L353" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M353" t="n">
-        <v>15413</v>
+        <v>8000</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>5138</v>
+        <v>2667</v>
       </c>
       <c r="Q353" t="n">
         <v>3</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>230</v>
+        <v>570</v>
       </c>
       <c r="K354" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L354" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M354" t="n">
-        <v>5652</v>
+        <v>7693</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="Q354" t="n">
         <v>36</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>350</v>
+        <v>460</v>
       </c>
       <c r="K355" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L355" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M355" t="n">
-        <v>9657</v>
+        <v>15413</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>3219</v>
+        <v>5138</v>
       </c>
       <c r="Q355" t="n">
         <v>3</v>
@@ -25985,20 +25985,20 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="K356" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L356" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M356" t="n">
-        <v>4000</v>
+        <v>5652</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="Q356" t="n">
         <v>36</v>
@@ -26057,20 +26057,20 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="K357" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L357" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M357" t="n">
-        <v>7000</v>
+        <v>9657</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>2333</v>
+        <v>3219</v>
       </c>
       <c r="Q357" t="n">
         <v>3</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26129,20 +26129,20 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>440</v>
+        <v>80</v>
       </c>
       <c r="K358" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L358" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M358" t="n">
-        <v>7795</v>
+        <v>4000</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>217</v>
+        <v>111</v>
       </c>
       <c r="Q358" t="n">
         <v>36</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26201,20 +26201,20 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J359" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="K359" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L359" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M359" t="n">
-        <v>17422</v>
+        <v>7000</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>5807</v>
+        <v>2333</v>
       </c>
       <c r="Q359" t="n">
         <v>3</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26277,32 +26277,32 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>250</v>
+        <v>440</v>
       </c>
       <c r="K360" t="n">
-        <v>19000</v>
+        <v>7500</v>
       </c>
       <c r="L360" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M360" t="n">
-        <v>19720</v>
+        <v>7795</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P360" t="n">
-        <v>6573</v>
+        <v>217</v>
       </c>
       <c r="Q360" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R360" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26349,20 +26349,20 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>530</v>
+        <v>450</v>
       </c>
       <c r="K361" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="L361" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M361" t="n">
-        <v>7811</v>
+        <v>17422</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
@@ -26371,10 +26371,10 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>217</v>
+        <v>5807</v>
       </c>
       <c r="Q361" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R361" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="K362" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L362" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M362" t="n">
-        <v>12455</v>
+        <v>19720</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26439,11 +26439,11 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P362" t="n">
-        <v>4152</v>
+        <v>6573</v>
       </c>
       <c r="Q362" t="n">
         <v>3</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>640</v>
+        <v>530</v>
       </c>
       <c r="K363" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L363" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M363" t="n">
-        <v>4203</v>
+        <v>7811</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="Q363" t="n">
         <v>36</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="K364" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L364" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M364" t="n">
-        <v>7289</v>
+        <v>12455</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>2430</v>
+        <v>4152</v>
       </c>
       <c r="Q364" t="n">
         <v>3</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>510</v>
+        <v>640</v>
       </c>
       <c r="K365" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L365" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M365" t="n">
-        <v>6000</v>
+        <v>4203</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q365" t="n">
         <v>36</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>590</v>
+        <v>380</v>
       </c>
       <c r="K366" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L366" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="M366" t="n">
-        <v>12288</v>
+        <v>7289</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>4096</v>
+        <v>2430</v>
       </c>
       <c r="Q366" t="n">
         <v>3</v>
@@ -26777,20 +26777,20 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>220</v>
+        <v>510</v>
       </c>
       <c r="K367" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L367" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M367" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q367" t="n">
         <v>36</v>
@@ -26849,20 +26849,20 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J368" t="n">
-        <v>120</v>
+        <v>590</v>
       </c>
       <c r="K368" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L368" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M368" t="n">
-        <v>10000</v>
+        <v>12288</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>3333</v>
+        <v>4096</v>
       </c>
       <c r="Q368" t="n">
         <v>3</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26921,20 +26921,20 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="K369" t="n">
         <v>5000</v>
       </c>
       <c r="L369" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M369" t="n">
-        <v>5538</v>
+        <v>5000</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="Q369" t="n">
         <v>36</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26993,20 +26993,20 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K370" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L370" t="n">
         <v>10000</v>
       </c>
       <c r="M370" t="n">
-        <v>9607</v>
+        <v>10000</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>3202</v>
+        <v>3333</v>
       </c>
       <c r="Q370" t="n">
         <v>3</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="K371" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L371" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M371" t="n">
-        <v>4717</v>
+        <v>5538</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="Q371" t="n">
         <v>36</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>390</v>
+        <v>280</v>
       </c>
       <c r="K372" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L372" t="n">
         <v>10000</v>
       </c>
       <c r="M372" t="n">
-        <v>9692</v>
+        <v>9607</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>3231</v>
+        <v>3202</v>
       </c>
       <c r="Q372" t="n">
         <v>3</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>410</v>
+        <v>530</v>
       </c>
       <c r="K373" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L373" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M373" t="n">
-        <v>7793</v>
+        <v>4717</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="Q373" t="n">
         <v>36</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>220</v>
+        <v>390</v>
       </c>
       <c r="K374" t="n">
-        <v>1600</v>
+        <v>9500</v>
       </c>
       <c r="L374" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M374" t="n">
-        <v>7082</v>
+        <v>9692</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>2361</v>
+        <v>3231</v>
       </c>
       <c r="Q374" t="n">
         <v>3</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27357,7 +27357,7 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="K375" t="n">
         <v>7500</v>
@@ -27366,7 +27366,7 @@
         <v>8000</v>
       </c>
       <c r="M375" t="n">
-        <v>7787</v>
+        <v>7793</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="K376" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L376" t="n">
         <v>15000</v>
       </c>
-      <c r="L376" t="n">
-        <v>16000</v>
-      </c>
       <c r="M376" t="n">
-        <v>15464</v>
+        <v>7082</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>5155</v>
+        <v>2361</v>
       </c>
       <c r="Q376" t="n">
         <v>3</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>570</v>
+        <v>470</v>
       </c>
       <c r="K377" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L377" t="n">
         <v>8000</v>
       </c>
       <c r="M377" t="n">
-        <v>7579</v>
+        <v>7787</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q377" t="n">
         <v>36</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="K378" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L378" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M378" t="n">
-        <v>14452</v>
+        <v>15464</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>4817</v>
+        <v>5155</v>
       </c>
       <c r="Q378" t="n">
         <v>3</v>
@@ -27645,32 +27645,32 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>110</v>
+        <v>570</v>
       </c>
       <c r="K379" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="L379" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M379" t="n">
-        <v>19091</v>
+        <v>7579</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P379" t="n">
-        <v>6364</v>
+        <v>211</v>
       </c>
       <c r="Q379" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27713,20 +27713,20 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="K380" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L380" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M380" t="n">
-        <v>12000</v>
+        <v>14452</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>4000</v>
+        <v>4817</v>
       </c>
       <c r="Q380" t="n">
         <v>3</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -27789,32 +27789,32 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>450</v>
+        <v>110</v>
       </c>
       <c r="K381" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="L381" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M381" t="n">
-        <v>4789</v>
+        <v>19091</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P381" t="n">
-        <v>133</v>
+        <v>6364</v>
       </c>
       <c r="Q381" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27857,20 +27857,20 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="K382" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L382" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M382" t="n">
-        <v>7577</v>
+        <v>12000</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>2526</v>
+        <v>4000</v>
       </c>
       <c r="Q382" t="n">
         <v>3</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27936,13 +27936,13 @@
         <v>450</v>
       </c>
       <c r="K383" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L383" t="n">
         <v>5000</v>
       </c>
-      <c r="L383" t="n">
-        <v>6000</v>
-      </c>
       <c r="M383" t="n">
-        <v>5644</v>
+        <v>4789</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="Q383" t="n">
         <v>36</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>660</v>
+        <v>260</v>
       </c>
       <c r="K384" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L384" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M384" t="n">
-        <v>11742</v>
+        <v>7577</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>3914</v>
+        <v>2526</v>
       </c>
       <c r="Q384" t="n">
         <v>3</v>
@@ -28073,20 +28073,20 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="K385" t="n">
         <v>5000</v>
       </c>
       <c r="L385" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M385" t="n">
-        <v>5000</v>
+        <v>5644</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q385" t="n">
         <v>36</v>
@@ -28145,20 +28145,20 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>160</v>
+        <v>660</v>
       </c>
       <c r="K386" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L386" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M386" t="n">
-        <v>10000</v>
+        <v>11742</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>3333</v>
+        <v>3914</v>
       </c>
       <c r="Q386" t="n">
         <v>3</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28217,20 +28217,20 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>460</v>
+        <v>140</v>
       </c>
       <c r="K387" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L387" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M387" t="n">
-        <v>7707</v>
+        <v>5000</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="Q387" t="n">
         <v>36</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28289,20 +28289,20 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J388" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K388" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L388" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M388" t="n">
-        <v>14441</v>
+        <v>10000</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>4814</v>
+        <v>3333</v>
       </c>
       <c r="Q388" t="n">
         <v>3</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>610</v>
+        <v>460</v>
       </c>
       <c r="K389" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L389" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M389" t="n">
-        <v>6197</v>
+        <v>7707</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="Q389" t="n">
         <v>36</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="K390" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L390" t="n">
         <v>15000</v>
       </c>
-      <c r="L390" t="n">
-        <v>16000</v>
-      </c>
       <c r="M390" t="n">
-        <v>15455</v>
+        <v>14441</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>5152</v>
+        <v>4814</v>
       </c>
       <c r="Q390" t="n">
         <v>3</v>
@@ -28505,24 +28505,24 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>100</v>
+        <v>610</v>
       </c>
       <c r="K391" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L391" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="M391" t="n">
-        <v>14000</v>
+        <v>6197</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -28531,10 +28531,10 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>4667</v>
+        <v>172</v>
       </c>
       <c r="Q391" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R391" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28581,20 +28581,20 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>420</v>
+        <v>330</v>
       </c>
       <c r="K392" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="L392" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M392" t="n">
-        <v>4786</v>
+        <v>15455</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -28603,10 +28603,10 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>133</v>
+        <v>5152</v>
       </c>
       <c r="Q392" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28649,20 +28649,20 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J393" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="K393" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L393" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M393" t="n">
-        <v>7630</v>
+        <v>14000</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>2543</v>
+        <v>4667</v>
       </c>
       <c r="Q393" t="n">
         <v>3</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>570</v>
+        <v>420</v>
       </c>
       <c r="K394" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L394" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M394" t="n">
-        <v>7579</v>
+        <v>4786</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="Q394" t="n">
         <v>36</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="K395" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L395" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M395" t="n">
-        <v>14562</v>
+        <v>7630</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>4854</v>
+        <v>2543</v>
       </c>
       <c r="Q395" t="n">
         <v>3</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>440</v>
+        <v>570</v>
       </c>
       <c r="K396" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L396" t="n">
         <v>8000</v>
       </c>
       <c r="M396" t="n">
-        <v>8000</v>
+        <v>7579</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="Q396" t="n">
         <v>36</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28947,10 +28947,10 @@
         <v>14000</v>
       </c>
       <c r="L397" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M397" t="n">
-        <v>14000</v>
+        <v>14562</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>4667</v>
+        <v>4854</v>
       </c>
       <c r="Q397" t="n">
         <v>3</v>
@@ -29009,20 +29009,20 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J398" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="K398" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L398" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M398" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q398" t="n">
         <v>36</v>
@@ -29081,20 +29081,20 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="K399" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L399" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M399" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>4000</v>
+        <v>4667</v>
       </c>
       <c r="Q399" t="n">
         <v>3</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29153,20 +29153,20 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>510</v>
+        <v>200</v>
       </c>
       <c r="K400" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L400" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M400" t="n">
-        <v>4725</v>
+        <v>7000</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="Q400" t="n">
         <v>36</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29225,20 +29225,20 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="K401" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L401" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M401" t="n">
-        <v>8406</v>
+        <v>12000</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>2802</v>
+        <v>4000</v>
       </c>
       <c r="Q401" t="n">
         <v>3</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29301,16 +29301,16 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>440</v>
+        <v>510</v>
       </c>
       <c r="K402" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L402" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M402" t="n">
-        <v>7591</v>
+        <v>4725</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="Q402" t="n">
         <v>36</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29373,16 +29373,16 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="K403" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L403" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M403" t="n">
-        <v>14611</v>
+        <v>8406</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>4870</v>
+        <v>2802</v>
       </c>
       <c r="Q403" t="n">
         <v>3</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>370</v>
+        <v>440</v>
       </c>
       <c r="K404" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L404" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M404" t="n">
-        <v>6676</v>
+        <v>7591</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29463,11 +29463,11 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P404" t="n">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="Q404" t="n">
         <v>36</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29517,20 +29517,20 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="K405" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L405" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M405" t="n">
-        <v>7000</v>
+        <v>14611</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -29539,10 +29539,10 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>194</v>
+        <v>4870</v>
       </c>
       <c r="Q405" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29589,32 +29589,32 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="K406" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L406" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M406" t="n">
-        <v>14581</v>
+        <v>6676</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P406" t="n">
-        <v>4860</v>
+        <v>185</v>
       </c>
       <c r="Q406" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29657,20 +29657,20 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="K407" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L407" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M407" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q407" t="n">
         <v>36</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29733,20 +29733,20 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>540</v>
+        <v>430</v>
       </c>
       <c r="K408" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L408" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M408" t="n">
-        <v>7769</v>
+        <v>14581</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -29755,10 +29755,10 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>216</v>
+        <v>4860</v>
       </c>
       <c r="Q408" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R408" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29801,24 +29801,24 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>430</v>
+        <v>220</v>
       </c>
       <c r="K409" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L409" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M409" t="n">
-        <v>15581</v>
+        <v>6000</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
@@ -29827,10 +29827,10 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>5194</v>
+        <v>167</v>
       </c>
       <c r="Q409" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -29877,32 +29877,32 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>140</v>
+        <v>540</v>
       </c>
       <c r="K410" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="L410" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="M410" t="n">
-        <v>21143</v>
+        <v>7769</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>7048</v>
+        <v>216</v>
       </c>
       <c r="Q410" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29949,20 +29949,20 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="K411" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L411" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M411" t="n">
-        <v>5644</v>
+        <v>15581</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -29971,10 +29971,10 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>157</v>
+        <v>5194</v>
       </c>
       <c r="Q411" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>670</v>
+        <v>140</v>
       </c>
       <c r="K412" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L412" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M412" t="n">
-        <v>10761</v>
+        <v>21143</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30039,11 +30039,11 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P412" t="n">
-        <v>3587</v>
+        <v>7048</v>
       </c>
       <c r="Q412" t="n">
         <v>3</v>
@@ -30089,20 +30089,20 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="K413" t="n">
         <v>5000</v>
       </c>
       <c r="L413" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M413" t="n">
-        <v>5000</v>
+        <v>5644</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q413" t="n">
         <v>36</v>
@@ -30161,20 +30161,20 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>140</v>
+        <v>670</v>
       </c>
       <c r="K414" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L414" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M414" t="n">
-        <v>8000</v>
+        <v>10761</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>2667</v>
+        <v>3587</v>
       </c>
       <c r="Q414" t="n">
         <v>3</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30233,20 +30233,20 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="K415" t="n">
         <v>5000</v>
       </c>
       <c r="L415" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M415" t="n">
-        <v>5622</v>
+        <v>5000</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="Q415" t="n">
         <v>36</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30305,20 +30305,20 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>620</v>
+        <v>140</v>
       </c>
       <c r="K416" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L416" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M416" t="n">
-        <v>9282</v>
+        <v>8000</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>3094</v>
+        <v>2667</v>
       </c>
       <c r="Q416" t="n">
         <v>3</v>
@@ -30377,20 +30377,20 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="K417" t="n">
         <v>5000</v>
       </c>
       <c r="L417" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M417" t="n">
-        <v>5000</v>
+        <v>5622</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="Q417" t="n">
         <v>36</v>
@@ -30449,20 +30449,20 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>150</v>
+        <v>620</v>
       </c>
       <c r="K418" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L418" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M418" t="n">
-        <v>8000</v>
+        <v>9282</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>2667</v>
+        <v>3094</v>
       </c>
       <c r="Q418" t="n">
         <v>3</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30521,20 +30521,20 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>720</v>
+        <v>140</v>
       </c>
       <c r="K419" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L419" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M419" t="n">
-        <v>3729</v>
+        <v>5000</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="Q419" t="n">
         <v>36</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30593,20 +30593,20 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="K420" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L420" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M420" t="n">
-        <v>7197</v>
+        <v>8000</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>2399</v>
+        <v>2667</v>
       </c>
       <c r="Q420" t="n">
         <v>3</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30669,16 +30669,16 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>510</v>
+        <v>720</v>
       </c>
       <c r="K421" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="L421" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M421" t="n">
-        <v>7716</v>
+        <v>3729</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>214</v>
+        <v>104</v>
       </c>
       <c r="Q421" t="n">
         <v>36</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="K422" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L422" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M422" t="n">
-        <v>14455</v>
+        <v>7197</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>4818</v>
+        <v>2399</v>
       </c>
       <c r="Q422" t="n">
         <v>3</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>250</v>
+        <v>510</v>
       </c>
       <c r="K423" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L423" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M423" t="n">
-        <v>6000</v>
+        <v>7716</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="Q423" t="n">
         <v>36</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="K424" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L424" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M424" t="n">
-        <v>12000</v>
+        <v>14455</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30903,11 +30903,11 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P424" t="n">
-        <v>4000</v>
+        <v>4818</v>
       </c>
       <c r="Q424" t="n">
         <v>3</v>
@@ -30960,17 +30960,17 @@
         <v>250</v>
       </c>
       <c r="K425" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L425" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M425" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -30979,10 +30979,10 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q425" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R425" t="inlineStr">
         <is>
@@ -31025,36 +31025,36 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J426" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K426" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L426" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M426" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P426" t="n">
-        <v>139</v>
+        <v>4000</v>
       </c>
       <c r="Q426" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R426" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31101,32 +31101,32 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="K427" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L427" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M427" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N427" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O427" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P427" t="n">
         <v>4000</v>
       </c>
-      <c r="L427" t="n">
-        <v>4500</v>
-      </c>
-      <c r="M427" t="n">
-        <v>4208</v>
-      </c>
-      <c r="N427" t="inlineStr">
-        <is>
-          <t>$/caja 36 atados</t>
-        </is>
-      </c>
-      <c r="O427" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P427" t="n">
-        <v>117</v>
-      </c>
       <c r="Q427" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R427" t="inlineStr">
         <is>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31169,24 +31169,24 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="K428" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L428" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M428" t="n">
-        <v>7183</v>
+        <v>5000</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
@@ -31195,10 +31195,10 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>2394</v>
+        <v>139</v>
       </c>
       <c r="Q428" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R428" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>620</v>
+        <v>530</v>
       </c>
       <c r="K429" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L429" t="n">
         <v>4500</v>
       </c>
-      <c r="L429" t="n">
-        <v>5000</v>
-      </c>
       <c r="M429" t="n">
-        <v>4718</v>
+        <v>4208</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Q429" t="n">
         <v>36</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="K430" t="n">
         <v>7000</v>
       </c>
       <c r="L430" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M430" t="n">
-        <v>7405</v>
+        <v>7183</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>2468</v>
+        <v>2394</v>
       </c>
       <c r="Q430" t="n">
         <v>3</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>390</v>
+        <v>620</v>
       </c>
       <c r="K431" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L431" t="n">
         <v>5000</v>
       </c>
-      <c r="L431" t="n">
-        <v>6000</v>
-      </c>
       <c r="M431" t="n">
-        <v>5692</v>
+        <v>4718</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="Q431" t="n">
         <v>36</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>260</v>
+        <v>370</v>
       </c>
       <c r="K432" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L432" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M432" t="n">
-        <v>9577</v>
+        <v>7405</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>3192</v>
+        <v>2468</v>
       </c>
       <c r="Q432" t="n">
         <v>3</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>220</v>
+        <v>390</v>
       </c>
       <c r="K433" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L433" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M433" t="n">
-        <v>8318</v>
+        <v>5692</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="Q433" t="n">
         <v>36</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31605,16 +31605,16 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>430</v>
+        <v>260</v>
       </c>
       <c r="K434" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L434" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M434" t="n">
-        <v>14628</v>
+        <v>9577</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>4876</v>
+        <v>3192</v>
       </c>
       <c r="Q434" t="n">
         <v>3</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>620</v>
+        <v>220</v>
       </c>
       <c r="K435" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L435" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M435" t="n">
-        <v>4218</v>
+        <v>8318</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="Q435" t="n">
         <v>36</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="K436" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L436" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M436" t="n">
-        <v>7211</v>
+        <v>14628</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>2404</v>
+        <v>4876</v>
       </c>
       <c r="Q436" t="n">
         <v>3</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>330</v>
+        <v>620</v>
       </c>
       <c r="K437" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L437" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M437" t="n">
-        <v>6000</v>
+        <v>4218</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q437" t="n">
         <v>36</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31893,16 +31893,16 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>140</v>
+        <v>380</v>
       </c>
       <c r="K438" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L438" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M438" t="n">
-        <v>12000</v>
+        <v>7211</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>4000</v>
+        <v>2404</v>
       </c>
       <c r="Q438" t="n">
         <v>3</v>
@@ -31961,20 +31961,20 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="K439" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L439" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M439" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q439" t="n">
         <v>36</v>
@@ -32033,20 +32033,20 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K440" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L440" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M440" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>3333</v>
+        <v>4000</v>
       </c>
       <c r="Q440" t="n">
         <v>3</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32105,20 +32105,20 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>440</v>
+        <v>120</v>
       </c>
       <c r="K441" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L441" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M441" t="n">
-        <v>7795</v>
+        <v>5000</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="Q441" t="n">
         <v>36</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32177,20 +32177,20 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="K442" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L442" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M442" t="n">
-        <v>14419</v>
+        <v>10000</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>4806</v>
+        <v>3333</v>
       </c>
       <c r="Q442" t="n">
         <v>3</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32253,16 +32253,16 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="K443" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L443" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M443" t="n">
-        <v>6786</v>
+        <v>7795</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="Q443" t="n">
         <v>36</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="K444" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L444" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M444" t="n">
-        <v>12586</v>
+        <v>14419</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>4195</v>
+        <v>4806</v>
       </c>
       <c r="Q444" t="n">
         <v>3</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32397,16 +32397,16 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="K445" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L445" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M445" t="n">
-        <v>5721</v>
+        <v>6786</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="Q445" t="n">
         <v>36</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32469,7 +32469,7 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="K446" t="n">
         <v>12000</v>
@@ -32478,7 +32478,7 @@
         <v>13000</v>
       </c>
       <c r="M446" t="n">
-        <v>12619</v>
+        <v>12586</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>4206</v>
+        <v>4195</v>
       </c>
       <c r="Q446" t="n">
         <v>3</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32541,16 +32541,16 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>640</v>
+        <v>340</v>
       </c>
       <c r="K447" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L447" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M447" t="n">
-        <v>4219</v>
+        <v>5721</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="Q447" t="n">
         <v>36</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>470</v>
+        <v>210</v>
       </c>
       <c r="K448" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L448" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M448" t="n">
-        <v>7702</v>
+        <v>12619</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>2567</v>
+        <v>4206</v>
       </c>
       <c r="Q448" t="n">
         <v>3</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="K449" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L449" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M449" t="n">
-        <v>5781</v>
+        <v>4219</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="Q449" t="n">
         <v>36</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="K450" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L450" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M450" t="n">
-        <v>9824</v>
+        <v>7702</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>3275</v>
+        <v>2567</v>
       </c>
       <c r="Q450" t="n">
         <v>3</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="K451" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L451" t="n">
         <v>6000</v>
       </c>
       <c r="M451" t="n">
-        <v>6000</v>
+        <v>5781</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q451" t="n">
         <v>36</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>700</v>
+        <v>170</v>
       </c>
       <c r="K452" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L452" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M452" t="n">
-        <v>11500</v>
+        <v>9824</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>3833</v>
+        <v>3275</v>
       </c>
       <c r="Q452" t="n">
         <v>3</v>
@@ -32969,20 +32969,20 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K453" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L453" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M453" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q453" t="n">
         <v>36</v>
@@ -33041,20 +33041,20 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K454" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L454" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M454" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>3000</v>
+        <v>3833</v>
       </c>
       <c r="Q454" t="n">
         <v>3</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33113,20 +33113,20 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>630</v>
+        <v>160</v>
       </c>
       <c r="K455" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L455" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M455" t="n">
-        <v>4214</v>
+        <v>5000</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="Q455" t="n">
         <v>36</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33185,20 +33185,20 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K456" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L456" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M456" t="n">
-        <v>7389</v>
+        <v>9000</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>2463</v>
+        <v>3000</v>
       </c>
       <c r="Q456" t="n">
         <v>3</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="K457" t="n">
         <v>4000</v>
       </c>
       <c r="L457" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M457" t="n">
-        <v>4357</v>
+        <v>4214</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q457" t="n">
         <v>36</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>510</v>
+        <v>360</v>
       </c>
       <c r="K458" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L458" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M458" t="n">
-        <v>11225</v>
+        <v>7389</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>3742</v>
+        <v>2463</v>
       </c>
       <c r="Q458" t="n">
         <v>3</v>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="K459" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L459" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M459" t="n">
-        <v>3500</v>
+        <v>4357</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="Q459" t="n">
         <v>36</v>
@@ -33473,20 +33473,20 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>130</v>
+        <v>510</v>
       </c>
       <c r="K460" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L460" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M460" t="n">
-        <v>8000</v>
+        <v>11225</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>2667</v>
+        <v>3742</v>
       </c>
       <c r="Q460" t="n">
         <v>3</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33545,20 +33545,20 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>590</v>
+        <v>100</v>
       </c>
       <c r="K461" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L461" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M461" t="n">
-        <v>4186</v>
+        <v>3500</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="Q461" t="n">
         <v>36</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33617,20 +33617,20 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>450</v>
+        <v>130</v>
       </c>
       <c r="K462" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L462" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M462" t="n">
-        <v>7289</v>
+        <v>8000</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>2430</v>
+        <v>2667</v>
       </c>
       <c r="Q462" t="n">
         <v>3</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33693,7 +33693,7 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>660</v>
+        <v>590</v>
       </c>
       <c r="K463" t="n">
         <v>4000</v>
@@ -33702,7 +33702,7 @@
         <v>4500</v>
       </c>
       <c r="M463" t="n">
-        <v>4220</v>
+        <v>4186</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q463" t="n">
         <v>36</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="K464" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L464" t="n">
         <v>7500</v>
       </c>
-      <c r="L464" t="n">
-        <v>8000</v>
-      </c>
       <c r="M464" t="n">
-        <v>7703</v>
+        <v>7289</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>2568</v>
+        <v>2430</v>
       </c>
       <c r="Q464" t="n">
         <v>3</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>550</v>
+        <v>660</v>
       </c>
       <c r="K465" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L465" t="n">
         <v>4500</v>
       </c>
-      <c r="L465" t="n">
-        <v>5000</v>
-      </c>
       <c r="M465" t="n">
-        <v>4700</v>
+        <v>4220</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Q465" t="n">
         <v>36</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33912,13 +33912,13 @@
         <v>370</v>
       </c>
       <c r="K466" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L466" t="n">
         <v>8000</v>
       </c>
-      <c r="L466" t="n">
-        <v>9000</v>
-      </c>
       <c r="M466" t="n">
-        <v>8405</v>
+        <v>7703</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>2802</v>
+        <v>2568</v>
       </c>
       <c r="Q466" t="n">
         <v>3</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="K467" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L467" t="n">
         <v>5000</v>
       </c>
-      <c r="L467" t="n">
-        <v>6000</v>
-      </c>
       <c r="M467" t="n">
-        <v>5673</v>
+        <v>4700</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="Q467" t="n">
         <v>36</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>720</v>
+        <v>370</v>
       </c>
       <c r="K468" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L468" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M468" t="n">
-        <v>10236</v>
+        <v>8405</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>3412</v>
+        <v>2802</v>
       </c>
       <c r="Q468" t="n">
         <v>3</v>
@@ -34121,20 +34121,20 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="K469" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L469" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M469" t="n">
-        <v>4000</v>
+        <v>5673</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="Q469" t="n">
         <v>36</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34197,20 +34197,20 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>350</v>
+        <v>720</v>
       </c>
       <c r="K470" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L470" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M470" t="n">
-        <v>5000</v>
+        <v>10236</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
@@ -34219,10 +34219,10 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>139</v>
+        <v>3412</v>
       </c>
       <c r="Q470" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R470" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34265,24 +34265,24 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="K471" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L471" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M471" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
@@ -34291,10 +34291,10 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>2667</v>
+        <v>111</v>
       </c>
       <c r="Q471" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R471" t="inlineStr">
         <is>
@@ -34337,20 +34337,20 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="K472" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L472" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M472" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q472" t="n">
         <v>36</v>
@@ -34409,20 +34409,20 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>220</v>
+        <v>370</v>
       </c>
       <c r="K473" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L473" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M473" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>2333</v>
+        <v>2667</v>
       </c>
       <c r="Q473" t="n">
         <v>3</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34481,20 +34481,20 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>620</v>
+        <v>220</v>
       </c>
       <c r="K474" t="n">
         <v>4000</v>
       </c>
       <c r="L474" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M474" t="n">
-        <v>4266</v>
+        <v>4000</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="Q474" t="n">
         <v>36</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34553,20 +34553,20 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>430</v>
+        <v>220</v>
       </c>
       <c r="K475" t="n">
         <v>7000</v>
       </c>
       <c r="L475" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M475" t="n">
-        <v>7198</v>
+        <v>7000</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>2399</v>
+        <v>2333</v>
       </c>
       <c r="Q475" t="n">
         <v>3</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34629,16 +34629,16 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>490</v>
+        <v>620</v>
       </c>
       <c r="K476" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L476" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M476" t="n">
-        <v>5000</v>
+        <v>4266</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="Q476" t="n">
         <v>36</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>720</v>
+        <v>430</v>
       </c>
       <c r="K477" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L477" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M477" t="n">
-        <v>10896</v>
+        <v>7198</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>3632</v>
+        <v>2399</v>
       </c>
       <c r="Q477" t="n">
         <v>3</v>
@@ -34769,20 +34769,20 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="K478" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L478" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M478" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q478" t="n">
         <v>36</v>
@@ -34841,20 +34841,20 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>120</v>
+        <v>720</v>
       </c>
       <c r="K479" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L479" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M479" t="n">
-        <v>8000</v>
+        <v>10896</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>2667</v>
+        <v>3632</v>
       </c>
       <c r="Q479" t="n">
         <v>3</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K480" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L480" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M480" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="Q480" t="n">
         <v>36</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34985,20 +34985,20 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>670</v>
+        <v>120</v>
       </c>
       <c r="K481" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L481" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M481" t="n">
-        <v>10761</v>
+        <v>8000</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>3587</v>
+        <v>2667</v>
       </c>
       <c r="Q481" t="n">
         <v>3</v>
@@ -35057,20 +35057,20 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="K482" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L482" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M482" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q482" t="n">
         <v>36</v>
@@ -35129,20 +35129,20 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>160</v>
+        <v>670</v>
       </c>
       <c r="K483" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L483" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M483" t="n">
-        <v>8000</v>
+        <v>10761</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>2667</v>
+        <v>3587</v>
       </c>
       <c r="Q483" t="n">
         <v>3</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35201,20 +35201,20 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="K484" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L484" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M484" t="n">
-        <v>10605</v>
+        <v>4000</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="Q484" t="n">
         <v>36</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35273,20 +35273,20 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K485" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L485" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="M485" t="n">
-        <v>20839</v>
+        <v>8000</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>6946</v>
+        <v>2667</v>
       </c>
       <c r="Q485" t="n">
         <v>3</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35349,16 +35349,16 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>510</v>
+        <v>380</v>
       </c>
       <c r="K486" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L486" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M486" t="n">
-        <v>9451</v>
+        <v>10605</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="Q486" t="n">
         <v>36</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35421,16 +35421,16 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="K487" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L487" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M487" t="n">
-        <v>19455</v>
+        <v>20839</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>6485</v>
+        <v>6946</v>
       </c>
       <c r="Q487" t="n">
         <v>3</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="K488" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L488" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M488" t="n">
-        <v>7718</v>
+        <v>9451</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="Q488" t="n">
         <v>36</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>420</v>
+        <v>330</v>
       </c>
       <c r="K489" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L489" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M489" t="n">
-        <v>15452</v>
+        <v>19455</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>5151</v>
+        <v>6485</v>
       </c>
       <c r="Q489" t="n">
         <v>3</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>420</v>
+        <v>620</v>
       </c>
       <c r="K490" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L490" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M490" t="n">
-        <v>5821</v>
+        <v>7718</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="Q490" t="n">
         <v>36</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="K491" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L491" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M491" t="n">
-        <v>12710</v>
+        <v>15452</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>4237</v>
+        <v>5151</v>
       </c>
       <c r="Q491" t="n">
         <v>3</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="K492" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L492" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M492" t="n">
-        <v>5000</v>
+        <v>5821</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="Q492" t="n">
         <v>36</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="K493" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L493" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M493" t="n">
-        <v>9000</v>
+        <v>12710</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>3000</v>
+        <v>4237</v>
       </c>
       <c r="Q493" t="n">
         <v>3</v>
@@ -35921,20 +35921,20 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="K494" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L494" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M494" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q494" t="n">
         <v>36</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>140</v>
+        <v>320</v>
       </c>
       <c r="K495" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L495" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M495" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>2333</v>
+        <v>3000</v>
       </c>
       <c r="Q495" t="n">
         <v>3</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36065,20 +36065,20 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="K496" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L496" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M496" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36087,11 +36087,11 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P496" t="n">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="Q496" t="n">
         <v>36</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36137,24 +36137,24 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="K497" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L497" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M497" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O497" t="inlineStr">
@@ -36163,10 +36163,10 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>167</v>
+        <v>2333</v>
       </c>
       <c r="Q497" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R497" t="inlineStr">
         <is>
@@ -36213,20 +36213,20 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="K498" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L498" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M498" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O498" t="inlineStr">
@@ -36235,10 +36235,10 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q498" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R498" t="inlineStr">
         <is>
@@ -36285,20 +36285,20 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="K499" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L499" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M499" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O499" t="inlineStr">
@@ -36307,10 +36307,10 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q499" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R499" t="inlineStr">
         <is>
@@ -36353,36 +36353,36 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="K500" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L500" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M500" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P500" t="n">
-        <v>139</v>
+        <v>4000</v>
       </c>
       <c r="Q500" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R500" t="inlineStr">
         <is>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36429,20 +36429,20 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>570</v>
+        <v>190</v>
       </c>
       <c r="K501" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L501" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M501" t="n">
-        <v>7193</v>
+        <v>12000</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O501" t="inlineStr">
@@ -36451,10 +36451,10 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="Q501" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R501" t="inlineStr">
         <is>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36497,24 +36497,24 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="K502" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L502" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M502" t="n">
-        <v>14415</v>
+        <v>5000</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O502" t="inlineStr">
@@ -36523,10 +36523,10 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>4805</v>
+        <v>139</v>
       </c>
       <c r="Q502" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R502" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36573,16 +36573,16 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>520</v>
+        <v>570</v>
       </c>
       <c r="K503" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L503" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M503" t="n">
-        <v>5760</v>
+        <v>7193</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="Q503" t="n">
         <v>36</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36645,16 +36645,16 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>320</v>
+        <v>410</v>
       </c>
       <c r="K504" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L504" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M504" t="n">
-        <v>11125</v>
+        <v>14415</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>3708</v>
+        <v>4805</v>
       </c>
       <c r="Q504" t="n">
         <v>3</v>
@@ -36717,32 +36717,32 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>90</v>
+        <v>520</v>
       </c>
       <c r="K505" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="L505" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M505" t="n">
-        <v>17333</v>
+        <v>5760</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P505" t="n">
-        <v>5778</v>
+        <v>160</v>
       </c>
       <c r="Q505" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R505" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36789,20 +36789,20 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>570</v>
+        <v>320</v>
       </c>
       <c r="K506" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L506" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="M506" t="n">
-        <v>4193</v>
+        <v>11125</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O506" t="inlineStr">
@@ -36811,10 +36811,10 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>116</v>
+        <v>3708</v>
       </c>
       <c r="Q506" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R506" t="inlineStr">
         <is>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36861,16 +36861,16 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>470</v>
+        <v>90</v>
       </c>
       <c r="K507" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="L507" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M507" t="n">
-        <v>7702</v>
+        <v>17333</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36879,11 +36879,11 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P507" t="n">
-        <v>2567</v>
+        <v>5778</v>
       </c>
       <c r="Q507" t="n">
         <v>3</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36933,32 +36933,32 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>470</v>
+        <v>570</v>
       </c>
       <c r="K508" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L508" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M508" t="n">
-        <v>8489</v>
+        <v>4193</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P508" t="n">
-        <v>2830</v>
+        <v>116</v>
       </c>
       <c r="Q508" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R508" t="inlineStr">
         <is>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -37005,7 +37005,7 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>620</v>
+        <v>470</v>
       </c>
       <c r="K509" t="n">
         <v>7500</v>
@@ -37014,11 +37014,11 @@
         <v>8000</v>
       </c>
       <c r="M509" t="n">
-        <v>7718</v>
+        <v>7702</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
@@ -37027,10 +37027,10 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>214</v>
+        <v>2567</v>
       </c>
       <c r="Q509" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R509" t="inlineStr">
         <is>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37077,16 +37077,16 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="K510" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L510" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M510" t="n">
-        <v>15422</v>
+        <v>8489</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37095,11 +37095,11 @@
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P510" t="n">
-        <v>5141</v>
+        <v>2830</v>
       </c>
       <c r="Q510" t="n">
         <v>3</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37149,16 +37149,16 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="K511" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L511" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M511" t="n">
-        <v>4713</v>
+        <v>7718</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="Q511" t="n">
         <v>36</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37221,16 +37221,16 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="K512" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L512" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M512" t="n">
-        <v>7421</v>
+        <v>15422</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,12 +37243,156 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>2474</v>
+        <v>5141</v>
       </c>
       <c r="Q512" t="n">
         <v>3</v>
       </c>
       <c r="R512" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>6</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D513" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E513" t="n">
+        <v>13</v>
+      </c>
+      <c r="F513" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J513" t="n">
+        <v>610</v>
+      </c>
+      <c r="K513" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L513" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M513" t="n">
+        <v>4713</v>
+      </c>
+      <c r="N513" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O513" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P513" t="n">
+        <v>131</v>
+      </c>
+      <c r="Q513" t="n">
+        <v>36</v>
+      </c>
+      <c r="R513" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>6</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D514" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E514" t="n">
+        <v>13</v>
+      </c>
+      <c r="F514" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J514" t="n">
+        <v>380</v>
+      </c>
+      <c r="K514" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L514" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M514" t="n">
+        <v>7421</v>
+      </c>
+      <c r="N514" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O514" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P514" t="n">
+        <v>2474</v>
+      </c>
+      <c r="Q514" t="n">
+        <v>3</v>
+      </c>
+      <c r="R514" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R514"/>
+  <dimension ref="A1:R516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34629,7 +34629,7 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>620</v>
+        <v>540</v>
       </c>
       <c r="K476" t="n">
         <v>4000</v>
@@ -34638,7 +34638,7 @@
         <v>4500</v>
       </c>
       <c r="M476" t="n">
-        <v>4266</v>
+        <v>4213</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q476" t="n">
         <v>36</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K477" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L477" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M477" t="n">
-        <v>7198</v>
+        <v>8440</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>2399</v>
+        <v>2813</v>
       </c>
       <c r="Q477" t="n">
         <v>3</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>490</v>
+        <v>620</v>
       </c>
       <c r="K478" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L478" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M478" t="n">
-        <v>5000</v>
+        <v>4266</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="Q478" t="n">
         <v>36</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34845,16 +34845,16 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>720</v>
+        <v>430</v>
       </c>
       <c r="K479" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L479" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M479" t="n">
-        <v>10896</v>
+        <v>7198</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>3632</v>
+        <v>2399</v>
       </c>
       <c r="Q479" t="n">
         <v>3</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="K480" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L480" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M480" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q480" t="n">
         <v>36</v>
@@ -34985,20 +34985,20 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>120</v>
+        <v>720</v>
       </c>
       <c r="K481" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L481" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M481" t="n">
-        <v>8000</v>
+        <v>10896</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>2667</v>
+        <v>3632</v>
       </c>
       <c r="Q481" t="n">
         <v>3</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35057,20 +35057,20 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K482" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L482" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M482" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="Q482" t="n">
         <v>36</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35129,20 +35129,20 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>670</v>
+        <v>120</v>
       </c>
       <c r="K483" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L483" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M483" t="n">
-        <v>10761</v>
+        <v>8000</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>3587</v>
+        <v>2667</v>
       </c>
       <c r="Q483" t="n">
         <v>3</v>
@@ -35201,20 +35201,20 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="K484" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L484" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M484" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q484" t="n">
         <v>36</v>
@@ -35273,20 +35273,20 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>160</v>
+        <v>670</v>
       </c>
       <c r="K485" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L485" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M485" t="n">
-        <v>8000</v>
+        <v>10761</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>2667</v>
+        <v>3587</v>
       </c>
       <c r="Q485" t="n">
         <v>3</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35345,20 +35345,20 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="K486" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L486" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M486" t="n">
-        <v>10605</v>
+        <v>4000</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="Q486" t="n">
         <v>36</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35417,20 +35417,20 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K487" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L487" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="M487" t="n">
-        <v>20839</v>
+        <v>8000</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>6946</v>
+        <v>2667</v>
       </c>
       <c r="Q487" t="n">
         <v>3</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>510</v>
+        <v>380</v>
       </c>
       <c r="K488" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L488" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M488" t="n">
-        <v>9451</v>
+        <v>10605</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="Q488" t="n">
         <v>36</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="K489" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L489" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M489" t="n">
-        <v>19455</v>
+        <v>20839</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>6485</v>
+        <v>6946</v>
       </c>
       <c r="Q489" t="n">
         <v>3</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="K490" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L490" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M490" t="n">
-        <v>7718</v>
+        <v>9451</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="Q490" t="n">
         <v>36</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>420</v>
+        <v>330</v>
       </c>
       <c r="K491" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L491" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M491" t="n">
-        <v>15452</v>
+        <v>19455</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>5151</v>
+        <v>6485</v>
       </c>
       <c r="Q491" t="n">
         <v>3</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>420</v>
+        <v>620</v>
       </c>
       <c r="K492" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L492" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M492" t="n">
-        <v>5821</v>
+        <v>7718</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="Q492" t="n">
         <v>36</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="K493" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L493" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M493" t="n">
-        <v>12710</v>
+        <v>15452</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>4237</v>
+        <v>5151</v>
       </c>
       <c r="Q493" t="n">
         <v>3</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="K494" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L494" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M494" t="n">
-        <v>5000</v>
+        <v>5821</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="Q494" t="n">
         <v>36</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35997,16 +35997,16 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="K495" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L495" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M495" t="n">
-        <v>9000</v>
+        <v>12710</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>3000</v>
+        <v>4237</v>
       </c>
       <c r="Q495" t="n">
         <v>3</v>
@@ -36065,20 +36065,20 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="K496" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L496" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M496" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q496" t="n">
         <v>36</v>
@@ -36137,20 +36137,20 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>140</v>
+        <v>320</v>
       </c>
       <c r="K497" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L497" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M497" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>2333</v>
+        <v>3000</v>
       </c>
       <c r="Q497" t="n">
         <v>3</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36209,20 +36209,20 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="K498" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L498" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M498" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36231,11 +36231,11 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P498" t="n">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="Q498" t="n">
         <v>36</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36281,24 +36281,24 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="K499" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L499" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M499" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O499" t="inlineStr">
@@ -36307,10 +36307,10 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>167</v>
+        <v>2333</v>
       </c>
       <c r="Q499" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R499" t="inlineStr">
         <is>
@@ -36357,20 +36357,20 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="K500" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L500" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M500" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
@@ -36379,10 +36379,10 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q500" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R500" t="inlineStr">
         <is>
@@ -36429,20 +36429,20 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="K501" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L501" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M501" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O501" t="inlineStr">
@@ -36451,10 +36451,10 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q501" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R501" t="inlineStr">
         <is>
@@ -36497,36 +36497,36 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="K502" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L502" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M502" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P502" t="n">
-        <v>139</v>
+        <v>4000</v>
       </c>
       <c r="Q502" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R502" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36573,20 +36573,20 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>570</v>
+        <v>190</v>
       </c>
       <c r="K503" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L503" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M503" t="n">
-        <v>7193</v>
+        <v>12000</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
@@ -36595,10 +36595,10 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="Q503" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R503" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36641,24 +36641,24 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="K504" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L504" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M504" t="n">
-        <v>14415</v>
+        <v>5000</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O504" t="inlineStr">
@@ -36667,10 +36667,10 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>4805</v>
+        <v>139</v>
       </c>
       <c r="Q504" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R504" t="inlineStr">
         <is>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36717,16 +36717,16 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>520</v>
+        <v>570</v>
       </c>
       <c r="K505" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L505" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M505" t="n">
-        <v>5760</v>
+        <v>7193</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="Q505" t="n">
         <v>36</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36789,16 +36789,16 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>320</v>
+        <v>410</v>
       </c>
       <c r="K506" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L506" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M506" t="n">
-        <v>11125</v>
+        <v>14415</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>3708</v>
+        <v>4805</v>
       </c>
       <c r="Q506" t="n">
         <v>3</v>
@@ -36861,32 +36861,32 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>90</v>
+        <v>520</v>
       </c>
       <c r="K507" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="L507" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M507" t="n">
-        <v>17333</v>
+        <v>5760</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P507" t="n">
-        <v>5778</v>
+        <v>160</v>
       </c>
       <c r="Q507" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R507" t="inlineStr">
         <is>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36933,20 +36933,20 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>570</v>
+        <v>320</v>
       </c>
       <c r="K508" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L508" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="M508" t="n">
-        <v>4193</v>
+        <v>11125</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
@@ -36955,10 +36955,10 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>116</v>
+        <v>3708</v>
       </c>
       <c r="Q508" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R508" t="inlineStr">
         <is>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -37005,16 +37005,16 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>470</v>
+        <v>90</v>
       </c>
       <c r="K509" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="L509" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M509" t="n">
-        <v>7702</v>
+        <v>17333</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37023,11 +37023,11 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P509" t="n">
-        <v>2567</v>
+        <v>5778</v>
       </c>
       <c r="Q509" t="n">
         <v>3</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37077,32 +37077,32 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>470</v>
+        <v>570</v>
       </c>
       <c r="K510" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L510" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M510" t="n">
-        <v>8489</v>
+        <v>4193</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P510" t="n">
-        <v>2830</v>
+        <v>116</v>
       </c>
       <c r="Q510" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R510" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37149,7 +37149,7 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>620</v>
+        <v>470</v>
       </c>
       <c r="K511" t="n">
         <v>7500</v>
@@ -37158,11 +37158,11 @@
         <v>8000</v>
       </c>
       <c r="M511" t="n">
-        <v>7718</v>
+        <v>7702</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O511" t="inlineStr">
@@ -37171,10 +37171,10 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>214</v>
+        <v>2567</v>
       </c>
       <c r="Q511" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R511" t="inlineStr">
         <is>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37221,16 +37221,16 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="K512" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L512" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M512" t="n">
-        <v>15422</v>
+        <v>8489</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37239,11 +37239,11 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P512" t="n">
-        <v>5141</v>
+        <v>2830</v>
       </c>
       <c r="Q512" t="n">
         <v>3</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37293,16 +37293,16 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="K513" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L513" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M513" t="n">
-        <v>4713</v>
+        <v>7718</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="Q513" t="n">
         <v>36</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="K514" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L514" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M514" t="n">
-        <v>7421</v>
+        <v>15422</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,12 +37387,156 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>2474</v>
+        <v>5141</v>
       </c>
       <c r="Q514" t="n">
         <v>3</v>
       </c>
       <c r="R514" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>6</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D515" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E515" t="n">
+        <v>13</v>
+      </c>
+      <c r="F515" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J515" t="n">
+        <v>610</v>
+      </c>
+      <c r="K515" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L515" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M515" t="n">
+        <v>4713</v>
+      </c>
+      <c r="N515" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O515" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P515" t="n">
+        <v>131</v>
+      </c>
+      <c r="Q515" t="n">
+        <v>36</v>
+      </c>
+      <c r="R515" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>6</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D516" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E516" t="n">
+        <v>13</v>
+      </c>
+      <c r="F516" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I516" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J516" t="n">
+        <v>380</v>
+      </c>
+      <c r="K516" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L516" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M516" t="n">
+        <v>7421</v>
+      </c>
+      <c r="N516" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O516" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P516" t="n">
+        <v>2474</v>
+      </c>
+      <c r="Q516" t="n">
+        <v>3</v>
+      </c>
+      <c r="R516" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R516"/>
+  <dimension ref="A1:R519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>440</v>
+        <v>350</v>
       </c>
       <c r="K398" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L398" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M398" t="n">
-        <v>8000</v>
+        <v>4657</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>222</v>
+        <v>129</v>
       </c>
       <c r="Q398" t="n">
         <v>36</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="K399" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L399" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M399" t="n">
-        <v>14000</v>
+        <v>7429</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>4667</v>
+        <v>2476</v>
       </c>
       <c r="Q399" t="n">
         <v>3</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29157,20 +29157,20 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K400" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L400" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M400" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
@@ -29179,10 +29179,10 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>194</v>
+        <v>2000</v>
       </c>
       <c r="Q400" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
@@ -29225,24 +29225,24 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>150</v>
+        <v>440</v>
       </c>
       <c r="K401" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L401" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M401" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29251,10 +29251,10 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>4000</v>
+        <v>222</v>
       </c>
       <c r="Q401" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29301,20 +29301,20 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>510</v>
+        <v>320</v>
       </c>
       <c r="K402" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="L402" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M402" t="n">
-        <v>4725</v>
+        <v>14000</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
@@ -29323,10 +29323,10 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>131</v>
+        <v>4667</v>
       </c>
       <c r="Q402" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29369,24 +29369,24 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="K403" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L403" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M403" t="n">
-        <v>8406</v>
+        <v>7000</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -29395,10 +29395,10 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>2802</v>
+        <v>194</v>
       </c>
       <c r="Q403" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29441,24 +29441,24 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>440</v>
+        <v>150</v>
       </c>
       <c r="K404" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L404" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M404" t="n">
-        <v>7591</v>
+        <v>12000</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
@@ -29467,10 +29467,10 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>211</v>
+        <v>4000</v>
       </c>
       <c r="Q404" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29517,20 +29517,20 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>360</v>
+        <v>510</v>
       </c>
       <c r="K405" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="L405" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M405" t="n">
-        <v>14611</v>
+        <v>4725</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -29539,10 +29539,10 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>4870</v>
+        <v>131</v>
       </c>
       <c r="Q405" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29589,32 +29589,32 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="K406" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L406" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M406" t="n">
-        <v>6676</v>
+        <v>8406</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P406" t="n">
-        <v>185</v>
+        <v>2802</v>
       </c>
       <c r="Q406" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="K407" t="n">
         <v>7000</v>
       </c>
       <c r="L407" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M407" t="n">
-        <v>7000</v>
+        <v>7591</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="Q407" t="n">
         <v>36</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29733,7 +29733,7 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>430</v>
+        <v>360</v>
       </c>
       <c r="K408" t="n">
         <v>14000</v>
@@ -29742,7 +29742,7 @@
         <v>15000</v>
       </c>
       <c r="M408" t="n">
-        <v>14581</v>
+        <v>14611</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>4860</v>
+        <v>4870</v>
       </c>
       <c r="Q408" t="n">
         <v>3</v>
@@ -29801,20 +29801,20 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>220</v>
+        <v>370</v>
       </c>
       <c r="K409" t="n">
         <v>6000</v>
       </c>
       <c r="L409" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M409" t="n">
-        <v>6000</v>
+        <v>6676</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29823,11 +29823,11 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Q409" t="n">
         <v>36</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="K410" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L410" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M410" t="n">
-        <v>7769</v>
+        <v>7000</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="Q410" t="n">
         <v>36</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29952,13 +29952,13 @@
         <v>430</v>
       </c>
       <c r="K411" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L411" t="n">
         <v>15000</v>
       </c>
-      <c r="L411" t="n">
-        <v>16000</v>
-      </c>
       <c r="M411" t="n">
-        <v>15581</v>
+        <v>14581</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>5194</v>
+        <v>4860</v>
       </c>
       <c r="Q411" t="n">
         <v>3</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30017,36 +30017,36 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="K412" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="L412" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="M412" t="n">
-        <v>21143</v>
+        <v>6000</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P412" t="n">
-        <v>7048</v>
+        <v>167</v>
       </c>
       <c r="Q412" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R412" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="K413" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L413" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M413" t="n">
-        <v>5644</v>
+        <v>7769</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="Q413" t="n">
         <v>36</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>670</v>
+        <v>430</v>
       </c>
       <c r="K414" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L414" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M414" t="n">
-        <v>10761</v>
+        <v>15581</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>3587</v>
+        <v>5194</v>
       </c>
       <c r="Q414" t="n">
         <v>3</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30233,36 +30233,36 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J415" t="n">
         <v>140</v>
       </c>
       <c r="K415" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="L415" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="M415" t="n">
-        <v>5000</v>
+        <v>21143</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P415" t="n">
-        <v>139</v>
+        <v>7048</v>
       </c>
       <c r="Q415" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30305,24 +30305,24 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="K416" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L416" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M416" t="n">
-        <v>8000</v>
+        <v>5644</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -30331,10 +30331,10 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>2667</v>
+        <v>157</v>
       </c>
       <c r="Q416" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R416" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30381,20 +30381,20 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>450</v>
+        <v>670</v>
       </c>
       <c r="K417" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L417" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M417" t="n">
-        <v>5622</v>
+        <v>10761</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -30403,10 +30403,10 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>156</v>
+        <v>3587</v>
       </c>
       <c r="Q417" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R417" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30449,24 +30449,24 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>620</v>
+        <v>140</v>
       </c>
       <c r="K418" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L418" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M418" t="n">
-        <v>9282</v>
+        <v>5000</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -30475,10 +30475,10 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>3094</v>
+        <v>139</v>
       </c>
       <c r="Q418" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R418" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30528,17 +30528,17 @@
         <v>140</v>
       </c>
       <c r="K419" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L419" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M419" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -30547,10 +30547,10 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>139</v>
+        <v>2667</v>
       </c>
       <c r="Q419" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30593,24 +30593,24 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="K420" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L420" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M420" t="n">
-        <v>8000</v>
+        <v>5622</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -30619,10 +30619,10 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>2667</v>
+        <v>156</v>
       </c>
       <c r="Q420" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30669,20 +30669,20 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>720</v>
+        <v>620</v>
       </c>
       <c r="K421" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="L421" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M421" t="n">
-        <v>3729</v>
+        <v>9282</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -30691,10 +30691,10 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>104</v>
+        <v>3094</v>
       </c>
       <c r="Q421" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30737,24 +30737,24 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="K422" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L422" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M422" t="n">
-        <v>7197</v>
+        <v>5000</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -30763,10 +30763,10 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>2399</v>
+        <v>139</v>
       </c>
       <c r="Q422" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30809,24 +30809,24 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>510</v>
+        <v>150</v>
       </c>
       <c r="K423" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L423" t="n">
         <v>8000</v>
       </c>
       <c r="M423" t="n">
-        <v>7716</v>
+        <v>8000</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -30835,10 +30835,10 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>214</v>
+        <v>2667</v>
       </c>
       <c r="Q423" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30885,20 +30885,20 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>330</v>
+        <v>720</v>
       </c>
       <c r="K424" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="L424" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="M424" t="n">
-        <v>14455</v>
+        <v>3729</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -30907,10 +30907,10 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>4818</v>
+        <v>104</v>
       </c>
       <c r="Q424" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30957,20 +30957,20 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="K425" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L425" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M425" t="n">
-        <v>6000</v>
+        <v>7197</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -30979,10 +30979,10 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>167</v>
+        <v>2399</v>
       </c>
       <c r="Q425" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R425" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31029,32 +31029,32 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>110</v>
+        <v>510</v>
       </c>
       <c r="K426" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L426" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M426" t="n">
-        <v>12000</v>
+        <v>7716</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P426" t="n">
-        <v>4000</v>
+        <v>214</v>
       </c>
       <c r="Q426" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R426" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="K427" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L427" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M427" t="n">
-        <v>12000</v>
+        <v>14455</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>4000</v>
+        <v>4818</v>
       </c>
       <c r="Q427" t="n">
         <v>3</v>
@@ -31169,20 +31169,20 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K428" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L428" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M428" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q428" t="n">
         <v>36</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31245,32 +31245,32 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>530</v>
+        <v>110</v>
       </c>
       <c r="K429" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L429" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M429" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N429" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O429" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P429" t="n">
         <v>4000</v>
       </c>
-      <c r="L429" t="n">
-        <v>4500</v>
-      </c>
-      <c r="M429" t="n">
-        <v>4208</v>
-      </c>
-      <c r="N429" t="inlineStr">
-        <is>
-          <t>$/caja 36 atados</t>
-        </is>
-      </c>
-      <c r="O429" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P429" t="n">
-        <v>117</v>
-      </c>
       <c r="Q429" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R429" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="K430" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L430" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M430" t="n">
-        <v>7183</v>
+        <v>12000</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>2394</v>
+        <v>4000</v>
       </c>
       <c r="Q430" t="n">
         <v>3</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31385,20 +31385,20 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>620</v>
+        <v>120</v>
       </c>
       <c r="K431" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L431" t="n">
         <v>5000</v>
       </c>
       <c r="M431" t="n">
-        <v>4718</v>
+        <v>5000</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="Q431" t="n">
         <v>36</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31461,20 +31461,20 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>370</v>
+        <v>530</v>
       </c>
       <c r="K432" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L432" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M432" t="n">
-        <v>7405</v>
+        <v>4208</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
@@ -31483,10 +31483,10 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>2468</v>
+        <v>117</v>
       </c>
       <c r="Q432" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R432" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31533,20 +31533,20 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="K433" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L433" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M433" t="n">
-        <v>5692</v>
+        <v>7183</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
@@ -31555,10 +31555,10 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>158</v>
+        <v>2394</v>
       </c>
       <c r="Q433" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R433" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31605,20 +31605,20 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>260</v>
+        <v>620</v>
       </c>
       <c r="K434" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L434" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M434" t="n">
-        <v>9577</v>
+        <v>4718</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
@@ -31627,10 +31627,10 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>3192</v>
+        <v>131</v>
       </c>
       <c r="Q434" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R434" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31677,20 +31677,20 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>220</v>
+        <v>370</v>
       </c>
       <c r="K435" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L435" t="n">
         <v>8000</v>
       </c>
-      <c r="L435" t="n">
-        <v>9000</v>
-      </c>
       <c r="M435" t="n">
-        <v>8318</v>
+        <v>7405</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
@@ -31699,10 +31699,10 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>231</v>
+        <v>2468</v>
       </c>
       <c r="Q435" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R435" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31749,20 +31749,20 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="K436" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L436" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M436" t="n">
-        <v>14628</v>
+        <v>5692</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
@@ -31771,10 +31771,10 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>4876</v>
+        <v>158</v>
       </c>
       <c r="Q436" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R436" t="inlineStr">
         <is>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31821,20 +31821,20 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>620</v>
+        <v>260</v>
       </c>
       <c r="K437" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L437" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M437" t="n">
-        <v>4218</v>
+        <v>9577</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
@@ -31843,10 +31843,10 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>117</v>
+        <v>3192</v>
       </c>
       <c r="Q437" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R437" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31893,20 +31893,20 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="K438" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L438" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M438" t="n">
-        <v>7211</v>
+        <v>8318</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
@@ -31915,10 +31915,10 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>2404</v>
+        <v>231</v>
       </c>
       <c r="Q438" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R438" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31965,20 +31965,20 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>330</v>
+        <v>430</v>
       </c>
       <c r="K439" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L439" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M439" t="n">
-        <v>6000</v>
+        <v>14628</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
@@ -31987,10 +31987,10 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>167</v>
+        <v>4876</v>
       </c>
       <c r="Q439" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32037,20 +32037,20 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>140</v>
+        <v>620</v>
       </c>
       <c r="K440" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L440" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M440" t="n">
-        <v>12000</v>
+        <v>4218</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
@@ -32059,10 +32059,10 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>4000</v>
+        <v>117</v>
       </c>
       <c r="Q440" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R440" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32105,24 +32105,24 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="K441" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L441" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M441" t="n">
-        <v>5000</v>
+        <v>7211</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
@@ -32131,10 +32131,10 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>139</v>
+        <v>2404</v>
       </c>
       <c r="Q441" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R441" t="inlineStr">
         <is>
@@ -32177,24 +32177,24 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="K442" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L442" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M442" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
@@ -32203,10 +32203,10 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>3333</v>
+        <v>167</v>
       </c>
       <c r="Q442" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R442" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32253,20 +32253,20 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>440</v>
+        <v>140</v>
       </c>
       <c r="K443" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L443" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M443" t="n">
-        <v>7795</v>
+        <v>12000</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
@@ -32275,10 +32275,10 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>217</v>
+        <v>4000</v>
       </c>
       <c r="Q443" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R443" t="inlineStr">
         <is>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32321,24 +32321,24 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="K444" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L444" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M444" t="n">
-        <v>14419</v>
+        <v>5000</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
@@ -32347,10 +32347,10 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>4806</v>
+        <v>139</v>
       </c>
       <c r="Q444" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R444" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32393,24 +32393,24 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="K445" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L445" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M445" t="n">
-        <v>6786</v>
+        <v>10000</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
@@ -32419,10 +32419,10 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>188</v>
+        <v>3333</v>
       </c>
       <c r="Q445" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R445" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32469,20 +32469,20 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>290</v>
+        <v>440</v>
       </c>
       <c r="K446" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L446" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M446" t="n">
-        <v>12586</v>
+        <v>7795</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
@@ -32491,10 +32491,10 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>4195</v>
+        <v>217</v>
       </c>
       <c r="Q446" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R446" t="inlineStr">
         <is>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32541,20 +32541,20 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="K447" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="L447" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M447" t="n">
-        <v>5721</v>
+        <v>14419</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
@@ -32563,10 +32563,10 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>159</v>
+        <v>4806</v>
       </c>
       <c r="Q447" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R447" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32613,20 +32613,20 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>210</v>
+        <v>420</v>
       </c>
       <c r="K448" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L448" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M448" t="n">
-        <v>12619</v>
+        <v>6786</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
@@ -32635,10 +32635,10 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>4206</v>
+        <v>188</v>
       </c>
       <c r="Q448" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R448" t="inlineStr">
         <is>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32685,20 +32685,20 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>640</v>
+        <v>290</v>
       </c>
       <c r="K449" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L449" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="M449" t="n">
-        <v>4219</v>
+        <v>12586</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
@@ -32707,10 +32707,10 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>117</v>
+        <v>4195</v>
       </c>
       <c r="Q449" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R449" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32757,20 +32757,20 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>470</v>
+        <v>340</v>
       </c>
       <c r="K450" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L450" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M450" t="n">
-        <v>7702</v>
+        <v>5721</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
@@ -32779,10 +32779,10 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>2567</v>
+        <v>159</v>
       </c>
       <c r="Q450" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R450" t="inlineStr">
         <is>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32829,20 +32829,20 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>480</v>
+        <v>210</v>
       </c>
       <c r="K451" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="L451" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M451" t="n">
-        <v>5781</v>
+        <v>12619</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
@@ -32851,10 +32851,10 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>161</v>
+        <v>4206</v>
       </c>
       <c r="Q451" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R451" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32901,20 +32901,20 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>170</v>
+        <v>640</v>
       </c>
       <c r="K452" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L452" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M452" t="n">
-        <v>9824</v>
+        <v>4219</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
@@ -32923,10 +32923,10 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>3275</v>
+        <v>117</v>
       </c>
       <c r="Q452" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R452" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32973,20 +32973,20 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="K453" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L453" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M453" t="n">
-        <v>6000</v>
+        <v>7702</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
@@ -32995,10 +32995,10 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>167</v>
+        <v>2567</v>
       </c>
       <c r="Q453" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R453" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33045,20 +33045,20 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>700</v>
+        <v>480</v>
       </c>
       <c r="K454" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="L454" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M454" t="n">
-        <v>11500</v>
+        <v>5781</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O454" t="inlineStr">
@@ -33067,10 +33067,10 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>3833</v>
+        <v>161</v>
       </c>
       <c r="Q454" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R454" t="inlineStr">
         <is>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33113,24 +33113,24 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K455" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L455" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M455" t="n">
-        <v>5000</v>
+        <v>9824</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
@@ -33139,10 +33139,10 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>139</v>
+        <v>3275</v>
       </c>
       <c r="Q455" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R455" t="inlineStr">
         <is>
@@ -33185,24 +33185,24 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K456" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L456" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M456" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
@@ -33211,10 +33211,10 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>3000</v>
+        <v>167</v>
       </c>
       <c r="Q456" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R456" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33261,20 +33261,20 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>630</v>
+        <v>700</v>
       </c>
       <c r="K457" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L457" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="M457" t="n">
-        <v>4214</v>
+        <v>11500</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
@@ -33283,10 +33283,10 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>117</v>
+        <v>3833</v>
       </c>
       <c r="Q457" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R457" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33329,24 +33329,24 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="K458" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L458" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M458" t="n">
-        <v>7389</v>
+        <v>5000</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
@@ -33355,10 +33355,10 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>2463</v>
+        <v>139</v>
       </c>
       <c r="Q458" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R458" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33401,24 +33401,24 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K459" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L459" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M459" t="n">
-        <v>4357</v>
+        <v>9000</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
@@ -33427,10 +33427,10 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>121</v>
+        <v>3000</v>
       </c>
       <c r="Q459" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R459" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33477,20 +33477,20 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>510</v>
+        <v>630</v>
       </c>
       <c r="K460" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L460" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="M460" t="n">
-        <v>11225</v>
+        <v>4214</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O460" t="inlineStr">
@@ -33499,10 +33499,10 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>3742</v>
+        <v>117</v>
       </c>
       <c r="Q460" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R460" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33545,24 +33545,24 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="K461" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L461" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M461" t="n">
-        <v>3500</v>
+        <v>7389</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
@@ -33571,10 +33571,10 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>97</v>
+        <v>2463</v>
       </c>
       <c r="Q461" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R461" t="inlineStr">
         <is>
@@ -33617,24 +33617,24 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="K462" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L462" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M462" t="n">
-        <v>8000</v>
+        <v>4357</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O462" t="inlineStr">
@@ -33643,10 +33643,10 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>2667</v>
+        <v>121</v>
       </c>
       <c r="Q462" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R462" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33693,20 +33693,20 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>590</v>
+        <v>510</v>
       </c>
       <c r="K463" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L463" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="M463" t="n">
-        <v>4186</v>
+        <v>11225</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O463" t="inlineStr">
@@ -33715,10 +33715,10 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>116</v>
+        <v>3742</v>
       </c>
       <c r="Q463" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R463" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33761,24 +33761,24 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K464" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L464" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M464" t="n">
-        <v>7289</v>
+        <v>3500</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O464" t="inlineStr">
@@ -33787,10 +33787,10 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>2430</v>
+        <v>97</v>
       </c>
       <c r="Q464" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R464" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33833,24 +33833,24 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>660</v>
+        <v>130</v>
       </c>
       <c r="K465" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L465" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M465" t="n">
-        <v>4220</v>
+        <v>8000</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O465" t="inlineStr">
@@ -33859,10 +33859,10 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>117</v>
+        <v>2667</v>
       </c>
       <c r="Q465" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R465" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33909,20 +33909,20 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>370</v>
+        <v>590</v>
       </c>
       <c r="K466" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L466" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M466" t="n">
-        <v>7703</v>
+        <v>4186</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
@@ -33931,10 +33931,10 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>2568</v>
+        <v>116</v>
       </c>
       <c r="Q466" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R466" t="inlineStr">
         <is>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33981,20 +33981,20 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="K467" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L467" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M467" t="n">
-        <v>4700</v>
+        <v>7289</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
@@ -34003,10 +34003,10 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>131</v>
+        <v>2430</v>
       </c>
       <c r="Q467" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R467" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34053,20 +34053,20 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>370</v>
+        <v>660</v>
       </c>
       <c r="K468" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L468" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M468" t="n">
-        <v>8405</v>
+        <v>4220</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
@@ -34075,10 +34075,10 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>2802</v>
+        <v>117</v>
       </c>
       <c r="Q468" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R468" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34125,20 +34125,20 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>490</v>
+        <v>370</v>
       </c>
       <c r="K469" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L469" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M469" t="n">
-        <v>5673</v>
+        <v>7703</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
@@ -34147,10 +34147,10 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>158</v>
+        <v>2568</v>
       </c>
       <c r="Q469" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R469" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34197,20 +34197,20 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>720</v>
+        <v>550</v>
       </c>
       <c r="K470" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L470" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M470" t="n">
-        <v>10236</v>
+        <v>4700</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
@@ -34219,10 +34219,10 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>3412</v>
+        <v>131</v>
       </c>
       <c r="Q470" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R470" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34265,24 +34265,24 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="K471" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L471" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M471" t="n">
-        <v>4000</v>
+        <v>8405</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
@@ -34291,10 +34291,10 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>111</v>
+        <v>2802</v>
       </c>
       <c r="Q471" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R471" t="inlineStr">
         <is>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>350</v>
+        <v>490</v>
       </c>
       <c r="K472" t="n">
         <v>5000</v>
       </c>
       <c r="L472" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M472" t="n">
-        <v>5000</v>
+        <v>5673</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="Q472" t="n">
         <v>36</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>370</v>
+        <v>720</v>
       </c>
       <c r="K473" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L473" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M473" t="n">
-        <v>8000</v>
+        <v>10236</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>2667</v>
+        <v>3412</v>
       </c>
       <c r="Q473" t="n">
         <v>3</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34485,7 +34485,7 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K474" t="n">
         <v>4000</v>
@@ -34553,24 +34553,24 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="K475" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L475" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M475" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
@@ -34579,10 +34579,10 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>2333</v>
+        <v>139</v>
       </c>
       <c r="Q475" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R475" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34629,20 +34629,20 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>540</v>
+        <v>370</v>
       </c>
       <c r="K476" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L476" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M476" t="n">
-        <v>4213</v>
+        <v>8000</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
@@ -34651,10 +34651,10 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>117</v>
+        <v>2667</v>
       </c>
       <c r="Q476" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R476" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34697,24 +34697,24 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K477" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L477" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M477" t="n">
-        <v>8440</v>
+        <v>4000</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
@@ -34723,10 +34723,10 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>2813</v>
+        <v>111</v>
       </c>
       <c r="Q477" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R477" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34769,24 +34769,24 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>620</v>
+        <v>220</v>
       </c>
       <c r="K478" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L478" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M478" t="n">
-        <v>4266</v>
+        <v>7000</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
@@ -34795,10 +34795,10 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>118</v>
+        <v>2333</v>
       </c>
       <c r="Q478" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R478" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34845,20 +34845,20 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>430</v>
+        <v>540</v>
       </c>
       <c r="K479" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L479" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M479" t="n">
-        <v>7198</v>
+        <v>4213</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
@@ -34867,10 +34867,10 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>2399</v>
+        <v>117</v>
       </c>
       <c r="Q479" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R479" t="inlineStr">
         <is>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34917,20 +34917,20 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>490</v>
+        <v>250</v>
       </c>
       <c r="K480" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L480" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M480" t="n">
-        <v>5000</v>
+        <v>8440</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O480" t="inlineStr">
@@ -34939,10 +34939,10 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>139</v>
+        <v>2813</v>
       </c>
       <c r="Q480" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R480" t="inlineStr">
         <is>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34989,20 +34989,20 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>720</v>
+        <v>620</v>
       </c>
       <c r="K481" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L481" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M481" t="n">
-        <v>10896</v>
+        <v>4266</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
@@ -35011,10 +35011,10 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>3632</v>
+        <v>118</v>
       </c>
       <c r="Q481" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R481" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35057,24 +35057,24 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>200</v>
+        <v>430</v>
       </c>
       <c r="K482" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L482" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="M482" t="n">
-        <v>4000</v>
+        <v>7198</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
@@ -35083,10 +35083,10 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>111</v>
+        <v>2399</v>
       </c>
       <c r="Q482" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R482" t="inlineStr">
         <is>
@@ -35129,24 +35129,24 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>120</v>
+        <v>490</v>
       </c>
       <c r="K483" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L483" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M483" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
@@ -35155,10 +35155,10 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>2667</v>
+        <v>139</v>
       </c>
       <c r="Q483" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R483" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35205,20 +35205,20 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="K484" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L484" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M484" t="n">
-        <v>5000</v>
+        <v>10896</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
@@ -35227,10 +35227,10 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>139</v>
+        <v>3632</v>
       </c>
       <c r="Q484" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R484" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35273,24 +35273,24 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>670</v>
+        <v>200</v>
       </c>
       <c r="K485" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L485" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M485" t="n">
-        <v>10761</v>
+        <v>4000</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
@@ -35299,10 +35299,10 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>3587</v>
+        <v>111</v>
       </c>
       <c r="Q485" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R485" t="inlineStr">
         <is>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35349,20 +35349,20 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K486" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L486" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M486" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
@@ -35371,10 +35371,10 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>111</v>
+        <v>2667</v>
       </c>
       <c r="Q486" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R486" t="inlineStr">
         <is>
@@ -35417,24 +35417,24 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K487" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L487" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M487" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
@@ -35443,10 +35443,10 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>2667</v>
+        <v>139</v>
       </c>
       <c r="Q487" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R487" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35493,20 +35493,20 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>380</v>
+        <v>670</v>
       </c>
       <c r="K488" t="n">
         <v>10000</v>
       </c>
       <c r="L488" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M488" t="n">
-        <v>10605</v>
+        <v>10761</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
@@ -35515,10 +35515,10 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>295</v>
+        <v>3587</v>
       </c>
       <c r="Q488" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R488" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35561,24 +35561,24 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>310</v>
+        <v>140</v>
       </c>
       <c r="K489" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="L489" t="n">
-        <v>22000</v>
+        <v>4000</v>
       </c>
       <c r="M489" t="n">
-        <v>20839</v>
+        <v>4000</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O489" t="inlineStr">
@@ -35587,10 +35587,10 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>6946</v>
+        <v>111</v>
       </c>
       <c r="Q489" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R489" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35633,24 +35633,24 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>510</v>
+        <v>160</v>
       </c>
       <c r="K490" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L490" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M490" t="n">
-        <v>9451</v>
+        <v>8000</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
@@ -35659,10 +35659,10 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>263</v>
+        <v>2667</v>
       </c>
       <c r="Q490" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R490" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35709,20 +35709,20 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="K491" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L491" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M491" t="n">
-        <v>19455</v>
+        <v>10605</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
@@ -35731,10 +35731,10 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>6485</v>
+        <v>295</v>
       </c>
       <c r="Q491" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R491" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35781,20 +35781,20 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>620</v>
+        <v>310</v>
       </c>
       <c r="K492" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="L492" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="M492" t="n">
-        <v>7718</v>
+        <v>20839</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O492" t="inlineStr">
@@ -35803,10 +35803,10 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>214</v>
+        <v>6946</v>
       </c>
       <c r="Q492" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R492" t="inlineStr">
         <is>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35853,20 +35853,20 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="K493" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L493" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M493" t="n">
-        <v>15452</v>
+        <v>9451</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O493" t="inlineStr">
@@ -35875,10 +35875,10 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>5151</v>
+        <v>263</v>
       </c>
       <c r="Q493" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R493" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35925,20 +35925,20 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>420</v>
+        <v>330</v>
       </c>
       <c r="K494" t="n">
-        <v>5500</v>
+        <v>19000</v>
       </c>
       <c r="L494" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="M494" t="n">
-        <v>5821</v>
+        <v>19455</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O494" t="inlineStr">
@@ -35947,10 +35947,10 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>162</v>
+        <v>6485</v>
       </c>
       <c r="Q494" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R494" t="inlineStr">
         <is>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35997,20 +35997,20 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>310</v>
+        <v>620</v>
       </c>
       <c r="K495" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L495" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M495" t="n">
-        <v>12710</v>
+        <v>7718</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O495" t="inlineStr">
@@ -36019,10 +36019,10 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>4237</v>
+        <v>214</v>
       </c>
       <c r="Q495" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R495" t="inlineStr">
         <is>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36069,20 +36069,20 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="K496" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L496" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M496" t="n">
-        <v>5000</v>
+        <v>15452</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O496" t="inlineStr">
@@ -36091,10 +36091,10 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>139</v>
+        <v>5151</v>
       </c>
       <c r="Q496" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R496" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36141,20 +36141,20 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="K497" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L497" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M497" t="n">
-        <v>9000</v>
+        <v>5821</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O497" t="inlineStr">
@@ -36163,10 +36163,10 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>3000</v>
+        <v>162</v>
       </c>
       <c r="Q497" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R497" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36209,24 +36209,24 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="K498" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L498" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="M498" t="n">
-        <v>4000</v>
+        <v>12710</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O498" t="inlineStr">
@@ -36235,10 +36235,10 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>111</v>
+        <v>4237</v>
       </c>
       <c r="Q498" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R498" t="inlineStr">
         <is>
@@ -36281,24 +36281,24 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>140</v>
+        <v>320</v>
       </c>
       <c r="K499" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L499" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M499" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O499" t="inlineStr">
@@ -36307,10 +36307,10 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>2333</v>
+        <v>139</v>
       </c>
       <c r="Q499" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R499" t="inlineStr">
         <is>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36357,32 +36357,32 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="K500" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L500" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M500" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P500" t="n">
-        <v>167</v>
+        <v>3000</v>
       </c>
       <c r="Q500" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R500" t="inlineStr">
         <is>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36425,20 +36425,20 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="K501" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L501" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M501" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="Q501" t="n">
         <v>36</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="K502" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L502" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M502" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36519,11 +36519,11 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P502" t="n">
-        <v>4000</v>
+        <v>2333</v>
       </c>
       <c r="Q502" t="n">
         <v>3</v>
@@ -36573,32 +36573,32 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="K503" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L503" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M503" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P503" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q503" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R503" t="inlineStr">
         <is>
@@ -36641,20 +36641,20 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="K504" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L504" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M504" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q504" t="n">
         <v>36</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36717,32 +36717,32 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>570</v>
+        <v>270</v>
       </c>
       <c r="K505" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L505" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M505" t="n">
-        <v>7193</v>
+        <v>12000</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P505" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="Q505" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R505" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36789,16 +36789,16 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>410</v>
+        <v>190</v>
       </c>
       <c r="K506" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L506" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M506" t="n">
-        <v>14415</v>
+        <v>12000</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>4805</v>
+        <v>4000</v>
       </c>
       <c r="Q506" t="n">
         <v>3</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36857,20 +36857,20 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>520</v>
+        <v>120</v>
       </c>
       <c r="K507" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L507" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M507" t="n">
-        <v>5760</v>
+        <v>5000</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="Q507" t="n">
         <v>36</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36933,20 +36933,20 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>320</v>
+        <v>570</v>
       </c>
       <c r="K508" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L508" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M508" t="n">
-        <v>11125</v>
+        <v>7193</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
@@ -36955,10 +36955,10 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>3708</v>
+        <v>200</v>
       </c>
       <c r="Q508" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R508" t="inlineStr">
         <is>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -37005,16 +37005,16 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>90</v>
+        <v>410</v>
       </c>
       <c r="K509" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L509" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M509" t="n">
-        <v>17333</v>
+        <v>14415</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37023,11 +37023,11 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P509" t="n">
-        <v>5778</v>
+        <v>4805</v>
       </c>
       <c r="Q509" t="n">
         <v>3</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37077,16 +37077,16 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>570</v>
+        <v>520</v>
       </c>
       <c r="K510" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L510" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M510" t="n">
-        <v>4193</v>
+        <v>5760</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="Q510" t="n">
         <v>36</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37149,16 +37149,16 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>470</v>
+        <v>320</v>
       </c>
       <c r="K511" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L511" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M511" t="n">
-        <v>7702</v>
+        <v>11125</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>2567</v>
+        <v>3708</v>
       </c>
       <c r="Q511" t="n">
         <v>3</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37221,16 +37221,16 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>470</v>
+        <v>90</v>
       </c>
       <c r="K512" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L512" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M512" t="n">
-        <v>8489</v>
+        <v>17333</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37239,11 +37239,11 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P512" t="n">
-        <v>2830</v>
+        <v>5778</v>
       </c>
       <c r="Q512" t="n">
         <v>3</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37293,16 +37293,16 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>620</v>
+        <v>570</v>
       </c>
       <c r="K513" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L513" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M513" t="n">
-        <v>7718</v>
+        <v>4193</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="Q513" t="n">
         <v>36</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="K514" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="L514" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M514" t="n">
-        <v>15422</v>
+        <v>7702</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>5141</v>
+        <v>2567</v>
       </c>
       <c r="Q514" t="n">
         <v>3</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37437,32 +37437,32 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>610</v>
+        <v>470</v>
       </c>
       <c r="K515" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L515" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M515" t="n">
-        <v>4713</v>
+        <v>8489</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P515" t="n">
-        <v>131</v>
+        <v>2830</v>
       </c>
       <c r="Q515" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R515" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37509,34 +37509,250 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>380</v>
+        <v>620</v>
       </c>
       <c r="K516" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L516" t="n">
         <v>8000</v>
       </c>
       <c r="M516" t="n">
+        <v>7718</v>
+      </c>
+      <c r="N516" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O516" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P516" t="n">
+        <v>214</v>
+      </c>
+      <c r="Q516" t="n">
+        <v>36</v>
+      </c>
+      <c r="R516" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>6</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D517" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E517" t="n">
+        <v>13</v>
+      </c>
+      <c r="F517" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J517" t="n">
+        <v>450</v>
+      </c>
+      <c r="K517" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L517" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M517" t="n">
+        <v>15422</v>
+      </c>
+      <c r="N517" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O517" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P517" t="n">
+        <v>5141</v>
+      </c>
+      <c r="Q517" t="n">
+        <v>3</v>
+      </c>
+      <c r="R517" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>6</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D518" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E518" t="n">
+        <v>13</v>
+      </c>
+      <c r="F518" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J518" t="n">
+        <v>610</v>
+      </c>
+      <c r="K518" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L518" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M518" t="n">
+        <v>4713</v>
+      </c>
+      <c r="N518" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O518" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P518" t="n">
+        <v>131</v>
+      </c>
+      <c r="Q518" t="n">
+        <v>36</v>
+      </c>
+      <c r="R518" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>6</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D519" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E519" t="n">
+        <v>13</v>
+      </c>
+      <c r="F519" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J519" t="n">
+        <v>380</v>
+      </c>
+      <c r="K519" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L519" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M519" t="n">
         <v>7421</v>
       </c>
-      <c r="N516" t="inlineStr">
+      <c r="N519" t="inlineStr">
         <is>
           <t>$/docena de atados</t>
         </is>
       </c>
-      <c r="O516" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P516" t="n">
+      <c r="O519" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P519" t="n">
         <v>2474</v>
       </c>
-      <c r="Q516" t="n">
+      <c r="Q519" t="n">
         <v>3</v>
       </c>
-      <c r="R516" t="inlineStr">
+      <c r="R519" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R519"/>
+  <dimension ref="A1:R521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="K360" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L360" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M360" t="n">
-        <v>7795</v>
+        <v>4295</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="Q360" t="n">
         <v>36</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -26349,20 +26349,20 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="K361" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L361" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M361" t="n">
-        <v>17422</v>
+        <v>7591</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/docena de paquetes</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
@@ -26371,10 +26371,10 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>5807</v>
+        <v>633</v>
       </c>
       <c r="Q361" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="R361" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26421,32 +26421,32 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>250</v>
+        <v>440</v>
       </c>
       <c r="K362" t="n">
-        <v>19000</v>
+        <v>7500</v>
       </c>
       <c r="L362" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M362" t="n">
-        <v>19720</v>
+        <v>7795</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P362" t="n">
-        <v>6573</v>
+        <v>217</v>
       </c>
       <c r="Q362" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R362" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26493,20 +26493,20 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>530</v>
+        <v>450</v>
       </c>
       <c r="K363" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="L363" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M363" t="n">
-        <v>7811</v>
+        <v>17422</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
@@ -26515,10 +26515,10 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>217</v>
+        <v>5807</v>
       </c>
       <c r="Q363" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R363" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="K364" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L364" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M364" t="n">
-        <v>12455</v>
+        <v>19720</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26583,11 +26583,11 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P364" t="n">
-        <v>4152</v>
+        <v>6573</v>
       </c>
       <c r="Q364" t="n">
         <v>3</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>640</v>
+        <v>530</v>
       </c>
       <c r="K365" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L365" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M365" t="n">
-        <v>4203</v>
+        <v>7811</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="Q365" t="n">
         <v>36</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="K366" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L366" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="M366" t="n">
-        <v>7289</v>
+        <v>12455</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>2430</v>
+        <v>4152</v>
       </c>
       <c r="Q366" t="n">
         <v>3</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>510</v>
+        <v>640</v>
       </c>
       <c r="K367" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L367" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M367" t="n">
-        <v>6000</v>
+        <v>4203</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q367" t="n">
         <v>36</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>590</v>
+        <v>380</v>
       </c>
       <c r="K368" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L368" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="M368" t="n">
-        <v>12288</v>
+        <v>7289</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>4096</v>
+        <v>2430</v>
       </c>
       <c r="Q368" t="n">
         <v>3</v>
@@ -26921,20 +26921,20 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>220</v>
+        <v>510</v>
       </c>
       <c r="K369" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L369" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M369" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q369" t="n">
         <v>36</v>
@@ -26993,20 +26993,20 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>120</v>
+        <v>590</v>
       </c>
       <c r="K370" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L370" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M370" t="n">
-        <v>10000</v>
+        <v>12288</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>3333</v>
+        <v>4096</v>
       </c>
       <c r="Q370" t="n">
         <v>3</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27065,20 +27065,20 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="K371" t="n">
         <v>5000</v>
       </c>
       <c r="L371" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M371" t="n">
-        <v>5538</v>
+        <v>5000</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="Q371" t="n">
         <v>36</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27137,20 +27137,20 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J372" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K372" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L372" t="n">
         <v>10000</v>
       </c>
       <c r="M372" t="n">
-        <v>9607</v>
+        <v>10000</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>3202</v>
+        <v>3333</v>
       </c>
       <c r="Q372" t="n">
         <v>3</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="K373" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L373" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M373" t="n">
-        <v>4717</v>
+        <v>5538</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="Q373" t="n">
         <v>36</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>390</v>
+        <v>280</v>
       </c>
       <c r="K374" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L374" t="n">
         <v>10000</v>
       </c>
       <c r="M374" t="n">
-        <v>9692</v>
+        <v>9607</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>3231</v>
+        <v>3202</v>
       </c>
       <c r="Q374" t="n">
         <v>3</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>410</v>
+        <v>530</v>
       </c>
       <c r="K375" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L375" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M375" t="n">
-        <v>7793</v>
+        <v>4717</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="Q375" t="n">
         <v>36</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>220</v>
+        <v>390</v>
       </c>
       <c r="K376" t="n">
-        <v>1600</v>
+        <v>9500</v>
       </c>
       <c r="L376" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M376" t="n">
-        <v>7082</v>
+        <v>9692</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>2361</v>
+        <v>3231</v>
       </c>
       <c r="Q376" t="n">
         <v>3</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27501,7 +27501,7 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="K377" t="n">
         <v>7500</v>
@@ -27510,7 +27510,7 @@
         <v>8000</v>
       </c>
       <c r="M377" t="n">
-        <v>7787</v>
+        <v>7793</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="K378" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L378" t="n">
         <v>15000</v>
       </c>
-      <c r="L378" t="n">
-        <v>16000</v>
-      </c>
       <c r="M378" t="n">
-        <v>15464</v>
+        <v>7082</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>5155</v>
+        <v>2361</v>
       </c>
       <c r="Q378" t="n">
         <v>3</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>570</v>
+        <v>470</v>
       </c>
       <c r="K379" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L379" t="n">
         <v>8000</v>
       </c>
       <c r="M379" t="n">
-        <v>7579</v>
+        <v>7787</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q379" t="n">
         <v>36</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="K380" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L380" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M380" t="n">
-        <v>14452</v>
+        <v>15464</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>4817</v>
+        <v>5155</v>
       </c>
       <c r="Q380" t="n">
         <v>3</v>
@@ -27789,32 +27789,32 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>110</v>
+        <v>570</v>
       </c>
       <c r="K381" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="L381" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M381" t="n">
-        <v>19091</v>
+        <v>7579</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P381" t="n">
-        <v>6364</v>
+        <v>211</v>
       </c>
       <c r="Q381" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27857,20 +27857,20 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="K382" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L382" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M382" t="n">
-        <v>12000</v>
+        <v>14452</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>4000</v>
+        <v>4817</v>
       </c>
       <c r="Q382" t="n">
         <v>3</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27933,32 +27933,32 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>450</v>
+        <v>110</v>
       </c>
       <c r="K383" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="L383" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M383" t="n">
-        <v>4789</v>
+        <v>19091</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P383" t="n">
-        <v>133</v>
+        <v>6364</v>
       </c>
       <c r="Q383" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R383" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -28001,20 +28001,20 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="K384" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L384" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M384" t="n">
-        <v>7577</v>
+        <v>12000</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>2526</v>
+        <v>4000</v>
       </c>
       <c r="Q384" t="n">
         <v>3</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28080,13 +28080,13 @@
         <v>450</v>
       </c>
       <c r="K385" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L385" t="n">
         <v>5000</v>
       </c>
-      <c r="L385" t="n">
-        <v>6000</v>
-      </c>
       <c r="M385" t="n">
-        <v>5644</v>
+        <v>4789</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="Q385" t="n">
         <v>36</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>660</v>
+        <v>260</v>
       </c>
       <c r="K386" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L386" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M386" t="n">
-        <v>11742</v>
+        <v>7577</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>3914</v>
+        <v>2526</v>
       </c>
       <c r="Q386" t="n">
         <v>3</v>
@@ -28217,20 +28217,20 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="K387" t="n">
         <v>5000</v>
       </c>
       <c r="L387" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M387" t="n">
-        <v>5000</v>
+        <v>5644</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q387" t="n">
         <v>36</v>
@@ -28289,20 +28289,20 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J388" t="n">
-        <v>160</v>
+        <v>660</v>
       </c>
       <c r="K388" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L388" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M388" t="n">
-        <v>10000</v>
+        <v>11742</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>3333</v>
+        <v>3914</v>
       </c>
       <c r="Q388" t="n">
         <v>3</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28361,20 +28361,20 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>460</v>
+        <v>140</v>
       </c>
       <c r="K389" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L389" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M389" t="n">
-        <v>7707</v>
+        <v>5000</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="Q389" t="n">
         <v>36</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28433,20 +28433,20 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J390" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K390" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L390" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M390" t="n">
-        <v>14441</v>
+        <v>10000</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>4814</v>
+        <v>3333</v>
       </c>
       <c r="Q390" t="n">
         <v>3</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>610</v>
+        <v>460</v>
       </c>
       <c r="K391" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L391" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M391" t="n">
-        <v>6197</v>
+        <v>7707</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="Q391" t="n">
         <v>36</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="K392" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L392" t="n">
         <v>15000</v>
       </c>
-      <c r="L392" t="n">
-        <v>16000</v>
-      </c>
       <c r="M392" t="n">
-        <v>15455</v>
+        <v>14441</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>5152</v>
+        <v>4814</v>
       </c>
       <c r="Q392" t="n">
         <v>3</v>
@@ -28649,24 +28649,24 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J393" t="n">
-        <v>100</v>
+        <v>610</v>
       </c>
       <c r="K393" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L393" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="M393" t="n">
-        <v>14000</v>
+        <v>6197</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -28675,10 +28675,10 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>4667</v>
+        <v>172</v>
       </c>
       <c r="Q393" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28725,20 +28725,20 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>420</v>
+        <v>330</v>
       </c>
       <c r="K394" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="L394" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M394" t="n">
-        <v>4786</v>
+        <v>15455</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
@@ -28747,10 +28747,10 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>133</v>
+        <v>5152</v>
       </c>
       <c r="Q394" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28793,20 +28793,20 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J395" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="K395" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L395" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M395" t="n">
-        <v>7630</v>
+        <v>14000</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>2543</v>
+        <v>4667</v>
       </c>
       <c r="Q395" t="n">
         <v>3</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>570</v>
+        <v>420</v>
       </c>
       <c r="K396" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L396" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M396" t="n">
-        <v>7579</v>
+        <v>4786</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="Q396" t="n">
         <v>36</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="K397" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L397" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M397" t="n">
-        <v>14562</v>
+        <v>7630</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>4854</v>
+        <v>2543</v>
       </c>
       <c r="Q397" t="n">
         <v>3</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>350</v>
+        <v>570</v>
       </c>
       <c r="K398" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L398" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M398" t="n">
-        <v>4657</v>
+        <v>7579</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="Q398" t="n">
         <v>36</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="K399" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L399" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M399" t="n">
-        <v>7429</v>
+        <v>14562</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>2476</v>
+        <v>4854</v>
       </c>
       <c r="Q399" t="n">
         <v>3</v>
@@ -29153,24 +29153,24 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K400" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L400" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M400" t="n">
-        <v>6000</v>
+        <v>4657</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
@@ -29179,10 +29179,10 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>2000</v>
+        <v>129</v>
       </c>
       <c r="Q400" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29229,20 +29229,20 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>440</v>
+        <v>350</v>
       </c>
       <c r="K401" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L401" t="n">
         <v>8000</v>
       </c>
       <c r="M401" t="n">
-        <v>8000</v>
+        <v>7429</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29251,10 +29251,10 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>222</v>
+        <v>2476</v>
       </c>
       <c r="Q401" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29297,20 +29297,20 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="K402" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L402" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M402" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>4667</v>
+        <v>2000</v>
       </c>
       <c r="Q402" t="n">
         <v>3</v>
@@ -29369,20 +29369,20 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="K403" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L403" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M403" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q403" t="n">
         <v>36</v>
@@ -29441,20 +29441,20 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="K404" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L404" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M404" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>4000</v>
+        <v>4667</v>
       </c>
       <c r="Q404" t="n">
         <v>3</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29513,20 +29513,20 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>510</v>
+        <v>200</v>
       </c>
       <c r="K405" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L405" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M405" t="n">
-        <v>4725</v>
+        <v>7000</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="Q405" t="n">
         <v>36</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29585,20 +29585,20 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="K406" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L406" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M406" t="n">
-        <v>8406</v>
+        <v>12000</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>2802</v>
+        <v>4000</v>
       </c>
       <c r="Q406" t="n">
         <v>3</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>440</v>
+        <v>510</v>
       </c>
       <c r="K407" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L407" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M407" t="n">
-        <v>7591</v>
+        <v>4725</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="Q407" t="n">
         <v>36</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="K408" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L408" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M408" t="n">
-        <v>14611</v>
+        <v>8406</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>4870</v>
+        <v>2802</v>
       </c>
       <c r="Q408" t="n">
         <v>3</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>370</v>
+        <v>440</v>
       </c>
       <c r="K409" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L409" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M409" t="n">
-        <v>6676</v>
+        <v>7591</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29823,11 +29823,11 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="Q409" t="n">
         <v>36</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29877,20 +29877,20 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="K410" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L410" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M410" t="n">
-        <v>7000</v>
+        <v>14611</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
@@ -29899,10 +29899,10 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>194</v>
+        <v>4870</v>
       </c>
       <c r="Q410" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
@@ -29949,32 +29949,32 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="K411" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L411" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M411" t="n">
-        <v>14581</v>
+        <v>6676</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P411" t="n">
-        <v>4860</v>
+        <v>185</v>
       </c>
       <c r="Q411" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
@@ -30017,20 +30017,20 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="K412" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L412" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M412" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q412" t="n">
         <v>36</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30093,20 +30093,20 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>540</v>
+        <v>430</v>
       </c>
       <c r="K413" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L413" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M413" t="n">
-        <v>7769</v>
+        <v>14581</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
@@ -30115,10 +30115,10 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>216</v>
+        <v>4860</v>
       </c>
       <c r="Q413" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R413" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30161,24 +30161,24 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>430</v>
+        <v>220</v>
       </c>
       <c r="K414" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L414" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M414" t="n">
-        <v>15581</v>
+        <v>6000</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -30187,10 +30187,10 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>5194</v>
+        <v>167</v>
       </c>
       <c r="Q414" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
@@ -30237,32 +30237,32 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>140</v>
+        <v>540</v>
       </c>
       <c r="K415" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="L415" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="M415" t="n">
-        <v>21143</v>
+        <v>7769</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P415" t="n">
-        <v>7048</v>
+        <v>216</v>
       </c>
       <c r="Q415" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30309,20 +30309,20 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="K416" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L416" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M416" t="n">
-        <v>5644</v>
+        <v>15581</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -30331,10 +30331,10 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>157</v>
+        <v>5194</v>
       </c>
       <c r="Q416" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R416" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>670</v>
+        <v>140</v>
       </c>
       <c r="K417" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L417" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M417" t="n">
-        <v>10761</v>
+        <v>21143</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30399,11 +30399,11 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P417" t="n">
-        <v>3587</v>
+        <v>7048</v>
       </c>
       <c r="Q417" t="n">
         <v>3</v>
@@ -30449,20 +30449,20 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="K418" t="n">
         <v>5000</v>
       </c>
       <c r="L418" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M418" t="n">
-        <v>5000</v>
+        <v>5644</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q418" t="n">
         <v>36</v>
@@ -30521,20 +30521,20 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>140</v>
+        <v>670</v>
       </c>
       <c r="K419" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L419" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M419" t="n">
-        <v>8000</v>
+        <v>10761</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>2667</v>
+        <v>3587</v>
       </c>
       <c r="Q419" t="n">
         <v>3</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30593,20 +30593,20 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="K420" t="n">
         <v>5000</v>
       </c>
       <c r="L420" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M420" t="n">
-        <v>5622</v>
+        <v>5000</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="Q420" t="n">
         <v>36</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30665,20 +30665,20 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>620</v>
+        <v>140</v>
       </c>
       <c r="K421" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L421" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M421" t="n">
-        <v>9282</v>
+        <v>8000</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>3094</v>
+        <v>2667</v>
       </c>
       <c r="Q421" t="n">
         <v>3</v>
@@ -30737,20 +30737,20 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="K422" t="n">
         <v>5000</v>
       </c>
       <c r="L422" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M422" t="n">
-        <v>5000</v>
+        <v>5622</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="Q422" t="n">
         <v>36</v>
@@ -30809,20 +30809,20 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>150</v>
+        <v>620</v>
       </c>
       <c r="K423" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L423" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M423" t="n">
-        <v>8000</v>
+        <v>9282</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>2667</v>
+        <v>3094</v>
       </c>
       <c r="Q423" t="n">
         <v>3</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30881,20 +30881,20 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>720</v>
+        <v>140</v>
       </c>
       <c r="K424" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L424" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M424" t="n">
-        <v>3729</v>
+        <v>5000</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="Q424" t="n">
         <v>36</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30953,20 +30953,20 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="K425" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L425" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M425" t="n">
-        <v>7197</v>
+        <v>8000</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>2399</v>
+        <v>2667</v>
       </c>
       <c r="Q425" t="n">
         <v>3</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>510</v>
+        <v>720</v>
       </c>
       <c r="K426" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="L426" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M426" t="n">
-        <v>7716</v>
+        <v>3729</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>214</v>
+        <v>104</v>
       </c>
       <c r="Q426" t="n">
         <v>36</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="K427" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L427" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M427" t="n">
-        <v>14455</v>
+        <v>7197</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>4818</v>
+        <v>2399</v>
       </c>
       <c r="Q427" t="n">
         <v>3</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>250</v>
+        <v>510</v>
       </c>
       <c r="K428" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L428" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M428" t="n">
-        <v>6000</v>
+        <v>7716</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="Q428" t="n">
         <v>36</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="K429" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L429" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M429" t="n">
-        <v>12000</v>
+        <v>14455</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31263,11 +31263,11 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P429" t="n">
-        <v>4000</v>
+        <v>4818</v>
       </c>
       <c r="Q429" t="n">
         <v>3</v>
@@ -31320,17 +31320,17 @@
         <v>250</v>
       </c>
       <c r="K430" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L430" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M430" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
@@ -31339,10 +31339,10 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q430" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R430" t="inlineStr">
         <is>
@@ -31385,36 +31385,36 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K431" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L431" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M431" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>139</v>
+        <v>4000</v>
       </c>
       <c r="Q431" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R431" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31461,32 +31461,32 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="K432" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L432" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M432" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N432" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O432" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P432" t="n">
         <v>4000</v>
       </c>
-      <c r="L432" t="n">
-        <v>4500</v>
-      </c>
-      <c r="M432" t="n">
-        <v>4208</v>
-      </c>
-      <c r="N432" t="inlineStr">
-        <is>
-          <t>$/caja 36 atados</t>
-        </is>
-      </c>
-      <c r="O432" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P432" t="n">
-        <v>117</v>
-      </c>
       <c r="Q432" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R432" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31529,24 +31529,24 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="K433" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L433" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M433" t="n">
-        <v>7183</v>
+        <v>5000</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
@@ -31555,10 +31555,10 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>2394</v>
+        <v>139</v>
       </c>
       <c r="Q433" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R433" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31605,16 +31605,16 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>620</v>
+        <v>530</v>
       </c>
       <c r="K434" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L434" t="n">
         <v>4500</v>
       </c>
-      <c r="L434" t="n">
-        <v>5000</v>
-      </c>
       <c r="M434" t="n">
-        <v>4718</v>
+        <v>4208</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Q434" t="n">
         <v>36</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="K435" t="n">
         <v>7000</v>
       </c>
       <c r="L435" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M435" t="n">
-        <v>7405</v>
+        <v>7183</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>2468</v>
+        <v>2394</v>
       </c>
       <c r="Q435" t="n">
         <v>3</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>390</v>
+        <v>620</v>
       </c>
       <c r="K436" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L436" t="n">
         <v>5000</v>
       </c>
-      <c r="L436" t="n">
-        <v>6000</v>
-      </c>
       <c r="M436" t="n">
-        <v>5692</v>
+        <v>4718</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="Q436" t="n">
         <v>36</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>260</v>
+        <v>370</v>
       </c>
       <c r="K437" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L437" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M437" t="n">
-        <v>9577</v>
+        <v>7405</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>3192</v>
+        <v>2468</v>
       </c>
       <c r="Q437" t="n">
         <v>3</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31893,16 +31893,16 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>220</v>
+        <v>390</v>
       </c>
       <c r="K438" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L438" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M438" t="n">
-        <v>8318</v>
+        <v>5692</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="Q438" t="n">
         <v>36</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>430</v>
+        <v>260</v>
       </c>
       <c r="K439" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L439" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M439" t="n">
-        <v>14628</v>
+        <v>9577</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>4876</v>
+        <v>3192</v>
       </c>
       <c r="Q439" t="n">
         <v>3</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>620</v>
+        <v>220</v>
       </c>
       <c r="K440" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L440" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M440" t="n">
-        <v>4218</v>
+        <v>8318</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="Q440" t="n">
         <v>36</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="K441" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L441" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M441" t="n">
-        <v>7211</v>
+        <v>14628</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>2404</v>
+        <v>4876</v>
       </c>
       <c r="Q441" t="n">
         <v>3</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>330</v>
+        <v>620</v>
       </c>
       <c r="K442" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L442" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M442" t="n">
-        <v>6000</v>
+        <v>4218</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q442" t="n">
         <v>36</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32253,16 +32253,16 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>140</v>
+        <v>380</v>
       </c>
       <c r="K443" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L443" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M443" t="n">
-        <v>12000</v>
+        <v>7211</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>4000</v>
+        <v>2404</v>
       </c>
       <c r="Q443" t="n">
         <v>3</v>
@@ -32321,20 +32321,20 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="K444" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L444" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M444" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q444" t="n">
         <v>36</v>
@@ -32393,20 +32393,20 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K445" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L445" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M445" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>3333</v>
+        <v>4000</v>
       </c>
       <c r="Q445" t="n">
         <v>3</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32465,20 +32465,20 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>440</v>
+        <v>120</v>
       </c>
       <c r="K446" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L446" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M446" t="n">
-        <v>7795</v>
+        <v>5000</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="Q446" t="n">
         <v>36</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32537,20 +32537,20 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="K447" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L447" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M447" t="n">
-        <v>14419</v>
+        <v>10000</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>4806</v>
+        <v>3333</v>
       </c>
       <c r="Q447" t="n">
         <v>3</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="K448" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L448" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M448" t="n">
-        <v>6786</v>
+        <v>7795</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="Q448" t="n">
         <v>36</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="K449" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L449" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M449" t="n">
-        <v>12586</v>
+        <v>14419</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>4195</v>
+        <v>4806</v>
       </c>
       <c r="Q449" t="n">
         <v>3</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="K450" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L450" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M450" t="n">
-        <v>5721</v>
+        <v>6786</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="Q450" t="n">
         <v>36</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32829,7 +32829,7 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="K451" t="n">
         <v>12000</v>
@@ -32838,7 +32838,7 @@
         <v>13000</v>
       </c>
       <c r="M451" t="n">
-        <v>12619</v>
+        <v>12586</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>4206</v>
+        <v>4195</v>
       </c>
       <c r="Q451" t="n">
         <v>3</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>640</v>
+        <v>340</v>
       </c>
       <c r="K452" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L452" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M452" t="n">
-        <v>4219</v>
+        <v>5721</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="Q452" t="n">
         <v>36</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>470</v>
+        <v>210</v>
       </c>
       <c r="K453" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L453" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M453" t="n">
-        <v>7702</v>
+        <v>12619</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>2567</v>
+        <v>4206</v>
       </c>
       <c r="Q453" t="n">
         <v>3</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="K454" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L454" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M454" t="n">
-        <v>5781</v>
+        <v>4219</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="Q454" t="n">
         <v>36</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="K455" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L455" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M455" t="n">
-        <v>9824</v>
+        <v>7702</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>3275</v>
+        <v>2567</v>
       </c>
       <c r="Q455" t="n">
         <v>3</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="K456" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L456" t="n">
         <v>6000</v>
       </c>
       <c r="M456" t="n">
-        <v>6000</v>
+        <v>5781</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q456" t="n">
         <v>36</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>700</v>
+        <v>170</v>
       </c>
       <c r="K457" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L457" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M457" t="n">
-        <v>11500</v>
+        <v>9824</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>3833</v>
+        <v>3275</v>
       </c>
       <c r="Q457" t="n">
         <v>3</v>
@@ -33329,20 +33329,20 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K458" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L458" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M458" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q458" t="n">
         <v>36</v>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K459" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L459" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M459" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>3000</v>
+        <v>3833</v>
       </c>
       <c r="Q459" t="n">
         <v>3</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33473,20 +33473,20 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>630</v>
+        <v>160</v>
       </c>
       <c r="K460" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L460" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M460" t="n">
-        <v>4214</v>
+        <v>5000</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="Q460" t="n">
         <v>36</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33545,20 +33545,20 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K461" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L461" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M461" t="n">
-        <v>7389</v>
+        <v>9000</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>2463</v>
+        <v>3000</v>
       </c>
       <c r="Q461" t="n">
         <v>3</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="K462" t="n">
         <v>4000</v>
       </c>
       <c r="L462" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M462" t="n">
-        <v>4357</v>
+        <v>4214</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q462" t="n">
         <v>36</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>510</v>
+        <v>360</v>
       </c>
       <c r="K463" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L463" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M463" t="n">
-        <v>11225</v>
+        <v>7389</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>3742</v>
+        <v>2463</v>
       </c>
       <c r="Q463" t="n">
         <v>3</v>
@@ -33761,20 +33761,20 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="K464" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L464" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M464" t="n">
-        <v>3500</v>
+        <v>4357</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="Q464" t="n">
         <v>36</v>
@@ -33833,20 +33833,20 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>130</v>
+        <v>510</v>
       </c>
       <c r="K465" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L465" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M465" t="n">
-        <v>8000</v>
+        <v>11225</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>2667</v>
+        <v>3742</v>
       </c>
       <c r="Q465" t="n">
         <v>3</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33905,20 +33905,20 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>590</v>
+        <v>100</v>
       </c>
       <c r="K466" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L466" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M466" t="n">
-        <v>4186</v>
+        <v>3500</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="Q466" t="n">
         <v>36</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33977,20 +33977,20 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>450</v>
+        <v>130</v>
       </c>
       <c r="K467" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L467" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M467" t="n">
-        <v>7289</v>
+        <v>8000</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>2430</v>
+        <v>2667</v>
       </c>
       <c r="Q467" t="n">
         <v>3</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34053,7 +34053,7 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>660</v>
+        <v>590</v>
       </c>
       <c r="K468" t="n">
         <v>4000</v>
@@ -34062,7 +34062,7 @@
         <v>4500</v>
       </c>
       <c r="M468" t="n">
-        <v>4220</v>
+        <v>4186</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q468" t="n">
         <v>36</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="K469" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L469" t="n">
         <v>7500</v>
       </c>
-      <c r="L469" t="n">
-        <v>8000</v>
-      </c>
       <c r="M469" t="n">
-        <v>7703</v>
+        <v>7289</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>2568</v>
+        <v>2430</v>
       </c>
       <c r="Q469" t="n">
         <v>3</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>550</v>
+        <v>660</v>
       </c>
       <c r="K470" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L470" t="n">
         <v>4500</v>
       </c>
-      <c r="L470" t="n">
-        <v>5000</v>
-      </c>
       <c r="M470" t="n">
-        <v>4700</v>
+        <v>4220</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Q470" t="n">
         <v>36</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34272,13 +34272,13 @@
         <v>370</v>
       </c>
       <c r="K471" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L471" t="n">
         <v>8000</v>
       </c>
-      <c r="L471" t="n">
-        <v>9000</v>
-      </c>
       <c r="M471" t="n">
-        <v>8405</v>
+        <v>7703</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>2802</v>
+        <v>2568</v>
       </c>
       <c r="Q471" t="n">
         <v>3</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="K472" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L472" t="n">
         <v>5000</v>
       </c>
-      <c r="L472" t="n">
-        <v>6000</v>
-      </c>
       <c r="M472" t="n">
-        <v>5673</v>
+        <v>4700</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="Q472" t="n">
         <v>36</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>720</v>
+        <v>370</v>
       </c>
       <c r="K473" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L473" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M473" t="n">
-        <v>10236</v>
+        <v>8405</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>3412</v>
+        <v>2802</v>
       </c>
       <c r="Q473" t="n">
         <v>3</v>
@@ -34481,20 +34481,20 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="K474" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L474" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M474" t="n">
-        <v>4000</v>
+        <v>5673</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="Q474" t="n">
         <v>36</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34557,20 +34557,20 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>350</v>
+        <v>720</v>
       </c>
       <c r="K475" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L475" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M475" t="n">
-        <v>5000</v>
+        <v>10236</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
@@ -34579,10 +34579,10 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>139</v>
+        <v>3412</v>
       </c>
       <c r="Q475" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R475" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34625,24 +34625,24 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="K476" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L476" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M476" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
@@ -34651,10 +34651,10 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>2667</v>
+        <v>111</v>
       </c>
       <c r="Q476" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R476" t="inlineStr">
         <is>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="K477" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L477" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M477" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q477" t="n">
         <v>36</v>
@@ -34769,20 +34769,20 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>220</v>
+        <v>370</v>
       </c>
       <c r="K478" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L478" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M478" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>2333</v>
+        <v>2667</v>
       </c>
       <c r="Q478" t="n">
         <v>3</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34841,20 +34841,20 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>540</v>
+        <v>220</v>
       </c>
       <c r="K479" t="n">
         <v>4000</v>
       </c>
       <c r="L479" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M479" t="n">
-        <v>4213</v>
+        <v>4000</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Q479" t="n">
         <v>36</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K480" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L480" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M480" t="n">
-        <v>8440</v>
+        <v>7000</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>2813</v>
+        <v>2333</v>
       </c>
       <c r="Q480" t="n">
         <v>3</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34989,7 +34989,7 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>620</v>
+        <v>540</v>
       </c>
       <c r="K481" t="n">
         <v>4000</v>
@@ -34998,7 +34998,7 @@
         <v>4500</v>
       </c>
       <c r="M481" t="n">
-        <v>4266</v>
+        <v>4213</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q481" t="n">
         <v>36</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K482" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L482" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M482" t="n">
-        <v>7198</v>
+        <v>8440</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>2399</v>
+        <v>2813</v>
       </c>
       <c r="Q482" t="n">
         <v>3</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>490</v>
+        <v>620</v>
       </c>
       <c r="K483" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L483" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M483" t="n">
-        <v>5000</v>
+        <v>4266</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="Q483" t="n">
         <v>36</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>720</v>
+        <v>430</v>
       </c>
       <c r="K484" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L484" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M484" t="n">
-        <v>10896</v>
+        <v>7198</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>3632</v>
+        <v>2399</v>
       </c>
       <c r="Q484" t="n">
         <v>3</v>
@@ -35273,20 +35273,20 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="K485" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L485" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M485" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q485" t="n">
         <v>36</v>
@@ -35345,20 +35345,20 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>120</v>
+        <v>720</v>
       </c>
       <c r="K486" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L486" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M486" t="n">
-        <v>8000</v>
+        <v>10896</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>2667</v>
+        <v>3632</v>
       </c>
       <c r="Q486" t="n">
         <v>3</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35417,20 +35417,20 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K487" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L487" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M487" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="Q487" t="n">
         <v>36</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35489,20 +35489,20 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>670</v>
+        <v>120</v>
       </c>
       <c r="K488" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L488" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M488" t="n">
-        <v>10761</v>
+        <v>8000</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>3587</v>
+        <v>2667</v>
       </c>
       <c r="Q488" t="n">
         <v>3</v>
@@ -35561,20 +35561,20 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="K489" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L489" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M489" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q489" t="n">
         <v>36</v>
@@ -35633,20 +35633,20 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>160</v>
+        <v>670</v>
       </c>
       <c r="K490" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L490" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M490" t="n">
-        <v>8000</v>
+        <v>10761</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>2667</v>
+        <v>3587</v>
       </c>
       <c r="Q490" t="n">
         <v>3</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35705,20 +35705,20 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="K491" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L491" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M491" t="n">
-        <v>10605</v>
+        <v>4000</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="Q491" t="n">
         <v>36</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35777,20 +35777,20 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K492" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L492" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="M492" t="n">
-        <v>20839</v>
+        <v>8000</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>6946</v>
+        <v>2667</v>
       </c>
       <c r="Q492" t="n">
         <v>3</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>510</v>
+        <v>380</v>
       </c>
       <c r="K493" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L493" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M493" t="n">
-        <v>9451</v>
+        <v>10605</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="Q493" t="n">
         <v>36</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="K494" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L494" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M494" t="n">
-        <v>19455</v>
+        <v>20839</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>6485</v>
+        <v>6946</v>
       </c>
       <c r="Q494" t="n">
         <v>3</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35997,16 +35997,16 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="K495" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L495" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M495" t="n">
-        <v>7718</v>
+        <v>9451</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="Q495" t="n">
         <v>36</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>420</v>
+        <v>330</v>
       </c>
       <c r="K496" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L496" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M496" t="n">
-        <v>15452</v>
+        <v>19455</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>5151</v>
+        <v>6485</v>
       </c>
       <c r="Q496" t="n">
         <v>3</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>420</v>
+        <v>620</v>
       </c>
       <c r="K497" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L497" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M497" t="n">
-        <v>5821</v>
+        <v>7718</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="Q497" t="n">
         <v>36</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="K498" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L498" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M498" t="n">
-        <v>12710</v>
+        <v>15452</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>4237</v>
+        <v>5151</v>
       </c>
       <c r="Q498" t="n">
         <v>3</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="K499" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L499" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M499" t="n">
-        <v>5000</v>
+        <v>5821</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="Q499" t="n">
         <v>36</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="K500" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L500" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M500" t="n">
-        <v>9000</v>
+        <v>12710</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>3000</v>
+        <v>4237</v>
       </c>
       <c r="Q500" t="n">
         <v>3</v>
@@ -36425,20 +36425,20 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="K501" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L501" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M501" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q501" t="n">
         <v>36</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>140</v>
+        <v>320</v>
       </c>
       <c r="K502" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L502" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M502" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>2333</v>
+        <v>3000</v>
       </c>
       <c r="Q502" t="n">
         <v>3</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36569,20 +36569,20 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="K503" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L503" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M503" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36591,11 +36591,11 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P503" t="n">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="Q503" t="n">
         <v>36</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36641,24 +36641,24 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="K504" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L504" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M504" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O504" t="inlineStr">
@@ -36667,10 +36667,10 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>167</v>
+        <v>2333</v>
       </c>
       <c r="Q504" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R504" t="inlineStr">
         <is>
@@ -36717,20 +36717,20 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="K505" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L505" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M505" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O505" t="inlineStr">
@@ -36739,10 +36739,10 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q505" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R505" t="inlineStr">
         <is>
@@ -36789,20 +36789,20 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="K506" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L506" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M506" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O506" t="inlineStr">
@@ -36811,10 +36811,10 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q506" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R506" t="inlineStr">
         <is>
@@ -36857,36 +36857,36 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="K507" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L507" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M507" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P507" t="n">
-        <v>139</v>
+        <v>4000</v>
       </c>
       <c r="Q507" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R507" t="inlineStr">
         <is>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36933,20 +36933,20 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>570</v>
+        <v>190</v>
       </c>
       <c r="K508" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L508" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M508" t="n">
-        <v>7193</v>
+        <v>12000</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
@@ -36955,10 +36955,10 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="Q508" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R508" t="inlineStr">
         <is>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -37001,24 +37001,24 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="K509" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L509" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M509" t="n">
-        <v>14415</v>
+        <v>5000</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
@@ -37027,10 +37027,10 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>4805</v>
+        <v>139</v>
       </c>
       <c r="Q509" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R509" t="inlineStr">
         <is>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37077,16 +37077,16 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>520</v>
+        <v>570</v>
       </c>
       <c r="K510" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L510" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M510" t="n">
-        <v>5760</v>
+        <v>7193</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="Q510" t="n">
         <v>36</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37149,16 +37149,16 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>320</v>
+        <v>410</v>
       </c>
       <c r="K511" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L511" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M511" t="n">
-        <v>11125</v>
+        <v>14415</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>3708</v>
+        <v>4805</v>
       </c>
       <c r="Q511" t="n">
         <v>3</v>
@@ -37221,32 +37221,32 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>90</v>
+        <v>520</v>
       </c>
       <c r="K512" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="L512" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M512" t="n">
-        <v>17333</v>
+        <v>5760</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P512" t="n">
-        <v>5778</v>
+        <v>160</v>
       </c>
       <c r="Q512" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R512" t="inlineStr">
         <is>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37293,20 +37293,20 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>570</v>
+        <v>320</v>
       </c>
       <c r="K513" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L513" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="M513" t="n">
-        <v>4193</v>
+        <v>11125</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O513" t="inlineStr">
@@ -37315,10 +37315,10 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>116</v>
+        <v>3708</v>
       </c>
       <c r="Q513" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R513" t="inlineStr">
         <is>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>470</v>
+        <v>90</v>
       </c>
       <c r="K514" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="L514" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M514" t="n">
-        <v>7702</v>
+        <v>17333</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37383,11 +37383,11 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P514" t="n">
-        <v>2567</v>
+        <v>5778</v>
       </c>
       <c r="Q514" t="n">
         <v>3</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37437,32 +37437,32 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>470</v>
+        <v>570</v>
       </c>
       <c r="K515" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L515" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M515" t="n">
-        <v>8489</v>
+        <v>4193</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P515" t="n">
-        <v>2830</v>
+        <v>116</v>
       </c>
       <c r="Q515" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R515" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37509,7 +37509,7 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>620</v>
+        <v>470</v>
       </c>
       <c r="K516" t="n">
         <v>7500</v>
@@ -37518,11 +37518,11 @@
         <v>8000</v>
       </c>
       <c r="M516" t="n">
-        <v>7718</v>
+        <v>7702</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
@@ -37531,10 +37531,10 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>214</v>
+        <v>2567</v>
       </c>
       <c r="Q516" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R516" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="K517" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L517" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M517" t="n">
-        <v>15422</v>
+        <v>8489</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37599,11 +37599,11 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P517" t="n">
-        <v>5141</v>
+        <v>2830</v>
       </c>
       <c r="Q517" t="n">
         <v>3</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37653,16 +37653,16 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="K518" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L518" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M518" t="n">
-        <v>4713</v>
+        <v>7718</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="Q518" t="n">
         <v>36</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37725,16 +37725,16 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="K519" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L519" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M519" t="n">
-        <v>7421</v>
+        <v>15422</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,12 +37747,156 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>2474</v>
+        <v>5141</v>
       </c>
       <c r="Q519" t="n">
         <v>3</v>
       </c>
       <c r="R519" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>6</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D520" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E520" t="n">
+        <v>13</v>
+      </c>
+      <c r="F520" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J520" t="n">
+        <v>610</v>
+      </c>
+      <c r="K520" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L520" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M520" t="n">
+        <v>4713</v>
+      </c>
+      <c r="N520" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O520" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P520" t="n">
+        <v>131</v>
+      </c>
+      <c r="Q520" t="n">
+        <v>36</v>
+      </c>
+      <c r="R520" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>6</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D521" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E521" t="n">
+        <v>13</v>
+      </c>
+      <c r="F521" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J521" t="n">
+        <v>380</v>
+      </c>
+      <c r="K521" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L521" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M521" t="n">
+        <v>7421</v>
+      </c>
+      <c r="N521" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O521" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P521" t="n">
+        <v>2474</v>
+      </c>
+      <c r="Q521" t="n">
+        <v>3</v>
+      </c>
+      <c r="R521" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R527"/>
+  <dimension ref="A1:R529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>340</v>
+        <v>740</v>
       </c>
       <c r="K458" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L458" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M458" t="n">
-        <v>5721</v>
+        <v>4223</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="Q458" t="n">
         <v>36</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>210</v>
+        <v>450</v>
       </c>
       <c r="K459" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L459" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="M459" t="n">
-        <v>12619</v>
+        <v>7211</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>4206</v>
+        <v>2404</v>
       </c>
       <c r="Q459" t="n">
         <v>3</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>640</v>
+        <v>340</v>
       </c>
       <c r="K460" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L460" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M460" t="n">
-        <v>4219</v>
+        <v>5721</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="Q460" t="n">
         <v>36</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>470</v>
+        <v>210</v>
       </c>
       <c r="K461" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L461" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M461" t="n">
-        <v>7702</v>
+        <v>12619</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>2567</v>
+        <v>4206</v>
       </c>
       <c r="Q461" t="n">
         <v>3</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="K462" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L462" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M462" t="n">
-        <v>5781</v>
+        <v>4219</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="Q462" t="n">
         <v>36</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="K463" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L463" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M463" t="n">
-        <v>9824</v>
+        <v>7702</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>3275</v>
+        <v>2567</v>
       </c>
       <c r="Q463" t="n">
         <v>3</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="K464" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L464" t="n">
         <v>6000</v>
       </c>
       <c r="M464" t="n">
-        <v>6000</v>
+        <v>5781</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q464" t="n">
         <v>36</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>700</v>
+        <v>170</v>
       </c>
       <c r="K465" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L465" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M465" t="n">
-        <v>11500</v>
+        <v>9824</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>3833</v>
+        <v>3275</v>
       </c>
       <c r="Q465" t="n">
         <v>3</v>
@@ -33905,20 +33905,20 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K466" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L466" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M466" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q466" t="n">
         <v>36</v>
@@ -33977,20 +33977,20 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K467" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L467" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M467" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>3000</v>
+        <v>3833</v>
       </c>
       <c r="Q467" t="n">
         <v>3</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34049,20 +34049,20 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>630</v>
+        <v>160</v>
       </c>
       <c r="K468" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L468" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M468" t="n">
-        <v>4214</v>
+        <v>5000</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="Q468" t="n">
         <v>36</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34121,20 +34121,20 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K469" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L469" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M469" t="n">
-        <v>7389</v>
+        <v>9000</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>2463</v>
+        <v>3000</v>
       </c>
       <c r="Q469" t="n">
         <v>3</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="K470" t="n">
         <v>4000</v>
       </c>
       <c r="L470" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M470" t="n">
-        <v>4357</v>
+        <v>4214</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q470" t="n">
         <v>36</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34269,16 +34269,16 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>510</v>
+        <v>360</v>
       </c>
       <c r="K471" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L471" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M471" t="n">
-        <v>11225</v>
+        <v>7389</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>3742</v>
+        <v>2463</v>
       </c>
       <c r="Q471" t="n">
         <v>3</v>
@@ -34337,20 +34337,20 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="K472" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L472" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M472" t="n">
-        <v>3500</v>
+        <v>4357</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="Q472" t="n">
         <v>36</v>
@@ -34409,20 +34409,20 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>130</v>
+        <v>510</v>
       </c>
       <c r="K473" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L473" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M473" t="n">
-        <v>8000</v>
+        <v>11225</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>2667</v>
+        <v>3742</v>
       </c>
       <c r="Q473" t="n">
         <v>3</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34481,20 +34481,20 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>590</v>
+        <v>100</v>
       </c>
       <c r="K474" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L474" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M474" t="n">
-        <v>4186</v>
+        <v>3500</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="Q474" t="n">
         <v>36</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34553,20 +34553,20 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>450</v>
+        <v>130</v>
       </c>
       <c r="K475" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L475" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M475" t="n">
-        <v>7289</v>
+        <v>8000</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>2430</v>
+        <v>2667</v>
       </c>
       <c r="Q475" t="n">
         <v>3</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34629,7 +34629,7 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>660</v>
+        <v>590</v>
       </c>
       <c r="K476" t="n">
         <v>4000</v>
@@ -34638,7 +34638,7 @@
         <v>4500</v>
       </c>
       <c r="M476" t="n">
-        <v>4220</v>
+        <v>4186</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q476" t="n">
         <v>36</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="K477" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L477" t="n">
         <v>7500</v>
       </c>
-      <c r="L477" t="n">
-        <v>8000</v>
-      </c>
       <c r="M477" t="n">
-        <v>7703</v>
+        <v>7289</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>2568</v>
+        <v>2430</v>
       </c>
       <c r="Q477" t="n">
         <v>3</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>550</v>
+        <v>660</v>
       </c>
       <c r="K478" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L478" t="n">
         <v>4500</v>
       </c>
-      <c r="L478" t="n">
-        <v>5000</v>
-      </c>
       <c r="M478" t="n">
-        <v>4700</v>
+        <v>4220</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Q478" t="n">
         <v>36</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34848,13 +34848,13 @@
         <v>370</v>
       </c>
       <c r="K479" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L479" t="n">
         <v>8000</v>
       </c>
-      <c r="L479" t="n">
-        <v>9000</v>
-      </c>
       <c r="M479" t="n">
-        <v>8405</v>
+        <v>7703</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>2802</v>
+        <v>2568</v>
       </c>
       <c r="Q479" t="n">
         <v>3</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="K480" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L480" t="n">
         <v>5000</v>
       </c>
-      <c r="L480" t="n">
-        <v>6000</v>
-      </c>
       <c r="M480" t="n">
-        <v>5673</v>
+        <v>4700</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="Q480" t="n">
         <v>36</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>720</v>
+        <v>370</v>
       </c>
       <c r="K481" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L481" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M481" t="n">
-        <v>10236</v>
+        <v>8405</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>3412</v>
+        <v>2802</v>
       </c>
       <c r="Q481" t="n">
         <v>3</v>
@@ -35057,20 +35057,20 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="K482" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L482" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M482" t="n">
-        <v>4000</v>
+        <v>5673</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="Q482" t="n">
         <v>36</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35133,20 +35133,20 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>350</v>
+        <v>720</v>
       </c>
       <c r="K483" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L483" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M483" t="n">
-        <v>5000</v>
+        <v>10236</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
@@ -35155,10 +35155,10 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>139</v>
+        <v>3412</v>
       </c>
       <c r="Q483" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R483" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35201,24 +35201,24 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="K484" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L484" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M484" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
@@ -35227,10 +35227,10 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>2667</v>
+        <v>111</v>
       </c>
       <c r="Q484" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R484" t="inlineStr">
         <is>
@@ -35273,20 +35273,20 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="K485" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L485" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M485" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q485" t="n">
         <v>36</v>
@@ -35345,20 +35345,20 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>220</v>
+        <v>370</v>
       </c>
       <c r="K486" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L486" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M486" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>2333</v>
+        <v>2667</v>
       </c>
       <c r="Q486" t="n">
         <v>3</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35417,20 +35417,20 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>540</v>
+        <v>220</v>
       </c>
       <c r="K487" t="n">
         <v>4000</v>
       </c>
       <c r="L487" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M487" t="n">
-        <v>4213</v>
+        <v>4000</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Q487" t="n">
         <v>36</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35489,20 +35489,20 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K488" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L488" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M488" t="n">
-        <v>8440</v>
+        <v>7000</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>2813</v>
+        <v>2333</v>
       </c>
       <c r="Q488" t="n">
         <v>3</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35565,7 +35565,7 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>620</v>
+        <v>540</v>
       </c>
       <c r="K489" t="n">
         <v>4000</v>
@@ -35574,7 +35574,7 @@
         <v>4500</v>
       </c>
       <c r="M489" t="n">
-        <v>4266</v>
+        <v>4213</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q489" t="n">
         <v>36</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K490" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L490" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M490" t="n">
-        <v>7198</v>
+        <v>8440</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>2399</v>
+        <v>2813</v>
       </c>
       <c r="Q490" t="n">
         <v>3</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>490</v>
+        <v>620</v>
       </c>
       <c r="K491" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L491" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M491" t="n">
-        <v>5000</v>
+        <v>4266</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="Q491" t="n">
         <v>36</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>720</v>
+        <v>430</v>
       </c>
       <c r="K492" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L492" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M492" t="n">
-        <v>10896</v>
+        <v>7198</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>3632</v>
+        <v>2399</v>
       </c>
       <c r="Q492" t="n">
         <v>3</v>
@@ -35849,20 +35849,20 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="K493" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L493" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M493" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q493" t="n">
         <v>36</v>
@@ -35921,20 +35921,20 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>120</v>
+        <v>720</v>
       </c>
       <c r="K494" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L494" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M494" t="n">
-        <v>8000</v>
+        <v>10896</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>2667</v>
+        <v>3632</v>
       </c>
       <c r="Q494" t="n">
         <v>3</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K495" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L495" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M495" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="Q495" t="n">
         <v>36</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36065,20 +36065,20 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>670</v>
+        <v>120</v>
       </c>
       <c r="K496" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L496" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M496" t="n">
-        <v>10761</v>
+        <v>8000</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>3587</v>
+        <v>2667</v>
       </c>
       <c r="Q496" t="n">
         <v>3</v>
@@ -36137,20 +36137,20 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="K497" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L497" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M497" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q497" t="n">
         <v>36</v>
@@ -36209,20 +36209,20 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>160</v>
+        <v>670</v>
       </c>
       <c r="K498" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L498" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M498" t="n">
-        <v>8000</v>
+        <v>10761</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>2667</v>
+        <v>3587</v>
       </c>
       <c r="Q498" t="n">
         <v>3</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36281,20 +36281,20 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="K499" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L499" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M499" t="n">
-        <v>10605</v>
+        <v>4000</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="Q499" t="n">
         <v>36</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36353,20 +36353,20 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K500" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L500" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="M500" t="n">
-        <v>20839</v>
+        <v>8000</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>6946</v>
+        <v>2667</v>
       </c>
       <c r="Q500" t="n">
         <v>3</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>510</v>
+        <v>380</v>
       </c>
       <c r="K501" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L501" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M501" t="n">
-        <v>9451</v>
+        <v>10605</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="Q501" t="n">
         <v>36</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36501,16 +36501,16 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="K502" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L502" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M502" t="n">
-        <v>19455</v>
+        <v>20839</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>6485</v>
+        <v>6946</v>
       </c>
       <c r="Q502" t="n">
         <v>3</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36573,16 +36573,16 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="K503" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L503" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M503" t="n">
-        <v>7718</v>
+        <v>9451</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="Q503" t="n">
         <v>36</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36645,16 +36645,16 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>420</v>
+        <v>330</v>
       </c>
       <c r="K504" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L504" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M504" t="n">
-        <v>15452</v>
+        <v>19455</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>5151</v>
+        <v>6485</v>
       </c>
       <c r="Q504" t="n">
         <v>3</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36717,16 +36717,16 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>420</v>
+        <v>620</v>
       </c>
       <c r="K505" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L505" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M505" t="n">
-        <v>5821</v>
+        <v>7718</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="Q505" t="n">
         <v>36</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36789,16 +36789,16 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="K506" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L506" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M506" t="n">
-        <v>12710</v>
+        <v>15452</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>4237</v>
+        <v>5151</v>
       </c>
       <c r="Q506" t="n">
         <v>3</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36861,16 +36861,16 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="K507" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L507" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M507" t="n">
-        <v>5000</v>
+        <v>5821</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="Q507" t="n">
         <v>36</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36933,16 +36933,16 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="K508" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L508" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M508" t="n">
-        <v>9000</v>
+        <v>12710</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>3000</v>
+        <v>4237</v>
       </c>
       <c r="Q508" t="n">
         <v>3</v>
@@ -37001,20 +37001,20 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="K509" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L509" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M509" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q509" t="n">
         <v>36</v>
@@ -37073,20 +37073,20 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>140</v>
+        <v>320</v>
       </c>
       <c r="K510" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L510" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M510" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>2333</v>
+        <v>3000</v>
       </c>
       <c r="Q510" t="n">
         <v>3</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37145,20 +37145,20 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="K511" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L511" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M511" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37167,11 +37167,11 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P511" t="n">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="Q511" t="n">
         <v>36</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37217,24 +37217,24 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="K512" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L512" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M512" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O512" t="inlineStr">
@@ -37243,10 +37243,10 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>167</v>
+        <v>2333</v>
       </c>
       <c r="Q512" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R512" t="inlineStr">
         <is>
@@ -37293,20 +37293,20 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="K513" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L513" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M513" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O513" t="inlineStr">
@@ -37315,10 +37315,10 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q513" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R513" t="inlineStr">
         <is>
@@ -37365,20 +37365,20 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="K514" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L514" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M514" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O514" t="inlineStr">
@@ -37387,10 +37387,10 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q514" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R514" t="inlineStr">
         <is>
@@ -37433,36 +37433,36 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="K515" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L515" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M515" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P515" t="n">
-        <v>139</v>
+        <v>4000</v>
       </c>
       <c r="Q515" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R515" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37509,20 +37509,20 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>570</v>
+        <v>190</v>
       </c>
       <c r="K516" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L516" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M516" t="n">
-        <v>7193</v>
+        <v>12000</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
@@ -37531,10 +37531,10 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="Q516" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R516" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37577,24 +37577,24 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="K517" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L517" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M517" t="n">
-        <v>14415</v>
+        <v>5000</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O517" t="inlineStr">
@@ -37603,10 +37603,10 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>4805</v>
+        <v>139</v>
       </c>
       <c r="Q517" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R517" t="inlineStr">
         <is>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37653,16 +37653,16 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>520</v>
+        <v>570</v>
       </c>
       <c r="K518" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L518" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M518" t="n">
-        <v>5760</v>
+        <v>7193</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="Q518" t="n">
         <v>36</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37725,16 +37725,16 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>320</v>
+        <v>410</v>
       </c>
       <c r="K519" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L519" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M519" t="n">
-        <v>11125</v>
+        <v>14415</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>3708</v>
+        <v>4805</v>
       </c>
       <c r="Q519" t="n">
         <v>3</v>
@@ -37797,32 +37797,32 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>90</v>
+        <v>520</v>
       </c>
       <c r="K520" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="L520" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M520" t="n">
-        <v>17333</v>
+        <v>5760</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P520" t="n">
-        <v>5778</v>
+        <v>160</v>
       </c>
       <c r="Q520" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R520" t="inlineStr">
         <is>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -37869,20 +37869,20 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>570</v>
+        <v>320</v>
       </c>
       <c r="K521" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L521" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="M521" t="n">
-        <v>4193</v>
+        <v>11125</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
@@ -37891,10 +37891,10 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>116</v>
+        <v>3708</v>
       </c>
       <c r="Q521" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R521" t="inlineStr">
         <is>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -37941,16 +37941,16 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>470</v>
+        <v>90</v>
       </c>
       <c r="K522" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="L522" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M522" t="n">
-        <v>7702</v>
+        <v>17333</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37959,11 +37959,11 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P522" t="n">
-        <v>2567</v>
+        <v>5778</v>
       </c>
       <c r="Q522" t="n">
         <v>3</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38013,32 +38013,32 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>470</v>
+        <v>570</v>
       </c>
       <c r="K523" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L523" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M523" t="n">
-        <v>8489</v>
+        <v>4193</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>2830</v>
+        <v>116</v>
       </c>
       <c r="Q523" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R523" t="inlineStr">
         <is>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38085,7 +38085,7 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>620</v>
+        <v>470</v>
       </c>
       <c r="K524" t="n">
         <v>7500</v>
@@ -38094,11 +38094,11 @@
         <v>8000</v>
       </c>
       <c r="M524" t="n">
-        <v>7718</v>
+        <v>7702</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
@@ -38107,10 +38107,10 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>214</v>
+        <v>2567</v>
       </c>
       <c r="Q524" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R524" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -38157,16 +38157,16 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="K525" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L525" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M525" t="n">
-        <v>15422</v>
+        <v>8489</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38175,11 +38175,11 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>5141</v>
+        <v>2830</v>
       </c>
       <c r="Q525" t="n">
         <v>3</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38229,16 +38229,16 @@
         </is>
       </c>
       <c r="J526" t="n">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="K526" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L526" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M526" t="n">
-        <v>4713</v>
+        <v>7718</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="Q526" t="n">
         <v>36</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -38301,16 +38301,16 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="K527" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L527" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M527" t="n">
-        <v>7421</v>
+        <v>15422</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,12 +38323,156 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>2474</v>
+        <v>5141</v>
       </c>
       <c r="Q527" t="n">
         <v>3</v>
       </c>
       <c r="R527" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>6</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D528" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E528" t="n">
+        <v>13</v>
+      </c>
+      <c r="F528" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J528" t="n">
+        <v>610</v>
+      </c>
+      <c r="K528" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L528" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M528" t="n">
+        <v>4713</v>
+      </c>
+      <c r="N528" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O528" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P528" t="n">
+        <v>131</v>
+      </c>
+      <c r="Q528" t="n">
+        <v>36</v>
+      </c>
+      <c r="R528" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>6</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D529" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E529" t="n">
+        <v>13</v>
+      </c>
+      <c r="F529" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I529" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J529" t="n">
+        <v>380</v>
+      </c>
+      <c r="K529" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L529" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M529" t="n">
+        <v>7421</v>
+      </c>
+      <c r="N529" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O529" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P529" t="n">
+        <v>2474</v>
+      </c>
+      <c r="Q529" t="n">
+        <v>3</v>
+      </c>
+      <c r="R529" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R531"/>
+  <dimension ref="A1:R533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>610</v>
+        <v>720</v>
       </c>
       <c r="K455" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L455" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M455" t="n">
-        <v>6197</v>
+        <v>4243</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="Q455" t="n">
         <v>36</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>330</v>
+        <v>470</v>
       </c>
       <c r="K456" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="L456" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M456" t="n">
-        <v>15455</v>
+        <v>6702</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>5152</v>
+        <v>2234</v>
       </c>
       <c r="Q456" t="n">
         <v>3</v>
@@ -33257,24 +33257,24 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>100</v>
+        <v>610</v>
       </c>
       <c r="K457" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L457" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="M457" t="n">
-        <v>14000</v>
+        <v>6197</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
@@ -33283,10 +33283,10 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>4667</v>
+        <v>172</v>
       </c>
       <c r="Q457" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R457" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33333,20 +33333,20 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>520</v>
+        <v>330</v>
       </c>
       <c r="K458" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="L458" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M458" t="n">
-        <v>6740</v>
+        <v>15455</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
@@ -33355,10 +33355,10 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>187</v>
+        <v>5152</v>
       </c>
       <c r="Q458" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R458" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>390</v>
+        <v>100</v>
       </c>
       <c r="K459" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="L459" t="n">
         <v>14000</v>
       </c>
       <c r="M459" t="n">
-        <v>13769</v>
+        <v>14000</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>4590</v>
+        <v>4667</v>
       </c>
       <c r="Q459" t="n">
         <v>3</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>410</v>
+        <v>520</v>
       </c>
       <c r="K460" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L460" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M460" t="n">
-        <v>7817</v>
+        <v>6740</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="Q460" t="n">
         <v>36</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="K461" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="L461" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M461" t="n">
-        <v>15654</v>
+        <v>13769</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>5218</v>
+        <v>4590</v>
       </c>
       <c r="Q461" t="n">
         <v>3</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>620</v>
+        <v>410</v>
       </c>
       <c r="K462" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L462" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M462" t="n">
-        <v>4218</v>
+        <v>7817</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="Q462" t="n">
         <v>36</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="K463" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L463" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="M463" t="n">
-        <v>7211</v>
+        <v>15654</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>2404</v>
+        <v>5218</v>
       </c>
       <c r="Q463" t="n">
         <v>3</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="K464" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L464" t="n">
         <v>4500</v>
       </c>
-      <c r="L464" t="n">
-        <v>5000</v>
-      </c>
       <c r="M464" t="n">
-        <v>4700</v>
+        <v>4218</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Q464" t="n">
         <v>36</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="K465" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L465" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M465" t="n">
-        <v>8405</v>
+        <v>7211</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>2802</v>
+        <v>2404</v>
       </c>
       <c r="Q465" t="n">
         <v>3</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>720</v>
+        <v>550</v>
       </c>
       <c r="K466" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L466" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M466" t="n">
-        <v>3729</v>
+        <v>4700</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="Q466" t="n">
         <v>36</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="K467" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L467" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M467" t="n">
-        <v>7197</v>
+        <v>8405</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>2399</v>
+        <v>2802</v>
       </c>
       <c r="Q467" t="n">
         <v>3</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>230</v>
+        <v>720</v>
       </c>
       <c r="K468" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L468" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M468" t="n">
-        <v>5652</v>
+        <v>3729</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="Q468" t="n">
         <v>36</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="K469" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L469" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M469" t="n">
-        <v>9657</v>
+        <v>7197</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>3219</v>
+        <v>2399</v>
       </c>
       <c r="Q469" t="n">
         <v>3</v>
@@ -34193,20 +34193,20 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="K470" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L470" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M470" t="n">
-        <v>4000</v>
+        <v>5652</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="Q470" t="n">
         <v>36</v>
@@ -34265,20 +34265,20 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="K471" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L471" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M471" t="n">
-        <v>7000</v>
+        <v>9657</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>2333</v>
+        <v>3219</v>
       </c>
       <c r="Q471" t="n">
         <v>3</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34337,20 +34337,20 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="K472" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L472" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M472" t="n">
-        <v>4725</v>
+        <v>4000</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="Q472" t="n">
         <v>36</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34409,20 +34409,20 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="K473" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L473" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M473" t="n">
-        <v>8406</v>
+        <v>7000</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>2802</v>
+        <v>2333</v>
       </c>
       <c r="Q473" t="n">
         <v>3</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="K474" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L474" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M474" t="n">
-        <v>4266</v>
+        <v>4725</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="Q474" t="n">
         <v>36</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="K475" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L475" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M475" t="n">
-        <v>7198</v>
+        <v>8406</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>2399</v>
+        <v>2802</v>
       </c>
       <c r="Q475" t="n">
         <v>3</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34629,7 +34629,7 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>480</v>
+        <v>620</v>
       </c>
       <c r="K476" t="n">
         <v>4000</v>
@@ -34638,7 +34638,7 @@
         <v>4500</v>
       </c>
       <c r="M476" t="n">
-        <v>4271</v>
+        <v>4266</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q476" t="n">
         <v>36</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K477" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L477" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M477" t="n">
-        <v>8000</v>
+        <v>7198</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>2667</v>
+        <v>2399</v>
       </c>
       <c r="Q477" t="n">
         <v>3</v>
@@ -34769,24 +34769,24 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="K478" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L478" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M478" t="n">
-        <v>7000</v>
+        <v>4271</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
@@ -34795,10 +34795,10 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>2333</v>
+        <v>119</v>
       </c>
       <c r="Q478" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R478" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34845,20 +34845,20 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>590</v>
+        <v>160</v>
       </c>
       <c r="K479" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L479" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M479" t="n">
-        <v>3695</v>
+        <v>8000</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
@@ -34867,10 +34867,10 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>103</v>
+        <v>2667</v>
       </c>
       <c r="Q479" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R479" t="inlineStr">
         <is>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="K480" t="n">
         <v>7000</v>
       </c>
       <c r="L480" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M480" t="n">
-        <v>7448</v>
+        <v>7000</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>2483</v>
+        <v>2333</v>
       </c>
       <c r="Q480" t="n">
         <v>3</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>290</v>
+        <v>590</v>
       </c>
       <c r="K481" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L481" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M481" t="n">
-        <v>6000</v>
+        <v>3695</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="Q481" t="n">
         <v>36</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="K482" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L482" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M482" t="n">
-        <v>10000</v>
+        <v>7448</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35079,11 +35079,11 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P482" t="n">
-        <v>3333</v>
+        <v>2483</v>
       </c>
       <c r="Q482" t="n">
         <v>3</v>
@@ -35133,20 +35133,20 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="K483" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L483" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M483" t="n">
-        <v>9595</v>
+        <v>6000</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
@@ -35155,10 +35155,10 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>3198</v>
+        <v>167</v>
       </c>
       <c r="Q483" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R483" t="inlineStr">
         <is>
@@ -35201,36 +35201,36 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K484" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L484" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M484" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P484" t="n">
-        <v>139</v>
+        <v>3333</v>
       </c>
       <c r="Q484" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R484" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35277,20 +35277,20 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>440</v>
+        <v>370</v>
       </c>
       <c r="K485" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L485" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M485" t="n">
-        <v>5784</v>
+        <v>9595</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
@@ -35299,10 +35299,10 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>161</v>
+        <v>3198</v>
       </c>
       <c r="Q485" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R485" t="inlineStr">
         <is>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35345,24 +35345,24 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="K486" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L486" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M486" t="n">
-        <v>11564</v>
+        <v>5000</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
@@ -35371,10 +35371,10 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>3855</v>
+        <v>139</v>
       </c>
       <c r="Q486" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R486" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35421,16 +35421,16 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="K487" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L487" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M487" t="n">
-        <v>8318</v>
+        <v>5784</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="Q487" t="n">
         <v>36</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>430</v>
+        <v>275</v>
       </c>
       <c r="K488" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L488" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M488" t="n">
-        <v>14628</v>
+        <v>11564</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>4876</v>
+        <v>3855</v>
       </c>
       <c r="Q488" t="n">
         <v>3</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>560</v>
+        <v>220</v>
       </c>
       <c r="K489" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L489" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M489" t="n">
-        <v>11482</v>
+        <v>8318</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="Q489" t="n">
         <v>36</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35637,20 +35637,20 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="K490" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="L490" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M490" t="n">
-        <v>4711</v>
+        <v>14628</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
@@ -35659,10 +35659,10 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>131</v>
+        <v>4876</v>
       </c>
       <c r="Q490" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R490" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35709,20 +35709,20 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>320</v>
+        <v>560</v>
       </c>
       <c r="K491" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L491" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M491" t="n">
-        <v>8406</v>
+        <v>11482</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
@@ -35731,10 +35731,10 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>2802</v>
+        <v>319</v>
       </c>
       <c r="Q491" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R491" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>530</v>
+        <v>450</v>
       </c>
       <c r="K492" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L492" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M492" t="n">
-        <v>4226</v>
+        <v>4711</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="Q492" t="n">
         <v>36</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="K493" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L493" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M493" t="n">
-        <v>7414</v>
+        <v>8406</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>2471</v>
+        <v>2802</v>
       </c>
       <c r="Q493" t="n">
         <v>3</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="K494" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L494" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M494" t="n">
-        <v>7202</v>
+        <v>4226</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="Q494" t="n">
         <v>36</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35997,16 +35997,16 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="K495" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L495" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M495" t="n">
-        <v>14417</v>
+        <v>7414</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>4806</v>
+        <v>2471</v>
       </c>
       <c r="Q495" t="n">
         <v>3</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>620</v>
+        <v>470</v>
       </c>
       <c r="K496" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L496" t="n">
         <v>7500</v>
       </c>
-      <c r="L496" t="n">
-        <v>8000</v>
-      </c>
       <c r="M496" t="n">
-        <v>7718</v>
+        <v>7202</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="Q496" t="n">
         <v>36</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="K497" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L497" t="n">
         <v>15000</v>
       </c>
-      <c r="L497" t="n">
-        <v>16000</v>
-      </c>
       <c r="M497" t="n">
-        <v>15422</v>
+        <v>14417</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>5141</v>
+        <v>4806</v>
       </c>
       <c r="Q497" t="n">
         <v>3</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36213,7 +36213,7 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>460</v>
+        <v>620</v>
       </c>
       <c r="K498" t="n">
         <v>7500</v>
@@ -36222,7 +36222,7 @@
         <v>8000</v>
       </c>
       <c r="M498" t="n">
-        <v>7707</v>
+        <v>7718</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="K499" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L499" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M499" t="n">
-        <v>14441</v>
+        <v>15422</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>4814</v>
+        <v>5141</v>
       </c>
       <c r="Q499" t="n">
         <v>3</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="K500" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L500" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M500" t="n">
-        <v>5644</v>
+        <v>7707</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="Q500" t="n">
         <v>36</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>660</v>
+        <v>340</v>
       </c>
       <c r="K501" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L501" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M501" t="n">
-        <v>11742</v>
+        <v>14441</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>3914</v>
+        <v>4814</v>
       </c>
       <c r="Q501" t="n">
         <v>3</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="K502" t="n">
         <v>5000</v>
       </c>
       <c r="L502" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M502" t="n">
-        <v>5000</v>
+        <v>5644</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q502" t="n">
         <v>36</v>
@@ -36569,20 +36569,20 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>160</v>
+        <v>660</v>
       </c>
       <c r="K503" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L503" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M503" t="n">
-        <v>10000</v>
+        <v>11742</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>3333</v>
+        <v>3914</v>
       </c>
       <c r="Q503" t="n">
         <v>3</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36641,20 +36641,20 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>390</v>
+        <v>140</v>
       </c>
       <c r="K504" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L504" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M504" t="n">
-        <v>4295</v>
+        <v>5000</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="Q504" t="n">
         <v>36</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36713,24 +36713,24 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K505" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L505" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M505" t="n">
-        <v>7591</v>
+        <v>10000</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
-          <t>$/docena de paquetes</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O505" t="inlineStr">
@@ -36739,10 +36739,10 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>633</v>
+        <v>3333</v>
       </c>
       <c r="Q505" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R505" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36789,16 +36789,16 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="K506" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L506" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M506" t="n">
-        <v>7793</v>
+        <v>4295</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="Q506" t="n">
         <v>36</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36864,17 +36864,17 @@
         <v>220</v>
       </c>
       <c r="K507" t="n">
-        <v>1600</v>
+        <v>7000</v>
       </c>
       <c r="L507" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M507" t="n">
-        <v>7082</v>
+        <v>7591</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/docena de paquetes</t>
         </is>
       </c>
       <c r="O507" t="inlineStr">
@@ -36883,10 +36883,10 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>2361</v>
+        <v>633</v>
       </c>
       <c r="Q507" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="R507" t="inlineStr">
         <is>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36933,16 +36933,16 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>600</v>
+        <v>410</v>
       </c>
       <c r="K508" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L508" t="n">
         <v>8000</v>
       </c>
       <c r="M508" t="n">
-        <v>7433</v>
+        <v>7793</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="Q508" t="n">
         <v>36</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -37005,16 +37005,16 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>420</v>
+        <v>220</v>
       </c>
       <c r="K509" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L509" t="n">
         <v>15000</v>
       </c>
-      <c r="L509" t="n">
-        <v>16000</v>
-      </c>
       <c r="M509" t="n">
-        <v>15571</v>
+        <v>7082</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>5190</v>
+        <v>2361</v>
       </c>
       <c r="Q509" t="n">
         <v>3</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37077,16 +37077,16 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K510" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L510" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M510" t="n">
-        <v>5721</v>
+        <v>7433</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="Q510" t="n">
         <v>36</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37149,16 +37149,16 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>210</v>
+        <v>420</v>
       </c>
       <c r="K511" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L511" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M511" t="n">
-        <v>12619</v>
+        <v>15571</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>4206</v>
+        <v>5190</v>
       </c>
       <c r="Q511" t="n">
         <v>3</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37221,16 +37221,16 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>510</v>
+        <v>340</v>
       </c>
       <c r="K512" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L512" t="n">
         <v>6000</v>
       </c>
       <c r="M512" t="n">
-        <v>6000</v>
+        <v>5721</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Q512" t="n">
         <v>36</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37293,7 +37293,7 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>590</v>
+        <v>210</v>
       </c>
       <c r="K513" t="n">
         <v>12000</v>
@@ -37302,7 +37302,7 @@
         <v>13000</v>
       </c>
       <c r="M513" t="n">
-        <v>12288</v>
+        <v>12619</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>4096</v>
+        <v>4206</v>
       </c>
       <c r="Q513" t="n">
         <v>3</v>
@@ -37361,20 +37361,20 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>220</v>
+        <v>510</v>
       </c>
       <c r="K514" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L514" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M514" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q514" t="n">
         <v>36</v>
@@ -37433,20 +37433,20 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>120</v>
+        <v>590</v>
       </c>
       <c r="K515" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L515" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M515" t="n">
-        <v>10000</v>
+        <v>12288</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>3333</v>
+        <v>4096</v>
       </c>
       <c r="Q515" t="n">
         <v>3</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37505,20 +37505,20 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>540</v>
+        <v>220</v>
       </c>
       <c r="K516" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L516" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M516" t="n">
-        <v>4213</v>
+        <v>5000</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="Q516" t="n">
         <v>36</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37577,20 +37577,20 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K517" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L517" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M517" t="n">
-        <v>8440</v>
+        <v>10000</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>2813</v>
+        <v>3333</v>
       </c>
       <c r="Q517" t="n">
         <v>3</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37653,16 +37653,16 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="K518" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L518" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M518" t="n">
-        <v>7673</v>
+        <v>4213</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="Q518" t="n">
         <v>36</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37725,16 +37725,16 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>590</v>
+        <v>250</v>
       </c>
       <c r="K519" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L519" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M519" t="n">
-        <v>14712</v>
+        <v>8440</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>4904</v>
+        <v>2813</v>
       </c>
       <c r="Q519" t="n">
         <v>3</v>
@@ -37793,20 +37793,20 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>180</v>
+        <v>490</v>
       </c>
       <c r="K520" t="n">
         <v>7000</v>
       </c>
       <c r="L520" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M520" t="n">
-        <v>7000</v>
+        <v>7673</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="Q520" t="n">
         <v>36</v>
@@ -37865,20 +37865,20 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>130</v>
+        <v>590</v>
       </c>
       <c r="K521" t="n">
         <v>14000</v>
       </c>
       <c r="L521" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M521" t="n">
-        <v>14000</v>
+        <v>14712</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>4667</v>
+        <v>4904</v>
       </c>
       <c r="Q521" t="n">
         <v>3</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -37937,20 +37937,20 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>480</v>
+        <v>180</v>
       </c>
       <c r="K522" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L522" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M522" t="n">
-        <v>5781</v>
+        <v>7000</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q522" t="n">
         <v>36</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38009,20 +38009,20 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="K523" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L523" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M523" t="n">
-        <v>9824</v>
+        <v>14000</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>3275</v>
+        <v>4667</v>
       </c>
       <c r="Q523" t="n">
         <v>3</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38085,16 +38085,16 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="K524" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L524" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M524" t="n">
-        <v>7795</v>
+        <v>5781</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="Q524" t="n">
         <v>36</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -38157,16 +38157,16 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>450</v>
+        <v>170</v>
       </c>
       <c r="K525" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L525" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M525" t="n">
-        <v>17422</v>
+        <v>9824</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>5807</v>
+        <v>3275</v>
       </c>
       <c r="Q525" t="n">
         <v>3</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38229,16 +38229,16 @@
         </is>
       </c>
       <c r="J526" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="K526" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L526" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M526" t="n">
-        <v>4789</v>
+        <v>7795</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="Q526" t="n">
         <v>36</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -38301,16 +38301,16 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>260</v>
+        <v>450</v>
       </c>
       <c r="K527" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L527" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M527" t="n">
-        <v>7577</v>
+        <v>17422</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>2526</v>
+        <v>5807</v>
       </c>
       <c r="Q527" t="n">
         <v>3</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38373,7 +38373,7 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="K528" t="n">
         <v>4500</v>
@@ -38382,7 +38382,7 @@
         <v>5000</v>
       </c>
       <c r="M528" t="n">
-        <v>4721</v>
+        <v>4789</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q528" t="n">
         <v>36</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38445,7 +38445,7 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="K529" t="n">
         <v>7000</v>
@@ -38454,7 +38454,7 @@
         <v>8000</v>
       </c>
       <c r="M529" t="n">
-        <v>7556</v>
+        <v>7577</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>2519</v>
+        <v>2526</v>
       </c>
       <c r="Q529" t="n">
         <v>3</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -38517,16 +38517,16 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>590</v>
+        <v>430</v>
       </c>
       <c r="K530" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L530" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M530" t="n">
-        <v>7686</v>
+        <v>4721</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="Q530" t="n">
         <v>36</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -38589,16 +38589,16 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="K531" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L531" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M531" t="n">
-        <v>15357</v>
+        <v>7556</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,12 +38611,156 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>5119</v>
+        <v>2519</v>
       </c>
       <c r="Q531" t="n">
         <v>3</v>
       </c>
       <c r="R531" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>6</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D532" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E532" t="n">
+        <v>13</v>
+      </c>
+      <c r="F532" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J532" t="n">
+        <v>590</v>
+      </c>
+      <c r="K532" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L532" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M532" t="n">
+        <v>7686</v>
+      </c>
+      <c r="N532" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O532" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P532" t="n">
+        <v>214</v>
+      </c>
+      <c r="Q532" t="n">
+        <v>36</v>
+      </c>
+      <c r="R532" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>6</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D533" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E533" t="n">
+        <v>13</v>
+      </c>
+      <c r="F533" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J533" t="n">
+        <v>420</v>
+      </c>
+      <c r="K533" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L533" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M533" t="n">
+        <v>15357</v>
+      </c>
+      <c r="N533" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O533" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P533" t="n">
+        <v>5119</v>
+      </c>
+      <c r="Q533" t="n">
+        <v>3</v>
+      </c>
+      <c r="R533" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R546"/>
+  <dimension ref="A1:R549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>450</v>
+        <v>620</v>
       </c>
       <c r="K349" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L349" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M349" t="n">
-        <v>5622</v>
+        <v>4202</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="Q349" t="n">
         <v>36</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>620</v>
+        <v>230</v>
       </c>
       <c r="K350" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L350" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M350" t="n">
-        <v>9282</v>
+        <v>8000</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>3094</v>
+        <v>2667</v>
       </c>
       <c r="Q350" t="n">
         <v>3</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -25629,20 +25629,20 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="K351" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L351" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M351" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -25651,10 +25651,10 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>139</v>
+        <v>2500</v>
       </c>
       <c r="Q351" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R351" t="inlineStr">
         <is>
@@ -25697,24 +25697,24 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="K352" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L352" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M352" t="n">
-        <v>8000</v>
+        <v>5622</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -25723,10 +25723,10 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>2667</v>
+        <v>156</v>
       </c>
       <c r="Q352" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R352" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -25773,20 +25773,20 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>540</v>
+        <v>620</v>
       </c>
       <c r="K353" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L353" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M353" t="n">
-        <v>7676</v>
+        <v>9282</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -25795,10 +25795,10 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>213</v>
+        <v>3094</v>
       </c>
       <c r="Q353" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R353" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -25841,24 +25841,24 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J354" t="n">
-        <v>390</v>
+        <v>140</v>
       </c>
       <c r="K354" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L354" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M354" t="n">
-        <v>14436</v>
+        <v>5000</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
@@ -25867,10 +25867,10 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>4812</v>
+        <v>139</v>
       </c>
       <c r="Q354" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R354" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44292</v>
+        <v>44168</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -25913,24 +25913,24 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J355" t="n">
-        <v>520</v>
+        <v>150</v>
       </c>
       <c r="K355" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L355" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M355" t="n">
-        <v>5760</v>
+        <v>8000</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
@@ -25939,10 +25939,10 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>160</v>
+        <v>2667</v>
       </c>
       <c r="Q355" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R355" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -25989,20 +25989,20 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>320</v>
+        <v>540</v>
       </c>
       <c r="K356" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L356" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M356" t="n">
-        <v>11125</v>
+        <v>7676</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
@@ -26011,10 +26011,10 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>3708</v>
+        <v>213</v>
       </c>
       <c r="Q356" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R356" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>90</v>
+        <v>390</v>
       </c>
       <c r="K357" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L357" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M357" t="n">
-        <v>17333</v>
+        <v>14436</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26079,11 +26079,11 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P357" t="n">
-        <v>5778</v>
+        <v>4812</v>
       </c>
       <c r="Q357" t="n">
         <v>3</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>370</v>
+        <v>520</v>
       </c>
       <c r="K358" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L358" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M358" t="n">
-        <v>4297</v>
+        <v>5760</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="Q358" t="n">
         <v>36</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="K359" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L359" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M359" t="n">
-        <v>9240</v>
+        <v>11125</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>3080</v>
+        <v>3708</v>
       </c>
       <c r="Q359" t="n">
         <v>3</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -26273,36 +26273,36 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="K360" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="L360" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="M360" t="n">
-        <v>3500</v>
+        <v>17333</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P360" t="n">
-        <v>97</v>
+        <v>5778</v>
       </c>
       <c r="Q360" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R360" t="inlineStr">
         <is>
@@ -26345,24 +26345,24 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J361" t="n">
-        <v>120</v>
+        <v>370</v>
       </c>
       <c r="K361" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L361" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M361" t="n">
-        <v>8000</v>
+        <v>4297</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
@@ -26371,10 +26371,10 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>2667</v>
+        <v>119</v>
       </c>
       <c r="Q361" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R361" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -26421,20 +26421,20 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>590</v>
+        <v>520</v>
       </c>
       <c r="K362" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L362" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M362" t="n">
-        <v>4186</v>
+        <v>9240</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
@@ -26443,10 +26443,10 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>116</v>
+        <v>3080</v>
       </c>
       <c r="Q362" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R362" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26489,24 +26489,24 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="K363" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L363" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M363" t="n">
-        <v>7289</v>
+        <v>3500</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
@@ -26515,10 +26515,10 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>2430</v>
+        <v>97</v>
       </c>
       <c r="Q363" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R363" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -26561,24 +26561,24 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J364" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K364" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L364" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M364" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
@@ -26587,10 +26587,10 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>139</v>
+        <v>2667</v>
       </c>
       <c r="Q364" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R364" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -26637,20 +26637,20 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>520</v>
+        <v>590</v>
       </c>
       <c r="K365" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L365" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M365" t="n">
-        <v>11500</v>
+        <v>4186</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
@@ -26659,10 +26659,10 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>3833</v>
+        <v>116</v>
       </c>
       <c r="Q365" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R365" t="inlineStr">
         <is>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -26705,24 +26705,24 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J366" t="n">
-        <v>70</v>
+        <v>450</v>
       </c>
       <c r="K366" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L366" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="M366" t="n">
-        <v>4000</v>
+        <v>7289</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
@@ -26731,10 +26731,10 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>111</v>
+        <v>2430</v>
       </c>
       <c r="Q366" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R366" t="inlineStr">
         <is>
@@ -26777,24 +26777,24 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K367" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L367" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M367" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
@@ -26803,10 +26803,10 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>3000</v>
+        <v>139</v>
       </c>
       <c r="Q367" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R367" t="inlineStr">
         <is>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26856,17 +26856,17 @@
         <v>520</v>
       </c>
       <c r="K368" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L368" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M368" t="n">
-        <v>5538</v>
+        <v>11500</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
@@ -26875,10 +26875,10 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>154</v>
+        <v>3833</v>
       </c>
       <c r="Q368" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R368" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -26921,24 +26921,24 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="K369" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L369" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M369" t="n">
-        <v>9607</v>
+        <v>4000</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
@@ -26947,10 +26947,10 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>3202</v>
+        <v>111</v>
       </c>
       <c r="Q369" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R369" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44274</v>
+        <v>44214</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -26993,24 +26993,24 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>530</v>
+        <v>160</v>
       </c>
       <c r="K370" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L370" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M370" t="n">
-        <v>6736</v>
+        <v>9000</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
@@ -27019,10 +27019,10 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>187</v>
+        <v>3000</v>
       </c>
       <c r="Q370" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R370" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -27069,20 +27069,20 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>190</v>
+        <v>520</v>
       </c>
       <c r="K371" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L371" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M371" t="n">
-        <v>12000</v>
+        <v>5538</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
@@ -27091,10 +27091,10 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>4000</v>
+        <v>154</v>
       </c>
       <c r="Q371" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R371" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -27137,20 +27137,20 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J372" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K372" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L372" t="n">
         <v>10000</v>
       </c>
       <c r="M372" t="n">
-        <v>10000</v>
+        <v>9607</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>3333</v>
+        <v>3202</v>
       </c>
       <c r="Q372" t="n">
         <v>3</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44445</v>
+        <v>44274</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="K373" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L373" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M373" t="n">
-        <v>5000</v>
+        <v>6736</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="Q373" t="n">
         <v>36</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44445</v>
+        <v>44274</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="K374" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L374" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M374" t="n">
-        <v>9423</v>
+        <v>12000</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>3141</v>
+        <v>4000</v>
       </c>
       <c r="Q374" t="n">
         <v>3</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44445</v>
+        <v>44274</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -27353,20 +27353,20 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J375" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K375" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L375" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M375" t="n">
-        <v>15385</v>
+        <v>10000</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27375,11 +27375,11 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P375" t="n">
-        <v>5128</v>
+        <v>3333</v>
       </c>
       <c r="Q375" t="n">
         <v>3</v>
@@ -27425,20 +27425,20 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="K376" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L376" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M376" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="Q376" t="n">
         <v>36</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -27501,32 +27501,32 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K377" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L377" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M377" t="n">
-        <v>7000</v>
+        <v>9423</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>194</v>
+        <v>3141</v>
       </c>
       <c r="Q377" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -27573,32 +27573,32 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>390</v>
+        <v>130</v>
       </c>
       <c r="K378" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L378" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M378" t="n">
-        <v>6000</v>
+        <v>15385</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P378" t="n">
-        <v>167</v>
+        <v>5128</v>
       </c>
       <c r="Q378" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R378" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -27641,24 +27641,24 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J379" t="n">
-        <v>690</v>
+        <v>290</v>
       </c>
       <c r="K379" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="L379" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="M379" t="n">
-        <v>12246</v>
+        <v>4500</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -27667,10 +27667,10 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>4082</v>
+        <v>125</v>
       </c>
       <c r="Q379" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27713,20 +27713,20 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K380" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L380" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M380" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="Q380" t="n">
         <v>36</v>
@@ -27785,20 +27785,20 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>200</v>
+        <v>390</v>
       </c>
       <c r="K381" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L381" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M381" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q381" t="n">
         <v>36</v>
@@ -27857,20 +27857,20 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>200</v>
+        <v>690</v>
       </c>
       <c r="K382" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L382" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M382" t="n">
-        <v>10000</v>
+        <v>12246</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>3333</v>
+        <v>4082</v>
       </c>
       <c r="Q382" t="n">
         <v>3</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27929,20 +27929,20 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>650</v>
+        <v>120</v>
       </c>
       <c r="K383" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L383" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M383" t="n">
-        <v>4223</v>
+        <v>5000</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27951,11 +27951,11 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P383" t="n">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="Q383" t="n">
         <v>36</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -28001,24 +28001,24 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>430</v>
+        <v>200</v>
       </c>
       <c r="K384" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L384" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M384" t="n">
-        <v>7698</v>
+        <v>5000</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
@@ -28027,10 +28027,10 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>2566</v>
+        <v>139</v>
       </c>
       <c r="Q384" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R384" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44407</v>
+        <v>44229</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -28073,24 +28073,24 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>530</v>
+        <v>200</v>
       </c>
       <c r="K385" t="n">
         <v>10000</v>
       </c>
       <c r="L385" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M385" t="n">
-        <v>10434</v>
+        <v>10000</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
@@ -28099,10 +28099,10 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>290</v>
+        <v>3333</v>
       </c>
       <c r="Q385" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R385" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -28149,20 +28149,20 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>320</v>
+        <v>650</v>
       </c>
       <c r="K386" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="L386" t="n">
-        <v>22000</v>
+        <v>4500</v>
       </c>
       <c r="M386" t="n">
-        <v>21188</v>
+        <v>4223</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -28171,10 +28171,10 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>7063</v>
+        <v>117</v>
       </c>
       <c r="Q386" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R386" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44358</v>
+        <v>44344</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28221,20 +28221,20 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>570</v>
+        <v>430</v>
       </c>
       <c r="K387" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L387" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M387" t="n">
-        <v>4193</v>
+        <v>7698</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -28243,10 +28243,10 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>116</v>
+        <v>2566</v>
       </c>
       <c r="Q387" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28293,20 +28293,20 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="K388" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L388" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M388" t="n">
-        <v>7702</v>
+        <v>10434</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
@@ -28315,10 +28315,10 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>2567</v>
+        <v>290</v>
       </c>
       <c r="Q388" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44391</v>
+        <v>44407</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -28365,20 +28365,20 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="K389" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="L389" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="M389" t="n">
-        <v>7216</v>
+        <v>21188</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -28387,10 +28387,10 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>200</v>
+        <v>7063</v>
       </c>
       <c r="Q389" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R389" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28437,20 +28437,20 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>340</v>
+        <v>570</v>
       </c>
       <c r="K390" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="L390" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="M390" t="n">
-        <v>14441</v>
+        <v>4193</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -28459,10 +28459,10 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>4814</v>
+        <v>116</v>
       </c>
       <c r="Q390" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R390" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28509,20 +28509,20 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>630</v>
+        <v>470</v>
       </c>
       <c r="K391" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L391" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M391" t="n">
-        <v>4714</v>
+        <v>7702</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -28531,10 +28531,10 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>131</v>
+        <v>2567</v>
       </c>
       <c r="Q391" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R391" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28581,20 +28581,20 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>340</v>
+        <v>440</v>
       </c>
       <c r="K392" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L392" t="n">
         <v>7500</v>
       </c>
-      <c r="L392" t="n">
-        <v>8000</v>
-      </c>
       <c r="M392" t="n">
-        <v>7721</v>
+        <v>7216</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -28603,10 +28603,10 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>2574</v>
+        <v>200</v>
       </c>
       <c r="Q392" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44165</v>
+        <v>44391</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28653,20 +28653,20 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="K393" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L393" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M393" t="n">
-        <v>5000</v>
+        <v>14441</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -28675,10 +28675,10 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>139</v>
+        <v>4814</v>
       </c>
       <c r="Q393" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28725,20 +28725,20 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>330</v>
+        <v>630</v>
       </c>
       <c r="K394" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L394" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M394" t="n">
-        <v>10000</v>
+        <v>4714</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
@@ -28747,10 +28747,10 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>3333</v>
+        <v>131</v>
       </c>
       <c r="Q394" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28793,24 +28793,24 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J395" t="n">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="K395" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L395" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M395" t="n">
-        <v>4000</v>
+        <v>7721</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -28819,10 +28819,10 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>111</v>
+        <v>2574</v>
       </c>
       <c r="Q395" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R395" t="inlineStr">
         <is>
@@ -28865,24 +28865,24 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J396" t="n">
         <v>180</v>
       </c>
       <c r="K396" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L396" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M396" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
@@ -28891,10 +28891,10 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>2667</v>
+        <v>139</v>
       </c>
       <c r="Q396" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R396" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28941,20 +28941,20 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="K397" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L397" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M397" t="n">
-        <v>7644</v>
+        <v>10000</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
@@ -28963,10 +28963,10 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>212</v>
+        <v>3333</v>
       </c>
       <c r="Q397" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R397" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29009,24 +29009,24 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J398" t="n">
-        <v>630</v>
+        <v>100</v>
       </c>
       <c r="K398" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="L398" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="M398" t="n">
-        <v>13270</v>
+        <v>4000</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
@@ -29035,10 +29035,10 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>4423</v>
+        <v>111</v>
       </c>
       <c r="Q398" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R398" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29085,20 +29085,20 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K399" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L399" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M399" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
@@ -29107,10 +29107,10 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>167</v>
+        <v>2667</v>
       </c>
       <c r="Q399" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R399" t="inlineStr">
         <is>
@@ -29153,24 +29153,24 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="K400" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L400" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M400" t="n">
-        <v>12000</v>
+        <v>7644</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
@@ -29179,10 +29179,10 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>4000</v>
+        <v>212</v>
       </c>
       <c r="Q400" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29229,20 +29229,20 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>580</v>
+        <v>630</v>
       </c>
       <c r="K401" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="L401" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="M401" t="n">
-        <v>4284</v>
+        <v>13270</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29251,10 +29251,10 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>119</v>
+        <v>4423</v>
       </c>
       <c r="Q401" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29297,24 +29297,24 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>430</v>
+        <v>100</v>
       </c>
       <c r="K402" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L402" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M402" t="n">
-        <v>7349</v>
+        <v>6000</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
@@ -29323,10 +29323,10 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>2450</v>
+        <v>167</v>
       </c>
       <c r="Q402" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29369,24 +29369,24 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>460</v>
+        <v>150</v>
       </c>
       <c r="K403" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L403" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M403" t="n">
-        <v>8587</v>
+        <v>12000</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -29395,10 +29395,10 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>239</v>
+        <v>4000</v>
       </c>
       <c r="Q403" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29445,20 +29445,20 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>310</v>
+        <v>580</v>
       </c>
       <c r="K404" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L404" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="M404" t="n">
-        <v>17613</v>
+        <v>4284</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
@@ -29467,10 +29467,10 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>5871</v>
+        <v>119</v>
       </c>
       <c r="Q404" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29517,20 +29517,20 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>620</v>
+        <v>430</v>
       </c>
       <c r="K405" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L405" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M405" t="n">
-        <v>4226</v>
+        <v>7349</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -29539,10 +29539,10 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>117</v>
+        <v>2450</v>
       </c>
       <c r="Q405" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29592,17 +29592,17 @@
         <v>460</v>
       </c>
       <c r="K406" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L406" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M406" t="n">
-        <v>7207</v>
+        <v>8587</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
@@ -29611,10 +29611,10 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>2402</v>
+        <v>239</v>
       </c>
       <c r="Q406" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44474</v>
+        <v>44258</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29661,20 +29661,20 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>740</v>
+        <v>310</v>
       </c>
       <c r="K407" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L407" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="M407" t="n">
-        <v>4223</v>
+        <v>17613</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
@@ -29683,10 +29683,10 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>117</v>
+        <v>5871</v>
       </c>
       <c r="Q407" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R407" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29733,20 +29733,20 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>450</v>
+        <v>620</v>
       </c>
       <c r="K408" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L408" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M408" t="n">
-        <v>7211</v>
+        <v>4226</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -29755,10 +29755,10 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>2404</v>
+        <v>117</v>
       </c>
       <c r="Q408" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R408" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29805,20 +29805,20 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="K409" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L409" t="n">
         <v>7500</v>
       </c>
-      <c r="L409" t="n">
-        <v>8000</v>
-      </c>
       <c r="M409" t="n">
-        <v>7769</v>
+        <v>7207</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
@@ -29827,10 +29827,10 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>216</v>
+        <v>2402</v>
       </c>
       <c r="Q409" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29877,20 +29877,20 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>430</v>
+        <v>740</v>
       </c>
       <c r="K410" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L410" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="M410" t="n">
-        <v>15581</v>
+        <v>4223</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
@@ -29899,10 +29899,10 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>5194</v>
+        <v>117</v>
       </c>
       <c r="Q410" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29949,16 +29949,16 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="K411" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="L411" t="n">
-        <v>22000</v>
+        <v>7500</v>
       </c>
       <c r="M411" t="n">
-        <v>21143</v>
+        <v>7211</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29967,11 +29967,11 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P411" t="n">
-        <v>7048</v>
+        <v>2404</v>
       </c>
       <c r="Q411" t="n">
         <v>3</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="K412" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L412" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M412" t="n">
-        <v>5673</v>
+        <v>7769</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="Q412" t="n">
         <v>36</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>710</v>
+        <v>430</v>
       </c>
       <c r="K413" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L413" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M413" t="n">
-        <v>11092</v>
+        <v>15581</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>3697</v>
+        <v>5194</v>
       </c>
       <c r="Q413" t="n">
         <v>3</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30161,36 +30161,36 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K414" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="L414" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="M414" t="n">
-        <v>5000</v>
+        <v>21143</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P414" t="n">
-        <v>139</v>
+        <v>7048</v>
       </c>
       <c r="Q414" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
@@ -30233,24 +30233,24 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>150</v>
+        <v>490</v>
       </c>
       <c r="K415" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L415" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M415" t="n">
-        <v>10000</v>
+        <v>5673</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -30259,10 +30259,10 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>3333</v>
+        <v>158</v>
       </c>
       <c r="Q415" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30309,20 +30309,20 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>650</v>
+        <v>710</v>
       </c>
       <c r="K416" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L416" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="M416" t="n">
-        <v>4208</v>
+        <v>11092</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -30331,10 +30331,10 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>117</v>
+        <v>3697</v>
       </c>
       <c r="Q416" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R416" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30377,24 +30377,24 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K417" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L417" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M417" t="n">
-        <v>7186</v>
+        <v>5000</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -30403,10 +30403,10 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>2395</v>
+        <v>139</v>
       </c>
       <c r="Q417" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R417" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44300</v>
+        <v>44204</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30449,24 +30449,24 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>530</v>
+        <v>150</v>
       </c>
       <c r="K418" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L418" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M418" t="n">
-        <v>5453</v>
+        <v>10000</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -30475,10 +30475,10 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>151</v>
+        <v>3333</v>
       </c>
       <c r="Q418" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R418" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30525,20 +30525,20 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="K419" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L419" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M419" t="n">
-        <v>8571</v>
+        <v>4208</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -30547,10 +30547,10 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>2857</v>
+        <v>117</v>
       </c>
       <c r="Q419" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30600,17 +30600,17 @@
         <v>350</v>
       </c>
       <c r="K420" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L420" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M420" t="n">
-        <v>5657</v>
+        <v>7186</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -30619,10 +30619,10 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>157</v>
+        <v>2395</v>
       </c>
       <c r="Q420" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30669,20 +30669,20 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="K421" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L421" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M421" t="n">
-        <v>11696</v>
+        <v>5453</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -30691,10 +30691,10 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>3899</v>
+        <v>151</v>
       </c>
       <c r="Q421" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30737,24 +30737,24 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="K422" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L422" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M422" t="n">
-        <v>5000</v>
+        <v>8571</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -30763,10 +30763,10 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>139</v>
+        <v>2857</v>
       </c>
       <c r="Q422" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30809,24 +30809,24 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K423" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L423" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M423" t="n">
-        <v>10000</v>
+        <v>5657</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -30835,10 +30835,10 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>3333</v>
+        <v>157</v>
       </c>
       <c r="Q423" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30885,20 +30885,20 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="K424" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L424" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="M424" t="n">
-        <v>4219</v>
+        <v>11696</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -30907,10 +30907,10 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>117</v>
+        <v>3899</v>
       </c>
       <c r="Q424" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30953,24 +30953,24 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>430</v>
+        <v>110</v>
       </c>
       <c r="K425" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L425" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M425" t="n">
-        <v>7209</v>
+        <v>5000</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -30979,10 +30979,10 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>2403</v>
+        <v>139</v>
       </c>
       <c r="Q425" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R425" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31025,24 +31025,24 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J426" t="n">
-        <v>640</v>
+        <v>100</v>
       </c>
       <c r="K426" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L426" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M426" t="n">
-        <v>4219</v>
+        <v>10000</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -31051,10 +31051,10 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>117</v>
+        <v>3333</v>
       </c>
       <c r="Q426" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R426" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31101,20 +31101,20 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>470</v>
+        <v>640</v>
       </c>
       <c r="K427" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L427" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M427" t="n">
-        <v>7702</v>
+        <v>4219</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
@@ -31123,10 +31123,10 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>2567</v>
+        <v>117</v>
       </c>
       <c r="Q427" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R427" t="inlineStr">
         <is>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31173,20 +31173,20 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>670</v>
+        <v>430</v>
       </c>
       <c r="K428" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L428" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M428" t="n">
-        <v>4209</v>
+        <v>7209</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
@@ -31195,10 +31195,10 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>117</v>
+        <v>2403</v>
       </c>
       <c r="Q428" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R428" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31245,20 +31245,20 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>450</v>
+        <v>640</v>
       </c>
       <c r="K429" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L429" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M429" t="n">
-        <v>7356</v>
+        <v>4219</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>$/docena de paquetes</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
@@ -31267,10 +31267,10 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>613</v>
+        <v>117</v>
       </c>
       <c r="Q429" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="R429" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31317,32 +31317,32 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>130</v>
+        <v>470</v>
       </c>
       <c r="K430" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L430" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M430" t="n">
-        <v>12385</v>
+        <v>7702</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>$/docena de paquetes</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P430" t="n">
-        <v>1032</v>
+        <v>2567</v>
       </c>
       <c r="Q430" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R430" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="K431" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L431" t="n">
         <v>4500</v>
       </c>
-      <c r="L431" t="n">
-        <v>5000</v>
-      </c>
       <c r="M431" t="n">
-        <v>4723</v>
+        <v>4209</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Q431" t="n">
         <v>36</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31461,20 +31461,20 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="K432" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L432" t="n">
         <v>8000</v>
       </c>
-      <c r="L432" t="n">
-        <v>9000</v>
-      </c>
       <c r="M432" t="n">
-        <v>8431</v>
+        <v>7356</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/docena de paquetes</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
@@ -31483,10 +31483,10 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>2810</v>
+        <v>613</v>
       </c>
       <c r="Q432" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="R432" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44243</v>
+        <v>44350</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31533,32 +31533,32 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>370</v>
+        <v>130</v>
       </c>
       <c r="K433" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L433" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M433" t="n">
-        <v>6676</v>
+        <v>12385</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de paquetes</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P433" t="n">
-        <v>185</v>
+        <v>1032</v>
       </c>
       <c r="Q433" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="R433" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31605,16 +31605,16 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>270</v>
+        <v>650</v>
       </c>
       <c r="K434" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L434" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M434" t="n">
-        <v>7000</v>
+        <v>4723</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="Q434" t="n">
         <v>36</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>430</v>
+        <v>510</v>
       </c>
       <c r="K435" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L435" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M435" t="n">
-        <v>14581</v>
+        <v>8431</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>4860</v>
+        <v>2810</v>
       </c>
       <c r="Q435" t="n">
         <v>3</v>
@@ -31745,20 +31745,20 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>220</v>
+        <v>370</v>
       </c>
       <c r="K436" t="n">
         <v>6000</v>
       </c>
       <c r="L436" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M436" t="n">
-        <v>6000</v>
+        <v>6676</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31767,11 +31767,11 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P436" t="n">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Q436" t="n">
         <v>36</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>620</v>
+        <v>270</v>
       </c>
       <c r="K437" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L437" t="n">
         <v>7000</v>
       </c>
       <c r="M437" t="n">
-        <v>6718</v>
+        <v>7000</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q437" t="n">
         <v>36</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31893,16 +31893,16 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>200</v>
+        <v>430</v>
       </c>
       <c r="K438" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L438" t="n">
         <v>15000</v>
       </c>
-      <c r="L438" t="n">
-        <v>16000</v>
-      </c>
       <c r="M438" t="n">
-        <v>15450</v>
+        <v>14581</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>5150</v>
+        <v>4860</v>
       </c>
       <c r="Q438" t="n">
         <v>3</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31965,20 +31965,20 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K439" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L439" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M439" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
@@ -31987,10 +31987,10 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>4667</v>
+        <v>167</v>
       </c>
       <c r="Q439" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>530</v>
+        <v>620</v>
       </c>
       <c r="K440" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L440" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M440" t="n">
-        <v>4226</v>
+        <v>6718</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="Q440" t="n">
         <v>36</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="K441" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="L441" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M441" t="n">
-        <v>7707</v>
+        <v>15450</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>2569</v>
+        <v>5150</v>
       </c>
       <c r="Q441" t="n">
         <v>3</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32177,24 +32177,24 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>530</v>
+        <v>50</v>
       </c>
       <c r="K442" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L442" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M442" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
@@ -32203,10 +32203,10 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>167</v>
+        <v>4667</v>
       </c>
       <c r="Q442" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R442" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32253,20 +32253,20 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>710</v>
+        <v>530</v>
       </c>
       <c r="K443" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L443" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="M443" t="n">
-        <v>11514</v>
+        <v>4226</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
@@ -32275,10 +32275,10 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>3838</v>
+        <v>117</v>
       </c>
       <c r="Q443" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R443" t="inlineStr">
         <is>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32321,24 +32321,24 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="K444" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L444" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M444" t="n">
-        <v>5000</v>
+        <v>7707</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
@@ -32347,10 +32347,10 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>139</v>
+        <v>2569</v>
       </c>
       <c r="Q444" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R444" t="inlineStr">
         <is>
@@ -32393,24 +32393,24 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>150</v>
+        <v>530</v>
       </c>
       <c r="K445" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L445" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M445" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
@@ -32419,10 +32419,10 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>3000</v>
+        <v>167</v>
       </c>
       <c r="Q445" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R445" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32469,20 +32469,20 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>650</v>
+        <v>710</v>
       </c>
       <c r="K446" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L446" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="M446" t="n">
-        <v>4208</v>
+        <v>11514</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
@@ -32491,10 +32491,10 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>117</v>
+        <v>3838</v>
       </c>
       <c r="Q446" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R446" t="inlineStr">
         <is>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32537,24 +32537,24 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>420</v>
+        <v>120</v>
       </c>
       <c r="K447" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L447" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M447" t="n">
-        <v>8702</v>
+        <v>5000</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
@@ -32563,10 +32563,10 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>2901</v>
+        <v>139</v>
       </c>
       <c r="Q447" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R447" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44435</v>
+        <v>44202</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32609,24 +32609,24 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>2650</v>
+        <v>150</v>
       </c>
       <c r="K448" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L448" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M448" t="n">
-        <v>7700</v>
+        <v>9000</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
@@ -32635,10 +32635,10 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>214</v>
+        <v>3000</v>
       </c>
       <c r="Q448" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R448" t="inlineStr">
         <is>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32685,20 +32685,20 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>1930</v>
+        <v>650</v>
       </c>
       <c r="K449" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="L449" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="M449" t="n">
-        <v>14855</v>
+        <v>4208</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
@@ -32707,10 +32707,10 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>4952</v>
+        <v>117</v>
       </c>
       <c r="Q449" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R449" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44242</v>
+        <v>44453</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32757,20 +32757,20 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="K450" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L450" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M450" t="n">
-        <v>7000</v>
+        <v>8702</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
@@ -32779,10 +32779,10 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>194</v>
+        <v>2901</v>
       </c>
       <c r="Q450" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R450" t="inlineStr">
         <is>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32829,20 +32829,20 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>250</v>
+        <v>2650</v>
       </c>
       <c r="K451" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="L451" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M451" t="n">
-        <v>18000</v>
+        <v>7700</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
@@ -32851,10 +32851,10 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>6000</v>
+        <v>214</v>
       </c>
       <c r="Q451" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R451" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32901,20 +32901,20 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>390</v>
+        <v>1930</v>
       </c>
       <c r="K452" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L452" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M452" t="n">
-        <v>6385</v>
+        <v>14855</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
@@ -32923,10 +32923,10 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>177</v>
+        <v>4952</v>
       </c>
       <c r="Q452" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R452" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32973,20 +32973,20 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K453" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L453" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M453" t="n">
-        <v>14458</v>
+        <v>7000</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
@@ -32995,10 +32995,10 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>4819</v>
+        <v>194</v>
       </c>
       <c r="Q453" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R453" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44433</v>
+        <v>44242</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33045,20 +33045,20 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>510</v>
+        <v>250</v>
       </c>
       <c r="K454" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="L454" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M454" t="n">
-        <v>7716</v>
+        <v>18000</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O454" t="inlineStr">
@@ -33067,10 +33067,10 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>214</v>
+        <v>6000</v>
       </c>
       <c r="Q454" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R454" t="inlineStr">
         <is>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33117,20 +33117,20 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="K455" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L455" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M455" t="n">
-        <v>14455</v>
+        <v>6385</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
@@ -33139,10 +33139,10 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>4818</v>
+        <v>177</v>
       </c>
       <c r="Q455" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R455" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44307</v>
+        <v>44377</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33189,20 +33189,20 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>530</v>
+        <v>240</v>
       </c>
       <c r="K456" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="L456" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="M456" t="n">
-        <v>4226</v>
+        <v>14458</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
@@ -33211,10 +33211,10 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>117</v>
+        <v>4819</v>
       </c>
       <c r="Q456" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R456" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33261,20 +33261,20 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>370</v>
+        <v>510</v>
       </c>
       <c r="K457" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L457" t="n">
         <v>8000</v>
       </c>
       <c r="M457" t="n">
-        <v>7405</v>
+        <v>7716</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
@@ -33283,10 +33283,10 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>2468</v>
+        <v>214</v>
       </c>
       <c r="Q457" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R457" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44159</v>
+        <v>44433</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33333,20 +33333,20 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="K458" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L458" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M458" t="n">
-        <v>5000</v>
+        <v>14455</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
@@ -33355,10 +33355,10 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>139</v>
+        <v>4818</v>
       </c>
       <c r="Q458" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R458" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33405,20 +33405,20 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>490</v>
+        <v>530</v>
       </c>
       <c r="K459" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L459" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="M459" t="n">
-        <v>12643</v>
+        <v>4226</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
@@ -33427,10 +33427,10 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>4214</v>
+        <v>117</v>
       </c>
       <c r="Q459" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R459" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33473,24 +33473,24 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>140</v>
+        <v>370</v>
       </c>
       <c r="K460" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L460" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M460" t="n">
-        <v>4000</v>
+        <v>7405</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O460" t="inlineStr">
@@ -33499,10 +33499,10 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>111</v>
+        <v>2468</v>
       </c>
       <c r="Q460" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R460" t="inlineStr">
         <is>
@@ -33545,24 +33545,24 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="K461" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L461" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M461" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
@@ -33571,10 +33571,10 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>3333</v>
+        <v>139</v>
       </c>
       <c r="Q461" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R461" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33621,20 +33621,20 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="K462" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L462" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M462" t="n">
-        <v>5644</v>
+        <v>12643</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O462" t="inlineStr">
@@ -33643,10 +33643,10 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>157</v>
+        <v>4214</v>
       </c>
       <c r="Q462" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R462" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33689,24 +33689,24 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>670</v>
+        <v>140</v>
       </c>
       <c r="K463" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L463" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M463" t="n">
-        <v>10761</v>
+        <v>4000</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O463" t="inlineStr">
@@ -33715,10 +33715,10 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>3587</v>
+        <v>111</v>
       </c>
       <c r="Q463" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R463" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33765,20 +33765,20 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K464" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L464" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M464" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O464" t="inlineStr">
@@ -33787,10 +33787,10 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>139</v>
+        <v>3333</v>
       </c>
       <c r="Q464" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R464" t="inlineStr">
         <is>
@@ -33833,24 +33833,24 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="K465" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L465" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M465" t="n">
-        <v>8000</v>
+        <v>5644</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O465" t="inlineStr">
@@ -33859,10 +33859,10 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>2667</v>
+        <v>157</v>
       </c>
       <c r="Q465" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R465" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33912,17 +33912,17 @@
         <v>670</v>
       </c>
       <c r="K466" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L466" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M466" t="n">
-        <v>4716</v>
+        <v>10761</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
@@ -33931,10 +33931,10 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>131</v>
+        <v>3587</v>
       </c>
       <c r="Q466" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R466" t="inlineStr">
         <is>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33977,24 +33977,24 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>370</v>
+        <v>140</v>
       </c>
       <c r="K467" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L467" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M467" t="n">
-        <v>7405</v>
+        <v>5000</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
@@ -34003,10 +34003,10 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>2468</v>
+        <v>139</v>
       </c>
       <c r="Q467" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R467" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34049,24 +34049,24 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>720</v>
+        <v>140</v>
       </c>
       <c r="K468" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L468" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M468" t="n">
-        <v>4243</v>
+        <v>8000</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
@@ -34075,10 +34075,10 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>118</v>
+        <v>2667</v>
       </c>
       <c r="Q468" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R468" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34125,20 +34125,20 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>470</v>
+        <v>670</v>
       </c>
       <c r="K469" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L469" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M469" t="n">
-        <v>6702</v>
+        <v>4716</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
@@ -34147,10 +34147,10 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>2234</v>
+        <v>131</v>
       </c>
       <c r="Q469" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R469" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44386</v>
+        <v>44334</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34197,20 +34197,20 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>610</v>
+        <v>370</v>
       </c>
       <c r="K470" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L470" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M470" t="n">
-        <v>6197</v>
+        <v>7405</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
@@ -34219,10 +34219,10 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>172</v>
+        <v>2468</v>
       </c>
       <c r="Q470" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R470" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34269,20 +34269,20 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>330</v>
+        <v>720</v>
       </c>
       <c r="K471" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L471" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="M471" t="n">
-        <v>15455</v>
+        <v>4243</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
@@ -34291,10 +34291,10 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>5152</v>
+        <v>118</v>
       </c>
       <c r="Q471" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R471" t="inlineStr">
         <is>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34337,20 +34337,20 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>100</v>
+        <v>470</v>
       </c>
       <c r="K472" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L472" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M472" t="n">
-        <v>14000</v>
+        <v>6702</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>4667</v>
+        <v>2234</v>
       </c>
       <c r="Q472" t="n">
         <v>3</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>520</v>
+        <v>610</v>
       </c>
       <c r="K473" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L473" t="n">
         <v>6500</v>
       </c>
-      <c r="L473" t="n">
-        <v>7000</v>
-      </c>
       <c r="M473" t="n">
-        <v>6740</v>
+        <v>6197</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="Q473" t="n">
         <v>36</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="K474" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="L474" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M474" t="n">
-        <v>13769</v>
+        <v>15455</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>4590</v>
+        <v>5152</v>
       </c>
       <c r="Q474" t="n">
         <v>3</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34553,24 +34553,24 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>410</v>
+        <v>100</v>
       </c>
       <c r="K475" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L475" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M475" t="n">
-        <v>7817</v>
+        <v>14000</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
@@ -34579,10 +34579,10 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>217</v>
+        <v>4667</v>
       </c>
       <c r="Q475" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R475" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34629,20 +34629,20 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="K476" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="L476" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M476" t="n">
-        <v>15654</v>
+        <v>6740</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
@@ -34651,10 +34651,10 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>5218</v>
+        <v>187</v>
       </c>
       <c r="Q476" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R476" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34701,20 +34701,20 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>620</v>
+        <v>390</v>
       </c>
       <c r="K477" t="n">
-        <v>4000</v>
+        <v>13500</v>
       </c>
       <c r="L477" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="M477" t="n">
-        <v>4218</v>
+        <v>13769</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
@@ -34723,10 +34723,10 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>117</v>
+        <v>4590</v>
       </c>
       <c r="Q477" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R477" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34773,20 +34773,20 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="K478" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L478" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M478" t="n">
-        <v>7211</v>
+        <v>7817</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
@@ -34795,10 +34795,10 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>2404</v>
+        <v>217</v>
       </c>
       <c r="Q478" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R478" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34845,20 +34845,20 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>550</v>
+        <v>260</v>
       </c>
       <c r="K479" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="L479" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M479" t="n">
-        <v>4700</v>
+        <v>15654</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
@@ -34867,10 +34867,10 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>131</v>
+        <v>5218</v>
       </c>
       <c r="Q479" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R479" t="inlineStr">
         <is>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34917,20 +34917,20 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>370</v>
+        <v>620</v>
       </c>
       <c r="K480" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L480" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M480" t="n">
-        <v>8405</v>
+        <v>4218</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O480" t="inlineStr">
@@ -34939,10 +34939,10 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>2802</v>
+        <v>117</v>
       </c>
       <c r="Q480" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R480" t="inlineStr">
         <is>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34989,20 +34989,20 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>720</v>
+        <v>380</v>
       </c>
       <c r="K481" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L481" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="M481" t="n">
-        <v>3729</v>
+        <v>7211</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
@@ -35011,10 +35011,10 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>104</v>
+        <v>2404</v>
       </c>
       <c r="Q481" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R481" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35061,20 +35061,20 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>380</v>
+        <v>550</v>
       </c>
       <c r="K482" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L482" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M482" t="n">
-        <v>7197</v>
+        <v>4700</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
@@ -35083,10 +35083,10 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>2399</v>
+        <v>131</v>
       </c>
       <c r="Q482" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R482" t="inlineStr">
         <is>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44172</v>
+        <v>44306</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35133,20 +35133,20 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>230</v>
+        <v>370</v>
       </c>
       <c r="K483" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L483" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M483" t="n">
-        <v>5652</v>
+        <v>8405</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
@@ -35155,10 +35155,10 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>157</v>
+        <v>2802</v>
       </c>
       <c r="Q483" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R483" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35205,20 +35205,20 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>350</v>
+        <v>720</v>
       </c>
       <c r="K484" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="L484" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M484" t="n">
-        <v>9657</v>
+        <v>3729</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
@@ -35227,10 +35227,10 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>3219</v>
+        <v>104</v>
       </c>
       <c r="Q484" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R484" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35273,24 +35273,24 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="K485" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L485" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="M485" t="n">
-        <v>4000</v>
+        <v>7197</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
@@ -35299,10 +35299,10 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>111</v>
+        <v>2399</v>
       </c>
       <c r="Q485" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R485" t="inlineStr">
         <is>
@@ -35345,24 +35345,24 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="K486" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L486" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M486" t="n">
-        <v>7000</v>
+        <v>5652</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
@@ -35371,10 +35371,10 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>2333</v>
+        <v>157</v>
       </c>
       <c r="Q486" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R486" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35421,20 +35421,20 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>510</v>
+        <v>350</v>
       </c>
       <c r="K487" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L487" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M487" t="n">
-        <v>4725</v>
+        <v>9657</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
@@ -35443,10 +35443,10 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>131</v>
+        <v>3219</v>
       </c>
       <c r="Q487" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R487" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35489,24 +35489,24 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="K488" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L488" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M488" t="n">
-        <v>8406</v>
+        <v>4000</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
@@ -35515,10 +35515,10 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>2802</v>
+        <v>111</v>
       </c>
       <c r="Q488" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R488" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35561,24 +35561,24 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>620</v>
+        <v>80</v>
       </c>
       <c r="K489" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L489" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M489" t="n">
-        <v>4266</v>
+        <v>7000</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O489" t="inlineStr">
@@ -35587,10 +35587,10 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>118</v>
+        <v>2333</v>
       </c>
       <c r="Q489" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R489" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35637,20 +35637,20 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>430</v>
+        <v>510</v>
       </c>
       <c r="K490" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L490" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M490" t="n">
-        <v>7198</v>
+        <v>4725</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
@@ -35659,10 +35659,10 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>2399</v>
+        <v>131</v>
       </c>
       <c r="Q490" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R490" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35709,20 +35709,20 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="K491" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L491" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M491" t="n">
-        <v>4271</v>
+        <v>8406</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
@@ -35731,10 +35731,10 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>119</v>
+        <v>2802</v>
       </c>
       <c r="Q491" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R491" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35781,20 +35781,20 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>160</v>
+        <v>620</v>
       </c>
       <c r="K492" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L492" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M492" t="n">
-        <v>8000</v>
+        <v>4266</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O492" t="inlineStr">
@@ -35803,10 +35803,10 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>2667</v>
+        <v>118</v>
       </c>
       <c r="Q492" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R492" t="inlineStr">
         <is>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35849,20 +35849,20 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>120</v>
+        <v>430</v>
       </c>
       <c r="K493" t="n">
         <v>7000</v>
       </c>
       <c r="L493" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M493" t="n">
-        <v>7000</v>
+        <v>7198</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>2333</v>
+        <v>2399</v>
       </c>
       <c r="Q493" t="n">
         <v>3</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>590</v>
+        <v>480</v>
       </c>
       <c r="K494" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L494" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M494" t="n">
-        <v>3695</v>
+        <v>4271</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="Q494" t="n">
         <v>36</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35997,16 +35997,16 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="K495" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L495" t="n">
         <v>8000</v>
       </c>
       <c r="M495" t="n">
-        <v>7448</v>
+        <v>8000</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>2483</v>
+        <v>2667</v>
       </c>
       <c r="Q495" t="n">
         <v>3</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36065,24 +36065,24 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="K496" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L496" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M496" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O496" t="inlineStr">
@@ -36091,10 +36091,10 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>167</v>
+        <v>2333</v>
       </c>
       <c r="Q496" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R496" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36141,32 +36141,32 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>170</v>
+        <v>590</v>
       </c>
       <c r="K497" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="L497" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M497" t="n">
-        <v>10000</v>
+        <v>3695</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P497" t="n">
-        <v>3333</v>
+        <v>103</v>
       </c>
       <c r="Q497" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R497" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="K498" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L498" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M498" t="n">
-        <v>9595</v>
+        <v>7448</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>3198</v>
+        <v>2483</v>
       </c>
       <c r="Q498" t="n">
         <v>3</v>
@@ -36281,20 +36281,20 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="K499" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L499" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M499" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q499" t="n">
         <v>36</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36357,32 +36357,32 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>440</v>
+        <v>170</v>
       </c>
       <c r="K500" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L500" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M500" t="n">
-        <v>5784</v>
+        <v>10000</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P500" t="n">
-        <v>161</v>
+        <v>3333</v>
       </c>
       <c r="Q500" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R500" t="inlineStr">
         <is>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>275</v>
+        <v>370</v>
       </c>
       <c r="K501" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L501" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M501" t="n">
-        <v>11564</v>
+        <v>9595</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>3855</v>
+        <v>3198</v>
       </c>
       <c r="Q501" t="n">
         <v>3</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="K502" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L502" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M502" t="n">
-        <v>8318</v>
+        <v>5000</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="Q502" t="n">
         <v>36</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36573,20 +36573,20 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="K503" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="L503" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M503" t="n">
-        <v>14628</v>
+        <v>5784</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
@@ -36595,10 +36595,10 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>4876</v>
+        <v>161</v>
       </c>
       <c r="Q503" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R503" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36645,7 +36645,7 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>560</v>
+        <v>275</v>
       </c>
       <c r="K504" t="n">
         <v>11000</v>
@@ -36654,11 +36654,11 @@
         <v>12000</v>
       </c>
       <c r="M504" t="n">
-        <v>11482</v>
+        <v>11564</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O504" t="inlineStr">
@@ -36667,10 +36667,10 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>319</v>
+        <v>3855</v>
       </c>
       <c r="Q504" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R504" t="inlineStr">
         <is>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36717,16 +36717,16 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="K505" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L505" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M505" t="n">
-        <v>4711</v>
+        <v>8318</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="Q505" t="n">
         <v>36</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36789,16 +36789,16 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>320</v>
+        <v>430</v>
       </c>
       <c r="K506" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L506" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M506" t="n">
-        <v>8406</v>
+        <v>14628</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>2802</v>
+        <v>4876</v>
       </c>
       <c r="Q506" t="n">
         <v>3</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36861,16 +36861,16 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="K507" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L507" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="M507" t="n">
-        <v>4226</v>
+        <v>11482</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>117</v>
+        <v>319</v>
       </c>
       <c r="Q507" t="n">
         <v>36</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36933,20 +36933,20 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K508" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L508" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M508" t="n">
-        <v>7414</v>
+        <v>4711</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
@@ -36955,10 +36955,10 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>2471</v>
+        <v>131</v>
       </c>
       <c r="Q508" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R508" t="inlineStr">
         <is>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -37005,20 +37005,20 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>470</v>
+        <v>320</v>
       </c>
       <c r="K509" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L509" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M509" t="n">
-        <v>7202</v>
+        <v>8406</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
@@ -37027,10 +37027,10 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>200</v>
+        <v>2802</v>
       </c>
       <c r="Q509" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R509" t="inlineStr">
         <is>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37077,20 +37077,20 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>360</v>
+        <v>530</v>
       </c>
       <c r="K510" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="L510" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="M510" t="n">
-        <v>14417</v>
+        <v>4226</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O510" t="inlineStr">
@@ -37099,10 +37099,10 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>4806</v>
+        <v>117</v>
       </c>
       <c r="Q510" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R510" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37149,20 +37149,20 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>620</v>
+        <v>290</v>
       </c>
       <c r="K511" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L511" t="n">
         <v>8000</v>
       </c>
       <c r="M511" t="n">
-        <v>7718</v>
+        <v>7414</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O511" t="inlineStr">
@@ -37171,10 +37171,10 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>214</v>
+        <v>2471</v>
       </c>
       <c r="Q511" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R511" t="inlineStr">
         <is>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37221,20 +37221,20 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="K512" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L512" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="M512" t="n">
-        <v>15422</v>
+        <v>7202</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O512" t="inlineStr">
@@ -37243,10 +37243,10 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>5141</v>
+        <v>200</v>
       </c>
       <c r="Q512" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R512" t="inlineStr">
         <is>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37293,20 +37293,20 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="K513" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L513" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M513" t="n">
-        <v>7707</v>
+        <v>14417</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O513" t="inlineStr">
@@ -37315,10 +37315,10 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>214</v>
+        <v>4806</v>
       </c>
       <c r="Q513" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R513" t="inlineStr">
         <is>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -37365,20 +37365,20 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>340</v>
+        <v>620</v>
       </c>
       <c r="K514" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="L514" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M514" t="n">
-        <v>14441</v>
+        <v>7718</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O514" t="inlineStr">
@@ -37387,10 +37387,10 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>4814</v>
+        <v>214</v>
       </c>
       <c r="Q514" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R514" t="inlineStr">
         <is>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37440,17 +37440,17 @@
         <v>450</v>
       </c>
       <c r="K515" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L515" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M515" t="n">
-        <v>5644</v>
+        <v>15422</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O515" t="inlineStr">
@@ -37459,10 +37459,10 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>157</v>
+        <v>5141</v>
       </c>
       <c r="Q515" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R515" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37509,20 +37509,20 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="K516" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L516" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M516" t="n">
-        <v>11742</v>
+        <v>7707</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
@@ -37531,10 +37531,10 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>3914</v>
+        <v>214</v>
       </c>
       <c r="Q516" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R516" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37577,24 +37577,24 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="K517" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L517" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M517" t="n">
-        <v>5000</v>
+        <v>14441</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O517" t="inlineStr">
@@ -37603,10 +37603,10 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>139</v>
+        <v>4814</v>
       </c>
       <c r="Q517" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R517" t="inlineStr">
         <is>
@@ -37649,24 +37649,24 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="K518" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L518" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M518" t="n">
-        <v>10000</v>
+        <v>5644</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
@@ -37675,10 +37675,10 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>3333</v>
+        <v>157</v>
       </c>
       <c r="Q518" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R518" t="inlineStr">
         <is>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37725,20 +37725,20 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>390</v>
+        <v>660</v>
       </c>
       <c r="K519" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L519" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="M519" t="n">
-        <v>4295</v>
+        <v>11742</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O519" t="inlineStr">
@@ -37747,10 +37747,10 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>119</v>
+        <v>3914</v>
       </c>
       <c r="Q519" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R519" t="inlineStr">
         <is>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -37793,24 +37793,24 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="K520" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L520" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M520" t="n">
-        <v>7591</v>
+        <v>5000</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
-          <t>$/docena de paquetes</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O520" t="inlineStr">
@@ -37819,10 +37819,10 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>633</v>
+        <v>139</v>
       </c>
       <c r="Q520" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="R520" t="inlineStr">
         <is>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -37865,24 +37865,24 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>410</v>
+        <v>160</v>
       </c>
       <c r="K521" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L521" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M521" t="n">
-        <v>7793</v>
+        <v>10000</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
@@ -37891,10 +37891,10 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>216</v>
+        <v>3333</v>
       </c>
       <c r="Q521" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R521" t="inlineStr">
         <is>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -37941,20 +37941,20 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>220</v>
+        <v>390</v>
       </c>
       <c r="K522" t="n">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="L522" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="M522" t="n">
-        <v>7082</v>
+        <v>4295</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O522" t="inlineStr">
@@ -37963,10 +37963,10 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>2361</v>
+        <v>119</v>
       </c>
       <c r="Q522" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R522" t="inlineStr">
         <is>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38013,7 +38013,7 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>600</v>
+        <v>220</v>
       </c>
       <c r="K523" t="n">
         <v>7000</v>
@@ -38022,11 +38022,11 @@
         <v>8000</v>
       </c>
       <c r="M523" t="n">
-        <v>7433</v>
+        <v>7591</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de paquetes</t>
         </is>
       </c>
       <c r="O523" t="inlineStr">
@@ -38035,10 +38035,10 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>206</v>
+        <v>633</v>
       </c>
       <c r="Q523" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="R523" t="inlineStr">
         <is>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38085,20 +38085,20 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="K524" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="L524" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M524" t="n">
-        <v>15571</v>
+        <v>7793</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
@@ -38107,10 +38107,10 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>5190</v>
+        <v>216</v>
       </c>
       <c r="Q524" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R524" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -38157,20 +38157,20 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>340</v>
+        <v>220</v>
       </c>
       <c r="K525" t="n">
-        <v>5500</v>
+        <v>1600</v>
       </c>
       <c r="L525" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M525" t="n">
-        <v>5721</v>
+        <v>7082</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O525" t="inlineStr">
@@ -38179,10 +38179,10 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>159</v>
+        <v>2361</v>
       </c>
       <c r="Q525" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R525" t="inlineStr">
         <is>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38229,20 +38229,20 @@
         </is>
       </c>
       <c r="J526" t="n">
-        <v>210</v>
+        <v>600</v>
       </c>
       <c r="K526" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L526" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M526" t="n">
-        <v>12619</v>
+        <v>7433</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O526" t="inlineStr">
@@ -38251,10 +38251,10 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>4206</v>
+        <v>206</v>
       </c>
       <c r="Q526" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R526" t="inlineStr">
         <is>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -38301,20 +38301,20 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="K527" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L527" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M527" t="n">
-        <v>6000</v>
+        <v>15571</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
@@ -38323,10 +38323,10 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>167</v>
+        <v>5190</v>
       </c>
       <c r="Q527" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R527" t="inlineStr">
         <is>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38373,20 +38373,20 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>590</v>
+        <v>340</v>
       </c>
       <c r="K528" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L528" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M528" t="n">
-        <v>12288</v>
+        <v>5721</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
@@ -38395,10 +38395,10 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>4096</v>
+        <v>159</v>
       </c>
       <c r="Q528" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R528" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38441,24 +38441,24 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="K529" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L529" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M529" t="n">
-        <v>5000</v>
+        <v>12619</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O529" t="inlineStr">
@@ -38467,10 +38467,10 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>139</v>
+        <v>4206</v>
       </c>
       <c r="Q529" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R529" t="inlineStr">
         <is>
@@ -38513,24 +38513,24 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>120</v>
+        <v>510</v>
       </c>
       <c r="K530" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L530" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M530" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
@@ -38539,10 +38539,10 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>3333</v>
+        <v>167</v>
       </c>
       <c r="Q530" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R530" t="inlineStr">
         <is>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -38589,20 +38589,20 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="K531" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L531" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="M531" t="n">
-        <v>4213</v>
+        <v>12288</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O531" t="inlineStr">
@@ -38611,10 +38611,10 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>117</v>
+        <v>4096</v>
       </c>
       <c r="Q531" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R531" t="inlineStr">
         <is>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -38657,24 +38657,24 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K532" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L532" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M532" t="n">
-        <v>8440</v>
+        <v>5000</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">
@@ -38683,10 +38683,10 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>2813</v>
+        <v>139</v>
       </c>
       <c r="Q532" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R532" t="inlineStr">
         <is>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -38729,24 +38729,24 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>490</v>
+        <v>120</v>
       </c>
       <c r="K533" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L533" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M533" t="n">
-        <v>7673</v>
+        <v>10000</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O533" t="inlineStr">
@@ -38755,10 +38755,10 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>213</v>
+        <v>3333</v>
       </c>
       <c r="Q533" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R533" t="inlineStr">
         <is>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -38805,20 +38805,20 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>590</v>
+        <v>540</v>
       </c>
       <c r="K534" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="L534" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="M534" t="n">
-        <v>14712</v>
+        <v>4213</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O534" t="inlineStr">
@@ -38827,10 +38827,10 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>4904</v>
+        <v>117</v>
       </c>
       <c r="Q534" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R534" t="inlineStr">
         <is>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -38873,24 +38873,24 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K535" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L535" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M535" t="n">
-        <v>7000</v>
+        <v>8440</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O535" t="inlineStr">
@@ -38899,10 +38899,10 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>194</v>
+        <v>2813</v>
       </c>
       <c r="Q535" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R535" t="inlineStr">
         <is>
@@ -38945,24 +38945,24 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>130</v>
+        <v>490</v>
       </c>
       <c r="K536" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L536" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M536" t="n">
-        <v>14000</v>
+        <v>7673</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O536" t="inlineStr">
@@ -38971,10 +38971,10 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>4667</v>
+        <v>213</v>
       </c>
       <c r="Q536" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R536" t="inlineStr">
         <is>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -39021,20 +39021,20 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>480</v>
+        <v>590</v>
       </c>
       <c r="K537" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="L537" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M537" t="n">
-        <v>5781</v>
+        <v>14712</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O537" t="inlineStr">
@@ -39043,10 +39043,10 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>161</v>
+        <v>4904</v>
       </c>
       <c r="Q537" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R537" t="inlineStr">
         <is>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -39089,24 +39089,24 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K538" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L538" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M538" t="n">
-        <v>9824</v>
+        <v>7000</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
@@ -39115,10 +39115,10 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>3275</v>
+        <v>194</v>
       </c>
       <c r="Q538" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R538" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -39161,24 +39161,24 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>440</v>
+        <v>130</v>
       </c>
       <c r="K539" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L539" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M539" t="n">
-        <v>7795</v>
+        <v>14000</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O539" t="inlineStr">
@@ -39187,10 +39187,10 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>217</v>
+        <v>4667</v>
       </c>
       <c r="Q539" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R539" t="inlineStr">
         <is>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -39237,20 +39237,20 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="K540" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="L540" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M540" t="n">
-        <v>17422</v>
+        <v>5781</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O540" t="inlineStr">
@@ -39259,10 +39259,10 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>5807</v>
+        <v>161</v>
       </c>
       <c r="Q540" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R540" t="inlineStr">
         <is>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -39309,20 +39309,20 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>450</v>
+        <v>170</v>
       </c>
       <c r="K541" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L541" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M541" t="n">
-        <v>4789</v>
+        <v>9824</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O541" t="inlineStr">
@@ -39331,10 +39331,10 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>133</v>
+        <v>3275</v>
       </c>
       <c r="Q541" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R541" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -39381,20 +39381,20 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>260</v>
+        <v>440</v>
       </c>
       <c r="K542" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L542" t="n">
         <v>8000</v>
       </c>
       <c r="M542" t="n">
-        <v>7577</v>
+        <v>7795</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O542" t="inlineStr">
@@ -39403,10 +39403,10 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>2526</v>
+        <v>217</v>
       </c>
       <c r="Q542" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R542" t="inlineStr">
         <is>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -39453,20 +39453,20 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="K543" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L543" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M543" t="n">
-        <v>4721</v>
+        <v>17422</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O543" t="inlineStr">
@@ -39475,10 +39475,10 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>131</v>
+        <v>5807</v>
       </c>
       <c r="Q543" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R543" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -39525,20 +39525,20 @@
         </is>
       </c>
       <c r="J544" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="K544" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L544" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M544" t="n">
-        <v>7556</v>
+        <v>4789</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O544" t="inlineStr">
@@ -39547,10 +39547,10 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>2519</v>
+        <v>133</v>
       </c>
       <c r="Q544" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R544" t="inlineStr">
         <is>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -39597,20 +39597,20 @@
         </is>
       </c>
       <c r="J545" t="n">
-        <v>590</v>
+        <v>260</v>
       </c>
       <c r="K545" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L545" t="n">
         <v>8000</v>
       </c>
       <c r="M545" t="n">
-        <v>7686</v>
+        <v>7577</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O545" t="inlineStr">
@@ -39619,10 +39619,10 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>214</v>
+        <v>2526</v>
       </c>
       <c r="Q545" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R545" t="inlineStr">
         <is>
@@ -39645,58 +39645,274 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E546" t="n">
+        <v>13</v>
+      </c>
+      <c r="F546" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I546" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J546" t="n">
+        <v>430</v>
+      </c>
+      <c r="K546" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L546" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M546" t="n">
+        <v>4721</v>
+      </c>
+      <c r="N546" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O546" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P546" t="n">
+        <v>131</v>
+      </c>
+      <c r="Q546" t="n">
+        <v>36</v>
+      </c>
+      <c r="R546" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>6</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D547" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E547" t="n">
+        <v>13</v>
+      </c>
+      <c r="F547" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I547" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J547" t="n">
+        <v>270</v>
+      </c>
+      <c r="K547" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L547" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M547" t="n">
+        <v>7556</v>
+      </c>
+      <c r="N547" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O547" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P547" t="n">
+        <v>2519</v>
+      </c>
+      <c r="Q547" t="n">
+        <v>3</v>
+      </c>
+      <c r="R547" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>6</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D548" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E546" t="n">
-        <v>13</v>
-      </c>
-      <c r="F546" t="n">
-        <v>100112040</v>
-      </c>
-      <c r="G546" t="inlineStr">
-        <is>
-          <t>Cilantro</t>
-        </is>
-      </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I546" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J546" t="n">
+      <c r="E548" t="n">
+        <v>13</v>
+      </c>
+      <c r="F548" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I548" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J548" t="n">
+        <v>590</v>
+      </c>
+      <c r="K548" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L548" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M548" t="n">
+        <v>7686</v>
+      </c>
+      <c r="N548" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O548" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P548" t="n">
+        <v>214</v>
+      </c>
+      <c r="Q548" t="n">
+        <v>36</v>
+      </c>
+      <c r="R548" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>6</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D549" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E549" t="n">
+        <v>13</v>
+      </c>
+      <c r="F549" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I549" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J549" t="n">
         <v>420</v>
       </c>
-      <c r="K546" t="n">
+      <c r="K549" t="n">
         <v>15000</v>
       </c>
-      <c r="L546" t="n">
+      <c r="L549" t="n">
         <v>16000</v>
       </c>
-      <c r="M546" t="n">
+      <c r="M549" t="n">
         <v>15357</v>
       </c>
-      <c r="N546" t="inlineStr">
+      <c r="N549" t="inlineStr">
         <is>
           <t>$/docena de atados</t>
         </is>
       </c>
-      <c r="O546" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P546" t="n">
+      <c r="O549" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P549" t="n">
         <v>5119</v>
       </c>
-      <c r="Q546" t="n">
+      <c r="Q549" t="n">
         <v>3</v>
       </c>
-      <c r="R546" t="inlineStr">
+      <c r="R549" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R549"/>
+  <dimension ref="A1:R551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -28437,7 +28437,7 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="K390" t="n">
         <v>4000</v>
@@ -28446,7 +28446,7 @@
         <v>4500</v>
       </c>
       <c r="M390" t="n">
-        <v>4193</v>
+        <v>4216</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q390" t="n">
         <v>36</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -28509,7 +28509,7 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="K391" t="n">
         <v>7500</v>
@@ -28518,7 +28518,7 @@
         <v>8000</v>
       </c>
       <c r="M391" t="n">
-        <v>7702</v>
+        <v>7716</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>2567</v>
+        <v>2572</v>
       </c>
       <c r="Q391" t="n">
         <v>3</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>440</v>
+        <v>570</v>
       </c>
       <c r="K392" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L392" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M392" t="n">
-        <v>7216</v>
+        <v>4193</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c r="Q392" t="n">
         <v>36</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>340</v>
+        <v>470</v>
       </c>
       <c r="K393" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="L393" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M393" t="n">
-        <v>14441</v>
+        <v>7702</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>4814</v>
+        <v>2567</v>
       </c>
       <c r="Q393" t="n">
         <v>3</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>630</v>
+        <v>440</v>
       </c>
       <c r="K394" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L394" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M394" t="n">
-        <v>4714</v>
+        <v>7216</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="Q394" t="n">
         <v>36</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -28800,13 +28800,13 @@
         <v>340</v>
       </c>
       <c r="K395" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L395" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M395" t="n">
-        <v>7721</v>
+        <v>14441</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>2574</v>
+        <v>4814</v>
       </c>
       <c r="Q395" t="n">
         <v>3</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>180</v>
+        <v>630</v>
       </c>
       <c r="K396" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L396" t="n">
         <v>5000</v>
       </c>
       <c r="M396" t="n">
-        <v>5000</v>
+        <v>4714</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Q396" t="n">
         <v>36</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="K397" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L397" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M397" t="n">
-        <v>10000</v>
+        <v>7721</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>3333</v>
+        <v>2574</v>
       </c>
       <c r="Q397" t="n">
         <v>3</v>
@@ -29009,20 +29009,20 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J398" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K398" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L398" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M398" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q398" t="n">
         <v>36</v>
@@ -29081,20 +29081,20 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="K399" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L399" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M399" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>2667</v>
+        <v>3333</v>
       </c>
       <c r="Q399" t="n">
         <v>3</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29153,20 +29153,20 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K400" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L400" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M400" t="n">
-        <v>7644</v>
+        <v>4000</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="Q400" t="n">
         <v>36</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29225,20 +29225,20 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>630</v>
+        <v>180</v>
       </c>
       <c r="K401" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L401" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M401" t="n">
-        <v>13270</v>
+        <v>8000</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>4423</v>
+        <v>2667</v>
       </c>
       <c r="Q401" t="n">
         <v>3</v>
@@ -29297,20 +29297,20 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K402" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L402" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M402" t="n">
-        <v>6000</v>
+        <v>7644</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="Q402" t="n">
         <v>36</v>
@@ -29369,20 +29369,20 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>150</v>
+        <v>630</v>
       </c>
       <c r="K403" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L403" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M403" t="n">
-        <v>12000</v>
+        <v>13270</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>4000</v>
+        <v>4423</v>
       </c>
       <c r="Q403" t="n">
         <v>3</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -29441,20 +29441,20 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="K404" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L404" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M404" t="n">
-        <v>4284</v>
+        <v>6000</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="Q404" t="n">
         <v>36</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29513,20 +29513,20 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>430</v>
+        <v>150</v>
       </c>
       <c r="K405" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L405" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M405" t="n">
-        <v>7349</v>
+        <v>12000</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>2450</v>
+        <v>4000</v>
       </c>
       <c r="Q405" t="n">
         <v>3</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="K406" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L406" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M406" t="n">
-        <v>8587</v>
+        <v>4284</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>239</v>
+        <v>119</v>
       </c>
       <c r="Q406" t="n">
         <v>36</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>310</v>
+        <v>430</v>
       </c>
       <c r="K407" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L407" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M407" t="n">
-        <v>17613</v>
+        <v>7349</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>5871</v>
+        <v>2450</v>
       </c>
       <c r="Q407" t="n">
         <v>3</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>620</v>
+        <v>460</v>
       </c>
       <c r="K408" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L408" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M408" t="n">
-        <v>4226</v>
+        <v>8587</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>117</v>
+        <v>239</v>
       </c>
       <c r="Q408" t="n">
         <v>36</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="K409" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L409" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="M409" t="n">
-        <v>7207</v>
+        <v>17613</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>2402</v>
+        <v>5871</v>
       </c>
       <c r="Q409" t="n">
         <v>3</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29877,7 +29877,7 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>740</v>
+        <v>620</v>
       </c>
       <c r="K410" t="n">
         <v>4000</v>
@@ -29886,7 +29886,7 @@
         <v>4500</v>
       </c>
       <c r="M410" t="n">
-        <v>4223</v>
+        <v>4226</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29949,7 +29949,7 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="K411" t="n">
         <v>7000</v>
@@ -29958,7 +29958,7 @@
         <v>7500</v>
       </c>
       <c r="M411" t="n">
-        <v>7211</v>
+        <v>7207</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="Q411" t="n">
         <v>3</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>540</v>
+        <v>740</v>
       </c>
       <c r="K412" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L412" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M412" t="n">
-        <v>7769</v>
+        <v>4223</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="Q412" t="n">
         <v>36</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="K413" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L413" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="M413" t="n">
-        <v>15581</v>
+        <v>7211</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>5194</v>
+        <v>2404</v>
       </c>
       <c r="Q413" t="n">
         <v>3</v>
@@ -30165,32 +30165,32 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>140</v>
+        <v>540</v>
       </c>
       <c r="K414" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="L414" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="M414" t="n">
-        <v>21143</v>
+        <v>7769</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P414" t="n">
-        <v>7048</v>
+        <v>216</v>
       </c>
       <c r="Q414" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30237,20 +30237,20 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="K415" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L415" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M415" t="n">
-        <v>5673</v>
+        <v>15581</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -30259,10 +30259,10 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>158</v>
+        <v>5194</v>
       </c>
       <c r="Q415" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>710</v>
+        <v>140</v>
       </c>
       <c r="K416" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L416" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M416" t="n">
-        <v>11092</v>
+        <v>21143</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30327,11 +30327,11 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P416" t="n">
-        <v>3697</v>
+        <v>7048</v>
       </c>
       <c r="Q416" t="n">
         <v>3</v>
@@ -30377,20 +30377,20 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="K417" t="n">
         <v>5000</v>
       </c>
       <c r="L417" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M417" t="n">
-        <v>5000</v>
+        <v>5673</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="Q417" t="n">
         <v>36</v>
@@ -30449,20 +30449,20 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>150</v>
+        <v>710</v>
       </c>
       <c r="K418" t="n">
         <v>10000</v>
       </c>
       <c r="L418" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M418" t="n">
-        <v>10000</v>
+        <v>11092</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>3333</v>
+        <v>3697</v>
       </c>
       <c r="Q418" t="n">
         <v>3</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30521,20 +30521,20 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="K419" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L419" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M419" t="n">
-        <v>4208</v>
+        <v>5000</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="Q419" t="n">
         <v>36</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30593,20 +30593,20 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="K420" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L420" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M420" t="n">
-        <v>7186</v>
+        <v>10000</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>2395</v>
+        <v>3333</v>
       </c>
       <c r="Q420" t="n">
         <v>3</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30669,16 +30669,16 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>530</v>
+        <v>650</v>
       </c>
       <c r="K421" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L421" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M421" t="n">
-        <v>5453</v>
+        <v>4208</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="Q421" t="n">
         <v>36</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="K422" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L422" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M422" t="n">
-        <v>8571</v>
+        <v>7186</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>2857</v>
+        <v>2395</v>
       </c>
       <c r="Q422" t="n">
         <v>3</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30813,7 +30813,7 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>350</v>
+        <v>530</v>
       </c>
       <c r="K423" t="n">
         <v>5000</v>
@@ -30822,7 +30822,7 @@
         <v>6000</v>
       </c>
       <c r="M423" t="n">
-        <v>5657</v>
+        <v>5453</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q423" t="n">
         <v>36</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="K424" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L424" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M424" t="n">
-        <v>11696</v>
+        <v>8571</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>3899</v>
+        <v>2857</v>
       </c>
       <c r="Q424" t="n">
         <v>3</v>
@@ -30953,20 +30953,20 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="K425" t="n">
         <v>5000</v>
       </c>
       <c r="L425" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M425" t="n">
-        <v>5000</v>
+        <v>5657</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q425" t="n">
         <v>36</v>
@@ -31025,20 +31025,20 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J426" t="n">
-        <v>100</v>
+        <v>560</v>
       </c>
       <c r="K426" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L426" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M426" t="n">
-        <v>10000</v>
+        <v>11696</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>3333</v>
+        <v>3899</v>
       </c>
       <c r="Q426" t="n">
         <v>3</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31097,20 +31097,20 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>640</v>
+        <v>110</v>
       </c>
       <c r="K427" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L427" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M427" t="n">
-        <v>4219</v>
+        <v>5000</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="Q427" t="n">
         <v>36</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31169,20 +31169,20 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>430</v>
+        <v>100</v>
       </c>
       <c r="K428" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L428" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M428" t="n">
-        <v>7209</v>
+        <v>10000</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>2403</v>
+        <v>3333</v>
       </c>
       <c r="Q428" t="n">
         <v>3</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="K430" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L430" t="n">
         <v>7500</v>
       </c>
-      <c r="L430" t="n">
-        <v>8000</v>
-      </c>
       <c r="M430" t="n">
-        <v>7702</v>
+        <v>7209</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>2567</v>
+        <v>2403</v>
       </c>
       <c r="Q430" t="n">
         <v>3</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31389,7 +31389,7 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="K431" t="n">
         <v>4000</v>
@@ -31398,7 +31398,7 @@
         <v>4500</v>
       </c>
       <c r="M431" t="n">
-        <v>4209</v>
+        <v>4219</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31461,20 +31461,20 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="K432" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L432" t="n">
         <v>8000</v>
       </c>
       <c r="M432" t="n">
-        <v>7356</v>
+        <v>7702</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>$/docena de paquetes</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
@@ -31483,10 +31483,10 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>613</v>
+        <v>2567</v>
       </c>
       <c r="Q432" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R432" t="inlineStr">
         <is>
@@ -31533,32 +31533,32 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>130</v>
+        <v>670</v>
       </c>
       <c r="K433" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L433" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="M433" t="n">
-        <v>12385</v>
+        <v>4209</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>$/docena de paquetes</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P433" t="n">
-        <v>1032</v>
+        <v>117</v>
       </c>
       <c r="Q433" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="R433" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31605,20 +31605,20 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="K434" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L434" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M434" t="n">
-        <v>4723</v>
+        <v>7356</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de paquetes</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
@@ -31627,10 +31627,10 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>131</v>
+        <v>613</v>
       </c>
       <c r="Q434" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="R434" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31677,32 +31677,32 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>510</v>
+        <v>130</v>
       </c>
       <c r="K435" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L435" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M435" t="n">
-        <v>8431</v>
+        <v>12385</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/docena de paquetes</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>2810</v>
+        <v>1032</v>
       </c>
       <c r="Q435" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="R435" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>370</v>
+        <v>650</v>
       </c>
       <c r="K436" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L436" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M436" t="n">
-        <v>6676</v>
+        <v>4723</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31767,11 +31767,11 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P436" t="n">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="Q436" t="n">
         <v>36</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31821,20 +31821,20 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>270</v>
+        <v>510</v>
       </c>
       <c r="K437" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L437" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M437" t="n">
-        <v>7000</v>
+        <v>8431</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
@@ -31843,10 +31843,10 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>194</v>
+        <v>2810</v>
       </c>
       <c r="Q437" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R437" t="inlineStr">
         <is>
@@ -31893,32 +31893,32 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="K438" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L438" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M438" t="n">
-        <v>14581</v>
+        <v>6676</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P438" t="n">
-        <v>4860</v>
+        <v>185</v>
       </c>
       <c r="Q438" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R438" t="inlineStr">
         <is>
@@ -31961,20 +31961,20 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="K439" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L439" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M439" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q439" t="n">
         <v>36</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32037,20 +32037,20 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>620</v>
+        <v>430</v>
       </c>
       <c r="K440" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L440" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M440" t="n">
-        <v>6718</v>
+        <v>14581</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
@@ -32059,10 +32059,10 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>187</v>
+        <v>4860</v>
       </c>
       <c r="Q440" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R440" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32105,24 +32105,24 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K441" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L441" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M441" t="n">
-        <v>15450</v>
+        <v>6000</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
@@ -32131,10 +32131,10 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>5150</v>
+        <v>167</v>
       </c>
       <c r="Q441" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R441" t="inlineStr">
         <is>
@@ -32177,24 +32177,24 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>50</v>
+        <v>620</v>
       </c>
       <c r="K442" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L442" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M442" t="n">
-        <v>14000</v>
+        <v>6718</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
@@ -32203,10 +32203,10 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>4667</v>
+        <v>187</v>
       </c>
       <c r="Q442" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R442" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32253,20 +32253,20 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>530</v>
+        <v>200</v>
       </c>
       <c r="K443" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L443" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="M443" t="n">
-        <v>4226</v>
+        <v>15450</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
@@ -32275,10 +32275,10 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>117</v>
+        <v>5150</v>
       </c>
       <c r="Q443" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R443" t="inlineStr">
         <is>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32321,20 +32321,20 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="K444" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L444" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M444" t="n">
-        <v>7707</v>
+        <v>14000</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>2569</v>
+        <v>4667</v>
       </c>
       <c r="Q444" t="n">
         <v>3</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32400,13 +32400,13 @@
         <v>530</v>
       </c>
       <c r="K445" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L445" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M445" t="n">
-        <v>6000</v>
+        <v>4226</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q445" t="n">
         <v>36</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32469,16 +32469,16 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>710</v>
+        <v>290</v>
       </c>
       <c r="K446" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L446" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M446" t="n">
-        <v>11514</v>
+        <v>7707</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>3838</v>
+        <v>2569</v>
       </c>
       <c r="Q446" t="n">
         <v>3</v>
@@ -32537,20 +32537,20 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>120</v>
+        <v>530</v>
       </c>
       <c r="K447" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L447" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M447" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q447" t="n">
         <v>36</v>
@@ -32609,20 +32609,20 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>150</v>
+        <v>710</v>
       </c>
       <c r="K448" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L448" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M448" t="n">
-        <v>9000</v>
+        <v>11514</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>3000</v>
+        <v>3838</v>
       </c>
       <c r="Q448" t="n">
         <v>3</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32681,20 +32681,20 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>650</v>
+        <v>120</v>
       </c>
       <c r="K449" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L449" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M449" t="n">
-        <v>4208</v>
+        <v>5000</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="Q449" t="n">
         <v>36</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -32753,20 +32753,20 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>420</v>
+        <v>150</v>
       </c>
       <c r="K450" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L450" t="n">
         <v>9000</v>
       </c>
       <c r="M450" t="n">
-        <v>8702</v>
+        <v>9000</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>2901</v>
+        <v>3000</v>
       </c>
       <c r="Q450" t="n">
         <v>3</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>2650</v>
+        <v>650</v>
       </c>
       <c r="K451" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L451" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M451" t="n">
-        <v>7700</v>
+        <v>4208</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="Q451" t="n">
         <v>36</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>1930</v>
+        <v>420</v>
       </c>
       <c r="K452" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="L452" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M452" t="n">
-        <v>14855</v>
+        <v>8702</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>4952</v>
+        <v>2901</v>
       </c>
       <c r="Q452" t="n">
         <v>3</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>360</v>
+        <v>2650</v>
       </c>
       <c r="K453" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L453" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M453" t="n">
-        <v>7000</v>
+        <v>7700</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="Q453" t="n">
         <v>36</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>250</v>
+        <v>1930</v>
       </c>
       <c r="K454" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L454" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M454" t="n">
-        <v>18000</v>
+        <v>14855</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>6000</v>
+        <v>4952</v>
       </c>
       <c r="Q454" t="n">
         <v>3</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="K455" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L455" t="n">
         <v>7000</v>
       </c>
       <c r="M455" t="n">
-        <v>6385</v>
+        <v>7000</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="Q455" t="n">
         <v>36</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="K456" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L456" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M456" t="n">
-        <v>14458</v>
+        <v>18000</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>4819</v>
+        <v>6000</v>
       </c>
       <c r="Q456" t="n">
         <v>3</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="K457" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L457" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M457" t="n">
-        <v>7716</v>
+        <v>6385</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="Q457" t="n">
         <v>36</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33333,7 +33333,7 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="K458" t="n">
         <v>14000</v>
@@ -33342,7 +33342,7 @@
         <v>15000</v>
       </c>
       <c r="M458" t="n">
-        <v>14455</v>
+        <v>14458</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>4818</v>
+        <v>4819</v>
       </c>
       <c r="Q458" t="n">
         <v>3</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="K459" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L459" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M459" t="n">
-        <v>4226</v>
+        <v>7716</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>117</v>
+        <v>214</v>
       </c>
       <c r="Q459" t="n">
         <v>36</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="K460" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L460" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M460" t="n">
-        <v>7405</v>
+        <v>14455</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>2468</v>
+        <v>4818</v>
       </c>
       <c r="Q460" t="n">
         <v>3</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>380</v>
+        <v>530</v>
       </c>
       <c r="K461" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L461" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M461" t="n">
-        <v>5000</v>
+        <v>4226</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="Q461" t="n">
         <v>36</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>490</v>
+        <v>370</v>
       </c>
       <c r="K462" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L462" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M462" t="n">
-        <v>12643</v>
+        <v>7405</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>4214</v>
+        <v>2468</v>
       </c>
       <c r="Q462" t="n">
         <v>3</v>
@@ -33689,20 +33689,20 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>140</v>
+        <v>380</v>
       </c>
       <c r="K463" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L463" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M463" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q463" t="n">
         <v>36</v>
@@ -33761,20 +33761,20 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>120</v>
+        <v>490</v>
       </c>
       <c r="K464" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L464" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M464" t="n">
-        <v>10000</v>
+        <v>12643</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>3333</v>
+        <v>4214</v>
       </c>
       <c r="Q464" t="n">
         <v>3</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33833,20 +33833,20 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="K465" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L465" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M465" t="n">
-        <v>5644</v>
+        <v>4000</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="Q465" t="n">
         <v>36</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33905,20 +33905,20 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>670</v>
+        <v>120</v>
       </c>
       <c r="K466" t="n">
         <v>10000</v>
       </c>
       <c r="L466" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M466" t="n">
-        <v>10761</v>
+        <v>10000</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>3587</v>
+        <v>3333</v>
       </c>
       <c r="Q466" t="n">
         <v>3</v>
@@ -33977,20 +33977,20 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="K467" t="n">
         <v>5000</v>
       </c>
       <c r="L467" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M467" t="n">
-        <v>5000</v>
+        <v>5644</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q467" t="n">
         <v>36</v>
@@ -34049,20 +34049,20 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>140</v>
+        <v>670</v>
       </c>
       <c r="K468" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L468" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M468" t="n">
-        <v>8000</v>
+        <v>10761</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>2667</v>
+        <v>3587</v>
       </c>
       <c r="Q468" t="n">
         <v>3</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34121,20 +34121,20 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>670</v>
+        <v>140</v>
       </c>
       <c r="K469" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L469" t="n">
         <v>5000</v>
       </c>
       <c r="M469" t="n">
-        <v>4716</v>
+        <v>5000</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="Q469" t="n">
         <v>36</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34193,20 +34193,20 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>370</v>
+        <v>140</v>
       </c>
       <c r="K470" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L470" t="n">
         <v>8000</v>
       </c>
       <c r="M470" t="n">
-        <v>7405</v>
+        <v>8000</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>2468</v>
+        <v>2667</v>
       </c>
       <c r="Q470" t="n">
         <v>3</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34269,16 +34269,16 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>720</v>
+        <v>670</v>
       </c>
       <c r="K471" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L471" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M471" t="n">
-        <v>4243</v>
+        <v>4716</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="Q471" t="n">
         <v>36</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="K472" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L472" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M472" t="n">
-        <v>6702</v>
+        <v>7405</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>2234</v>
+        <v>2468</v>
       </c>
       <c r="Q472" t="n">
         <v>3</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>610</v>
+        <v>720</v>
       </c>
       <c r="K473" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L473" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M473" t="n">
-        <v>6197</v>
+        <v>4243</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="Q473" t="n">
         <v>36</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>330</v>
+        <v>470</v>
       </c>
       <c r="K474" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="L474" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M474" t="n">
-        <v>15455</v>
+        <v>6702</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>5152</v>
+        <v>2234</v>
       </c>
       <c r="Q474" t="n">
         <v>3</v>
@@ -34553,24 +34553,24 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>100</v>
+        <v>610</v>
       </c>
       <c r="K475" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L475" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="M475" t="n">
-        <v>14000</v>
+        <v>6197</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
@@ -34579,10 +34579,10 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>4667</v>
+        <v>172</v>
       </c>
       <c r="Q475" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R475" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34629,20 +34629,20 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>520</v>
+        <v>330</v>
       </c>
       <c r="K476" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="L476" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M476" t="n">
-        <v>6740</v>
+        <v>15455</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
@@ -34651,10 +34651,10 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>187</v>
+        <v>5152</v>
       </c>
       <c r="Q476" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R476" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>390</v>
+        <v>100</v>
       </c>
       <c r="K477" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="L477" t="n">
         <v>14000</v>
       </c>
       <c r="M477" t="n">
-        <v>13769</v>
+        <v>14000</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>4590</v>
+        <v>4667</v>
       </c>
       <c r="Q477" t="n">
         <v>3</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>410</v>
+        <v>520</v>
       </c>
       <c r="K478" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L478" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M478" t="n">
-        <v>7817</v>
+        <v>6740</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="Q478" t="n">
         <v>36</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34845,16 +34845,16 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="K479" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="L479" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M479" t="n">
-        <v>15654</v>
+        <v>13769</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>5218</v>
+        <v>4590</v>
       </c>
       <c r="Q479" t="n">
         <v>3</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>620</v>
+        <v>410</v>
       </c>
       <c r="K480" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L480" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M480" t="n">
-        <v>4218</v>
+        <v>7817</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="Q480" t="n">
         <v>36</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="K481" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L481" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="M481" t="n">
-        <v>7211</v>
+        <v>15654</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>2404</v>
+        <v>5218</v>
       </c>
       <c r="Q481" t="n">
         <v>3</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="K482" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L482" t="n">
         <v>4500</v>
       </c>
-      <c r="L482" t="n">
-        <v>5000</v>
-      </c>
       <c r="M482" t="n">
-        <v>4700</v>
+        <v>4218</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Q482" t="n">
         <v>36</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="K483" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L483" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M483" t="n">
-        <v>8405</v>
+        <v>7211</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>2802</v>
+        <v>2404</v>
       </c>
       <c r="Q483" t="n">
         <v>3</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>720</v>
+        <v>550</v>
       </c>
       <c r="K484" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L484" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M484" t="n">
-        <v>3729</v>
+        <v>4700</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="Q484" t="n">
         <v>36</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35277,16 +35277,16 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="K485" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L485" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M485" t="n">
-        <v>7197</v>
+        <v>8405</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>2399</v>
+        <v>2802</v>
       </c>
       <c r="Q485" t="n">
         <v>3</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35349,16 +35349,16 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>230</v>
+        <v>720</v>
       </c>
       <c r="K486" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L486" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M486" t="n">
-        <v>5652</v>
+        <v>3729</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="Q486" t="n">
         <v>36</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35421,16 +35421,16 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="K487" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L487" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M487" t="n">
-        <v>9657</v>
+        <v>7197</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>3219</v>
+        <v>2399</v>
       </c>
       <c r="Q487" t="n">
         <v>3</v>
@@ -35489,20 +35489,20 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="K488" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L488" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M488" t="n">
-        <v>4000</v>
+        <v>5652</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="Q488" t="n">
         <v>36</v>
@@ -35561,20 +35561,20 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="K489" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L489" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M489" t="n">
-        <v>7000</v>
+        <v>9657</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>2333</v>
+        <v>3219</v>
       </c>
       <c r="Q489" t="n">
         <v>3</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35633,20 +35633,20 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="K490" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L490" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M490" t="n">
-        <v>4725</v>
+        <v>4000</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="Q490" t="n">
         <v>36</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35705,20 +35705,20 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="K491" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L491" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M491" t="n">
-        <v>8406</v>
+        <v>7000</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>2802</v>
+        <v>2333</v>
       </c>
       <c r="Q491" t="n">
         <v>3</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="K492" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L492" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M492" t="n">
-        <v>4266</v>
+        <v>4725</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="Q492" t="n">
         <v>36</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="K493" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L493" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M493" t="n">
-        <v>7198</v>
+        <v>8406</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>2399</v>
+        <v>2802</v>
       </c>
       <c r="Q493" t="n">
         <v>3</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35925,7 +35925,7 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>480</v>
+        <v>620</v>
       </c>
       <c r="K494" t="n">
         <v>4000</v>
@@ -35934,7 +35934,7 @@
         <v>4500</v>
       </c>
       <c r="M494" t="n">
-        <v>4271</v>
+        <v>4266</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q494" t="n">
         <v>36</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35997,16 +35997,16 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K495" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L495" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M495" t="n">
-        <v>8000</v>
+        <v>7198</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>2667</v>
+        <v>2399</v>
       </c>
       <c r="Q495" t="n">
         <v>3</v>
@@ -36065,24 +36065,24 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="K496" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L496" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M496" t="n">
-        <v>7000</v>
+        <v>4271</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O496" t="inlineStr">
@@ -36091,10 +36091,10 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>2333</v>
+        <v>119</v>
       </c>
       <c r="Q496" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R496" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36141,20 +36141,20 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>590</v>
+        <v>160</v>
       </c>
       <c r="K497" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L497" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M497" t="n">
-        <v>3695</v>
+        <v>8000</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O497" t="inlineStr">
@@ -36163,10 +36163,10 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>103</v>
+        <v>2667</v>
       </c>
       <c r="Q497" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R497" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36209,20 +36209,20 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="K498" t="n">
         <v>7000</v>
       </c>
       <c r="L498" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M498" t="n">
-        <v>7448</v>
+        <v>7000</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>2483</v>
+        <v>2333</v>
       </c>
       <c r="Q498" t="n">
         <v>3</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>290</v>
+        <v>590</v>
       </c>
       <c r="K499" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L499" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M499" t="n">
-        <v>6000</v>
+        <v>3695</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="Q499" t="n">
         <v>36</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="K500" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L500" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M500" t="n">
-        <v>10000</v>
+        <v>7448</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36375,11 +36375,11 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P500" t="n">
-        <v>3333</v>
+        <v>2483</v>
       </c>
       <c r="Q500" t="n">
         <v>3</v>
@@ -36429,20 +36429,20 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="K501" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L501" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M501" t="n">
-        <v>9595</v>
+        <v>6000</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O501" t="inlineStr">
@@ -36451,10 +36451,10 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>3198</v>
+        <v>167</v>
       </c>
       <c r="Q501" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R501" t="inlineStr">
         <is>
@@ -36497,36 +36497,36 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K502" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L502" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M502" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P502" t="n">
-        <v>139</v>
+        <v>3333</v>
       </c>
       <c r="Q502" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R502" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36573,20 +36573,20 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>440</v>
+        <v>370</v>
       </c>
       <c r="K503" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L503" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M503" t="n">
-        <v>5784</v>
+        <v>9595</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
@@ -36595,10 +36595,10 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>161</v>
+        <v>3198</v>
       </c>
       <c r="Q503" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R503" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36641,24 +36641,24 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="K504" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L504" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M504" t="n">
-        <v>11564</v>
+        <v>5000</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O504" t="inlineStr">
@@ -36667,10 +36667,10 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>3855</v>
+        <v>139</v>
       </c>
       <c r="Q504" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R504" t="inlineStr">
         <is>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36717,16 +36717,16 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="K505" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L505" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M505" t="n">
-        <v>8318</v>
+        <v>5784</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="Q505" t="n">
         <v>36</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36789,16 +36789,16 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>430</v>
+        <v>275</v>
       </c>
       <c r="K506" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L506" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M506" t="n">
-        <v>14628</v>
+        <v>11564</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>4876</v>
+        <v>3855</v>
       </c>
       <c r="Q506" t="n">
         <v>3</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36861,16 +36861,16 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>560</v>
+        <v>220</v>
       </c>
       <c r="K507" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L507" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M507" t="n">
-        <v>11482</v>
+        <v>8318</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="Q507" t="n">
         <v>36</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36933,20 +36933,20 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="K508" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="L508" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M508" t="n">
-        <v>4711</v>
+        <v>14628</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
@@ -36955,10 +36955,10 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>131</v>
+        <v>4876</v>
       </c>
       <c r="Q508" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R508" t="inlineStr">
         <is>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -37005,20 +37005,20 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>320</v>
+        <v>560</v>
       </c>
       <c r="K509" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L509" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M509" t="n">
-        <v>8406</v>
+        <v>11482</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
@@ -37027,10 +37027,10 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>2802</v>
+        <v>319</v>
       </c>
       <c r="Q509" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R509" t="inlineStr">
         <is>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37077,16 +37077,16 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>530</v>
+        <v>450</v>
       </c>
       <c r="K510" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L510" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M510" t="n">
-        <v>4226</v>
+        <v>4711</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="Q510" t="n">
         <v>36</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37149,16 +37149,16 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="K511" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L511" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M511" t="n">
-        <v>7414</v>
+        <v>8406</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>2471</v>
+        <v>2802</v>
       </c>
       <c r="Q511" t="n">
         <v>3</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37221,16 +37221,16 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="K512" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L512" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M512" t="n">
-        <v>7202</v>
+        <v>4226</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="Q512" t="n">
         <v>36</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37293,16 +37293,16 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="K513" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L513" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M513" t="n">
-        <v>14417</v>
+        <v>7414</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>4806</v>
+        <v>2471</v>
       </c>
       <c r="Q513" t="n">
         <v>3</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>620</v>
+        <v>470</v>
       </c>
       <c r="K514" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L514" t="n">
         <v>7500</v>
       </c>
-      <c r="L514" t="n">
-        <v>8000</v>
-      </c>
       <c r="M514" t="n">
-        <v>7718</v>
+        <v>7202</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="Q514" t="n">
         <v>36</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37437,16 +37437,16 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="K515" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L515" t="n">
         <v>15000</v>
       </c>
-      <c r="L515" t="n">
-        <v>16000</v>
-      </c>
       <c r="M515" t="n">
-        <v>15422</v>
+        <v>14417</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>5141</v>
+        <v>4806</v>
       </c>
       <c r="Q515" t="n">
         <v>3</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37509,7 +37509,7 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>460</v>
+        <v>620</v>
       </c>
       <c r="K516" t="n">
         <v>7500</v>
@@ -37518,7 +37518,7 @@
         <v>8000</v>
       </c>
       <c r="M516" t="n">
-        <v>7707</v>
+        <v>7718</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="K517" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L517" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M517" t="n">
-        <v>14441</v>
+        <v>15422</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>4814</v>
+        <v>5141</v>
       </c>
       <c r="Q517" t="n">
         <v>3</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37653,16 +37653,16 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="K518" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L518" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M518" t="n">
-        <v>5644</v>
+        <v>7707</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="Q518" t="n">
         <v>36</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37725,16 +37725,16 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>660</v>
+        <v>340</v>
       </c>
       <c r="K519" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L519" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M519" t="n">
-        <v>11742</v>
+        <v>14441</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>3914</v>
+        <v>4814</v>
       </c>
       <c r="Q519" t="n">
         <v>3</v>
@@ -37793,20 +37793,20 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="K520" t="n">
         <v>5000</v>
       </c>
       <c r="L520" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M520" t="n">
-        <v>5000</v>
+        <v>5644</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q520" t="n">
         <v>36</v>
@@ -37865,20 +37865,20 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>160</v>
+        <v>660</v>
       </c>
       <c r="K521" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L521" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M521" t="n">
-        <v>10000</v>
+        <v>11742</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>3333</v>
+        <v>3914</v>
       </c>
       <c r="Q521" t="n">
         <v>3</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -37937,20 +37937,20 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>390</v>
+        <v>140</v>
       </c>
       <c r="K522" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L522" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M522" t="n">
-        <v>4295</v>
+        <v>5000</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="Q522" t="n">
         <v>36</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38009,24 +38009,24 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K523" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L523" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M523" t="n">
-        <v>7591</v>
+        <v>10000</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
-          <t>$/docena de paquetes</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O523" t="inlineStr">
@@ -38035,10 +38035,10 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>633</v>
+        <v>3333</v>
       </c>
       <c r="Q523" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R523" t="inlineStr">
         <is>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38085,16 +38085,16 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="K524" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L524" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M524" t="n">
-        <v>7793</v>
+        <v>4295</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="Q524" t="n">
         <v>36</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -38160,17 +38160,17 @@
         <v>220</v>
       </c>
       <c r="K525" t="n">
-        <v>1600</v>
+        <v>7000</v>
       </c>
       <c r="L525" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M525" t="n">
-        <v>7082</v>
+        <v>7591</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/docena de paquetes</t>
         </is>
       </c>
       <c r="O525" t="inlineStr">
@@ -38179,10 +38179,10 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>2361</v>
+        <v>633</v>
       </c>
       <c r="Q525" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="R525" t="inlineStr">
         <is>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38229,16 +38229,16 @@
         </is>
       </c>
       <c r="J526" t="n">
-        <v>600</v>
+        <v>410</v>
       </c>
       <c r="K526" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L526" t="n">
         <v>8000</v>
       </c>
       <c r="M526" t="n">
-        <v>7433</v>
+        <v>7793</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="Q526" t="n">
         <v>36</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -38301,16 +38301,16 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>420</v>
+        <v>220</v>
       </c>
       <c r="K527" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L527" t="n">
         <v>15000</v>
       </c>
-      <c r="L527" t="n">
-        <v>16000</v>
-      </c>
       <c r="M527" t="n">
-        <v>15571</v>
+        <v>7082</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>5190</v>
+        <v>2361</v>
       </c>
       <c r="Q527" t="n">
         <v>3</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38373,16 +38373,16 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K528" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L528" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M528" t="n">
-        <v>5721</v>
+        <v>7433</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="Q528" t="n">
         <v>36</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38445,16 +38445,16 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>210</v>
+        <v>420</v>
       </c>
       <c r="K529" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L529" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M529" t="n">
-        <v>12619</v>
+        <v>15571</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>4206</v>
+        <v>5190</v>
       </c>
       <c r="Q529" t="n">
         <v>3</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -38517,16 +38517,16 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>510</v>
+        <v>340</v>
       </c>
       <c r="K530" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L530" t="n">
         <v>6000</v>
       </c>
       <c r="M530" t="n">
-        <v>6000</v>
+        <v>5721</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Q530" t="n">
         <v>36</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -38589,7 +38589,7 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>590</v>
+        <v>210</v>
       </c>
       <c r="K531" t="n">
         <v>12000</v>
@@ -38598,7 +38598,7 @@
         <v>13000</v>
       </c>
       <c r="M531" t="n">
-        <v>12288</v>
+        <v>12619</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>4096</v>
+        <v>4206</v>
       </c>
       <c r="Q531" t="n">
         <v>3</v>
@@ -38657,20 +38657,20 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>220</v>
+        <v>510</v>
       </c>
       <c r="K532" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L532" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M532" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q532" t="n">
         <v>36</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>120</v>
+        <v>590</v>
       </c>
       <c r="K533" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L533" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M533" t="n">
-        <v>10000</v>
+        <v>12288</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>3333</v>
+        <v>4096</v>
       </c>
       <c r="Q533" t="n">
         <v>3</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -38801,20 +38801,20 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>540</v>
+        <v>220</v>
       </c>
       <c r="K534" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L534" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M534" t="n">
-        <v>4213</v>
+        <v>5000</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="Q534" t="n">
         <v>36</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -38873,20 +38873,20 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K535" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L535" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M535" t="n">
-        <v>8440</v>
+        <v>10000</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>2813</v>
+        <v>3333</v>
       </c>
       <c r="Q535" t="n">
         <v>3</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -38949,16 +38949,16 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="K536" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L536" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M536" t="n">
-        <v>7673</v>
+        <v>4213</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="Q536" t="n">
         <v>36</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -39021,16 +39021,16 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>590</v>
+        <v>250</v>
       </c>
       <c r="K537" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L537" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M537" t="n">
-        <v>14712</v>
+        <v>8440</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>4904</v>
+        <v>2813</v>
       </c>
       <c r="Q537" t="n">
         <v>3</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>180</v>
+        <v>490</v>
       </c>
       <c r="K538" t="n">
         <v>7000</v>
       </c>
       <c r="L538" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M538" t="n">
-        <v>7000</v>
+        <v>7673</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="Q538" t="n">
         <v>36</v>
@@ -39161,20 +39161,20 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>130</v>
+        <v>590</v>
       </c>
       <c r="K539" t="n">
         <v>14000</v>
       </c>
       <c r="L539" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M539" t="n">
-        <v>14000</v>
+        <v>14712</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>4667</v>
+        <v>4904</v>
       </c>
       <c r="Q539" t="n">
         <v>3</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -39233,20 +39233,20 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>480</v>
+        <v>180</v>
       </c>
       <c r="K540" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L540" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M540" t="n">
-        <v>5781</v>
+        <v>7000</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q540" t="n">
         <v>36</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="K541" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L541" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M541" t="n">
-        <v>9824</v>
+        <v>14000</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>3275</v>
+        <v>4667</v>
       </c>
       <c r="Q541" t="n">
         <v>3</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -39381,16 +39381,16 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="K542" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L542" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M542" t="n">
-        <v>7795</v>
+        <v>5781</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="Q542" t="n">
         <v>36</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -39453,16 +39453,16 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>450</v>
+        <v>170</v>
       </c>
       <c r="K543" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L543" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M543" t="n">
-        <v>17422</v>
+        <v>9824</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>5807</v>
+        <v>3275</v>
       </c>
       <c r="Q543" t="n">
         <v>3</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -39525,16 +39525,16 @@
         </is>
       </c>
       <c r="J544" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="K544" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L544" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M544" t="n">
-        <v>4789</v>
+        <v>7795</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="Q544" t="n">
         <v>36</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -39597,16 +39597,16 @@
         </is>
       </c>
       <c r="J545" t="n">
-        <v>260</v>
+        <v>450</v>
       </c>
       <c r="K545" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L545" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M545" t="n">
-        <v>7577</v>
+        <v>17422</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>2526</v>
+        <v>5807</v>
       </c>
       <c r="Q545" t="n">
         <v>3</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -39669,7 +39669,7 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="K546" t="n">
         <v>4500</v>
@@ -39678,7 +39678,7 @@
         <v>5000</v>
       </c>
       <c r="M546" t="n">
-        <v>4721</v>
+        <v>4789</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q546" t="n">
         <v>36</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -39741,7 +39741,7 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="K547" t="n">
         <v>7000</v>
@@ -39750,7 +39750,7 @@
         <v>8000</v>
       </c>
       <c r="M547" t="n">
-        <v>7556</v>
+        <v>7577</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>2519</v>
+        <v>2526</v>
       </c>
       <c r="Q547" t="n">
         <v>3</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -39813,16 +39813,16 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>590</v>
+        <v>430</v>
       </c>
       <c r="K548" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L548" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M548" t="n">
-        <v>7686</v>
+        <v>4721</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="Q548" t="n">
         <v>36</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -39885,16 +39885,16 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="K549" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L549" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M549" t="n">
-        <v>15357</v>
+        <v>7556</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,12 +39907,156 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>5119</v>
+        <v>2519</v>
       </c>
       <c r="Q549" t="n">
         <v>3</v>
       </c>
       <c r="R549" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>6</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D550" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E550" t="n">
+        <v>13</v>
+      </c>
+      <c r="F550" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I550" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J550" t="n">
+        <v>590</v>
+      </c>
+      <c r="K550" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L550" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M550" t="n">
+        <v>7686</v>
+      </c>
+      <c r="N550" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O550" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P550" t="n">
+        <v>214</v>
+      </c>
+      <c r="Q550" t="n">
+        <v>36</v>
+      </c>
+      <c r="R550" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>6</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D551" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E551" t="n">
+        <v>13</v>
+      </c>
+      <c r="F551" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I551" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J551" t="n">
+        <v>420</v>
+      </c>
+      <c r="K551" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L551" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M551" t="n">
+        <v>15357</v>
+      </c>
+      <c r="N551" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O551" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P551" t="n">
+        <v>5119</v>
+      </c>
+      <c r="Q551" t="n">
+        <v>3</v>
+      </c>
+      <c r="R551" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R553"/>
+  <dimension ref="A1:R555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>230</v>
+        <v>680</v>
       </c>
       <c r="K490" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L490" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M490" t="n">
-        <v>5652</v>
+        <v>4235</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="Q490" t="n">
         <v>36</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="K491" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L491" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M491" t="n">
-        <v>9657</v>
+        <v>7202</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>3219</v>
+        <v>2401</v>
       </c>
       <c r="Q491" t="n">
         <v>3</v>
@@ -35777,20 +35777,20 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="K492" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L492" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M492" t="n">
-        <v>4000</v>
+        <v>5652</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="Q492" t="n">
         <v>36</v>
@@ -35849,20 +35849,20 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="K493" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L493" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M493" t="n">
-        <v>7000</v>
+        <v>9657</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>2333</v>
+        <v>3219</v>
       </c>
       <c r="Q493" t="n">
         <v>3</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35921,20 +35921,20 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="K494" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L494" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M494" t="n">
-        <v>4725</v>
+        <v>4000</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="Q494" t="n">
         <v>36</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="K495" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L495" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M495" t="n">
-        <v>8406</v>
+        <v>7000</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>2802</v>
+        <v>2333</v>
       </c>
       <c r="Q495" t="n">
         <v>3</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="K496" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L496" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M496" t="n">
-        <v>4266</v>
+        <v>4725</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="Q496" t="n">
         <v>36</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="K497" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L497" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M497" t="n">
-        <v>7198</v>
+        <v>8406</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>2399</v>
+        <v>2802</v>
       </c>
       <c r="Q497" t="n">
         <v>3</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36213,7 +36213,7 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>480</v>
+        <v>620</v>
       </c>
       <c r="K498" t="n">
         <v>4000</v>
@@ -36222,7 +36222,7 @@
         <v>4500</v>
       </c>
       <c r="M498" t="n">
-        <v>4271</v>
+        <v>4266</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q498" t="n">
         <v>36</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K499" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L499" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M499" t="n">
-        <v>8000</v>
+        <v>7198</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>2667</v>
+        <v>2399</v>
       </c>
       <c r="Q499" t="n">
         <v>3</v>
@@ -36353,24 +36353,24 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="K500" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L500" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M500" t="n">
-        <v>7000</v>
+        <v>4271</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
@@ -36379,10 +36379,10 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>2333</v>
+        <v>119</v>
       </c>
       <c r="Q500" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R500" t="inlineStr">
         <is>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36429,20 +36429,20 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>590</v>
+        <v>160</v>
       </c>
       <c r="K501" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L501" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M501" t="n">
-        <v>3695</v>
+        <v>8000</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O501" t="inlineStr">
@@ -36451,10 +36451,10 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>103</v>
+        <v>2667</v>
       </c>
       <c r="Q501" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R501" t="inlineStr">
         <is>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="K502" t="n">
         <v>7000</v>
       </c>
       <c r="L502" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M502" t="n">
-        <v>7448</v>
+        <v>7000</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>2483</v>
+        <v>2333</v>
       </c>
       <c r="Q502" t="n">
         <v>3</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36573,16 +36573,16 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>290</v>
+        <v>590</v>
       </c>
       <c r="K503" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L503" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M503" t="n">
-        <v>6000</v>
+        <v>3695</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="Q503" t="n">
         <v>36</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36645,16 +36645,16 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="K504" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L504" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M504" t="n">
-        <v>10000</v>
+        <v>7448</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36663,11 +36663,11 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P504" t="n">
-        <v>3333</v>
+        <v>2483</v>
       </c>
       <c r="Q504" t="n">
         <v>3</v>
@@ -36717,20 +36717,20 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="K505" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L505" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M505" t="n">
-        <v>9595</v>
+        <v>6000</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O505" t="inlineStr">
@@ -36739,10 +36739,10 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>3198</v>
+        <v>167</v>
       </c>
       <c r="Q505" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R505" t="inlineStr">
         <is>
@@ -36785,36 +36785,36 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K506" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L506" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M506" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P506" t="n">
-        <v>139</v>
+        <v>3333</v>
       </c>
       <c r="Q506" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R506" t="inlineStr">
         <is>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36861,20 +36861,20 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>440</v>
+        <v>370</v>
       </c>
       <c r="K507" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L507" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M507" t="n">
-        <v>5784</v>
+        <v>9595</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O507" t="inlineStr">
@@ -36883,10 +36883,10 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>161</v>
+        <v>3198</v>
       </c>
       <c r="Q507" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R507" t="inlineStr">
         <is>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36929,24 +36929,24 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="K508" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L508" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M508" t="n">
-        <v>11564</v>
+        <v>5000</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
@@ -36955,10 +36955,10 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>3855</v>
+        <v>139</v>
       </c>
       <c r="Q508" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R508" t="inlineStr">
         <is>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -37005,16 +37005,16 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="K509" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L509" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M509" t="n">
-        <v>8318</v>
+        <v>5784</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="Q509" t="n">
         <v>36</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37077,16 +37077,16 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>430</v>
+        <v>275</v>
       </c>
       <c r="K510" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L510" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M510" t="n">
-        <v>14628</v>
+        <v>11564</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>4876</v>
+        <v>3855</v>
       </c>
       <c r="Q510" t="n">
         <v>3</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37149,16 +37149,16 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>560</v>
+        <v>220</v>
       </c>
       <c r="K511" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L511" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M511" t="n">
-        <v>11482</v>
+        <v>8318</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="Q511" t="n">
         <v>36</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37221,20 +37221,20 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="K512" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="L512" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M512" t="n">
-        <v>4711</v>
+        <v>14628</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O512" t="inlineStr">
@@ -37243,10 +37243,10 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>131</v>
+        <v>4876</v>
       </c>
       <c r="Q512" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R512" t="inlineStr">
         <is>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37293,20 +37293,20 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>320</v>
+        <v>560</v>
       </c>
       <c r="K513" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L513" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M513" t="n">
-        <v>8406</v>
+        <v>11482</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O513" t="inlineStr">
@@ -37315,10 +37315,10 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>2802</v>
+        <v>319</v>
       </c>
       <c r="Q513" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R513" t="inlineStr">
         <is>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>530</v>
+        <v>450</v>
       </c>
       <c r="K514" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L514" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M514" t="n">
-        <v>4226</v>
+        <v>4711</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="Q514" t="n">
         <v>36</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37437,16 +37437,16 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="K515" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L515" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M515" t="n">
-        <v>7414</v>
+        <v>8406</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>2471</v>
+        <v>2802</v>
       </c>
       <c r="Q515" t="n">
         <v>3</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37509,16 +37509,16 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="K516" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L516" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M516" t="n">
-        <v>7202</v>
+        <v>4226</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="Q516" t="n">
         <v>36</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="K517" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L517" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M517" t="n">
-        <v>14417</v>
+        <v>7414</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>4806</v>
+        <v>2471</v>
       </c>
       <c r="Q517" t="n">
         <v>3</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37653,16 +37653,16 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>620</v>
+        <v>470</v>
       </c>
       <c r="K518" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L518" t="n">
         <v>7500</v>
       </c>
-      <c r="L518" t="n">
-        <v>8000</v>
-      </c>
       <c r="M518" t="n">
-        <v>7718</v>
+        <v>7202</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="Q518" t="n">
         <v>36</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37725,16 +37725,16 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="K519" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L519" t="n">
         <v>15000</v>
       </c>
-      <c r="L519" t="n">
-        <v>16000</v>
-      </c>
       <c r="M519" t="n">
-        <v>15422</v>
+        <v>14417</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>5141</v>
+        <v>4806</v>
       </c>
       <c r="Q519" t="n">
         <v>3</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -37797,7 +37797,7 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>460</v>
+        <v>620</v>
       </c>
       <c r="K520" t="n">
         <v>7500</v>
@@ -37806,7 +37806,7 @@
         <v>8000</v>
       </c>
       <c r="M520" t="n">
-        <v>7707</v>
+        <v>7718</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -37869,16 +37869,16 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="K521" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L521" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M521" t="n">
-        <v>14441</v>
+        <v>15422</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>4814</v>
+        <v>5141</v>
       </c>
       <c r="Q521" t="n">
         <v>3</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -37941,16 +37941,16 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="K522" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L522" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M522" t="n">
-        <v>5644</v>
+        <v>7707</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="Q522" t="n">
         <v>36</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38013,16 +38013,16 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>660</v>
+        <v>340</v>
       </c>
       <c r="K523" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L523" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M523" t="n">
-        <v>11742</v>
+        <v>14441</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>3914</v>
+        <v>4814</v>
       </c>
       <c r="Q523" t="n">
         <v>3</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="K524" t="n">
         <v>5000</v>
       </c>
       <c r="L524" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M524" t="n">
-        <v>5000</v>
+        <v>5644</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q524" t="n">
         <v>36</v>
@@ -38153,20 +38153,20 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>160</v>
+        <v>660</v>
       </c>
       <c r="K525" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L525" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M525" t="n">
-        <v>10000</v>
+        <v>11742</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>3333</v>
+        <v>3914</v>
       </c>
       <c r="Q525" t="n">
         <v>3</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38225,20 +38225,20 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>390</v>
+        <v>140</v>
       </c>
       <c r="K526" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L526" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M526" t="n">
-        <v>4295</v>
+        <v>5000</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="Q526" t="n">
         <v>36</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -38297,24 +38297,24 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K527" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L527" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M527" t="n">
-        <v>7591</v>
+        <v>10000</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
-          <t>$/docena de paquetes</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
@@ -38323,10 +38323,10 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>633</v>
+        <v>3333</v>
       </c>
       <c r="Q527" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R527" t="inlineStr">
         <is>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38373,16 +38373,16 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="K528" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L528" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M528" t="n">
-        <v>7793</v>
+        <v>4295</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="Q528" t="n">
         <v>36</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38448,17 +38448,17 @@
         <v>220</v>
       </c>
       <c r="K529" t="n">
-        <v>1600</v>
+        <v>7000</v>
       </c>
       <c r="L529" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M529" t="n">
-        <v>7082</v>
+        <v>7591</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/docena de paquetes</t>
         </is>
       </c>
       <c r="O529" t="inlineStr">
@@ -38467,10 +38467,10 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>2361</v>
+        <v>633</v>
       </c>
       <c r="Q529" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="R529" t="inlineStr">
         <is>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -38517,16 +38517,16 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>600</v>
+        <v>410</v>
       </c>
       <c r="K530" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L530" t="n">
         <v>8000</v>
       </c>
       <c r="M530" t="n">
-        <v>7433</v>
+        <v>7793</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="Q530" t="n">
         <v>36</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -38589,16 +38589,16 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>420</v>
+        <v>220</v>
       </c>
       <c r="K531" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L531" t="n">
         <v>15000</v>
       </c>
-      <c r="L531" t="n">
-        <v>16000</v>
-      </c>
       <c r="M531" t="n">
-        <v>15571</v>
+        <v>7082</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>5190</v>
+        <v>2361</v>
       </c>
       <c r="Q531" t="n">
         <v>3</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -38661,16 +38661,16 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K532" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L532" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M532" t="n">
-        <v>5721</v>
+        <v>7433</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="Q532" t="n">
         <v>36</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -38733,16 +38733,16 @@
         </is>
       </c>
       <c r="J533" t="n">
-        <v>210</v>
+        <v>420</v>
       </c>
       <c r="K533" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L533" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M533" t="n">
-        <v>12619</v>
+        <v>15571</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>4206</v>
+        <v>5190</v>
       </c>
       <c r="Q533" t="n">
         <v>3</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -38805,16 +38805,16 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>510</v>
+        <v>340</v>
       </c>
       <c r="K534" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L534" t="n">
         <v>6000</v>
       </c>
       <c r="M534" t="n">
-        <v>6000</v>
+        <v>5721</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Q534" t="n">
         <v>36</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -38877,7 +38877,7 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>590</v>
+        <v>210</v>
       </c>
       <c r="K535" t="n">
         <v>12000</v>
@@ -38886,7 +38886,7 @@
         <v>13000</v>
       </c>
       <c r="M535" t="n">
-        <v>12288</v>
+        <v>12619</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>4096</v>
+        <v>4206</v>
       </c>
       <c r="Q535" t="n">
         <v>3</v>
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>220</v>
+        <v>510</v>
       </c>
       <c r="K536" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L536" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M536" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q536" t="n">
         <v>36</v>
@@ -39017,20 +39017,20 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>120</v>
+        <v>590</v>
       </c>
       <c r="K537" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L537" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M537" t="n">
-        <v>10000</v>
+        <v>12288</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>3333</v>
+        <v>4096</v>
       </c>
       <c r="Q537" t="n">
         <v>3</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>540</v>
+        <v>220</v>
       </c>
       <c r="K538" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L538" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M538" t="n">
-        <v>4213</v>
+        <v>5000</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="Q538" t="n">
         <v>36</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -39161,20 +39161,20 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K539" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L539" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M539" t="n">
-        <v>8440</v>
+        <v>10000</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>2813</v>
+        <v>3333</v>
       </c>
       <c r="Q539" t="n">
         <v>3</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -39237,16 +39237,16 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="K540" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L540" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M540" t="n">
-        <v>7673</v>
+        <v>4213</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="Q540" t="n">
         <v>36</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -39309,16 +39309,16 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>590</v>
+        <v>250</v>
       </c>
       <c r="K541" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L541" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M541" t="n">
-        <v>14712</v>
+        <v>8440</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>4904</v>
+        <v>2813</v>
       </c>
       <c r="Q541" t="n">
         <v>3</v>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>180</v>
+        <v>490</v>
       </c>
       <c r="K542" t="n">
         <v>7000</v>
       </c>
       <c r="L542" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M542" t="n">
-        <v>7000</v>
+        <v>7673</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="Q542" t="n">
         <v>36</v>
@@ -39449,20 +39449,20 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>130</v>
+        <v>590</v>
       </c>
       <c r="K543" t="n">
         <v>14000</v>
       </c>
       <c r="L543" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M543" t="n">
-        <v>14000</v>
+        <v>14712</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>4667</v>
+        <v>4904</v>
       </c>
       <c r="Q543" t="n">
         <v>3</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>480</v>
+        <v>180</v>
       </c>
       <c r="K544" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L544" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M544" t="n">
-        <v>5781</v>
+        <v>7000</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q544" t="n">
         <v>36</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -39593,20 +39593,20 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="K545" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L545" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M545" t="n">
-        <v>9824</v>
+        <v>14000</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>3275</v>
+        <v>4667</v>
       </c>
       <c r="Q545" t="n">
         <v>3</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -39669,16 +39669,16 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="K546" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L546" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M546" t="n">
-        <v>7795</v>
+        <v>5781</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="Q546" t="n">
         <v>36</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -39741,16 +39741,16 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>450</v>
+        <v>170</v>
       </c>
       <c r="K547" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L547" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M547" t="n">
-        <v>17422</v>
+        <v>9824</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>5807</v>
+        <v>3275</v>
       </c>
       <c r="Q547" t="n">
         <v>3</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -39813,16 +39813,16 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="K548" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L548" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M548" t="n">
-        <v>4789</v>
+        <v>7795</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="Q548" t="n">
         <v>36</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -39885,16 +39885,16 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>260</v>
+        <v>450</v>
       </c>
       <c r="K549" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L549" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M549" t="n">
-        <v>7577</v>
+        <v>17422</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>2526</v>
+        <v>5807</v>
       </c>
       <c r="Q549" t="n">
         <v>3</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -39957,7 +39957,7 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="K550" t="n">
         <v>4500</v>
@@ -39966,7 +39966,7 @@
         <v>5000</v>
       </c>
       <c r="M550" t="n">
-        <v>4721</v>
+        <v>4789</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q550" t="n">
         <v>36</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -40029,7 +40029,7 @@
         </is>
       </c>
       <c r="J551" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="K551" t="n">
         <v>7000</v>
@@ -40038,7 +40038,7 @@
         <v>8000</v>
       </c>
       <c r="M551" t="n">
-        <v>7556</v>
+        <v>7577</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>2519</v>
+        <v>2526</v>
       </c>
       <c r="Q551" t="n">
         <v>3</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -40101,16 +40101,16 @@
         </is>
       </c>
       <c r="J552" t="n">
-        <v>590</v>
+        <v>430</v>
       </c>
       <c r="K552" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L552" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M552" t="n">
-        <v>7686</v>
+        <v>4721</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="Q552" t="n">
         <v>36</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -40173,16 +40173,16 @@
         </is>
       </c>
       <c r="J553" t="n">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="K553" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L553" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M553" t="n">
-        <v>15357</v>
+        <v>7556</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,12 +40195,156 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>5119</v>
+        <v>2519</v>
       </c>
       <c r="Q553" t="n">
         <v>3</v>
       </c>
       <c r="R553" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>6</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D554" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E554" t="n">
+        <v>13</v>
+      </c>
+      <c r="F554" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I554" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J554" t="n">
+        <v>590</v>
+      </c>
+      <c r="K554" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L554" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M554" t="n">
+        <v>7686</v>
+      </c>
+      <c r="N554" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O554" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P554" t="n">
+        <v>214</v>
+      </c>
+      <c r="Q554" t="n">
+        <v>36</v>
+      </c>
+      <c r="R554" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>6</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D555" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E555" t="n">
+        <v>13</v>
+      </c>
+      <c r="F555" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I555" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J555" t="n">
+        <v>420</v>
+      </c>
+      <c r="K555" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L555" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M555" t="n">
+        <v>15357</v>
+      </c>
+      <c r="N555" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O555" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P555" t="n">
+        <v>5119</v>
+      </c>
+      <c r="Q555" t="n">
+        <v>3</v>
+      </c>
+      <c r="R555" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R570"/>
+  <dimension ref="A1:R572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>650</v>
+        <v>930</v>
       </c>
       <c r="K484" t="n">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="L484" t="n">
         <v>4000</v>
       </c>
       <c r="M484" t="n">
-        <v>3825</v>
+        <v>3737</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q484" t="n">
         <v>36</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35277,7 +35277,7 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="K485" t="n">
         <v>7000</v>
@@ -35286,7 +35286,7 @@
         <v>7500</v>
       </c>
       <c r="M485" t="n">
-        <v>7224</v>
+        <v>7284</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>2408</v>
+        <v>2428</v>
       </c>
       <c r="Q485" t="n">
         <v>3</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>520</v>
+        <v>650</v>
       </c>
       <c r="K488" t="n">
-        <v>6500</v>
+        <v>3700</v>
       </c>
       <c r="L488" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M488" t="n">
-        <v>6740</v>
+        <v>3825</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="Q488" t="n">
         <v>36</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>390</v>
+        <v>490</v>
       </c>
       <c r="K489" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="L489" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="M489" t="n">
-        <v>13769</v>
+        <v>7224</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>4590</v>
+        <v>2408</v>
       </c>
       <c r="Q489" t="n">
         <v>3</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="K490" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L490" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M490" t="n">
-        <v>5776</v>
+        <v>6740</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="Q490" t="n">
         <v>36</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="K491" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="L491" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M491" t="n">
-        <v>12429</v>
+        <v>13769</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>4143</v>
+        <v>4590</v>
       </c>
       <c r="Q491" t="n">
         <v>3</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="K492" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L492" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M492" t="n">
-        <v>4216</v>
+        <v>5776</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="Q492" t="n">
         <v>36</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="K493" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L493" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M493" t="n">
-        <v>7395</v>
+        <v>12429</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>2465</v>
+        <v>4143</v>
       </c>
       <c r="Q493" t="n">
         <v>3</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="K494" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L494" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M494" t="n">
-        <v>7718</v>
+        <v>4216</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="Q494" t="n">
         <v>36</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35997,16 +35997,16 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="K495" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L495" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M495" t="n">
-        <v>15422</v>
+        <v>7395</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>5141</v>
+        <v>2465</v>
       </c>
       <c r="Q495" t="n">
         <v>3</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="K496" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L496" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M496" t="n">
-        <v>4203</v>
+        <v>7718</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>117</v>
+        <v>214</v>
       </c>
       <c r="Q496" t="n">
         <v>36</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="K497" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L497" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="M497" t="n">
-        <v>7289</v>
+        <v>15422</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>2430</v>
+        <v>5141</v>
       </c>
       <c r="Q497" t="n">
         <v>3</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36213,7 +36213,7 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>520</v>
+        <v>640</v>
       </c>
       <c r="K498" t="n">
         <v>4000</v>
@@ -36222,7 +36222,7 @@
         <v>4500</v>
       </c>
       <c r="M498" t="n">
-        <v>4212</v>
+        <v>4203</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36285,7 +36285,7 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="K499" t="n">
         <v>7000</v>
@@ -36294,7 +36294,7 @@
         <v>7500</v>
       </c>
       <c r="M499" t="n">
-        <v>7197</v>
+        <v>7289</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>2399</v>
+        <v>2430</v>
       </c>
       <c r="Q499" t="n">
         <v>3</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>640</v>
+        <v>520</v>
       </c>
       <c r="K500" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L500" t="n">
         <v>4500</v>
       </c>
-      <c r="L500" t="n">
-        <v>5000</v>
-      </c>
       <c r="M500" t="n">
-        <v>4703</v>
+        <v>4212</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Q500" t="n">
         <v>36</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>460</v>
+        <v>330</v>
       </c>
       <c r="K501" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L501" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M501" t="n">
-        <v>8413</v>
+        <v>7197</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>2804</v>
+        <v>2399</v>
       </c>
       <c r="Q501" t="n">
         <v>3</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36501,16 +36501,16 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>450</v>
+        <v>640</v>
       </c>
       <c r="K502" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L502" t="n">
         <v>5000</v>
       </c>
-      <c r="L502" t="n">
-        <v>6000</v>
-      </c>
       <c r="M502" t="n">
-        <v>5622</v>
+        <v>4703</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="Q502" t="n">
         <v>36</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36573,16 +36573,16 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>620</v>
+        <v>460</v>
       </c>
       <c r="K503" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L503" t="n">
         <v>9000</v>
       </c>
-      <c r="L503" t="n">
-        <v>10000</v>
-      </c>
       <c r="M503" t="n">
-        <v>9282</v>
+        <v>8413</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>3094</v>
+        <v>2804</v>
       </c>
       <c r="Q503" t="n">
         <v>3</v>
@@ -36641,20 +36641,20 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="K504" t="n">
         <v>5000</v>
       </c>
       <c r="L504" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M504" t="n">
-        <v>5000</v>
+        <v>5622</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="Q504" t="n">
         <v>36</v>
@@ -36713,20 +36713,20 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>150</v>
+        <v>620</v>
       </c>
       <c r="K505" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L505" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M505" t="n">
-        <v>8000</v>
+        <v>9282</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>2667</v>
+        <v>3094</v>
       </c>
       <c r="Q505" t="n">
         <v>3</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36785,11 +36785,11 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="K506" t="n">
         <v>5000</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36857,11 +36857,11 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>370</v>
+        <v>150</v>
       </c>
       <c r="K507" t="n">
         <v>8000</v>
@@ -36929,20 +36929,20 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="K508" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L508" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M508" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q508" t="n">
         <v>36</v>
@@ -37001,20 +37001,20 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>220</v>
+        <v>370</v>
       </c>
       <c r="K509" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L509" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M509" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>2333</v>
+        <v>2667</v>
       </c>
       <c r="Q509" t="n">
         <v>3</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37073,20 +37073,20 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>470</v>
+        <v>220</v>
       </c>
       <c r="K510" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L510" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M510" t="n">
-        <v>7202</v>
+        <v>4000</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="Q510" t="n">
         <v>36</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37145,20 +37145,20 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="K511" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L511" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M511" t="n">
-        <v>14417</v>
+        <v>7000</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>4806</v>
+        <v>2333</v>
       </c>
       <c r="Q511" t="n">
         <v>3</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37221,16 +37221,16 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="K512" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L512" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M512" t="n">
-        <v>5781</v>
+        <v>7202</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="Q512" t="n">
         <v>36</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37293,16 +37293,16 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="K513" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L513" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M513" t="n">
-        <v>9824</v>
+        <v>14417</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>3275</v>
+        <v>4806</v>
       </c>
       <c r="Q513" t="n">
         <v>3</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>530</v>
+        <v>480</v>
       </c>
       <c r="K514" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L514" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M514" t="n">
-        <v>4226</v>
+        <v>5781</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="Q514" t="n">
         <v>36</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37437,16 +37437,16 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="K515" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L515" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M515" t="n">
-        <v>7464</v>
+        <v>9824</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>2488</v>
+        <v>3275</v>
       </c>
       <c r="Q515" t="n">
         <v>3</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37509,16 +37509,16 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>330</v>
+        <v>530</v>
       </c>
       <c r="K516" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L516" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M516" t="n">
-        <v>10000</v>
+        <v>4226</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>278</v>
+        <v>117</v>
       </c>
       <c r="Q516" t="n">
         <v>36</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="K517" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="L517" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="M517" t="n">
-        <v>21062</v>
+        <v>7464</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>7021</v>
+        <v>2488</v>
       </c>
       <c r="Q517" t="n">
         <v>3</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37653,16 +37653,16 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>650</v>
+        <v>330</v>
       </c>
       <c r="K518" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L518" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M518" t="n">
-        <v>4223</v>
+        <v>10000</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>117</v>
+        <v>278</v>
       </c>
       <c r="Q518" t="n">
         <v>36</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37725,16 +37725,16 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="K519" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="L519" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="M519" t="n">
-        <v>7731</v>
+        <v>21062</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>2577</v>
+        <v>7021</v>
       </c>
       <c r="Q519" t="n">
         <v>3</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -37797,16 +37797,16 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="K520" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L520" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M520" t="n">
-        <v>5700</v>
+        <v>4223</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="Q520" t="n">
         <v>36</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -37869,16 +37869,16 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="K521" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L521" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M521" t="n">
-        <v>10532</v>
+        <v>7731</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>3511</v>
+        <v>2577</v>
       </c>
       <c r="Q521" t="n">
         <v>3</v>
@@ -37937,20 +37937,20 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="K522" t="n">
         <v>5000</v>
       </c>
       <c r="L522" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M522" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="Q522" t="n">
         <v>36</v>
@@ -38009,20 +38009,20 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>140</v>
+        <v>470</v>
       </c>
       <c r="K523" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L523" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M523" t="n">
-        <v>8000</v>
+        <v>10532</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>2667</v>
+        <v>3511</v>
       </c>
       <c r="Q523" t="n">
         <v>3</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>410</v>
+        <v>140</v>
       </c>
       <c r="K524" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L524" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M524" t="n">
-        <v>5732</v>
+        <v>5000</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="Q524" t="n">
         <v>36</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -38153,20 +38153,20 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>410</v>
+        <v>140</v>
       </c>
       <c r="K525" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L525" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M525" t="n">
-        <v>8683</v>
+        <v>8000</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>2894</v>
+        <v>2667</v>
       </c>
       <c r="Q525" t="n">
         <v>3</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38229,16 +38229,16 @@
         </is>
       </c>
       <c r="J526" t="n">
-        <v>620</v>
+        <v>410</v>
       </c>
       <c r="K526" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L526" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M526" t="n">
-        <v>4234</v>
+        <v>5732</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="Q526" t="n">
         <v>36</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -38301,16 +38301,16 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="K527" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L527" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M527" t="n">
-        <v>7205</v>
+        <v>8683</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>2402</v>
+        <v>2894</v>
       </c>
       <c r="Q527" t="n">
         <v>3</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38373,16 +38373,16 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>230</v>
+        <v>620</v>
       </c>
       <c r="K528" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L528" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M528" t="n">
-        <v>5000</v>
+        <v>4234</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="Q528" t="n">
         <v>36</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38445,16 +38445,16 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="K529" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L529" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M529" t="n">
-        <v>9423</v>
+        <v>7205</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>3141</v>
+        <v>2402</v>
       </c>
       <c r="Q529" t="n">
         <v>3</v>
@@ -38517,32 +38517,32 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="K530" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L530" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M530" t="n">
-        <v>15385</v>
+        <v>5000</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P530" t="n">
-        <v>5128</v>
+        <v>139</v>
       </c>
       <c r="Q530" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R530" t="inlineStr">
         <is>
@@ -38585,24 +38585,24 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="K531" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L531" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M531" t="n">
-        <v>4500</v>
+        <v>9423</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O531" t="inlineStr">
@@ -38611,10 +38611,10 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>125</v>
+        <v>3141</v>
       </c>
       <c r="Q531" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R531" t="inlineStr">
         <is>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -38661,32 +38661,32 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>480</v>
+        <v>130</v>
       </c>
       <c r="K532" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L532" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="M532" t="n">
-        <v>4271</v>
+        <v>15385</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>119</v>
+        <v>5128</v>
       </c>
       <c r="Q532" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R532" t="inlineStr">
         <is>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -38729,24 +38729,24 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="K533" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L533" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M533" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O533" t="inlineStr">
@@ -38755,10 +38755,10 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>2667</v>
+        <v>125</v>
       </c>
       <c r="Q533" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R533" t="inlineStr">
         <is>
@@ -38801,24 +38801,24 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="K534" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L534" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M534" t="n">
-        <v>7000</v>
+        <v>4271</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O534" t="inlineStr">
@@ -38827,10 +38827,10 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>2333</v>
+        <v>119</v>
       </c>
       <c r="Q534" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R534" t="inlineStr">
         <is>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -38877,20 +38877,20 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>510</v>
+        <v>160</v>
       </c>
       <c r="K535" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L535" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M535" t="n">
-        <v>4725</v>
+        <v>8000</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O535" t="inlineStr">
@@ -38899,10 +38899,10 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>131</v>
+        <v>2667</v>
       </c>
       <c r="Q535" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R535" t="inlineStr">
         <is>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="K536" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L536" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M536" t="n">
-        <v>8406</v>
+        <v>7000</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>2802</v>
+        <v>2333</v>
       </c>
       <c r="Q536" t="n">
         <v>3</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -39021,7 +39021,7 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>780</v>
+        <v>510</v>
       </c>
       <c r="K537" t="n">
         <v>4500</v>
@@ -39030,7 +39030,7 @@
         <v>5000</v>
       </c>
       <c r="M537" t="n">
-        <v>4712</v>
+        <v>4725</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -39093,16 +39093,16 @@
         </is>
       </c>
       <c r="J538" t="n">
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="K538" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L538" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M538" t="n">
-        <v>7712</v>
+        <v>8406</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>2571</v>
+        <v>2802</v>
       </c>
       <c r="Q538" t="n">
         <v>3</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -39165,16 +39165,16 @@
         </is>
       </c>
       <c r="J539" t="n">
-        <v>410</v>
+        <v>780</v>
       </c>
       <c r="K539" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L539" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M539" t="n">
-        <v>7793</v>
+        <v>4712</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="Q539" t="n">
         <v>36</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -39237,16 +39237,16 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>220</v>
+        <v>520</v>
       </c>
       <c r="K540" t="n">
-        <v>1600</v>
+        <v>7500</v>
       </c>
       <c r="L540" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M540" t="n">
-        <v>7082</v>
+        <v>7712</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>2361</v>
+        <v>2571</v>
       </c>
       <c r="Q540" t="n">
         <v>3</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -39309,16 +39309,16 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>580</v>
+        <v>410</v>
       </c>
       <c r="K541" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L541" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M541" t="n">
-        <v>4733</v>
+        <v>7793</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="Q541" t="n">
         <v>36</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -39384,13 +39384,13 @@
         <v>220</v>
       </c>
       <c r="K542" t="n">
-        <v>9000</v>
+        <v>1600</v>
       </c>
       <c r="L542" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M542" t="n">
-        <v>9591</v>
+        <v>7082</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>3197</v>
+        <v>2361</v>
       </c>
       <c r="Q542" t="n">
         <v>3</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -39453,16 +39453,16 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="K543" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L543" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M543" t="n">
-        <v>6000</v>
+        <v>4733</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39471,11 +39471,11 @@
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P543" t="n">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="Q543" t="n">
         <v>36</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -39525,20 +39525,20 @@
         </is>
       </c>
       <c r="J544" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="K544" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L544" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M544" t="n">
-        <v>6000</v>
+        <v>9591</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O544" t="inlineStr">
@@ -39547,10 +39547,10 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>167</v>
+        <v>3197</v>
       </c>
       <c r="Q544" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R544" t="inlineStr">
         <is>
@@ -39597,20 +39597,20 @@
         </is>
       </c>
       <c r="J545" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K545" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L545" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M545" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O545" t="inlineStr">
@@ -39619,10 +39619,10 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q545" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R545" t="inlineStr">
         <is>
@@ -39669,20 +39669,20 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="K546" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L546" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M546" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O546" t="inlineStr">
@@ -39691,10 +39691,10 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q546" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R546" t="inlineStr">
         <is>
@@ -39737,24 +39737,24 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K547" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L547" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M547" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O547" t="inlineStr">
@@ -39763,10 +39763,10 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>139</v>
+        <v>4000</v>
       </c>
       <c r="Q547" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R547" t="inlineStr">
         <is>
@@ -39809,24 +39809,24 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="K548" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L548" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M548" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
@@ -39835,10 +39835,10 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>139</v>
+        <v>4000</v>
       </c>
       <c r="Q548" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R548" t="inlineStr">
         <is>
@@ -39885,20 +39885,20 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K549" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L549" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M549" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O549" t="inlineStr">
@@ -39907,10 +39907,10 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>3333</v>
+        <v>139</v>
       </c>
       <c r="Q549" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R549" t="inlineStr">
         <is>
@@ -39957,20 +39957,20 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K550" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L550" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M550" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
@@ -39979,10 +39979,10 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>3333</v>
+        <v>139</v>
       </c>
       <c r="Q550" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R550" t="inlineStr">
         <is>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -40025,36 +40025,36 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="K551" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L551" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M551" t="n">
-        <v>8431</v>
+        <v>10000</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P551" t="n">
-        <v>234</v>
+        <v>3333</v>
       </c>
       <c r="Q551" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R551" t="inlineStr">
         <is>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="K552" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L552" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M552" t="n">
-        <v>15455</v>
+        <v>10000</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>5152</v>
+        <v>3333</v>
       </c>
       <c r="Q552" t="n">
         <v>3</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -40173,16 +40173,16 @@
         </is>
       </c>
       <c r="J553" t="n">
-        <v>530</v>
+        <v>580</v>
       </c>
       <c r="K553" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L553" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M553" t="n">
-        <v>6708</v>
+        <v>8431</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="Q553" t="n">
         <v>36</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -40245,16 +40245,16 @@
         </is>
       </c>
       <c r="J554" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="K554" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L554" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M554" t="n">
-        <v>14395</v>
+        <v>15455</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>4798</v>
+        <v>5152</v>
       </c>
       <c r="Q554" t="n">
         <v>3</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -40317,16 +40317,16 @@
         </is>
       </c>
       <c r="J555" t="n">
-        <v>420</v>
+        <v>530</v>
       </c>
       <c r="K555" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L555" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M555" t="n">
-        <v>5821</v>
+        <v>6708</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="Q555" t="n">
         <v>36</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -40389,16 +40389,16 @@
         </is>
       </c>
       <c r="J556" t="n">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="K556" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L556" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M556" t="n">
-        <v>12710</v>
+        <v>14395</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>4237</v>
+        <v>4798</v>
       </c>
       <c r="Q556" t="n">
         <v>3</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -40461,16 +40461,16 @@
         </is>
       </c>
       <c r="J557" t="n">
-        <v>530</v>
+        <v>420</v>
       </c>
       <c r="K557" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L557" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M557" t="n">
-        <v>4226</v>
+        <v>5821</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="Q557" t="n">
         <v>36</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -40533,16 +40533,16 @@
         </is>
       </c>
       <c r="J558" t="n">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="K558" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L558" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M558" t="n">
-        <v>7405</v>
+        <v>12710</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>2468</v>
+        <v>4237</v>
       </c>
       <c r="Q558" t="n">
         <v>3</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -40605,16 +40605,16 @@
         </is>
       </c>
       <c r="J559" t="n">
-        <v>420</v>
+        <v>530</v>
       </c>
       <c r="K559" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L559" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M559" t="n">
-        <v>6786</v>
+        <v>4226</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="Q559" t="n">
         <v>36</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -40677,16 +40677,16 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="K560" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L560" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M560" t="n">
-        <v>12586</v>
+        <v>7405</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>4195</v>
+        <v>2468</v>
       </c>
       <c r="Q560" t="n">
         <v>3</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -40749,16 +40749,16 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="K561" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L561" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M561" t="n">
-        <v>7716</v>
+        <v>6786</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="Q561" t="n">
         <v>36</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -40821,16 +40821,16 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="K562" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L562" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M562" t="n">
-        <v>14455</v>
+        <v>12586</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>4818</v>
+        <v>4195</v>
       </c>
       <c r="Q562" t="n">
         <v>3</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -40893,16 +40893,16 @@
         </is>
       </c>
       <c r="J563" t="n">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="K563" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L563" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M563" t="n">
-        <v>4693</v>
+        <v>7716</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="Q563" t="n">
         <v>36</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -40965,16 +40965,16 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="K564" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L564" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M564" t="n">
-        <v>8581</v>
+        <v>14455</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>2860</v>
+        <v>4818</v>
       </c>
       <c r="Q564" t="n">
         <v>3</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -41037,16 +41037,16 @@
         </is>
       </c>
       <c r="J565" t="n">
-        <v>290</v>
+        <v>570</v>
       </c>
       <c r="K565" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L565" t="n">
         <v>5000</v>
       </c>
       <c r="M565" t="n">
-        <v>5000</v>
+        <v>4693</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="Q565" t="n">
         <v>36</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -41109,16 +41109,16 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="K566" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L566" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M566" t="n">
-        <v>10000</v>
+        <v>8581</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>3333</v>
+        <v>2860</v>
       </c>
       <c r="Q566" t="n">
         <v>3</v>
@@ -41177,20 +41177,20 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="K567" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L567" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M567" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="Q567" t="n">
         <v>36</v>
@@ -41249,20 +41249,20 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="K568" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L568" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M568" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>2667</v>
+        <v>3333</v>
       </c>
       <c r="Q568" t="n">
         <v>3</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>680</v>
+        <v>150</v>
       </c>
       <c r="K569" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L569" t="n">
         <v>4500</v>
       </c>
       <c r="M569" t="n">
-        <v>4235</v>
+        <v>4500</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q569" t="n">
         <v>36</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -41393,20 +41393,20 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>470</v>
+        <v>120</v>
       </c>
       <c r="K570" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L570" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M570" t="n">
-        <v>7202</v>
+        <v>8000</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,12 +41419,156 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>2401</v>
+        <v>2667</v>
       </c>
       <c r="Q570" t="n">
         <v>3</v>
       </c>
       <c r="R570" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>6</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D571" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E571" t="n">
+        <v>13</v>
+      </c>
+      <c r="F571" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I571" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J571" t="n">
+        <v>680</v>
+      </c>
+      <c r="K571" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L571" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M571" t="n">
+        <v>4235</v>
+      </c>
+      <c r="N571" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O571" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P571" t="n">
+        <v>118</v>
+      </c>
+      <c r="Q571" t="n">
+        <v>36</v>
+      </c>
+      <c r="R571" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>6</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D572" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E572" t="n">
+        <v>13</v>
+      </c>
+      <c r="F572" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I572" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J572" t="n">
+        <v>470</v>
+      </c>
+      <c r="K572" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L572" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M572" t="n">
+        <v>7202</v>
+      </c>
+      <c r="N572" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O572" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P572" t="n">
+        <v>2401</v>
+      </c>
+      <c r="Q572" t="n">
+        <v>3</v>
+      </c>
+      <c r="R572" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R572"/>
+  <dimension ref="A1:R574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>510</v>
+        <v>720</v>
       </c>
       <c r="K494" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L494" t="n">
         <v>4000</v>
       </c>
-      <c r="L494" t="n">
-        <v>4500</v>
-      </c>
       <c r="M494" t="n">
-        <v>4216</v>
+        <v>3729</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="Q494" t="n">
         <v>36</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35997,16 +35997,16 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="K495" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L495" t="n">
         <v>7000</v>
       </c>
-      <c r="L495" t="n">
-        <v>8000</v>
-      </c>
       <c r="M495" t="n">
-        <v>7395</v>
+        <v>6674</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>2465</v>
+        <v>2225</v>
       </c>
       <c r="Q495" t="n">
         <v>3</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="K496" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L496" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M496" t="n">
-        <v>7718</v>
+        <v>4216</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="Q496" t="n">
         <v>36</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="K497" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L497" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M497" t="n">
-        <v>15422</v>
+        <v>7395</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>5141</v>
+        <v>2465</v>
       </c>
       <c r="Q497" t="n">
         <v>3</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="K498" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L498" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M498" t="n">
-        <v>4203</v>
+        <v>7718</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>117</v>
+        <v>214</v>
       </c>
       <c r="Q498" t="n">
         <v>36</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="K499" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L499" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="M499" t="n">
-        <v>7289</v>
+        <v>15422</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>2430</v>
+        <v>5141</v>
       </c>
       <c r="Q499" t="n">
         <v>3</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36357,7 +36357,7 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>520</v>
+        <v>640</v>
       </c>
       <c r="K500" t="n">
         <v>4000</v>
@@ -36366,7 +36366,7 @@
         <v>4500</v>
       </c>
       <c r="M500" t="n">
-        <v>4212</v>
+        <v>4203</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36429,7 +36429,7 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="K501" t="n">
         <v>7000</v>
@@ -36438,7 +36438,7 @@
         <v>7500</v>
       </c>
       <c r="M501" t="n">
-        <v>7197</v>
+        <v>7289</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>2399</v>
+        <v>2430</v>
       </c>
       <c r="Q501" t="n">
         <v>3</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36501,16 +36501,16 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>640</v>
+        <v>520</v>
       </c>
       <c r="K502" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L502" t="n">
         <v>4500</v>
       </c>
-      <c r="L502" t="n">
-        <v>5000</v>
-      </c>
       <c r="M502" t="n">
-        <v>4703</v>
+        <v>4212</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Q502" t="n">
         <v>36</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36573,16 +36573,16 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>460</v>
+        <v>330</v>
       </c>
       <c r="K503" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L503" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M503" t="n">
-        <v>8413</v>
+        <v>7197</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>2804</v>
+        <v>2399</v>
       </c>
       <c r="Q503" t="n">
         <v>3</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36645,16 +36645,16 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>450</v>
+        <v>640</v>
       </c>
       <c r="K504" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L504" t="n">
         <v>5000</v>
       </c>
-      <c r="L504" t="n">
-        <v>6000</v>
-      </c>
       <c r="M504" t="n">
-        <v>5622</v>
+        <v>4703</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="Q504" t="n">
         <v>36</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36717,16 +36717,16 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>620</v>
+        <v>460</v>
       </c>
       <c r="K505" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L505" t="n">
         <v>9000</v>
       </c>
-      <c r="L505" t="n">
-        <v>10000</v>
-      </c>
       <c r="M505" t="n">
-        <v>9282</v>
+        <v>8413</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>3094</v>
+        <v>2804</v>
       </c>
       <c r="Q505" t="n">
         <v>3</v>
@@ -36785,20 +36785,20 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="K506" t="n">
         <v>5000</v>
       </c>
       <c r="L506" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M506" t="n">
-        <v>5000</v>
+        <v>5622</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="Q506" t="n">
         <v>36</v>
@@ -36857,20 +36857,20 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>150</v>
+        <v>620</v>
       </c>
       <c r="K507" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L507" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M507" t="n">
-        <v>8000</v>
+        <v>9282</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>2667</v>
+        <v>3094</v>
       </c>
       <c r="Q507" t="n">
         <v>3</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36929,11 +36929,11 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="K508" t="n">
         <v>5000</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -37001,11 +37001,11 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>370</v>
+        <v>150</v>
       </c>
       <c r="K509" t="n">
         <v>8000</v>
@@ -37073,20 +37073,20 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="K510" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L510" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M510" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q510" t="n">
         <v>36</v>
@@ -37145,20 +37145,20 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>220</v>
+        <v>370</v>
       </c>
       <c r="K511" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L511" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M511" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>2333</v>
+        <v>2667</v>
       </c>
       <c r="Q511" t="n">
         <v>3</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37217,20 +37217,20 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>470</v>
+        <v>220</v>
       </c>
       <c r="K512" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L512" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M512" t="n">
-        <v>7202</v>
+        <v>4000</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="Q512" t="n">
         <v>36</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37289,20 +37289,20 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="K513" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L513" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M513" t="n">
-        <v>14417</v>
+        <v>7000</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>4806</v>
+        <v>2333</v>
       </c>
       <c r="Q513" t="n">
         <v>3</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="K514" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L514" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M514" t="n">
-        <v>5781</v>
+        <v>7202</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="Q514" t="n">
         <v>36</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37437,16 +37437,16 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="K515" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L515" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M515" t="n">
-        <v>9824</v>
+        <v>14417</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>3275</v>
+        <v>4806</v>
       </c>
       <c r="Q515" t="n">
         <v>3</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37509,16 +37509,16 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>530</v>
+        <v>480</v>
       </c>
       <c r="K516" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L516" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M516" t="n">
-        <v>4226</v>
+        <v>5781</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="Q516" t="n">
         <v>36</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="K517" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L517" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M517" t="n">
-        <v>7464</v>
+        <v>9824</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>2488</v>
+        <v>3275</v>
       </c>
       <c r="Q517" t="n">
         <v>3</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37653,16 +37653,16 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>330</v>
+        <v>530</v>
       </c>
       <c r="K518" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L518" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M518" t="n">
-        <v>10000</v>
+        <v>4226</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>278</v>
+        <v>117</v>
       </c>
       <c r="Q518" t="n">
         <v>36</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37725,16 +37725,16 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="K519" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="L519" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="M519" t="n">
-        <v>21062</v>
+        <v>7464</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>7021</v>
+        <v>2488</v>
       </c>
       <c r="Q519" t="n">
         <v>3</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -37797,16 +37797,16 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>650</v>
+        <v>330</v>
       </c>
       <c r="K520" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L520" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M520" t="n">
-        <v>4223</v>
+        <v>10000</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>117</v>
+        <v>278</v>
       </c>
       <c r="Q520" t="n">
         <v>36</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -37869,16 +37869,16 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="K521" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="L521" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="M521" t="n">
-        <v>7731</v>
+        <v>21062</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>2577</v>
+        <v>7021</v>
       </c>
       <c r="Q521" t="n">
         <v>3</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -37941,16 +37941,16 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="K522" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L522" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M522" t="n">
-        <v>5700</v>
+        <v>4223</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="Q522" t="n">
         <v>36</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38013,16 +38013,16 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="K523" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L523" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M523" t="n">
-        <v>10532</v>
+        <v>7731</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>3511</v>
+        <v>2577</v>
       </c>
       <c r="Q523" t="n">
         <v>3</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="K524" t="n">
         <v>5000</v>
       </c>
       <c r="L524" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M524" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="Q524" t="n">
         <v>36</v>
@@ -38153,20 +38153,20 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>140</v>
+        <v>470</v>
       </c>
       <c r="K525" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L525" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M525" t="n">
-        <v>8000</v>
+        <v>10532</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>2667</v>
+        <v>3511</v>
       </c>
       <c r="Q525" t="n">
         <v>3</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38225,20 +38225,20 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>410</v>
+        <v>140</v>
       </c>
       <c r="K526" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L526" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M526" t="n">
-        <v>5732</v>
+        <v>5000</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="Q526" t="n">
         <v>36</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -38297,20 +38297,20 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>410</v>
+        <v>140</v>
       </c>
       <c r="K527" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L527" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M527" t="n">
-        <v>8683</v>
+        <v>8000</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>2894</v>
+        <v>2667</v>
       </c>
       <c r="Q527" t="n">
         <v>3</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38373,16 +38373,16 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>620</v>
+        <v>410</v>
       </c>
       <c r="K528" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L528" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M528" t="n">
-        <v>4234</v>
+        <v>5732</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="Q528" t="n">
         <v>36</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38445,16 +38445,16 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="K529" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L529" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M529" t="n">
-        <v>7205</v>
+        <v>8683</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>2402</v>
+        <v>2894</v>
       </c>
       <c r="Q529" t="n">
         <v>3</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -38517,16 +38517,16 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>230</v>
+        <v>620</v>
       </c>
       <c r="K530" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L530" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M530" t="n">
-        <v>5000</v>
+        <v>4234</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="Q530" t="n">
         <v>36</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -38589,16 +38589,16 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="K531" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L531" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M531" t="n">
-        <v>9423</v>
+        <v>7205</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>3141</v>
+        <v>2402</v>
       </c>
       <c r="Q531" t="n">
         <v>3</v>
@@ -38661,32 +38661,32 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="K532" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L532" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M532" t="n">
-        <v>15385</v>
+        <v>5000</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>5128</v>
+        <v>139</v>
       </c>
       <c r="Q532" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R532" t="inlineStr">
         <is>
@@ -38729,24 +38729,24 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="K533" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L533" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M533" t="n">
-        <v>4500</v>
+        <v>9423</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O533" t="inlineStr">
@@ -38755,10 +38755,10 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>125</v>
+        <v>3141</v>
       </c>
       <c r="Q533" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R533" t="inlineStr">
         <is>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -38805,32 +38805,32 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>480</v>
+        <v>130</v>
       </c>
       <c r="K534" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L534" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="M534" t="n">
-        <v>4271</v>
+        <v>15385</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>119</v>
+        <v>5128</v>
       </c>
       <c r="Q534" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R534" t="inlineStr">
         <is>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -38873,24 +38873,24 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="K535" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L535" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M535" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O535" t="inlineStr">
@@ -38899,10 +38899,10 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>2667</v>
+        <v>125</v>
       </c>
       <c r="Q535" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R535" t="inlineStr">
         <is>
@@ -38945,24 +38945,24 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="K536" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L536" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M536" t="n">
-        <v>7000</v>
+        <v>4271</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O536" t="inlineStr">
@@ -38971,10 +38971,10 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>2333</v>
+        <v>119</v>
       </c>
       <c r="Q536" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R536" t="inlineStr">
         <is>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -39021,20 +39021,20 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>510</v>
+        <v>160</v>
       </c>
       <c r="K537" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L537" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M537" t="n">
-        <v>4725</v>
+        <v>8000</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O537" t="inlineStr">
@@ -39043,10 +39043,10 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>131</v>
+        <v>2667</v>
       </c>
       <c r="Q537" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R537" t="inlineStr">
         <is>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="K538" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L538" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M538" t="n">
-        <v>8406</v>
+        <v>7000</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>2802</v>
+        <v>2333</v>
       </c>
       <c r="Q538" t="n">
         <v>3</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -39165,7 +39165,7 @@
         </is>
       </c>
       <c r="J539" t="n">
-        <v>780</v>
+        <v>510</v>
       </c>
       <c r="K539" t="n">
         <v>4500</v>
@@ -39174,7 +39174,7 @@
         <v>5000</v>
       </c>
       <c r="M539" t="n">
-        <v>4712</v>
+        <v>4725</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -39237,16 +39237,16 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="K540" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L540" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M540" t="n">
-        <v>7712</v>
+        <v>8406</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>2571</v>
+        <v>2802</v>
       </c>
       <c r="Q540" t="n">
         <v>3</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -39309,16 +39309,16 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>410</v>
+        <v>780</v>
       </c>
       <c r="K541" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L541" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M541" t="n">
-        <v>7793</v>
+        <v>4712</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="Q541" t="n">
         <v>36</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -39381,16 +39381,16 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>220</v>
+        <v>520</v>
       </c>
       <c r="K542" t="n">
-        <v>1600</v>
+        <v>7500</v>
       </c>
       <c r="L542" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M542" t="n">
-        <v>7082</v>
+        <v>7712</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>2361</v>
+        <v>2571</v>
       </c>
       <c r="Q542" t="n">
         <v>3</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -39453,16 +39453,16 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>580</v>
+        <v>410</v>
       </c>
       <c r="K543" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L543" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M543" t="n">
-        <v>4733</v>
+        <v>7793</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="Q543" t="n">
         <v>36</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -39528,13 +39528,13 @@
         <v>220</v>
       </c>
       <c r="K544" t="n">
-        <v>9000</v>
+        <v>1600</v>
       </c>
       <c r="L544" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M544" t="n">
-        <v>9591</v>
+        <v>7082</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>3197</v>
+        <v>2361</v>
       </c>
       <c r="Q544" t="n">
         <v>3</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -39597,16 +39597,16 @@
         </is>
       </c>
       <c r="J545" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="K545" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L545" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M545" t="n">
-        <v>6000</v>
+        <v>4733</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39615,11 +39615,11 @@
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="Q545" t="n">
         <v>36</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -39669,20 +39669,20 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="K546" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L546" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M546" t="n">
-        <v>6000</v>
+        <v>9591</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O546" t="inlineStr">
@@ -39691,10 +39691,10 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>167</v>
+        <v>3197</v>
       </c>
       <c r="Q546" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R546" t="inlineStr">
         <is>
@@ -39741,20 +39741,20 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K547" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L547" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M547" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O547" t="inlineStr">
@@ -39763,10 +39763,10 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q547" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R547" t="inlineStr">
         <is>
@@ -39813,20 +39813,20 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="K548" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L548" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M548" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
@@ -39835,10 +39835,10 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q548" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R548" t="inlineStr">
         <is>
@@ -39881,24 +39881,24 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K549" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L549" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M549" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O549" t="inlineStr">
@@ -39907,10 +39907,10 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>139</v>
+        <v>4000</v>
       </c>
       <c r="Q549" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R549" t="inlineStr">
         <is>
@@ -39953,24 +39953,24 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="K550" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L550" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M550" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
@@ -39979,10 +39979,10 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>139</v>
+        <v>4000</v>
       </c>
       <c r="Q550" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R550" t="inlineStr">
         <is>
@@ -40029,20 +40029,20 @@
         </is>
       </c>
       <c r="J551" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K551" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L551" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M551" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O551" t="inlineStr">
@@ -40051,10 +40051,10 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>3333</v>
+        <v>139</v>
       </c>
       <c r="Q551" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R551" t="inlineStr">
         <is>
@@ -40101,20 +40101,20 @@
         </is>
       </c>
       <c r="J552" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K552" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L552" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M552" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O552" t="inlineStr">
@@ -40123,10 +40123,10 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>3333</v>
+        <v>139</v>
       </c>
       <c r="Q552" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R552" t="inlineStr">
         <is>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -40169,36 +40169,36 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="K553" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L553" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M553" t="n">
-        <v>8431</v>
+        <v>10000</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>234</v>
+        <v>3333</v>
       </c>
       <c r="Q553" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R553" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="K554" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L554" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M554" t="n">
-        <v>15455</v>
+        <v>10000</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>5152</v>
+        <v>3333</v>
       </c>
       <c r="Q554" t="n">
         <v>3</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -40317,16 +40317,16 @@
         </is>
       </c>
       <c r="J555" t="n">
-        <v>530</v>
+        <v>580</v>
       </c>
       <c r="K555" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L555" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M555" t="n">
-        <v>6708</v>
+        <v>8431</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="Q555" t="n">
         <v>36</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -40389,16 +40389,16 @@
         </is>
       </c>
       <c r="J556" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="K556" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L556" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M556" t="n">
-        <v>14395</v>
+        <v>15455</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>4798</v>
+        <v>5152</v>
       </c>
       <c r="Q556" t="n">
         <v>3</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -40461,16 +40461,16 @@
         </is>
       </c>
       <c r="J557" t="n">
-        <v>420</v>
+        <v>530</v>
       </c>
       <c r="K557" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L557" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M557" t="n">
-        <v>5821</v>
+        <v>6708</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="Q557" t="n">
         <v>36</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -40533,16 +40533,16 @@
         </is>
       </c>
       <c r="J558" t="n">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="K558" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L558" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M558" t="n">
-        <v>12710</v>
+        <v>14395</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>4237</v>
+        <v>4798</v>
       </c>
       <c r="Q558" t="n">
         <v>3</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -40605,16 +40605,16 @@
         </is>
       </c>
       <c r="J559" t="n">
-        <v>530</v>
+        <v>420</v>
       </c>
       <c r="K559" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L559" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M559" t="n">
-        <v>4226</v>
+        <v>5821</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="Q559" t="n">
         <v>36</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -40677,16 +40677,16 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="K560" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L560" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M560" t="n">
-        <v>7405</v>
+        <v>12710</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>2468</v>
+        <v>4237</v>
       </c>
       <c r="Q560" t="n">
         <v>3</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -40749,16 +40749,16 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>420</v>
+        <v>530</v>
       </c>
       <c r="K561" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L561" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M561" t="n">
-        <v>6786</v>
+        <v>4226</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="Q561" t="n">
         <v>36</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -40821,16 +40821,16 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="K562" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L562" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M562" t="n">
-        <v>12586</v>
+        <v>7405</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>4195</v>
+        <v>2468</v>
       </c>
       <c r="Q562" t="n">
         <v>3</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -40893,16 +40893,16 @@
         </is>
       </c>
       <c r="J563" t="n">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="K563" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L563" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M563" t="n">
-        <v>7716</v>
+        <v>6786</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="Q563" t="n">
         <v>36</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -40965,16 +40965,16 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="K564" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L564" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M564" t="n">
-        <v>14455</v>
+        <v>12586</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>4818</v>
+        <v>4195</v>
       </c>
       <c r="Q564" t="n">
         <v>3</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -41037,16 +41037,16 @@
         </is>
       </c>
       <c r="J565" t="n">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="K565" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L565" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M565" t="n">
-        <v>4693</v>
+        <v>7716</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="Q565" t="n">
         <v>36</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -41109,16 +41109,16 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="K566" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L566" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M566" t="n">
-        <v>8581</v>
+        <v>14455</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>2860</v>
+        <v>4818</v>
       </c>
       <c r="Q566" t="n">
         <v>3</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -41181,16 +41181,16 @@
         </is>
       </c>
       <c r="J567" t="n">
-        <v>290</v>
+        <v>570</v>
       </c>
       <c r="K567" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L567" t="n">
         <v>5000</v>
       </c>
       <c r="M567" t="n">
-        <v>5000</v>
+        <v>4693</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="Q567" t="n">
         <v>36</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -41253,16 +41253,16 @@
         </is>
       </c>
       <c r="J568" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="K568" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L568" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M568" t="n">
-        <v>10000</v>
+        <v>8581</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>3333</v>
+        <v>2860</v>
       </c>
       <c r="Q568" t="n">
         <v>3</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="K569" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L569" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M569" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="Q569" t="n">
         <v>36</v>
@@ -41393,20 +41393,20 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="K570" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L570" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M570" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>2667</v>
+        <v>3333</v>
       </c>
       <c r="Q570" t="n">
         <v>3</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>680</v>
+        <v>150</v>
       </c>
       <c r="K571" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L571" t="n">
         <v>4500</v>
       </c>
       <c r="M571" t="n">
-        <v>4235</v>
+        <v>4500</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q571" t="n">
         <v>36</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>470</v>
+        <v>120</v>
       </c>
       <c r="K572" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L572" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M572" t="n">
-        <v>7202</v>
+        <v>8000</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,12 +41563,156 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>2401</v>
+        <v>2667</v>
       </c>
       <c r="Q572" t="n">
         <v>3</v>
       </c>
       <c r="R572" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>6</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D573" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E573" t="n">
+        <v>13</v>
+      </c>
+      <c r="F573" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I573" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J573" t="n">
+        <v>680</v>
+      </c>
+      <c r="K573" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L573" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M573" t="n">
+        <v>4235</v>
+      </c>
+      <c r="N573" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O573" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P573" t="n">
+        <v>118</v>
+      </c>
+      <c r="Q573" t="n">
+        <v>36</v>
+      </c>
+      <c r="R573" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>6</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D574" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E574" t="n">
+        <v>13</v>
+      </c>
+      <c r="F574" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I574" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J574" t="n">
+        <v>470</v>
+      </c>
+      <c r="K574" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L574" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M574" t="n">
+        <v>7202</v>
+      </c>
+      <c r="N574" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O574" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P574" t="n">
+        <v>2401</v>
+      </c>
+      <c r="Q574" t="n">
+        <v>3</v>
+      </c>
+      <c r="R574" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R574"/>
+  <dimension ref="A1:R576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33765,7 +33765,7 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="K464" t="n">
         <v>4500</v>
@@ -33774,7 +33774,7 @@
         <v>5000</v>
       </c>
       <c r="M464" t="n">
-        <v>4711</v>
+        <v>4709</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="K465" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L465" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M465" t="n">
-        <v>8406</v>
+        <v>9455</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>2802</v>
+        <v>3152</v>
       </c>
       <c r="Q465" t="n">
         <v>3</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>630</v>
+        <v>450</v>
       </c>
       <c r="K466" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L466" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M466" t="n">
-        <v>4214</v>
+        <v>4711</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="Q466" t="n">
         <v>36</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="K467" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L467" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M467" t="n">
-        <v>7389</v>
+        <v>8406</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>2463</v>
+        <v>2802</v>
       </c>
       <c r="Q467" t="n">
         <v>3</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="K468" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L468" t="n">
         <v>4500</v>
       </c>
-      <c r="L468" t="n">
-        <v>5000</v>
-      </c>
       <c r="M468" t="n">
-        <v>4713</v>
+        <v>4214</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Q468" t="n">
         <v>36</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34125,7 +34125,7 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="K469" t="n">
         <v>7000</v>
@@ -34134,7 +34134,7 @@
         <v>8000</v>
       </c>
       <c r="M469" t="n">
-        <v>7421</v>
+        <v>7389</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>2474</v>
+        <v>2463</v>
       </c>
       <c r="Q469" t="n">
         <v>3</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34197,7 +34197,7 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>550</v>
+        <v>610</v>
       </c>
       <c r="K470" t="n">
         <v>4500</v>
@@ -34206,7 +34206,7 @@
         <v>5000</v>
       </c>
       <c r="M470" t="n">
-        <v>4700</v>
+        <v>4713</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34269,16 +34269,16 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="K471" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L471" t="n">
         <v>8000</v>
       </c>
-      <c r="L471" t="n">
-        <v>9000</v>
-      </c>
       <c r="M471" t="n">
-        <v>8405</v>
+        <v>7421</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>2802</v>
+        <v>2474</v>
       </c>
       <c r="Q471" t="n">
         <v>3</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34341,32 +34341,32 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>470</v>
+        <v>550</v>
       </c>
       <c r="K472" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L472" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M472" t="n">
-        <v>8489</v>
+        <v>4700</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>2830</v>
+        <v>131</v>
       </c>
       <c r="Q472" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R472" t="inlineStr">
         <is>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34413,20 +34413,20 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>660</v>
+        <v>370</v>
       </c>
       <c r="K473" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L473" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M473" t="n">
-        <v>4220</v>
+        <v>8405</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O473" t="inlineStr">
@@ -34435,10 +34435,10 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>117</v>
+        <v>2802</v>
       </c>
       <c r="Q473" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R473" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34488,13 +34488,13 @@
         <v>470</v>
       </c>
       <c r="K474" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L474" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M474" t="n">
-        <v>7404</v>
+        <v>8489</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34503,11 +34503,11 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P474" t="n">
-        <v>2468</v>
+        <v>2830</v>
       </c>
       <c r="Q474" t="n">
         <v>3</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>490</v>
+        <v>660</v>
       </c>
       <c r="K475" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L475" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M475" t="n">
-        <v>5673</v>
+        <v>4220</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="Q475" t="n">
         <v>36</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34629,16 +34629,16 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>720</v>
+        <v>470</v>
       </c>
       <c r="K476" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L476" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M476" t="n">
-        <v>10236</v>
+        <v>7404</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>3412</v>
+        <v>2468</v>
       </c>
       <c r="Q476" t="n">
         <v>3</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="K477" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L477" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M477" t="n">
-        <v>4000</v>
+        <v>5673</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="Q477" t="n">
         <v>36</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34773,7 +34773,7 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>530</v>
+        <v>720</v>
       </c>
       <c r="K478" t="n">
         <v>10000</v>
@@ -34782,11 +34782,11 @@
         <v>11000</v>
       </c>
       <c r="M478" t="n">
-        <v>10434</v>
+        <v>10236</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
@@ -34795,10 +34795,10 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>290</v>
+        <v>3412</v>
       </c>
       <c r="Q478" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R478" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34841,24 +34841,24 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="K479" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="L479" t="n">
-        <v>22000</v>
+        <v>4000</v>
       </c>
       <c r="M479" t="n">
-        <v>21188</v>
+        <v>4000</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
@@ -34867,10 +34867,10 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>7063</v>
+        <v>111</v>
       </c>
       <c r="Q479" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R479" t="inlineStr">
         <is>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>350</v>
+        <v>530</v>
       </c>
       <c r="K480" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L480" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M480" t="n">
-        <v>5657</v>
+        <v>10434</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>157</v>
+        <v>290</v>
       </c>
       <c r="Q480" t="n">
         <v>36</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>560</v>
+        <v>320</v>
       </c>
       <c r="K481" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L481" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M481" t="n">
-        <v>11696</v>
+        <v>21188</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>3899</v>
+        <v>7063</v>
       </c>
       <c r="Q481" t="n">
         <v>3</v>
@@ -35057,20 +35057,20 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="K482" t="n">
         <v>5000</v>
       </c>
       <c r="L482" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M482" t="n">
-        <v>5000</v>
+        <v>5657</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q482" t="n">
         <v>36</v>
@@ -35129,20 +35129,20 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>100</v>
+        <v>560</v>
       </c>
       <c r="K483" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L483" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M483" t="n">
-        <v>10000</v>
+        <v>11696</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>3333</v>
+        <v>3899</v>
       </c>
       <c r="Q483" t="n">
         <v>3</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35201,20 +35201,20 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>930</v>
+        <v>110</v>
       </c>
       <c r="K484" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L484" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M484" t="n">
-        <v>3737</v>
+        <v>5000</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="Q484" t="n">
         <v>36</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35273,20 +35273,20 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>510</v>
+        <v>100</v>
       </c>
       <c r="K485" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L485" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M485" t="n">
-        <v>7284</v>
+        <v>10000</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>2428</v>
+        <v>3333</v>
       </c>
       <c r="Q485" t="n">
         <v>3</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35349,16 +35349,16 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>650</v>
+        <v>930</v>
       </c>
       <c r="K486" t="n">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="L486" t="n">
         <v>4000</v>
       </c>
       <c r="M486" t="n">
-        <v>3825</v>
+        <v>3737</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q486" t="n">
         <v>36</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35421,7 +35421,7 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="K487" t="n">
         <v>7000</v>
@@ -35430,7 +35430,7 @@
         <v>7500</v>
       </c>
       <c r="M487" t="n">
-        <v>7224</v>
+        <v>7284</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>2408</v>
+        <v>2428</v>
       </c>
       <c r="Q487" t="n">
         <v>3</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>520</v>
+        <v>650</v>
       </c>
       <c r="K490" t="n">
-        <v>6500</v>
+        <v>3700</v>
       </c>
       <c r="L490" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M490" t="n">
-        <v>6740</v>
+        <v>3825</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="Q490" t="n">
         <v>36</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>390</v>
+        <v>490</v>
       </c>
       <c r="K491" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="L491" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="M491" t="n">
-        <v>13769</v>
+        <v>7224</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>4590</v>
+        <v>2408</v>
       </c>
       <c r="Q491" t="n">
         <v>3</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="K492" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L492" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M492" t="n">
-        <v>5776</v>
+        <v>6740</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="Q492" t="n">
         <v>36</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="K493" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="L493" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M493" t="n">
-        <v>12429</v>
+        <v>13769</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>4143</v>
+        <v>4590</v>
       </c>
       <c r="Q493" t="n">
         <v>3</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>720</v>
+        <v>580</v>
       </c>
       <c r="K494" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L494" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M494" t="n">
-        <v>3729</v>
+        <v>5776</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="Q494" t="n">
         <v>36</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35997,16 +35997,16 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="K495" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L495" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M495" t="n">
-        <v>6674</v>
+        <v>12429</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>2225</v>
+        <v>4143</v>
       </c>
       <c r="Q495" t="n">
         <v>3</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>510</v>
+        <v>720</v>
       </c>
       <c r="K496" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L496" t="n">
         <v>4000</v>
       </c>
-      <c r="L496" t="n">
-        <v>4500</v>
-      </c>
       <c r="M496" t="n">
-        <v>4216</v>
+        <v>3729</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="Q496" t="n">
         <v>36</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="K497" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L497" t="n">
         <v>7000</v>
       </c>
-      <c r="L497" t="n">
-        <v>8000</v>
-      </c>
       <c r="M497" t="n">
-        <v>7395</v>
+        <v>6674</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>2465</v>
+        <v>2225</v>
       </c>
       <c r="Q497" t="n">
         <v>3</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="K498" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L498" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M498" t="n">
-        <v>7718</v>
+        <v>4216</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="Q498" t="n">
         <v>36</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="K499" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L499" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M499" t="n">
-        <v>15422</v>
+        <v>7395</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>5141</v>
+        <v>2465</v>
       </c>
       <c r="Q499" t="n">
         <v>3</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="K500" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L500" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M500" t="n">
-        <v>4203</v>
+        <v>7718</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>117</v>
+        <v>214</v>
       </c>
       <c r="Q500" t="n">
         <v>36</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="K501" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L501" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="M501" t="n">
-        <v>7289</v>
+        <v>15422</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>2430</v>
+        <v>5141</v>
       </c>
       <c r="Q501" t="n">
         <v>3</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36501,7 +36501,7 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>520</v>
+        <v>640</v>
       </c>
       <c r="K502" t="n">
         <v>4000</v>
@@ -36510,7 +36510,7 @@
         <v>4500</v>
       </c>
       <c r="M502" t="n">
-        <v>4212</v>
+        <v>4203</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36573,7 +36573,7 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="K503" t="n">
         <v>7000</v>
@@ -36582,7 +36582,7 @@
         <v>7500</v>
       </c>
       <c r="M503" t="n">
-        <v>7197</v>
+        <v>7289</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>2399</v>
+        <v>2430</v>
       </c>
       <c r="Q503" t="n">
         <v>3</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36645,16 +36645,16 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>640</v>
+        <v>520</v>
       </c>
       <c r="K504" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L504" t="n">
         <v>4500</v>
       </c>
-      <c r="L504" t="n">
-        <v>5000</v>
-      </c>
       <c r="M504" t="n">
-        <v>4703</v>
+        <v>4212</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Q504" t="n">
         <v>36</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36717,16 +36717,16 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>460</v>
+        <v>330</v>
       </c>
       <c r="K505" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L505" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M505" t="n">
-        <v>8413</v>
+        <v>7197</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>2804</v>
+        <v>2399</v>
       </c>
       <c r="Q505" t="n">
         <v>3</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36789,16 +36789,16 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>450</v>
+        <v>640</v>
       </c>
       <c r="K506" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L506" t="n">
         <v>5000</v>
       </c>
-      <c r="L506" t="n">
-        <v>6000</v>
-      </c>
       <c r="M506" t="n">
-        <v>5622</v>
+        <v>4703</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="Q506" t="n">
         <v>36</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36861,16 +36861,16 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>620</v>
+        <v>460</v>
       </c>
       <c r="K507" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L507" t="n">
         <v>9000</v>
       </c>
-      <c r="L507" t="n">
-        <v>10000</v>
-      </c>
       <c r="M507" t="n">
-        <v>9282</v>
+        <v>8413</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>3094</v>
+        <v>2804</v>
       </c>
       <c r="Q507" t="n">
         <v>3</v>
@@ -36929,20 +36929,20 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="K508" t="n">
         <v>5000</v>
       </c>
       <c r="L508" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M508" t="n">
-        <v>5000</v>
+        <v>5622</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="Q508" t="n">
         <v>36</v>
@@ -37001,20 +37001,20 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>150</v>
+        <v>620</v>
       </c>
       <c r="K509" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L509" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M509" t="n">
-        <v>8000</v>
+        <v>9282</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>2667</v>
+        <v>3094</v>
       </c>
       <c r="Q509" t="n">
         <v>3</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37073,11 +37073,11 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="K510" t="n">
         <v>5000</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37145,11 +37145,11 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>370</v>
+        <v>150</v>
       </c>
       <c r="K511" t="n">
         <v>8000</v>
@@ -37217,20 +37217,20 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="K512" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L512" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M512" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q512" t="n">
         <v>36</v>
@@ -37289,20 +37289,20 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>220</v>
+        <v>370</v>
       </c>
       <c r="K513" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L513" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M513" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>2333</v>
+        <v>2667</v>
       </c>
       <c r="Q513" t="n">
         <v>3</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -37361,20 +37361,20 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>470</v>
+        <v>220</v>
       </c>
       <c r="K514" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L514" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M514" t="n">
-        <v>7202</v>
+        <v>4000</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="Q514" t="n">
         <v>36</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37433,20 +37433,20 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="K515" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L515" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M515" t="n">
-        <v>14417</v>
+        <v>7000</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>4806</v>
+        <v>2333</v>
       </c>
       <c r="Q515" t="n">
         <v>3</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37509,16 +37509,16 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="K516" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L516" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M516" t="n">
-        <v>5781</v>
+        <v>7202</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="Q516" t="n">
         <v>36</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="K517" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L517" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M517" t="n">
-        <v>9824</v>
+        <v>14417</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>3275</v>
+        <v>4806</v>
       </c>
       <c r="Q517" t="n">
         <v>3</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37653,16 +37653,16 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>530</v>
+        <v>480</v>
       </c>
       <c r="K518" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L518" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M518" t="n">
-        <v>4226</v>
+        <v>5781</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="Q518" t="n">
         <v>36</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37725,16 +37725,16 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="K519" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L519" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M519" t="n">
-        <v>7464</v>
+        <v>9824</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>2488</v>
+        <v>3275</v>
       </c>
       <c r="Q519" t="n">
         <v>3</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -37797,16 +37797,16 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>330</v>
+        <v>530</v>
       </c>
       <c r="K520" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L520" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M520" t="n">
-        <v>10000</v>
+        <v>4226</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>278</v>
+        <v>117</v>
       </c>
       <c r="Q520" t="n">
         <v>36</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -37869,16 +37869,16 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="K521" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="L521" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="M521" t="n">
-        <v>21062</v>
+        <v>7464</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>7021</v>
+        <v>2488</v>
       </c>
       <c r="Q521" t="n">
         <v>3</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -37941,16 +37941,16 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>650</v>
+        <v>330</v>
       </c>
       <c r="K522" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L522" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M522" t="n">
-        <v>4223</v>
+        <v>10000</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>117</v>
+        <v>278</v>
       </c>
       <c r="Q522" t="n">
         <v>36</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38013,16 +38013,16 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="K523" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="L523" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="M523" t="n">
-        <v>7731</v>
+        <v>21062</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>2577</v>
+        <v>7021</v>
       </c>
       <c r="Q523" t="n">
         <v>3</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38085,16 +38085,16 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="K524" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L524" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M524" t="n">
-        <v>5700</v>
+        <v>4223</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="Q524" t="n">
         <v>36</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -38157,16 +38157,16 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="K525" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L525" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M525" t="n">
-        <v>10532</v>
+        <v>7731</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>3511</v>
+        <v>2577</v>
       </c>
       <c r="Q525" t="n">
         <v>3</v>
@@ -38225,20 +38225,20 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="K526" t="n">
         <v>5000</v>
       </c>
       <c r="L526" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M526" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="Q526" t="n">
         <v>36</v>
@@ -38297,20 +38297,20 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>140</v>
+        <v>470</v>
       </c>
       <c r="K527" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L527" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M527" t="n">
-        <v>8000</v>
+        <v>10532</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>2667</v>
+        <v>3511</v>
       </c>
       <c r="Q527" t="n">
         <v>3</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38369,20 +38369,20 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>410</v>
+        <v>140</v>
       </c>
       <c r="K528" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L528" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M528" t="n">
-        <v>5732</v>
+        <v>5000</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="Q528" t="n">
         <v>36</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38441,20 +38441,20 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>410</v>
+        <v>140</v>
       </c>
       <c r="K529" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L529" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M529" t="n">
-        <v>8683</v>
+        <v>8000</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>2894</v>
+        <v>2667</v>
       </c>
       <c r="Q529" t="n">
         <v>3</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -38517,16 +38517,16 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>620</v>
+        <v>410</v>
       </c>
       <c r="K530" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L530" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M530" t="n">
-        <v>4234</v>
+        <v>5732</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="Q530" t="n">
         <v>36</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -38589,16 +38589,16 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="K531" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L531" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M531" t="n">
-        <v>7205</v>
+        <v>8683</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>2402</v>
+        <v>2894</v>
       </c>
       <c r="Q531" t="n">
         <v>3</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -38661,16 +38661,16 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>230</v>
+        <v>620</v>
       </c>
       <c r="K532" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L532" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M532" t="n">
-        <v>5000</v>
+        <v>4234</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="Q532" t="n">
         <v>36</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -38733,16 +38733,16 @@
         </is>
       </c>
       <c r="J533" t="n">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="K533" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L533" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M533" t="n">
-        <v>9423</v>
+        <v>7205</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>3141</v>
+        <v>2402</v>
       </c>
       <c r="Q533" t="n">
         <v>3</v>
@@ -38805,32 +38805,32 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="K534" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L534" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M534" t="n">
-        <v>15385</v>
+        <v>5000</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>5128</v>
+        <v>139</v>
       </c>
       <c r="Q534" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R534" t="inlineStr">
         <is>
@@ -38873,24 +38873,24 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="K535" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L535" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M535" t="n">
-        <v>4500</v>
+        <v>9423</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O535" t="inlineStr">
@@ -38899,10 +38899,10 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>125</v>
+        <v>3141</v>
       </c>
       <c r="Q535" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R535" t="inlineStr">
         <is>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -38949,32 +38949,32 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>480</v>
+        <v>130</v>
       </c>
       <c r="K536" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L536" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="M536" t="n">
-        <v>4271</v>
+        <v>15385</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P536" t="n">
-        <v>119</v>
+        <v>5128</v>
       </c>
       <c r="Q536" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R536" t="inlineStr">
         <is>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -39017,24 +39017,24 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="K537" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L537" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M537" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O537" t="inlineStr">
@@ -39043,10 +39043,10 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>2667</v>
+        <v>125</v>
       </c>
       <c r="Q537" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R537" t="inlineStr">
         <is>
@@ -39089,24 +39089,24 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="K538" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L538" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M538" t="n">
-        <v>7000</v>
+        <v>4271</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
@@ -39115,10 +39115,10 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>2333</v>
+        <v>119</v>
       </c>
       <c r="Q538" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R538" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -39165,20 +39165,20 @@
         </is>
       </c>
       <c r="J539" t="n">
-        <v>510</v>
+        <v>160</v>
       </c>
       <c r="K539" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L539" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M539" t="n">
-        <v>4725</v>
+        <v>8000</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O539" t="inlineStr">
@@ -39187,10 +39187,10 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>131</v>
+        <v>2667</v>
       </c>
       <c r="Q539" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R539" t="inlineStr">
         <is>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -39233,20 +39233,20 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="K540" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L540" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M540" t="n">
-        <v>8406</v>
+        <v>7000</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>2802</v>
+        <v>2333</v>
       </c>
       <c r="Q540" t="n">
         <v>3</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -39309,7 +39309,7 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>780</v>
+        <v>510</v>
       </c>
       <c r="K541" t="n">
         <v>4500</v>
@@ -39318,7 +39318,7 @@
         <v>5000</v>
       </c>
       <c r="M541" t="n">
-        <v>4712</v>
+        <v>4725</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -39381,16 +39381,16 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="K542" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L542" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M542" t="n">
-        <v>7712</v>
+        <v>8406</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>2571</v>
+        <v>2802</v>
       </c>
       <c r="Q542" t="n">
         <v>3</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -39453,16 +39453,16 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>410</v>
+        <v>780</v>
       </c>
       <c r="K543" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L543" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M543" t="n">
-        <v>7793</v>
+        <v>4712</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="Q543" t="n">
         <v>36</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -39525,16 +39525,16 @@
         </is>
       </c>
       <c r="J544" t="n">
-        <v>220</v>
+        <v>520</v>
       </c>
       <c r="K544" t="n">
-        <v>1600</v>
+        <v>7500</v>
       </c>
       <c r="L544" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M544" t="n">
-        <v>7082</v>
+        <v>7712</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>2361</v>
+        <v>2571</v>
       </c>
       <c r="Q544" t="n">
         <v>3</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -39597,16 +39597,16 @@
         </is>
       </c>
       <c r="J545" t="n">
-        <v>580</v>
+        <v>410</v>
       </c>
       <c r="K545" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L545" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M545" t="n">
-        <v>4733</v>
+        <v>7793</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="Q545" t="n">
         <v>36</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -39672,13 +39672,13 @@
         <v>220</v>
       </c>
       <c r="K546" t="n">
-        <v>9000</v>
+        <v>1600</v>
       </c>
       <c r="L546" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M546" t="n">
-        <v>9591</v>
+        <v>7082</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>3197</v>
+        <v>2361</v>
       </c>
       <c r="Q546" t="n">
         <v>3</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -39741,16 +39741,16 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="K547" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L547" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M547" t="n">
-        <v>6000</v>
+        <v>4733</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39759,11 +39759,11 @@
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="Q547" t="n">
         <v>36</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -39813,20 +39813,20 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="K548" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L548" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M548" t="n">
-        <v>6000</v>
+        <v>9591</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
@@ -39835,10 +39835,10 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>167</v>
+        <v>3197</v>
       </c>
       <c r="Q548" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R548" t="inlineStr">
         <is>
@@ -39885,20 +39885,20 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K549" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L549" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M549" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O549" t="inlineStr">
@@ -39907,10 +39907,10 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q549" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R549" t="inlineStr">
         <is>
@@ -39957,20 +39957,20 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="K550" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L550" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M550" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
@@ -39979,10 +39979,10 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q550" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R550" t="inlineStr">
         <is>
@@ -40025,24 +40025,24 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K551" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L551" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M551" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O551" t="inlineStr">
@@ -40051,10 +40051,10 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>139</v>
+        <v>4000</v>
       </c>
       <c r="Q551" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R551" t="inlineStr">
         <is>
@@ -40097,24 +40097,24 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="K552" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L552" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M552" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O552" t="inlineStr">
@@ -40123,10 +40123,10 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>139</v>
+        <v>4000</v>
       </c>
       <c r="Q552" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R552" t="inlineStr">
         <is>
@@ -40173,20 +40173,20 @@
         </is>
       </c>
       <c r="J553" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K553" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L553" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M553" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O553" t="inlineStr">
@@ -40195,10 +40195,10 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>3333</v>
+        <v>139</v>
       </c>
       <c r="Q553" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R553" t="inlineStr">
         <is>
@@ -40245,20 +40245,20 @@
         </is>
       </c>
       <c r="J554" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K554" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L554" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M554" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O554" t="inlineStr">
@@ -40267,10 +40267,10 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>3333</v>
+        <v>139</v>
       </c>
       <c r="Q554" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R554" t="inlineStr">
         <is>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -40313,36 +40313,36 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="K555" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L555" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M555" t="n">
-        <v>8431</v>
+        <v>10000</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P555" t="n">
-        <v>234</v>
+        <v>3333</v>
       </c>
       <c r="Q555" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R555" t="inlineStr">
         <is>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="K556" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L556" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M556" t="n">
-        <v>15455</v>
+        <v>10000</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>5152</v>
+        <v>3333</v>
       </c>
       <c r="Q556" t="n">
         <v>3</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -40461,16 +40461,16 @@
         </is>
       </c>
       <c r="J557" t="n">
-        <v>530</v>
+        <v>580</v>
       </c>
       <c r="K557" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L557" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M557" t="n">
-        <v>6708</v>
+        <v>8431</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="Q557" t="n">
         <v>36</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -40533,16 +40533,16 @@
         </is>
       </c>
       <c r="J558" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="K558" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L558" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M558" t="n">
-        <v>14395</v>
+        <v>15455</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>4798</v>
+        <v>5152</v>
       </c>
       <c r="Q558" t="n">
         <v>3</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -40605,16 +40605,16 @@
         </is>
       </c>
       <c r="J559" t="n">
-        <v>420</v>
+        <v>530</v>
       </c>
       <c r="K559" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L559" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M559" t="n">
-        <v>5821</v>
+        <v>6708</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="Q559" t="n">
         <v>36</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -40677,16 +40677,16 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="K560" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L560" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M560" t="n">
-        <v>12710</v>
+        <v>14395</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>4237</v>
+        <v>4798</v>
       </c>
       <c r="Q560" t="n">
         <v>3</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -40749,16 +40749,16 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>530</v>
+        <v>420</v>
       </c>
       <c r="K561" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L561" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M561" t="n">
-        <v>4226</v>
+        <v>5821</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="Q561" t="n">
         <v>36</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -40821,16 +40821,16 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="K562" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L562" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M562" t="n">
-        <v>7405</v>
+        <v>12710</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>2468</v>
+        <v>4237</v>
       </c>
       <c r="Q562" t="n">
         <v>3</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -40893,16 +40893,16 @@
         </is>
       </c>
       <c r="J563" t="n">
-        <v>420</v>
+        <v>530</v>
       </c>
       <c r="K563" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L563" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M563" t="n">
-        <v>6786</v>
+        <v>4226</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="Q563" t="n">
         <v>36</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -40965,16 +40965,16 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="K564" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L564" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M564" t="n">
-        <v>12586</v>
+        <v>7405</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>4195</v>
+        <v>2468</v>
       </c>
       <c r="Q564" t="n">
         <v>3</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -41037,16 +41037,16 @@
         </is>
       </c>
       <c r="J565" t="n">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="K565" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L565" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M565" t="n">
-        <v>7716</v>
+        <v>6786</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="Q565" t="n">
         <v>36</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -41109,16 +41109,16 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="K566" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L566" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M566" t="n">
-        <v>14455</v>
+        <v>12586</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>4818</v>
+        <v>4195</v>
       </c>
       <c r="Q566" t="n">
         <v>3</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -41181,16 +41181,16 @@
         </is>
       </c>
       <c r="J567" t="n">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="K567" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L567" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M567" t="n">
-        <v>4693</v>
+        <v>7716</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="Q567" t="n">
         <v>36</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -41253,16 +41253,16 @@
         </is>
       </c>
       <c r="J568" t="n">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="K568" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L568" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M568" t="n">
-        <v>8581</v>
+        <v>14455</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>2860</v>
+        <v>4818</v>
       </c>
       <c r="Q568" t="n">
         <v>3</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -41325,16 +41325,16 @@
         </is>
       </c>
       <c r="J569" t="n">
-        <v>290</v>
+        <v>570</v>
       </c>
       <c r="K569" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L569" t="n">
         <v>5000</v>
       </c>
       <c r="M569" t="n">
-        <v>5000</v>
+        <v>4693</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="Q569" t="n">
         <v>36</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -41397,16 +41397,16 @@
         </is>
       </c>
       <c r="J570" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="K570" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L570" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M570" t="n">
-        <v>10000</v>
+        <v>8581</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>3333</v>
+        <v>2860</v>
       </c>
       <c r="Q570" t="n">
         <v>3</v>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="K571" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L571" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M571" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="Q571" t="n">
         <v>36</v>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="K572" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L572" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M572" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>2667</v>
+        <v>3333</v>
       </c>
       <c r="Q572" t="n">
         <v>3</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>680</v>
+        <v>150</v>
       </c>
       <c r="K573" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L573" t="n">
         <v>4500</v>
       </c>
       <c r="M573" t="n">
-        <v>4235</v>
+        <v>4500</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q573" t="n">
         <v>36</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>470</v>
+        <v>120</v>
       </c>
       <c r="K574" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L574" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M574" t="n">
-        <v>7202</v>
+        <v>8000</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,12 +41707,156 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>2401</v>
+        <v>2667</v>
       </c>
       <c r="Q574" t="n">
         <v>3</v>
       </c>
       <c r="R574" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>6</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D575" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E575" t="n">
+        <v>13</v>
+      </c>
+      <c r="F575" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I575" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J575" t="n">
+        <v>680</v>
+      </c>
+      <c r="K575" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L575" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M575" t="n">
+        <v>4235</v>
+      </c>
+      <c r="N575" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O575" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P575" t="n">
+        <v>118</v>
+      </c>
+      <c r="Q575" t="n">
+        <v>36</v>
+      </c>
+      <c r="R575" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>6</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D576" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E576" t="n">
+        <v>13</v>
+      </c>
+      <c r="F576" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I576" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J576" t="n">
+        <v>470</v>
+      </c>
+      <c r="K576" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L576" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M576" t="n">
+        <v>7202</v>
+      </c>
+      <c r="N576" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O576" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P576" t="n">
+        <v>2401</v>
+      </c>
+      <c r="Q576" t="n">
+        <v>3</v>
+      </c>
+      <c r="R576" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R576"/>
+  <dimension ref="A1:R578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -40461,16 +40461,16 @@
         </is>
       </c>
       <c r="J557" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="K557" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L557" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M557" t="n">
-        <v>8431</v>
+        <v>4715</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="Q557" t="n">
         <v>36</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -40533,16 +40533,16 @@
         </is>
       </c>
       <c r="J558" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="K558" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L558" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M558" t="n">
-        <v>15455</v>
+        <v>11441</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>5152</v>
+        <v>3814</v>
       </c>
       <c r="Q558" t="n">
         <v>3</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -40605,16 +40605,16 @@
         </is>
       </c>
       <c r="J559" t="n">
-        <v>530</v>
+        <v>580</v>
       </c>
       <c r="K559" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L559" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M559" t="n">
-        <v>6708</v>
+        <v>8431</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="Q559" t="n">
         <v>36</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -40677,16 +40677,16 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="K560" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L560" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M560" t="n">
-        <v>14395</v>
+        <v>15455</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>4798</v>
+        <v>5152</v>
       </c>
       <c r="Q560" t="n">
         <v>3</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -40749,16 +40749,16 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>420</v>
+        <v>530</v>
       </c>
       <c r="K561" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L561" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M561" t="n">
-        <v>5821</v>
+        <v>6708</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="Q561" t="n">
         <v>36</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -40821,16 +40821,16 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="K562" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L562" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M562" t="n">
-        <v>12710</v>
+        <v>14395</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>4237</v>
+        <v>4798</v>
       </c>
       <c r="Q562" t="n">
         <v>3</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -40893,16 +40893,16 @@
         </is>
       </c>
       <c r="J563" t="n">
-        <v>530</v>
+        <v>420</v>
       </c>
       <c r="K563" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L563" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M563" t="n">
-        <v>4226</v>
+        <v>5821</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="Q563" t="n">
         <v>36</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -40965,16 +40965,16 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="K564" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L564" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M564" t="n">
-        <v>7405</v>
+        <v>12710</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>2468</v>
+        <v>4237</v>
       </c>
       <c r="Q564" t="n">
         <v>3</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -41037,16 +41037,16 @@
         </is>
       </c>
       <c r="J565" t="n">
-        <v>420</v>
+        <v>530</v>
       </c>
       <c r="K565" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L565" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M565" t="n">
-        <v>6786</v>
+        <v>4226</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="Q565" t="n">
         <v>36</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -41109,16 +41109,16 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="K566" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L566" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M566" t="n">
-        <v>12586</v>
+        <v>7405</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>4195</v>
+        <v>2468</v>
       </c>
       <c r="Q566" t="n">
         <v>3</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -41181,16 +41181,16 @@
         </is>
       </c>
       <c r="J567" t="n">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="K567" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L567" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M567" t="n">
-        <v>7716</v>
+        <v>6786</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="Q567" t="n">
         <v>36</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -41253,16 +41253,16 @@
         </is>
       </c>
       <c r="J568" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="K568" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L568" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M568" t="n">
-        <v>14455</v>
+        <v>12586</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>4818</v>
+        <v>4195</v>
       </c>
       <c r="Q568" t="n">
         <v>3</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -41325,16 +41325,16 @@
         </is>
       </c>
       <c r="J569" t="n">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="K569" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L569" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M569" t="n">
-        <v>4693</v>
+        <v>7716</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="Q569" t="n">
         <v>36</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -41397,16 +41397,16 @@
         </is>
       </c>
       <c r="J570" t="n">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="K570" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L570" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M570" t="n">
-        <v>8581</v>
+        <v>14455</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>2860</v>
+        <v>4818</v>
       </c>
       <c r="Q570" t="n">
         <v>3</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -41469,16 +41469,16 @@
         </is>
       </c>
       <c r="J571" t="n">
-        <v>290</v>
+        <v>570</v>
       </c>
       <c r="K571" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L571" t="n">
         <v>5000</v>
       </c>
       <c r="M571" t="n">
-        <v>5000</v>
+        <v>4693</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="Q571" t="n">
         <v>36</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -41541,16 +41541,16 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="K572" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L572" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M572" t="n">
-        <v>10000</v>
+        <v>8581</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>3333</v>
+        <v>2860</v>
       </c>
       <c r="Q572" t="n">
         <v>3</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="K573" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L573" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M573" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="Q573" t="n">
         <v>36</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="K574" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L574" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M574" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>2667</v>
+        <v>3333</v>
       </c>
       <c r="Q574" t="n">
         <v>3</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>680</v>
+        <v>150</v>
       </c>
       <c r="K575" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L575" t="n">
         <v>4500</v>
       </c>
       <c r="M575" t="n">
-        <v>4235</v>
+        <v>4500</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q575" t="n">
         <v>36</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -41825,20 +41825,20 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>470</v>
+        <v>120</v>
       </c>
       <c r="K576" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L576" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M576" t="n">
-        <v>7202</v>
+        <v>8000</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,12 +41851,156 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>2401</v>
+        <v>2667</v>
       </c>
       <c r="Q576" t="n">
         <v>3</v>
       </c>
       <c r="R576" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>6</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D577" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E577" t="n">
+        <v>13</v>
+      </c>
+      <c r="F577" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I577" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J577" t="n">
+        <v>680</v>
+      </c>
+      <c r="K577" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L577" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M577" t="n">
+        <v>4235</v>
+      </c>
+      <c r="N577" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O577" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P577" t="n">
+        <v>118</v>
+      </c>
+      <c r="Q577" t="n">
+        <v>36</v>
+      </c>
+      <c r="R577" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>6</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D578" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E578" t="n">
+        <v>13</v>
+      </c>
+      <c r="F578" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I578" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J578" t="n">
+        <v>470</v>
+      </c>
+      <c r="K578" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L578" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M578" t="n">
+        <v>7202</v>
+      </c>
+      <c r="N578" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O578" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P578" t="n">
+        <v>2401</v>
+      </c>
+      <c r="Q578" t="n">
+        <v>3</v>
+      </c>
+      <c r="R578" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R578"/>
+  <dimension ref="A1:R580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="K398" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L398" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M398" t="n">
-        <v>4216</v>
+        <v>4723</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="Q398" t="n">
         <v>36</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="K399" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L399" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M399" t="n">
-        <v>7405</v>
+        <v>11441</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>2468</v>
+        <v>3814</v>
       </c>
       <c r="Q399" t="n">
         <v>3</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44229</v>
+        <v>44329</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="K400" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L400" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M400" t="n">
-        <v>7000</v>
+        <v>4216</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29175,11 +29175,11 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P400" t="n">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="Q400" t="n">
         <v>36</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44229</v>
+        <v>44329</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29229,20 +29229,20 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="K401" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L401" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M401" t="n">
-        <v>6000</v>
+        <v>7405</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29251,10 +29251,10 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>167</v>
+        <v>2468</v>
       </c>
       <c r="Q401" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29301,32 +29301,32 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>690</v>
+        <v>250</v>
       </c>
       <c r="K402" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L402" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M402" t="n">
-        <v>12246</v>
+        <v>7000</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P402" t="n">
-        <v>4082</v>
+        <v>194</v>
       </c>
       <c r="Q402" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29369,20 +29369,20 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>120</v>
+        <v>390</v>
       </c>
       <c r="K403" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L403" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M403" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29391,11 +29391,11 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P403" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q403" t="n">
         <v>36</v>
@@ -29441,24 +29441,24 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>200</v>
+        <v>690</v>
       </c>
       <c r="K404" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L404" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M404" t="n">
-        <v>5000</v>
+        <v>12246</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
@@ -29467,10 +29467,10 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>139</v>
+        <v>4082</v>
       </c>
       <c r="Q404" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
@@ -29517,32 +29517,32 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K405" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L405" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M405" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P405" t="n">
-        <v>3333</v>
+        <v>139</v>
       </c>
       <c r="Q405" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44376</v>
+        <v>44229</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -29585,20 +29585,20 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>570</v>
+        <v>200</v>
       </c>
       <c r="K406" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L406" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M406" t="n">
-        <v>7193</v>
+        <v>5000</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="Q406" t="n">
         <v>36</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44376</v>
+        <v>44229</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29657,20 +29657,20 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>410</v>
+        <v>200</v>
       </c>
       <c r="K407" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L407" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M407" t="n">
-        <v>14415</v>
+        <v>10000</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>4805</v>
+        <v>3333</v>
       </c>
       <c r="Q407" t="n">
         <v>3</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44316</v>
+        <v>44376</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>620</v>
+        <v>570</v>
       </c>
       <c r="K408" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L408" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M408" t="n">
-        <v>4718</v>
+        <v>7193</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="Q408" t="n">
         <v>36</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44316</v>
+        <v>44376</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="K409" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L409" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M409" t="n">
-        <v>7405</v>
+        <v>14415</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>2468</v>
+        <v>4805</v>
       </c>
       <c r="Q409" t="n">
         <v>3</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44453</v>
+        <v>44316</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="K410" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L410" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M410" t="n">
-        <v>4208</v>
+        <v>4718</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="Q410" t="n">
         <v>36</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44453</v>
+        <v>44316</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29949,16 +29949,16 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="K411" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L411" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M411" t="n">
-        <v>8702</v>
+        <v>7405</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>2901</v>
+        <v>2468</v>
       </c>
       <c r="Q411" t="n">
         <v>3</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44466</v>
+        <v>44453</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -30021,7 +30021,7 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>390</v>
+        <v>650</v>
       </c>
       <c r="K412" t="n">
         <v>4000</v>
@@ -30030,7 +30030,7 @@
         <v>4500</v>
       </c>
       <c r="M412" t="n">
-        <v>4295</v>
+        <v>4208</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q412" t="n">
         <v>36</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44466</v>
+        <v>44453</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30093,20 +30093,20 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="K413" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L413" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M413" t="n">
-        <v>7591</v>
+        <v>8702</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>$/docena de paquetes</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
@@ -30115,10 +30115,10 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>633</v>
+        <v>2901</v>
       </c>
       <c r="Q413" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R413" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44242</v>
+        <v>44466</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="K414" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L414" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M414" t="n">
-        <v>7000</v>
+        <v>4295</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="Q414" t="n">
         <v>36</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44242</v>
+        <v>44466</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30237,20 +30237,20 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K415" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="L415" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M415" t="n">
-        <v>18000</v>
+        <v>7591</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/docena de paquetes</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -30259,10 +30259,10 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>6000</v>
+        <v>633</v>
       </c>
       <c r="Q415" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44351</v>
+        <v>44242</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>590</v>
+        <v>360</v>
       </c>
       <c r="K416" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L416" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M416" t="n">
-        <v>4186</v>
+        <v>7000</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="Q416" t="n">
         <v>36</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44351</v>
+        <v>44242</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K417" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="L417" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="M417" t="n">
-        <v>7289</v>
+        <v>18000</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>2430</v>
+        <v>6000</v>
       </c>
       <c r="Q417" t="n">
         <v>3</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44279</v>
+        <v>44351</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30453,16 +30453,16 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>390</v>
+        <v>590</v>
       </c>
       <c r="K418" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L418" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M418" t="n">
-        <v>5692</v>
+        <v>4186</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="Q418" t="n">
         <v>36</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44279</v>
+        <v>44351</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30525,16 +30525,16 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>260</v>
+        <v>450</v>
       </c>
       <c r="K419" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L419" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M419" t="n">
-        <v>9577</v>
+        <v>7289</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>3192</v>
+        <v>2430</v>
       </c>
       <c r="Q419" t="n">
         <v>3</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30597,7 +30597,7 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>520</v>
+        <v>390</v>
       </c>
       <c r="K420" t="n">
         <v>5000</v>
@@ -30606,7 +30606,7 @@
         <v>6000</v>
       </c>
       <c r="M420" t="n">
-        <v>5538</v>
+        <v>5692</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q420" t="n">
         <v>36</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30669,7 +30669,7 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="K421" t="n">
         <v>9000</v>
@@ -30678,7 +30678,7 @@
         <v>10000</v>
       </c>
       <c r="M421" t="n">
-        <v>9607</v>
+        <v>9577</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>3202</v>
+        <v>3192</v>
       </c>
       <c r="Q421" t="n">
         <v>3</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44389</v>
+        <v>44280</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="K422" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L422" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M422" t="n">
-        <v>7795</v>
+        <v>5538</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="Q422" t="n">
         <v>36</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44389</v>
+        <v>44280</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="K423" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L423" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M423" t="n">
-        <v>17422</v>
+        <v>9607</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>5807</v>
+        <v>3202</v>
       </c>
       <c r="Q423" t="n">
         <v>3</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44442</v>
+        <v>44389</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>620</v>
+        <v>440</v>
       </c>
       <c r="K424" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L424" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M424" t="n">
-        <v>5718</v>
+        <v>7795</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="Q424" t="n">
         <v>36</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44442</v>
+        <v>44389</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="K425" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L425" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M425" t="n">
-        <v>12000</v>
+        <v>17422</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>4000</v>
+        <v>5807</v>
       </c>
       <c r="Q425" t="n">
         <v>3</v>
@@ -31025,24 +31025,24 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J426" t="n">
-        <v>130</v>
+        <v>620</v>
       </c>
       <c r="K426" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L426" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M426" t="n">
-        <v>10000</v>
+        <v>5718</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -31051,10 +31051,10 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>3333</v>
+        <v>159</v>
       </c>
       <c r="Q426" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R426" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44476</v>
+        <v>44442</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31101,32 +31101,32 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>720</v>
+        <v>220</v>
       </c>
       <c r="K427" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L427" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M427" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N427" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O427" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P427" t="n">
         <v>4000</v>
       </c>
-      <c r="L427" t="n">
-        <v>4500</v>
-      </c>
-      <c r="M427" t="n">
-        <v>4243</v>
-      </c>
-      <c r="N427" t="inlineStr">
-        <is>
-          <t>$/caja 36 atados</t>
-        </is>
-      </c>
-      <c r="O427" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P427" t="n">
-        <v>118</v>
-      </c>
       <c r="Q427" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R427" t="inlineStr">
         <is>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44476</v>
+        <v>44442</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31169,20 +31169,20 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>470</v>
+        <v>130</v>
       </c>
       <c r="K428" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L428" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M428" t="n">
-        <v>6702</v>
+        <v>10000</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>2234</v>
+        <v>3333</v>
       </c>
       <c r="Q428" t="n">
         <v>3</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44372</v>
+        <v>44476</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31245,7 +31245,7 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="K429" t="n">
         <v>4000</v>
@@ -31254,7 +31254,7 @@
         <v>4500</v>
       </c>
       <c r="M429" t="n">
-        <v>4219</v>
+        <v>4243</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q429" t="n">
         <v>36</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44372</v>
+        <v>44476</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31320,13 +31320,13 @@
         <v>470</v>
       </c>
       <c r="K430" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L430" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M430" t="n">
-        <v>7702</v>
+        <v>6702</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>2567</v>
+        <v>2234</v>
       </c>
       <c r="Q430" t="n">
         <v>3</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44201</v>
+        <v>44372</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>510</v>
+        <v>640</v>
       </c>
       <c r="K431" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L431" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M431" t="n">
-        <v>6000</v>
+        <v>4219</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q431" t="n">
         <v>36</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44201</v>
+        <v>44372</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>590</v>
+        <v>470</v>
       </c>
       <c r="K432" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L432" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M432" t="n">
-        <v>12288</v>
+        <v>7702</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>4096</v>
+        <v>2567</v>
       </c>
       <c r="Q432" t="n">
         <v>3</v>
@@ -31529,20 +31529,20 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>220</v>
+        <v>510</v>
       </c>
       <c r="K433" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L433" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M433" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q433" t="n">
         <v>36</v>
@@ -31601,20 +31601,20 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>120</v>
+        <v>590</v>
       </c>
       <c r="K434" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L434" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M434" t="n">
-        <v>10000</v>
+        <v>12288</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>3333</v>
+        <v>4096</v>
       </c>
       <c r="Q434" t="n">
         <v>3</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44482</v>
+        <v>44201</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31673,20 +31673,20 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>560</v>
+        <v>220</v>
       </c>
       <c r="K435" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L435" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M435" t="n">
-        <v>3723</v>
+        <v>5000</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="Q435" t="n">
         <v>36</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44482</v>
+        <v>44201</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31745,20 +31745,20 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>440</v>
+        <v>120</v>
       </c>
       <c r="K436" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L436" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M436" t="n">
-        <v>7205</v>
+        <v>10000</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>2402</v>
+        <v>3333</v>
       </c>
       <c r="Q436" t="n">
         <v>3</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44293</v>
+        <v>44482</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="K437" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L437" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M437" t="n">
-        <v>5776</v>
+        <v>3723</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="Q437" t="n">
         <v>36</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44293</v>
+        <v>44482</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31893,16 +31893,16 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>370</v>
+        <v>440</v>
       </c>
       <c r="K438" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L438" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M438" t="n">
-        <v>11459</v>
+        <v>7205</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>3820</v>
+        <v>2402</v>
       </c>
       <c r="Q438" t="n">
         <v>3</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44204</v>
+        <v>44293</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31968,13 +31968,13 @@
         <v>490</v>
       </c>
       <c r="K439" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L439" t="n">
         <v>6000</v>
       </c>
       <c r="M439" t="n">
-        <v>5673</v>
+        <v>5776</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q439" t="n">
         <v>36</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44204</v>
+        <v>44293</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>710</v>
+        <v>370</v>
       </c>
       <c r="K440" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L440" t="n">
         <v>12000</v>
       </c>
       <c r="M440" t="n">
-        <v>11092</v>
+        <v>11459</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>3697</v>
+        <v>3820</v>
       </c>
       <c r="Q440" t="n">
         <v>3</v>
@@ -32105,20 +32105,20 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="K441" t="n">
         <v>5000</v>
       </c>
       <c r="L441" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M441" t="n">
-        <v>5000</v>
+        <v>5673</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="Q441" t="n">
         <v>36</v>
@@ -32177,20 +32177,20 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>150</v>
+        <v>710</v>
       </c>
       <c r="K442" t="n">
         <v>10000</v>
       </c>
       <c r="L442" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M442" t="n">
-        <v>10000</v>
+        <v>11092</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>3333</v>
+        <v>3697</v>
       </c>
       <c r="Q442" t="n">
         <v>3</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44277</v>
+        <v>44204</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32249,20 +32249,20 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="K443" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L443" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M443" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q443" t="n">
         <v>36</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44277</v>
+        <v>44204</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32321,20 +32321,20 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K444" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L444" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M444" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>4000</v>
+        <v>3333</v>
       </c>
       <c r="Q444" t="n">
         <v>3</v>
@@ -32393,20 +32393,20 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="K445" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L445" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M445" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q445" t="n">
         <v>36</v>
@@ -32465,20 +32465,20 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K446" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L446" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M446" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>3333</v>
+        <v>4000</v>
       </c>
       <c r="Q446" t="n">
         <v>3</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44218</v>
+        <v>44277</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32537,20 +32537,20 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K447" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L447" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M447" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q447" t="n">
         <v>36</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44218</v>
+        <v>44277</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32609,20 +32609,20 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K448" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L448" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M448" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>4000</v>
+        <v>3333</v>
       </c>
       <c r="Q448" t="n">
         <v>3</v>
@@ -32681,20 +32681,20 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K449" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L449" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M449" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q449" t="n">
         <v>36</v>
@@ -32753,20 +32753,20 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K450" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L450" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M450" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>3333</v>
+        <v>4000</v>
       </c>
       <c r="Q450" t="n">
         <v>3</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32825,20 +32825,20 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K451" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L451" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M451" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q451" t="n">
         <v>36</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32897,20 +32897,20 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K452" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L452" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M452" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32919,11 +32919,11 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P452" t="n">
-        <v>4000</v>
+        <v>3333</v>
       </c>
       <c r="Q452" t="n">
         <v>3</v>
@@ -32976,17 +32976,17 @@
         <v>250</v>
       </c>
       <c r="K453" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L453" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M453" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
@@ -32995,10 +32995,10 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q453" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R453" t="inlineStr">
         <is>
@@ -33041,36 +33041,36 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K454" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L454" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M454" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P454" t="n">
-        <v>139</v>
+        <v>4000</v>
       </c>
       <c r="Q454" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R454" t="inlineStr">
         <is>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44166</v>
+        <v>44221</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33117,20 +33117,20 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K455" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L455" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M455" t="n">
-        <v>5644</v>
+        <v>12000</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
@@ -33139,10 +33139,10 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>157</v>
+        <v>4000</v>
       </c>
       <c r="Q455" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R455" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44166</v>
+        <v>44221</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33185,24 +33185,24 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>670</v>
+        <v>120</v>
       </c>
       <c r="K456" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L456" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M456" t="n">
-        <v>10761</v>
+        <v>5000</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
@@ -33211,10 +33211,10 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>3587</v>
+        <v>139</v>
       </c>
       <c r="Q456" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R456" t="inlineStr">
         <is>
@@ -33257,20 +33257,20 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="K457" t="n">
         <v>5000</v>
       </c>
       <c r="L457" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M457" t="n">
-        <v>5000</v>
+        <v>5644</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q457" t="n">
         <v>36</v>
@@ -33329,20 +33329,20 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>140</v>
+        <v>670</v>
       </c>
       <c r="K458" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L458" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M458" t="n">
-        <v>8000</v>
+        <v>10761</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>2667</v>
+        <v>3587</v>
       </c>
       <c r="Q458" t="n">
         <v>3</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44477</v>
+        <v>44166</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>660</v>
+        <v>140</v>
       </c>
       <c r="K459" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L459" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M459" t="n">
-        <v>4220</v>
+        <v>5000</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="Q459" t="n">
         <v>36</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44477</v>
+        <v>44166</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33473,20 +33473,20 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>490</v>
+        <v>140</v>
       </c>
       <c r="K460" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L460" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M460" t="n">
-        <v>7194</v>
+        <v>8000</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>2398</v>
+        <v>2667</v>
       </c>
       <c r="Q460" t="n">
         <v>3</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44292</v>
+        <v>44477</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>520</v>
+        <v>660</v>
       </c>
       <c r="K461" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L461" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M461" t="n">
-        <v>5760</v>
+        <v>4220</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="Q461" t="n">
         <v>36</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44292</v>
+        <v>44477</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>320</v>
+        <v>490</v>
       </c>
       <c r="K462" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L462" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M462" t="n">
-        <v>11125</v>
+        <v>7194</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>3708</v>
+        <v>2398</v>
       </c>
       <c r="Q462" t="n">
         <v>3</v>
@@ -33693,32 +33693,32 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>90</v>
+        <v>520</v>
       </c>
       <c r="K463" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="L463" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M463" t="n">
-        <v>17333</v>
+        <v>5760</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P463" t="n">
-        <v>5778</v>
+        <v>160</v>
       </c>
       <c r="Q463" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R463" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44508</v>
+        <v>44292</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33765,20 +33765,20 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="K464" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L464" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M464" t="n">
-        <v>4709</v>
+        <v>11125</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O464" t="inlineStr">
@@ -33787,10 +33787,10 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>131</v>
+        <v>3708</v>
       </c>
       <c r="Q464" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R464" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44508</v>
+        <v>44292</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="K465" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L465" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M465" t="n">
-        <v>9455</v>
+        <v>17333</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33855,11 +33855,11 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P465" t="n">
-        <v>3152</v>
+        <v>5778</v>
       </c>
       <c r="Q465" t="n">
         <v>3</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33909,7 +33909,7 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="K466" t="n">
         <v>4500</v>
@@ -33918,7 +33918,7 @@
         <v>5000</v>
       </c>
       <c r="M466" t="n">
-        <v>4711</v>
+        <v>4709</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="K467" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L467" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M467" t="n">
-        <v>8406</v>
+        <v>9455</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>2802</v>
+        <v>3152</v>
       </c>
       <c r="Q467" t="n">
         <v>3</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>630</v>
+        <v>450</v>
       </c>
       <c r="K468" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L468" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M468" t="n">
-        <v>4214</v>
+        <v>4711</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="Q468" t="n">
         <v>36</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="K469" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L469" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M469" t="n">
-        <v>7389</v>
+        <v>8406</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>2463</v>
+        <v>2802</v>
       </c>
       <c r="Q469" t="n">
         <v>3</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="K470" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L470" t="n">
         <v>4500</v>
       </c>
-      <c r="L470" t="n">
-        <v>5000</v>
-      </c>
       <c r="M470" t="n">
-        <v>4713</v>
+        <v>4214</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Q470" t="n">
         <v>36</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34269,7 +34269,7 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="K471" t="n">
         <v>7000</v>
@@ -34278,7 +34278,7 @@
         <v>8000</v>
       </c>
       <c r="M471" t="n">
-        <v>7421</v>
+        <v>7389</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>2474</v>
+        <v>2463</v>
       </c>
       <c r="Q471" t="n">
         <v>3</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34341,7 +34341,7 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>550</v>
+        <v>610</v>
       </c>
       <c r="K472" t="n">
         <v>4500</v>
@@ -34350,7 +34350,7 @@
         <v>5000</v>
       </c>
       <c r="M472" t="n">
-        <v>4700</v>
+        <v>4713</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="K473" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L473" t="n">
         <v>8000</v>
       </c>
-      <c r="L473" t="n">
-        <v>9000</v>
-      </c>
       <c r="M473" t="n">
-        <v>8405</v>
+        <v>7421</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>2802</v>
+        <v>2474</v>
       </c>
       <c r="Q473" t="n">
         <v>3</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34485,32 +34485,32 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>470</v>
+        <v>550</v>
       </c>
       <c r="K474" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L474" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M474" t="n">
-        <v>8489</v>
+        <v>4700</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P474" t="n">
-        <v>2830</v>
+        <v>131</v>
       </c>
       <c r="Q474" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R474" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34557,20 +34557,20 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>660</v>
+        <v>370</v>
       </c>
       <c r="K475" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L475" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M475" t="n">
-        <v>4220</v>
+        <v>8405</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
@@ -34579,10 +34579,10 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>117</v>
+        <v>2802</v>
       </c>
       <c r="Q475" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R475" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34632,13 +34632,13 @@
         <v>470</v>
       </c>
       <c r="K476" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L476" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M476" t="n">
-        <v>7404</v>
+        <v>8489</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34647,11 +34647,11 @@
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P476" t="n">
-        <v>2468</v>
+        <v>2830</v>
       </c>
       <c r="Q476" t="n">
         <v>3</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>490</v>
+        <v>660</v>
       </c>
       <c r="K477" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L477" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M477" t="n">
-        <v>5673</v>
+        <v>4220</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="Q477" t="n">
         <v>36</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>720</v>
+        <v>470</v>
       </c>
       <c r="K478" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L478" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M478" t="n">
-        <v>10236</v>
+        <v>7404</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>3412</v>
+        <v>2468</v>
       </c>
       <c r="Q478" t="n">
         <v>3</v>
@@ -34841,20 +34841,20 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="K479" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L479" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M479" t="n">
-        <v>4000</v>
+        <v>5673</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="Q479" t="n">
         <v>36</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34917,7 +34917,7 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>530</v>
+        <v>720</v>
       </c>
       <c r="K480" t="n">
         <v>10000</v>
@@ -34926,11 +34926,11 @@
         <v>11000</v>
       </c>
       <c r="M480" t="n">
-        <v>10434</v>
+        <v>10236</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O480" t="inlineStr">
@@ -34939,10 +34939,10 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>290</v>
+        <v>3412</v>
       </c>
       <c r="Q480" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R480" t="inlineStr">
         <is>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34985,24 +34985,24 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="K481" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="L481" t="n">
-        <v>22000</v>
+        <v>4000</v>
       </c>
       <c r="M481" t="n">
-        <v>21188</v>
+        <v>4000</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
@@ -35011,10 +35011,10 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>7063</v>
+        <v>111</v>
       </c>
       <c r="Q481" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R481" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>350</v>
+        <v>530</v>
       </c>
       <c r="K482" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L482" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M482" t="n">
-        <v>5657</v>
+        <v>10434</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>157</v>
+        <v>290</v>
       </c>
       <c r="Q482" t="n">
         <v>36</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>560</v>
+        <v>320</v>
       </c>
       <c r="K483" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L483" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M483" t="n">
-        <v>11696</v>
+        <v>21188</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>3899</v>
+        <v>7063</v>
       </c>
       <c r="Q483" t="n">
         <v>3</v>
@@ -35201,20 +35201,20 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="K484" t="n">
         <v>5000</v>
       </c>
       <c r="L484" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M484" t="n">
-        <v>5000</v>
+        <v>5657</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q484" t="n">
         <v>36</v>
@@ -35273,20 +35273,20 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>100</v>
+        <v>560</v>
       </c>
       <c r="K485" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L485" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M485" t="n">
-        <v>10000</v>
+        <v>11696</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>3333</v>
+        <v>3899</v>
       </c>
       <c r="Q485" t="n">
         <v>3</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35345,20 +35345,20 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>930</v>
+        <v>110</v>
       </c>
       <c r="K486" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L486" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M486" t="n">
-        <v>3737</v>
+        <v>5000</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="Q486" t="n">
         <v>36</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35417,20 +35417,20 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>510</v>
+        <v>100</v>
       </c>
       <c r="K487" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L487" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M487" t="n">
-        <v>7284</v>
+        <v>10000</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>2428</v>
+        <v>3333</v>
       </c>
       <c r="Q487" t="n">
         <v>3</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>650</v>
+        <v>930</v>
       </c>
       <c r="K488" t="n">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="L488" t="n">
         <v>4000</v>
       </c>
       <c r="M488" t="n">
-        <v>3825</v>
+        <v>3737</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q488" t="n">
         <v>36</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35565,7 +35565,7 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="K489" t="n">
         <v>7000</v>
@@ -35574,7 +35574,7 @@
         <v>7500</v>
       </c>
       <c r="M489" t="n">
-        <v>7224</v>
+        <v>7284</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>2408</v>
+        <v>2428</v>
       </c>
       <c r="Q489" t="n">
         <v>3</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>520</v>
+        <v>650</v>
       </c>
       <c r="K492" t="n">
-        <v>6500</v>
+        <v>3700</v>
       </c>
       <c r="L492" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M492" t="n">
-        <v>6740</v>
+        <v>3825</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="Q492" t="n">
         <v>36</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>390</v>
+        <v>490</v>
       </c>
       <c r="K493" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="L493" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="M493" t="n">
-        <v>13769</v>
+        <v>7224</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>4590</v>
+        <v>2408</v>
       </c>
       <c r="Q493" t="n">
         <v>3</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="K494" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L494" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M494" t="n">
-        <v>5776</v>
+        <v>6740</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="Q494" t="n">
         <v>36</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35997,16 +35997,16 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="K495" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="L495" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M495" t="n">
-        <v>12429</v>
+        <v>13769</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>4143</v>
+        <v>4590</v>
       </c>
       <c r="Q495" t="n">
         <v>3</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>720</v>
+        <v>580</v>
       </c>
       <c r="K496" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L496" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M496" t="n">
-        <v>3729</v>
+        <v>5776</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="Q496" t="n">
         <v>36</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="K497" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L497" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M497" t="n">
-        <v>6674</v>
+        <v>12429</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>2225</v>
+        <v>4143</v>
       </c>
       <c r="Q497" t="n">
         <v>3</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>510</v>
+        <v>720</v>
       </c>
       <c r="K498" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L498" t="n">
         <v>4000</v>
       </c>
-      <c r="L498" t="n">
-        <v>4500</v>
-      </c>
       <c r="M498" t="n">
-        <v>4216</v>
+        <v>3729</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="Q498" t="n">
         <v>36</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="K499" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L499" t="n">
         <v>7000</v>
       </c>
-      <c r="L499" t="n">
-        <v>8000</v>
-      </c>
       <c r="M499" t="n">
-        <v>7395</v>
+        <v>6674</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>2465</v>
+        <v>2225</v>
       </c>
       <c r="Q499" t="n">
         <v>3</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="K500" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L500" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M500" t="n">
-        <v>7718</v>
+        <v>4216</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="Q500" t="n">
         <v>36</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="K501" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L501" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M501" t="n">
-        <v>15422</v>
+        <v>7395</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>5141</v>
+        <v>2465</v>
       </c>
       <c r="Q501" t="n">
         <v>3</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36501,16 +36501,16 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="K502" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L502" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M502" t="n">
-        <v>4203</v>
+        <v>7718</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>117</v>
+        <v>214</v>
       </c>
       <c r="Q502" t="n">
         <v>36</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36573,16 +36573,16 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="K503" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L503" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="M503" t="n">
-        <v>7289</v>
+        <v>15422</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>2430</v>
+        <v>5141</v>
       </c>
       <c r="Q503" t="n">
         <v>3</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36645,7 +36645,7 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>520</v>
+        <v>640</v>
       </c>
       <c r="K504" t="n">
         <v>4000</v>
@@ -36654,7 +36654,7 @@
         <v>4500</v>
       </c>
       <c r="M504" t="n">
-        <v>4212</v>
+        <v>4203</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36717,7 +36717,7 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="K505" t="n">
         <v>7000</v>
@@ -36726,7 +36726,7 @@
         <v>7500</v>
       </c>
       <c r="M505" t="n">
-        <v>7197</v>
+        <v>7289</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>2399</v>
+        <v>2430</v>
       </c>
       <c r="Q505" t="n">
         <v>3</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36789,16 +36789,16 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>640</v>
+        <v>520</v>
       </c>
       <c r="K506" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L506" t="n">
         <v>4500</v>
       </c>
-      <c r="L506" t="n">
-        <v>5000</v>
-      </c>
       <c r="M506" t="n">
-        <v>4703</v>
+        <v>4212</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Q506" t="n">
         <v>36</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36861,16 +36861,16 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>460</v>
+        <v>330</v>
       </c>
       <c r="K507" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L507" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M507" t="n">
-        <v>8413</v>
+        <v>7197</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>2804</v>
+        <v>2399</v>
       </c>
       <c r="Q507" t="n">
         <v>3</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36933,16 +36933,16 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>450</v>
+        <v>640</v>
       </c>
       <c r="K508" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L508" t="n">
         <v>5000</v>
       </c>
-      <c r="L508" t="n">
-        <v>6000</v>
-      </c>
       <c r="M508" t="n">
-        <v>5622</v>
+        <v>4703</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="Q508" t="n">
         <v>36</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -37005,16 +37005,16 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>620</v>
+        <v>460</v>
       </c>
       <c r="K509" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L509" t="n">
         <v>9000</v>
       </c>
-      <c r="L509" t="n">
-        <v>10000</v>
-      </c>
       <c r="M509" t="n">
-        <v>9282</v>
+        <v>8413</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>3094</v>
+        <v>2804</v>
       </c>
       <c r="Q509" t="n">
         <v>3</v>
@@ -37073,20 +37073,20 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="K510" t="n">
         <v>5000</v>
       </c>
       <c r="L510" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M510" t="n">
-        <v>5000</v>
+        <v>5622</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="Q510" t="n">
         <v>36</v>
@@ -37145,20 +37145,20 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>150</v>
+        <v>620</v>
       </c>
       <c r="K511" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L511" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M511" t="n">
-        <v>8000</v>
+        <v>9282</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>2667</v>
+        <v>3094</v>
       </c>
       <c r="Q511" t="n">
         <v>3</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37217,11 +37217,11 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="K512" t="n">
         <v>5000</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37289,11 +37289,11 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>370</v>
+        <v>150</v>
       </c>
       <c r="K513" t="n">
         <v>8000</v>
@@ -37361,20 +37361,20 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="K514" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L514" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M514" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="Q514" t="n">
         <v>36</v>
@@ -37433,20 +37433,20 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>220</v>
+        <v>370</v>
       </c>
       <c r="K515" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L515" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M515" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>2333</v>
+        <v>2667</v>
       </c>
       <c r="Q515" t="n">
         <v>3</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37505,20 +37505,20 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>470</v>
+        <v>220</v>
       </c>
       <c r="K516" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L516" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M516" t="n">
-        <v>7202</v>
+        <v>4000</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="Q516" t="n">
         <v>36</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37577,20 +37577,20 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="K517" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L517" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M517" t="n">
-        <v>14417</v>
+        <v>7000</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>4806</v>
+        <v>2333</v>
       </c>
       <c r="Q517" t="n">
         <v>3</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37653,16 +37653,16 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="K518" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L518" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M518" t="n">
-        <v>5781</v>
+        <v>7202</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="Q518" t="n">
         <v>36</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37725,16 +37725,16 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="K519" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L519" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M519" t="n">
-        <v>9824</v>
+        <v>14417</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>3275</v>
+        <v>4806</v>
       </c>
       <c r="Q519" t="n">
         <v>3</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -37797,16 +37797,16 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>530</v>
+        <v>480</v>
       </c>
       <c r="K520" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L520" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M520" t="n">
-        <v>4226</v>
+        <v>5781</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="Q520" t="n">
         <v>36</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -37869,16 +37869,16 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="K521" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L521" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M521" t="n">
-        <v>7464</v>
+        <v>9824</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>2488</v>
+        <v>3275</v>
       </c>
       <c r="Q521" t="n">
         <v>3</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -37941,16 +37941,16 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>330</v>
+        <v>530</v>
       </c>
       <c r="K522" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L522" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M522" t="n">
-        <v>10000</v>
+        <v>4226</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>278</v>
+        <v>117</v>
       </c>
       <c r="Q522" t="n">
         <v>36</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38013,16 +38013,16 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="K523" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="L523" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="M523" t="n">
-        <v>21062</v>
+        <v>7464</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>7021</v>
+        <v>2488</v>
       </c>
       <c r="Q523" t="n">
         <v>3</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38085,16 +38085,16 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>650</v>
+        <v>330</v>
       </c>
       <c r="K524" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L524" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M524" t="n">
-        <v>4223</v>
+        <v>10000</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>117</v>
+        <v>278</v>
       </c>
       <c r="Q524" t="n">
         <v>36</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -38157,16 +38157,16 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="K525" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="L525" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="M525" t="n">
-        <v>7731</v>
+        <v>21062</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>2577</v>
+        <v>7021</v>
       </c>
       <c r="Q525" t="n">
         <v>3</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38229,16 +38229,16 @@
         </is>
       </c>
       <c r="J526" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="K526" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L526" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M526" t="n">
-        <v>5700</v>
+        <v>4223</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="Q526" t="n">
         <v>36</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -38301,16 +38301,16 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="K527" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L527" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M527" t="n">
-        <v>10532</v>
+        <v>7731</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>3511</v>
+        <v>2577</v>
       </c>
       <c r="Q527" t="n">
         <v>3</v>
@@ -38369,20 +38369,20 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="K528" t="n">
         <v>5000</v>
       </c>
       <c r="L528" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M528" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="Q528" t="n">
         <v>36</v>
@@ -38441,20 +38441,20 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>140</v>
+        <v>470</v>
       </c>
       <c r="K529" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L529" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M529" t="n">
-        <v>8000</v>
+        <v>10532</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>2667</v>
+        <v>3511</v>
       </c>
       <c r="Q529" t="n">
         <v>3</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -38513,20 +38513,20 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>410</v>
+        <v>140</v>
       </c>
       <c r="K530" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L530" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M530" t="n">
-        <v>5732</v>
+        <v>5000</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="Q530" t="n">
         <v>36</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -38585,20 +38585,20 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>410</v>
+        <v>140</v>
       </c>
       <c r="K531" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L531" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M531" t="n">
-        <v>8683</v>
+        <v>8000</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>2894</v>
+        <v>2667</v>
       </c>
       <c r="Q531" t="n">
         <v>3</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -38661,16 +38661,16 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>620</v>
+        <v>410</v>
       </c>
       <c r="K532" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L532" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M532" t="n">
-        <v>4234</v>
+        <v>5732</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="Q532" t="n">
         <v>36</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -38733,16 +38733,16 @@
         </is>
       </c>
       <c r="J533" t="n">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="K533" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L533" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M533" t="n">
-        <v>7205</v>
+        <v>8683</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>2402</v>
+        <v>2894</v>
       </c>
       <c r="Q533" t="n">
         <v>3</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -38805,16 +38805,16 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>230</v>
+        <v>620</v>
       </c>
       <c r="K534" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L534" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M534" t="n">
-        <v>5000</v>
+        <v>4234</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="Q534" t="n">
         <v>36</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -38877,16 +38877,16 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="K535" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L535" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M535" t="n">
-        <v>9423</v>
+        <v>7205</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>3141</v>
+        <v>2402</v>
       </c>
       <c r="Q535" t="n">
         <v>3</v>
@@ -38949,32 +38949,32 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="K536" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L536" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M536" t="n">
-        <v>15385</v>
+        <v>5000</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P536" t="n">
-        <v>5128</v>
+        <v>139</v>
       </c>
       <c r="Q536" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R536" t="inlineStr">
         <is>
@@ -39017,24 +39017,24 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="K537" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L537" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M537" t="n">
-        <v>4500</v>
+        <v>9423</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O537" t="inlineStr">
@@ -39043,10 +39043,10 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>125</v>
+        <v>3141</v>
       </c>
       <c r="Q537" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R537" t="inlineStr">
         <is>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -39093,32 +39093,32 @@
         </is>
       </c>
       <c r="J538" t="n">
-        <v>480</v>
+        <v>130</v>
       </c>
       <c r="K538" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L538" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="M538" t="n">
-        <v>4271</v>
+        <v>15385</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P538" t="n">
-        <v>119</v>
+        <v>5128</v>
       </c>
       <c r="Q538" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R538" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -39161,24 +39161,24 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="K539" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L539" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M539" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O539" t="inlineStr">
@@ -39187,10 +39187,10 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>2667</v>
+        <v>125</v>
       </c>
       <c r="Q539" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R539" t="inlineStr">
         <is>
@@ -39233,24 +39233,24 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="K540" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L540" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M540" t="n">
-        <v>7000</v>
+        <v>4271</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O540" t="inlineStr">
@@ -39259,10 +39259,10 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>2333</v>
+        <v>119</v>
       </c>
       <c r="Q540" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R540" t="inlineStr">
         <is>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -39309,20 +39309,20 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>510</v>
+        <v>160</v>
       </c>
       <c r="K541" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L541" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M541" t="n">
-        <v>4725</v>
+        <v>8000</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O541" t="inlineStr">
@@ -39331,10 +39331,10 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>131</v>
+        <v>2667</v>
       </c>
       <c r="Q541" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R541" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="K542" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L542" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M542" t="n">
-        <v>8406</v>
+        <v>7000</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>2802</v>
+        <v>2333</v>
       </c>
       <c r="Q542" t="n">
         <v>3</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -39453,7 +39453,7 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>780</v>
+        <v>510</v>
       </c>
       <c r="K543" t="n">
         <v>4500</v>
@@ -39462,7 +39462,7 @@
         <v>5000</v>
       </c>
       <c r="M543" t="n">
-        <v>4712</v>
+        <v>4725</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -39525,16 +39525,16 @@
         </is>
       </c>
       <c r="J544" t="n">
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="K544" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L544" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M544" t="n">
-        <v>7712</v>
+        <v>8406</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>2571</v>
+        <v>2802</v>
       </c>
       <c r="Q544" t="n">
         <v>3</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -39597,16 +39597,16 @@
         </is>
       </c>
       <c r="J545" t="n">
-        <v>410</v>
+        <v>780</v>
       </c>
       <c r="K545" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L545" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M545" t="n">
-        <v>7793</v>
+        <v>4712</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="Q545" t="n">
         <v>36</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -39669,16 +39669,16 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>220</v>
+        <v>520</v>
       </c>
       <c r="K546" t="n">
-        <v>1600</v>
+        <v>7500</v>
       </c>
       <c r="L546" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M546" t="n">
-        <v>7082</v>
+        <v>7712</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>2361</v>
+        <v>2571</v>
       </c>
       <c r="Q546" t="n">
         <v>3</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -39741,16 +39741,16 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>580</v>
+        <v>410</v>
       </c>
       <c r="K547" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L547" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M547" t="n">
-        <v>4733</v>
+        <v>7793</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="Q547" t="n">
         <v>36</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -39816,13 +39816,13 @@
         <v>220</v>
       </c>
       <c r="K548" t="n">
-        <v>9000</v>
+        <v>1600</v>
       </c>
       <c r="L548" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M548" t="n">
-        <v>9591</v>
+        <v>7082</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>3197</v>
+        <v>2361</v>
       </c>
       <c r="Q548" t="n">
         <v>3</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -39885,16 +39885,16 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="K549" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L549" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M549" t="n">
-        <v>6000</v>
+        <v>4733</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39903,11 +39903,11 @@
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P549" t="n">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="Q549" t="n">
         <v>36</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -39957,20 +39957,20 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="K550" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L550" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M550" t="n">
-        <v>6000</v>
+        <v>9591</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
@@ -39979,10 +39979,10 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>167</v>
+        <v>3197</v>
       </c>
       <c r="Q550" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R550" t="inlineStr">
         <is>
@@ -40029,20 +40029,20 @@
         </is>
       </c>
       <c r="J551" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K551" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L551" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M551" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O551" t="inlineStr">
@@ -40051,10 +40051,10 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q551" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R551" t="inlineStr">
         <is>
@@ -40101,20 +40101,20 @@
         </is>
       </c>
       <c r="J552" t="n">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="K552" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L552" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M552" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O552" t="inlineStr">
@@ -40123,10 +40123,10 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q552" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R552" t="inlineStr">
         <is>
@@ -40169,24 +40169,24 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K553" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L553" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M553" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O553" t="inlineStr">
@@ -40195,10 +40195,10 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>139</v>
+        <v>4000</v>
       </c>
       <c r="Q553" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R553" t="inlineStr">
         <is>
@@ -40241,24 +40241,24 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="K554" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L554" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M554" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O554" t="inlineStr">
@@ -40267,10 +40267,10 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>139</v>
+        <v>4000</v>
       </c>
       <c r="Q554" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R554" t="inlineStr">
         <is>
@@ -40317,20 +40317,20 @@
         </is>
       </c>
       <c r="J555" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K555" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L555" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M555" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O555" t="inlineStr">
@@ -40339,10 +40339,10 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>3333</v>
+        <v>139</v>
       </c>
       <c r="Q555" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R555" t="inlineStr">
         <is>
@@ -40389,20 +40389,20 @@
         </is>
       </c>
       <c r="J556" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K556" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L556" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M556" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O556" t="inlineStr">
@@ -40411,10 +40411,10 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>3333</v>
+        <v>139</v>
       </c>
       <c r="Q556" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R556" t="inlineStr">
         <is>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -40457,36 +40457,36 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="K557" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L557" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M557" t="n">
-        <v>4715</v>
+        <v>10000</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O557" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P557" t="n">
-        <v>131</v>
+        <v>3333</v>
       </c>
       <c r="Q557" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R557" t="inlineStr">
         <is>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="K558" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L558" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M558" t="n">
-        <v>11441</v>
+        <v>10000</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>3814</v>
+        <v>3333</v>
       </c>
       <c r="Q558" t="n">
         <v>3</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -40605,16 +40605,16 @@
         </is>
       </c>
       <c r="J559" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="K559" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L559" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M559" t="n">
-        <v>8431</v>
+        <v>4715</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="Q559" t="n">
         <v>36</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -40677,16 +40677,16 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="K560" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L560" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M560" t="n">
-        <v>15455</v>
+        <v>11441</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>5152</v>
+        <v>3814</v>
       </c>
       <c r="Q560" t="n">
         <v>3</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -40749,16 +40749,16 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>530</v>
+        <v>580</v>
       </c>
       <c r="K561" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L561" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M561" t="n">
-        <v>6708</v>
+        <v>8431</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="Q561" t="n">
         <v>36</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -40821,16 +40821,16 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="K562" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L562" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M562" t="n">
-        <v>14395</v>
+        <v>15455</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>4798</v>
+        <v>5152</v>
       </c>
       <c r="Q562" t="n">
         <v>3</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -40893,16 +40893,16 @@
         </is>
       </c>
       <c r="J563" t="n">
-        <v>420</v>
+        <v>530</v>
       </c>
       <c r="K563" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L563" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M563" t="n">
-        <v>5821</v>
+        <v>6708</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="Q563" t="n">
         <v>36</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -40965,16 +40965,16 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="K564" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L564" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M564" t="n">
-        <v>12710</v>
+        <v>14395</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>4237</v>
+        <v>4798</v>
       </c>
       <c r="Q564" t="n">
         <v>3</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -41037,16 +41037,16 @@
         </is>
       </c>
       <c r="J565" t="n">
-        <v>530</v>
+        <v>420</v>
       </c>
       <c r="K565" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L565" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M565" t="n">
-        <v>4226</v>
+        <v>5821</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="Q565" t="n">
         <v>36</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -41109,16 +41109,16 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="K566" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L566" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M566" t="n">
-        <v>7405</v>
+        <v>12710</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>2468</v>
+        <v>4237</v>
       </c>
       <c r="Q566" t="n">
         <v>3</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -41181,16 +41181,16 @@
         </is>
       </c>
       <c r="J567" t="n">
-        <v>420</v>
+        <v>530</v>
       </c>
       <c r="K567" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L567" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M567" t="n">
-        <v>6786</v>
+        <v>4226</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="Q567" t="n">
         <v>36</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -41253,16 +41253,16 @@
         </is>
       </c>
       <c r="J568" t="n">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="K568" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L568" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M568" t="n">
-        <v>12586</v>
+        <v>7405</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>4195</v>
+        <v>2468</v>
       </c>
       <c r="Q568" t="n">
         <v>3</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -41325,16 +41325,16 @@
         </is>
       </c>
       <c r="J569" t="n">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="K569" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L569" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M569" t="n">
-        <v>7716</v>
+        <v>6786</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="Q569" t="n">
         <v>36</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -41397,16 +41397,16 @@
         </is>
       </c>
       <c r="J570" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="K570" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L570" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M570" t="n">
-        <v>14455</v>
+        <v>12586</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>4818</v>
+        <v>4195</v>
       </c>
       <c r="Q570" t="n">
         <v>3</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -41469,16 +41469,16 @@
         </is>
       </c>
       <c r="J571" t="n">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="K571" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L571" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M571" t="n">
-        <v>4693</v>
+        <v>7716</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="Q571" t="n">
         <v>36</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -41541,16 +41541,16 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="K572" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L572" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M572" t="n">
-        <v>8581</v>
+        <v>14455</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>2860</v>
+        <v>4818</v>
       </c>
       <c r="Q572" t="n">
         <v>3</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -41613,16 +41613,16 @@
         </is>
       </c>
       <c r="J573" t="n">
-        <v>290</v>
+        <v>570</v>
       </c>
       <c r="K573" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L573" t="n">
         <v>5000</v>
       </c>
       <c r="M573" t="n">
-        <v>5000</v>
+        <v>4693</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="Q573" t="n">
         <v>36</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -41685,16 +41685,16 @@
         </is>
       </c>
       <c r="J574" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="K574" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L574" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M574" t="n">
-        <v>10000</v>
+        <v>8581</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>3333</v>
+        <v>2860</v>
       </c>
       <c r="Q574" t="n">
         <v>3</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="K575" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L575" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M575" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="Q575" t="n">
         <v>36</v>
@@ -41825,20 +41825,20 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="K576" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L576" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M576" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>2667</v>
+        <v>3333</v>
       </c>
       <c r="Q576" t="n">
         <v>3</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>680</v>
+        <v>150</v>
       </c>
       <c r="K577" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L577" t="n">
         <v>4500</v>
       </c>
       <c r="M577" t="n">
-        <v>4235</v>
+        <v>4500</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q577" t="n">
         <v>36</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>470</v>
+        <v>120</v>
       </c>
       <c r="K578" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L578" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M578" t="n">
-        <v>7202</v>
+        <v>8000</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,12 +41995,156 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>2401</v>
+        <v>2667</v>
       </c>
       <c r="Q578" t="n">
         <v>3</v>
       </c>
       <c r="R578" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>6</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D579" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E579" t="n">
+        <v>13</v>
+      </c>
+      <c r="F579" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I579" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J579" t="n">
+        <v>680</v>
+      </c>
+      <c r="K579" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L579" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M579" t="n">
+        <v>4235</v>
+      </c>
+      <c r="N579" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O579" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P579" t="n">
+        <v>118</v>
+      </c>
+      <c r="Q579" t="n">
+        <v>36</v>
+      </c>
+      <c r="R579" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>6</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D580" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E580" t="n">
+        <v>13</v>
+      </c>
+      <c r="F580" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I580" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J580" t="n">
+        <v>470</v>
+      </c>
+      <c r="K580" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L580" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M580" t="n">
+        <v>7202</v>
+      </c>
+      <c r="N580" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O580" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P580" t="n">
+        <v>2401</v>
+      </c>
+      <c r="Q580" t="n">
+        <v>3</v>
+      </c>
+      <c r="R580" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R580"/>
+  <dimension ref="A1:R582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34485,7 +34485,7 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="K474" t="n">
         <v>4500</v>
@@ -34494,7 +34494,7 @@
         <v>5000</v>
       </c>
       <c r="M474" t="n">
-        <v>4700</v>
+        <v>4722</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="K475" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L475" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M475" t="n">
-        <v>8405</v>
+        <v>11407</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>2802</v>
+        <v>3802</v>
       </c>
       <c r="Q475" t="n">
         <v>3</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34629,32 +34629,32 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>470</v>
+        <v>550</v>
       </c>
       <c r="K476" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L476" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M476" t="n">
-        <v>8489</v>
+        <v>4700</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+         